--- a/equal-costs_grid-topology_equal-dest_49-100-225-400-nodes.xlsx
+++ b/equal-costs_grid-topology_equal-dest_49-100-225-400-nodes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kátia Fernandes\Documents\GitHub\article-2018-leizerkatiakleber-dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{423EB7A3-159B-4795-9F2E-5A726D72CEF0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{AE59D6BA-2514-4765-BA54-A42283752CEA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6670" activeTab="1" xr2:uid="{99FA101D-2E33-491E-9974-BE384F2B7570}"/>
   </bookViews>
@@ -245,14 +245,14 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>18142</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>405115</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>56894</xdr:rowOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>75036</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -275,7 +275,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5470071" y="3810000"/>
+          <a:off x="5470071" y="4009571"/>
           <a:ext cx="5267401" cy="3322608"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -331,50 +331,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>336186</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>175663</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Imagem 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10B8DE05-89E1-4719-B95F-FAF63D766DC5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="607786" y="3991429"/>
-          <a:ext cx="4590686" cy="3804234"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
@@ -400,7 +356,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -444,7 +400,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -453,6 +409,50 @@
         <a:xfrm>
           <a:off x="10940143" y="181429"/>
           <a:ext cx="2036240" cy="3926164"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>336186</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>175663</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagem 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F42236AA-25C9-42A6-A94E-2B61ABDF52B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="607786" y="3991429"/>
+          <a:ext cx="4590686" cy="3804234"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -763,8 +763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E63BA3A5-E0A8-46A4-B24D-EF36ED812C4F}">
   <dimension ref="A1:AJ111"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView topLeftCell="AG1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AK16" sqref="AK16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -938,7 +938,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="8">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" s="8">
         <v>14.722</v>
@@ -962,34 +962,31 @@
         <v>6</v>
       </c>
       <c r="L3">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="M3">
+        <v>129.94</v>
+      </c>
+      <c r="N3">
+        <v>15</v>
+      </c>
+      <c r="O3">
+        <v>361</v>
+      </c>
+      <c r="P3">
+        <v>10</v>
+      </c>
+      <c r="Q3">
+        <v>388</v>
+      </c>
+      <c r="S3" s="5">
+        <v>1</v>
+      </c>
+      <c r="T3" s="2">
+        <v>4</v>
+      </c>
+      <c r="U3" s="2">
         <v>17</v>
-      </c>
-      <c r="N3">
-        <v>17</v>
-      </c>
-      <c r="O3">
-        <v>129.94</v>
-      </c>
-      <c r="P3">
-        <v>26</v>
-      </c>
-      <c r="Q3">
-        <v>10</v>
-      </c>
-      <c r="R3">
-        <v>15</v>
-      </c>
-      <c r="S3" s="5">
-        <v>361</v>
-      </c>
-      <c r="T3" s="2">
-        <v>10</v>
-      </c>
-      <c r="U3" s="2">
-        <v>388</v>
       </c>
       <c r="V3" s="2">
         <v>95.138999999999996</v>
@@ -1013,7 +1010,7 @@
         <v>7</v>
       </c>
       <c r="AE3" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AF3" s="2">
         <v>394.89100000000002</v>
@@ -1040,7 +1037,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" s="8">
         <v>9.51</v>
@@ -1065,34 +1062,32 @@
         <v>6</v>
       </c>
       <c r="L4">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="M4">
-        <v>15</v>
+        <v>123.84099999999999</v>
       </c>
       <c r="N4">
         <v>15</v>
       </c>
       <c r="O4">
-        <v>123.84099999999999</v>
+        <v>308</v>
       </c>
       <c r="P4">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="Q4">
-        <v>10</v>
-      </c>
-      <c r="R4">
-        <v>15</v>
+        <v>330</v>
       </c>
       <c r="S4" s="5">
-        <v>308</v>
+        <f>S3+1</f>
+        <v>2</v>
       </c>
       <c r="T4" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="U4" s="2">
-        <v>330</v>
+        <v>45</v>
       </c>
       <c r="V4" s="2">
         <v>244.27600000000001</v>
@@ -1117,7 +1112,7 @@
         <v>5</v>
       </c>
       <c r="AE4" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF4" s="2">
         <v>218.46899999999999</v>
@@ -1144,7 +1139,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D5" s="8">
         <v>40.197000000000003</v>
@@ -1169,34 +1164,32 @@
         <v>9</v>
       </c>
       <c r="L5">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="M5">
-        <v>20</v>
+        <v>158.18199999999999</v>
       </c>
       <c r="N5">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O5">
-        <v>158.18199999999999</v>
+        <v>333</v>
       </c>
       <c r="P5">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="Q5">
-        <v>10</v>
-      </c>
-      <c r="R5">
-        <v>18</v>
+        <v>366</v>
       </c>
       <c r="S5" s="5">
-        <v>333</v>
+        <f t="shared" ref="S5:S68" si="2">S4+1</f>
+        <v>3</v>
       </c>
       <c r="T5" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="U5" s="2">
-        <v>366</v>
+        <v>14</v>
       </c>
       <c r="V5" s="2">
         <v>73.045000000000002</v>
@@ -1214,14 +1207,14 @@
         <v>547</v>
       </c>
       <c r="AC5" s="5">
-        <f t="shared" ref="AC5:AC68" si="2">AC4+1</f>
+        <f t="shared" ref="AC5:AC68" si="3">AC4+1</f>
         <v>3</v>
       </c>
       <c r="AD5" s="2">
         <v>3</v>
       </c>
       <c r="AE5" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AF5" s="2">
         <v>186.005</v>
@@ -1248,7 +1241,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="8">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D6" s="8">
         <v>20.276</v>
@@ -1273,34 +1266,32 @@
         <v>9</v>
       </c>
       <c r="L6">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="M6">
-        <v>16</v>
+        <v>126.798</v>
       </c>
       <c r="N6">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="O6">
-        <v>126.798</v>
+        <v>346</v>
       </c>
       <c r="P6">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="Q6">
-        <v>10</v>
-      </c>
-      <c r="R6">
-        <v>18</v>
+        <v>385</v>
       </c>
       <c r="S6" s="5">
-        <v>346</v>
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="T6" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="U6" s="2">
-        <v>385</v>
+        <v>14</v>
       </c>
       <c r="V6" s="2">
         <v>71.010999999999996</v>
@@ -1318,14 +1309,14 @@
         <v>439</v>
       </c>
       <c r="AC6" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="AD6" s="2">
         <v>10</v>
       </c>
       <c r="AE6" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AF6" s="2">
         <v>218.62899999999999</v>
@@ -1352,7 +1343,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" s="8">
         <v>28.760999999999999</v>
@@ -1377,34 +1368,32 @@
         <v>8</v>
       </c>
       <c r="L7">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M7">
-        <v>21</v>
+        <v>173.86600000000001</v>
       </c>
       <c r="N7">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="O7">
-        <v>173.86600000000001</v>
+        <v>382</v>
       </c>
       <c r="P7">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="Q7">
-        <v>10</v>
-      </c>
-      <c r="R7">
-        <v>17</v>
+        <v>422</v>
       </c>
       <c r="S7" s="5">
-        <v>382</v>
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="T7" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U7" s="2">
-        <v>422</v>
+        <v>15</v>
       </c>
       <c r="V7" s="2">
         <v>83.201999999999998</v>
@@ -1422,14 +1411,14 @@
         <v>499</v>
       </c>
       <c r="AC7" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="AD7" s="2">
         <v>7</v>
       </c>
       <c r="AE7" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AF7" s="2">
         <v>608.90499999999997</v>
@@ -1456,7 +1445,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="8">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D8" s="8">
         <v>16.79</v>
@@ -1481,34 +1470,32 @@
         <v>3</v>
       </c>
       <c r="L8">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M8">
-        <v>23</v>
+        <v>190.09399999999999</v>
       </c>
       <c r="N8">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="O8">
-        <v>190.09399999999999</v>
+        <v>400</v>
       </c>
       <c r="P8">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="Q8">
-        <v>16</v>
-      </c>
-      <c r="R8">
+        <v>406</v>
+      </c>
+      <c r="S8" s="5">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="T8" s="2">
+        <v>6</v>
+      </c>
+      <c r="U8" s="2">
         <v>18</v>
-      </c>
-      <c r="S8" s="5">
-        <v>400</v>
-      </c>
-      <c r="T8" s="2">
-        <v>16</v>
-      </c>
-      <c r="U8" s="2">
-        <v>406</v>
       </c>
       <c r="V8" s="2">
         <v>100.82599999999999</v>
@@ -1526,14 +1513,14 @@
         <v>601</v>
       </c>
       <c r="AC8" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="AD8" s="2">
         <v>8</v>
       </c>
       <c r="AE8" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AF8" s="2">
         <v>288.37299999999999</v>
@@ -1560,7 +1547,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="8">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D9" s="8">
         <v>19.288</v>
@@ -1585,34 +1572,32 @@
         <v>8</v>
       </c>
       <c r="L9">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="M9">
-        <v>18</v>
+        <v>158.661</v>
       </c>
       <c r="N9">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O9">
-        <v>158.661</v>
+        <v>392</v>
       </c>
       <c r="P9">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="Q9">
-        <v>10</v>
-      </c>
-      <c r="R9">
-        <v>17</v>
+        <v>431</v>
       </c>
       <c r="S9" s="5">
-        <v>392</v>
+        <f t="shared" si="2"/>
+        <v>7</v>
       </c>
       <c r="T9" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="U9" s="2">
-        <v>431</v>
+        <v>41</v>
       </c>
       <c r="V9" s="2">
         <v>213.565</v>
@@ -1630,14 +1615,14 @@
         <v>654</v>
       </c>
       <c r="AC9" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="AD9" s="2">
         <v>3</v>
       </c>
       <c r="AE9" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF9" s="2">
         <v>142.30600000000001</v>
@@ -1664,7 +1649,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="8">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" s="8">
         <v>10.441000000000001</v>
@@ -1689,34 +1674,32 @@
         <v>1</v>
       </c>
       <c r="L10">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M10">
-        <v>33</v>
+        <v>265.98500000000001</v>
       </c>
       <c r="N10">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="O10">
-        <v>265.98500000000001</v>
+        <v>484</v>
       </c>
       <c r="P10">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="Q10">
-        <v>27</v>
-      </c>
-      <c r="R10">
-        <v>27</v>
+        <v>484</v>
       </c>
       <c r="S10" s="5">
-        <v>484</v>
+        <f t="shared" si="2"/>
+        <v>8</v>
       </c>
       <c r="T10" s="2">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="U10" s="2">
-        <v>484</v>
+        <v>13</v>
       </c>
       <c r="V10" s="2">
         <v>67.930999999999997</v>
@@ -1734,14 +1717,14 @@
         <v>468</v>
       </c>
       <c r="AC10" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="AD10" s="2">
         <v>6</v>
       </c>
       <c r="AE10" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF10" s="2">
         <v>146.101</v>
@@ -1768,7 +1751,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D11" s="8">
         <v>22.817</v>
@@ -1793,34 +1776,32 @@
         <v>6</v>
       </c>
       <c r="L11">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="M11">
-        <v>15</v>
+        <v>117.50700000000001</v>
       </c>
       <c r="N11">
         <v>15</v>
       </c>
       <c r="O11">
-        <v>117.50700000000001</v>
+        <v>294</v>
       </c>
       <c r="P11">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="Q11">
-        <v>10</v>
-      </c>
-      <c r="R11">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c r="S11" s="5">
-        <v>294</v>
+        <f t="shared" si="2"/>
+        <v>9</v>
       </c>
       <c r="T11" s="2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="U11" s="2">
-        <v>317</v>
+        <v>17</v>
       </c>
       <c r="V11" s="2">
         <v>85.087999999999994</v>
@@ -1838,14 +1819,14 @@
         <v>574</v>
       </c>
       <c r="AC11" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="AD11" s="2">
         <v>5</v>
       </c>
       <c r="AE11" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AF11" s="2">
         <v>180.59800000000001</v>
@@ -1872,7 +1853,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D12" s="8">
         <v>22.126999999999999</v>
@@ -1897,34 +1878,32 @@
         <v>2</v>
       </c>
       <c r="L12">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="M12">
-        <v>10</v>
+        <v>79.277000000000001</v>
       </c>
       <c r="N12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O12">
-        <v>79.277000000000001</v>
+        <v>267</v>
       </c>
       <c r="P12">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="Q12">
-        <v>10</v>
-      </c>
-      <c r="R12">
+        <v>272</v>
+      </c>
+      <c r="S12" s="5">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="T12" s="2">
+        <v>5</v>
+      </c>
+      <c r="U12" s="2">
         <v>11</v>
-      </c>
-      <c r="S12" s="5">
-        <v>267</v>
-      </c>
-      <c r="T12" s="2">
-        <v>10</v>
-      </c>
-      <c r="U12" s="2">
-        <v>272</v>
       </c>
       <c r="V12" s="2">
         <v>57.808999999999997</v>
@@ -1942,14 +1921,14 @@
         <v>459</v>
       </c>
       <c r="AC12" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="AD12" s="2">
         <v>5</v>
       </c>
       <c r="AE12" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF12" s="2">
         <v>201.327</v>
@@ -1976,7 +1955,7 @@
         <v>6</v>
       </c>
       <c r="C13" s="8">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D13" s="8">
         <v>15.074</v>
@@ -2001,34 +1980,32 @@
         <v>6</v>
       </c>
       <c r="L13">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="M13">
-        <v>13</v>
+        <v>108.17400000000001</v>
       </c>
       <c r="N13">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="O13">
-        <v>108.17400000000001</v>
+        <v>398</v>
       </c>
       <c r="P13">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="Q13">
-        <v>16</v>
-      </c>
-      <c r="R13">
-        <v>21</v>
+        <v>412</v>
       </c>
       <c r="S13" s="5">
-        <v>398</v>
+        <f t="shared" si="2"/>
+        <v>11</v>
       </c>
       <c r="T13" s="2">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="U13" s="2">
-        <v>412</v>
+        <v>17</v>
       </c>
       <c r="V13" s="2">
         <v>86.69</v>
@@ -2046,14 +2023,14 @@
         <v>469</v>
       </c>
       <c r="AC13" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="AD13" s="2">
         <v>6</v>
       </c>
       <c r="AE13" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AF13" s="2">
         <v>232.012</v>
@@ -2080,7 +2057,7 @@
         <v>11</v>
       </c>
       <c r="C14" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" s="8">
         <v>25.462</v>
@@ -2105,34 +2082,32 @@
         <v>11</v>
       </c>
       <c r="L14">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="M14">
-        <v>18</v>
+        <v>161.648</v>
       </c>
       <c r="N14">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="O14">
-        <v>161.648</v>
+        <v>382</v>
       </c>
       <c r="P14">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="Q14">
-        <v>10</v>
-      </c>
-      <c r="R14">
-        <v>20</v>
+        <v>427</v>
       </c>
       <c r="S14" s="5">
-        <v>382</v>
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
       <c r="T14" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="U14" s="2">
-        <v>427</v>
+        <v>21</v>
       </c>
       <c r="V14" s="2">
         <v>109.754</v>
@@ -2150,14 +2125,14 @@
         <v>504</v>
       </c>
       <c r="AC14" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="AD14" s="2">
         <v>2</v>
       </c>
       <c r="AE14" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF14" s="2">
         <v>151.38399999999999</v>
@@ -2184,7 +2159,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" s="8">
         <v>28.155000000000001</v>
@@ -2209,34 +2184,32 @@
         <v>7</v>
       </c>
       <c r="L15">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="M15">
-        <v>38</v>
+        <v>304.65199999999999</v>
       </c>
       <c r="N15">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="O15">
-        <v>304.65199999999999</v>
+        <v>388</v>
       </c>
       <c r="P15">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="Q15">
-        <v>10</v>
-      </c>
-      <c r="R15">
-        <v>16</v>
+        <v>425</v>
       </c>
       <c r="S15" s="5">
-        <v>388</v>
+        <f t="shared" si="2"/>
+        <v>13</v>
       </c>
       <c r="T15" s="2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="U15" s="2">
-        <v>425</v>
+        <v>14</v>
       </c>
       <c r="V15" s="2">
         <v>70.635999999999996</v>
@@ -2254,14 +2227,14 @@
         <v>559</v>
       </c>
       <c r="AC15" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="AD15" s="2">
         <v>3</v>
       </c>
       <c r="AE15" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF15" s="2">
         <v>221.87</v>
@@ -2288,7 +2261,7 @@
         <v>7</v>
       </c>
       <c r="C16" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" s="8">
         <v>28.21</v>
@@ -2313,34 +2286,32 @@
         <v>9</v>
       </c>
       <c r="L16">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M16">
-        <v>19</v>
+        <v>163.172</v>
       </c>
       <c r="N16">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O16">
-        <v>163.172</v>
+        <v>373</v>
       </c>
       <c r="P16">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="Q16">
-        <v>10</v>
-      </c>
-      <c r="R16">
-        <v>18</v>
+        <v>410</v>
       </c>
       <c r="S16" s="5">
-        <v>373</v>
+        <f t="shared" si="2"/>
+        <v>14</v>
       </c>
       <c r="T16" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="U16" s="2">
-        <v>410</v>
+        <v>31</v>
       </c>
       <c r="V16" s="2">
         <v>165.083</v>
@@ -2358,14 +2329,14 @@
         <v>528</v>
       </c>
       <c r="AC16" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="AD16" s="2">
         <v>3</v>
       </c>
       <c r="AE16" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF16" s="2">
         <v>147.97</v>
@@ -2392,7 +2363,7 @@
         <v>5</v>
       </c>
       <c r="C17" s="8">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D17" s="8">
         <v>14.275</v>
@@ -2417,34 +2388,32 @@
         <v>7</v>
       </c>
       <c r="L17">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="M17">
-        <v>18</v>
+        <v>153.31899999999999</v>
       </c>
       <c r="N17">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O17">
-        <v>153.31899999999999</v>
+        <v>348</v>
       </c>
       <c r="P17">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="Q17">
-        <v>10</v>
-      </c>
-      <c r="R17">
-        <v>16</v>
+        <v>375</v>
       </c>
       <c r="S17" s="5">
-        <v>348</v>
+        <f t="shared" si="2"/>
+        <v>15</v>
       </c>
       <c r="T17" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="U17" s="2">
-        <v>375</v>
+        <v>14</v>
       </c>
       <c r="V17" s="2">
         <v>69.543999999999997</v>
@@ -2462,14 +2431,14 @@
         <v>467</v>
       </c>
       <c r="AC17" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="AD17" s="2">
         <v>5</v>
       </c>
       <c r="AE17" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AF17" s="2">
         <v>183.46899999999999</v>
@@ -2496,7 +2465,7 @@
         <v>7</v>
       </c>
       <c r="C18" s="8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D18" s="8">
         <v>11.757</v>
@@ -2521,34 +2490,32 @@
         <v>8</v>
       </c>
       <c r="L18">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="M18">
-        <v>41</v>
+        <v>340.41500000000002</v>
       </c>
       <c r="N18">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="O18">
-        <v>340.41500000000002</v>
+        <v>404</v>
       </c>
       <c r="P18">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="Q18">
-        <v>10</v>
-      </c>
-      <c r="R18">
-        <v>17</v>
+        <v>444</v>
       </c>
       <c r="S18" s="5">
-        <v>404</v>
+        <f t="shared" si="2"/>
+        <v>16</v>
       </c>
       <c r="T18" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="U18" s="2">
-        <v>444</v>
+        <v>19</v>
       </c>
       <c r="V18" s="2">
         <v>105.818</v>
@@ -2566,14 +2533,14 @@
         <v>531</v>
       </c>
       <c r="AC18" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="AD18" s="2">
         <v>7</v>
       </c>
       <c r="AE18" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AF18" s="2">
         <v>557.83299999999997</v>
@@ -2600,7 +2567,7 @@
         <v>8</v>
       </c>
       <c r="C19" s="8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D19" s="8">
         <v>16.797999999999998</v>
@@ -2625,34 +2592,32 @@
         <v>5</v>
       </c>
       <c r="L19">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="M19">
-        <v>46</v>
+        <v>368.43799999999999</v>
       </c>
       <c r="N19">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="O19">
-        <v>368.43799999999999</v>
+        <v>432</v>
       </c>
       <c r="P19">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="Q19">
-        <v>16</v>
-      </c>
-      <c r="R19">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="S19" s="5">
-        <v>432</v>
+        <f t="shared" si="2"/>
+        <v>17</v>
       </c>
       <c r="T19" s="2">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="U19" s="2">
-        <v>450</v>
+        <v>44</v>
       </c>
       <c r="V19" s="2">
         <v>239.001</v>
@@ -2670,14 +2635,14 @@
         <v>610</v>
       </c>
       <c r="AC19" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="AD19" s="2">
         <v>7</v>
       </c>
       <c r="AE19" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AF19" s="2">
         <v>592.30999999999995</v>
@@ -2704,7 +2669,7 @@
         <v>7</v>
       </c>
       <c r="C20" s="8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D20" s="8">
         <v>12.222</v>
@@ -2729,34 +2694,32 @@
         <v>4</v>
       </c>
       <c r="L20">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="M20">
-        <v>10</v>
+        <v>83.677000000000007</v>
       </c>
       <c r="N20">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="O20">
-        <v>83.677000000000007</v>
+        <v>293</v>
       </c>
       <c r="P20">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="Q20">
-        <v>10</v>
-      </c>
-      <c r="R20">
-        <v>13</v>
+        <v>302</v>
       </c>
       <c r="S20" s="5">
-        <v>293</v>
+        <f t="shared" si="2"/>
+        <v>18</v>
       </c>
       <c r="T20" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="U20" s="2">
-        <v>302</v>
+        <v>14</v>
       </c>
       <c r="V20" s="2">
         <v>76.448999999999998</v>
@@ -2774,14 +2737,14 @@
         <v>685</v>
       </c>
       <c r="AC20" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="AD20" s="2">
         <v>6</v>
       </c>
       <c r="AE20" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AF20" s="2">
         <v>272.61799999999999</v>
@@ -2808,7 +2771,7 @@
         <v>4</v>
       </c>
       <c r="C21" s="8">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D21" s="8">
         <v>10.551</v>
@@ -2833,34 +2796,32 @@
         <v>5</v>
       </c>
       <c r="L21">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="M21">
+        <v>140.68700000000001</v>
+      </c>
+      <c r="N21">
+        <v>20</v>
+      </c>
+      <c r="O21">
+        <v>497</v>
+      </c>
+      <c r="P21">
+        <v>16</v>
+      </c>
+      <c r="Q21">
+        <v>515</v>
+      </c>
+      <c r="S21" s="5">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="T21" s="2">
+        <v>8</v>
+      </c>
+      <c r="U21" s="2">
         <v>17</v>
-      </c>
-      <c r="N21">
-        <v>17</v>
-      </c>
-      <c r="O21">
-        <v>140.68700000000001</v>
-      </c>
-      <c r="P21">
-        <v>32</v>
-      </c>
-      <c r="Q21">
-        <v>16</v>
-      </c>
-      <c r="R21">
-        <v>20</v>
-      </c>
-      <c r="S21" s="5">
-        <v>497</v>
-      </c>
-      <c r="T21" s="2">
-        <v>16</v>
-      </c>
-      <c r="U21" s="2">
-        <v>515</v>
       </c>
       <c r="V21" s="2">
         <v>94.260999999999996</v>
@@ -2878,14 +2839,14 @@
         <v>501</v>
       </c>
       <c r="AC21" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="AD21" s="2">
         <v>6</v>
       </c>
       <c r="AE21" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AF21" s="2">
         <v>455.73899999999998</v>
@@ -2912,7 +2873,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="8">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D22" s="8">
         <v>16.338000000000001</v>
@@ -2937,34 +2898,32 @@
         <v>8</v>
       </c>
       <c r="L22">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="M22">
-        <v>14</v>
+        <v>119.09</v>
       </c>
       <c r="N22">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="O22">
-        <v>119.09</v>
+        <v>351</v>
       </c>
       <c r="P22">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="Q22">
-        <v>10</v>
-      </c>
-      <c r="R22">
-        <v>17</v>
+        <v>386</v>
       </c>
       <c r="S22" s="5">
-        <v>351</v>
+        <f t="shared" si="2"/>
+        <v>20</v>
       </c>
       <c r="T22" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="U22" s="2">
-        <v>386</v>
+        <v>18</v>
       </c>
       <c r="V22" s="2">
         <v>94.06</v>
@@ -2982,14 +2941,14 @@
         <v>640</v>
       </c>
       <c r="AC22" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="AD22" s="2">
         <v>5</v>
       </c>
       <c r="AE22" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AF22" s="2">
         <v>249.84800000000001</v>
@@ -3016,7 +2975,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D23" s="8">
         <v>23.992000000000001</v>
@@ -3041,34 +3000,32 @@
         <v>8</v>
       </c>
       <c r="L23">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="M23">
-        <v>16</v>
+        <v>155.428</v>
       </c>
       <c r="N23">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="O23">
-        <v>155.428</v>
+        <v>304</v>
       </c>
       <c r="P23">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="Q23">
-        <v>10</v>
-      </c>
-      <c r="R23">
-        <v>17</v>
+        <v>336</v>
       </c>
       <c r="S23" s="5">
-        <v>304</v>
+        <f t="shared" si="2"/>
+        <v>21</v>
       </c>
       <c r="T23" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="U23" s="2">
-        <v>336</v>
+        <v>9</v>
       </c>
       <c r="V23" s="2">
         <v>48.83</v>
@@ -3086,14 +3043,14 @@
         <v>415</v>
       </c>
       <c r="AC23" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="AD23" s="2">
         <v>7</v>
       </c>
       <c r="AE23" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF23" s="2">
         <v>320.44</v>
@@ -3120,7 +3077,7 @@
         <v>7</v>
       </c>
       <c r="C24" s="8">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D24" s="8">
         <v>16.012</v>
@@ -3145,34 +3102,32 @@
         <v>5</v>
       </c>
       <c r="L24">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="M24">
-        <v>15</v>
+        <v>129.72900000000001</v>
       </c>
       <c r="N24">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O24">
-        <v>129.72900000000001</v>
+        <v>318</v>
       </c>
       <c r="P24">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="Q24">
-        <v>10</v>
-      </c>
-      <c r="R24">
-        <v>14</v>
+        <v>335</v>
       </c>
       <c r="S24" s="5">
-        <v>318</v>
+        <f t="shared" si="2"/>
+        <v>22</v>
       </c>
       <c r="T24" s="2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="U24" s="2">
-        <v>335</v>
+        <v>19</v>
       </c>
       <c r="V24" s="2">
         <v>101.235</v>
@@ -3190,14 +3145,14 @@
         <v>515</v>
       </c>
       <c r="AC24" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="AD24" s="2">
         <v>7</v>
       </c>
       <c r="AE24" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF24" s="2">
         <v>252.08</v>
@@ -3224,7 +3179,7 @@
         <v>6</v>
       </c>
       <c r="C25" s="8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D25" s="8">
         <v>16.681000000000001</v>
@@ -3249,34 +3204,32 @@
         <v>5</v>
       </c>
       <c r="L25">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M25">
+        <v>151.48599999999999</v>
+      </c>
+      <c r="N25">
+        <v>14</v>
+      </c>
+      <c r="O25">
+        <v>340</v>
+      </c>
+      <c r="P25">
+        <v>10</v>
+      </c>
+      <c r="Q25">
+        <v>363</v>
+      </c>
+      <c r="S25" s="5">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="T25" s="2">
+        <v>4</v>
+      </c>
+      <c r="U25" s="2">
         <v>18</v>
-      </c>
-      <c r="N25">
-        <v>18</v>
-      </c>
-      <c r="O25">
-        <v>151.48599999999999</v>
-      </c>
-      <c r="P25">
-        <v>27</v>
-      </c>
-      <c r="Q25">
-        <v>10</v>
-      </c>
-      <c r="R25">
-        <v>14</v>
-      </c>
-      <c r="S25" s="5">
-        <v>340</v>
-      </c>
-      <c r="T25" s="2">
-        <v>10</v>
-      </c>
-      <c r="U25" s="2">
-        <v>363</v>
       </c>
       <c r="V25" s="2">
         <v>94.149000000000001</v>
@@ -3294,14 +3247,14 @@
         <v>461</v>
       </c>
       <c r="AC25" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="AD25" s="2">
         <v>5</v>
       </c>
       <c r="AE25" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF25" s="2">
         <v>234.41200000000001</v>
@@ -3328,7 +3281,7 @@
         <v>1</v>
       </c>
       <c r="C26" s="8">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D26" s="8">
         <v>18.277999999999999</v>
@@ -3353,34 +3306,32 @@
         <v>9</v>
       </c>
       <c r="L26">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="M26">
-        <v>25</v>
+        <v>210.93799999999999</v>
       </c>
       <c r="N26">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="O26">
-        <v>210.93799999999999</v>
+        <v>395</v>
       </c>
       <c r="P26">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="Q26">
-        <v>10</v>
-      </c>
-      <c r="R26">
-        <v>18</v>
+        <v>435</v>
       </c>
       <c r="S26" s="5">
-        <v>395</v>
+        <f t="shared" si="2"/>
+        <v>24</v>
       </c>
       <c r="T26" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="U26" s="2">
-        <v>435</v>
+        <v>34</v>
       </c>
       <c r="V26" s="2">
         <v>187.10499999999999</v>
@@ -3398,14 +3349,14 @@
         <v>782</v>
       </c>
       <c r="AC26" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="AD26" s="2">
         <v>7</v>
       </c>
       <c r="AE26" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AF26" s="2">
         <v>485.29899999999998</v>
@@ -3432,7 +3383,7 @@
         <v>1</v>
       </c>
       <c r="C27" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D27" s="8">
         <v>22.908000000000001</v>
@@ -3457,34 +3408,32 @@
         <v>5</v>
       </c>
       <c r="L27">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M27">
-        <v>10</v>
+        <v>89.463999999999999</v>
       </c>
       <c r="N27">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="O27">
-        <v>89.463999999999999</v>
+        <v>421</v>
       </c>
       <c r="P27">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="Q27">
-        <v>16</v>
-      </c>
-      <c r="R27">
-        <v>20</v>
+        <v>432</v>
       </c>
       <c r="S27" s="5">
-        <v>421</v>
+        <f t="shared" si="2"/>
+        <v>25</v>
       </c>
       <c r="T27" s="2">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="U27" s="2">
-        <v>432</v>
+        <v>16</v>
       </c>
       <c r="V27" s="2">
         <v>89.397999999999996</v>
@@ -3502,14 +3451,14 @@
         <v>600</v>
       </c>
       <c r="AC27" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="AD27" s="2">
         <v>7</v>
       </c>
       <c r="AE27" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF27" s="2">
         <v>286.62299999999999</v>
@@ -3536,7 +3485,7 @@
         <v>5</v>
       </c>
       <c r="C28" s="8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D28" s="8">
         <v>11.773999999999999</v>
@@ -3561,34 +3510,32 @@
         <v>1</v>
       </c>
       <c r="L28">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M28">
-        <v>12</v>
+        <v>106.28100000000001</v>
       </c>
       <c r="N28">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="O28">
-        <v>106.28100000000001</v>
+        <v>497</v>
       </c>
       <c r="P28">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="Q28">
+        <v>497</v>
+      </c>
+      <c r="S28" s="5">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="T28" s="2">
+        <v>7</v>
+      </c>
+      <c r="U28" s="2">
         <v>27</v>
-      </c>
-      <c r="R28">
-        <v>27</v>
-      </c>
-      <c r="S28" s="5">
-        <v>497</v>
-      </c>
-      <c r="T28" s="2">
-        <v>27</v>
-      </c>
-      <c r="U28" s="2">
-        <v>497</v>
       </c>
       <c r="V28" s="2">
         <v>138.13399999999999</v>
@@ -3606,14 +3553,14 @@
         <v>744</v>
       </c>
       <c r="AC28" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
       <c r="AD28" s="2">
         <v>11</v>
       </c>
       <c r="AE28" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF28" s="2">
         <v>333.822</v>
@@ -3640,7 +3587,7 @@
         <v>7</v>
       </c>
       <c r="C29" s="8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D29" s="8">
         <v>17.184999999999999</v>
@@ -3665,34 +3612,32 @@
         <v>9</v>
       </c>
       <c r="L29">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="M29">
-        <v>25</v>
+        <v>215.43600000000001</v>
       </c>
       <c r="N29">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="O29">
-        <v>215.43600000000001</v>
+        <v>370</v>
       </c>
       <c r="P29">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="Q29">
-        <v>10</v>
-      </c>
-      <c r="R29">
-        <v>18</v>
+        <v>403</v>
       </c>
       <c r="S29" s="5">
-        <v>370</v>
+        <f t="shared" si="2"/>
+        <v>27</v>
       </c>
       <c r="T29" s="2">
         <v>10</v>
       </c>
       <c r="U29" s="2">
-        <v>403</v>
+        <v>22</v>
       </c>
       <c r="V29" s="2">
         <v>120.444</v>
@@ -3710,14 +3655,14 @@
         <v>630</v>
       </c>
       <c r="AC29" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="AD29" s="2">
         <v>6</v>
       </c>
       <c r="AE29" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AF29" s="2">
         <v>379.48399999999998</v>
@@ -3744,7 +3689,7 @@
         <v>7</v>
       </c>
       <c r="C30" s="8">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D30" s="8">
         <v>11.36</v>
@@ -3769,34 +3714,32 @@
         <v>4</v>
       </c>
       <c r="L30">
+        <v>13</v>
+      </c>
+      <c r="M30">
+        <v>105.22199999999999</v>
+      </c>
+      <c r="N30">
+        <v>19</v>
+      </c>
+      <c r="O30">
+        <v>398</v>
+      </c>
+      <c r="P30">
+        <v>16</v>
+      </c>
+      <c r="Q30">
+        <v>406</v>
+      </c>
+      <c r="S30" s="5">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="T30" s="2">
         <v>8</v>
       </c>
-      <c r="M30">
-        <v>12</v>
-      </c>
-      <c r="N30">
-        <v>12</v>
-      </c>
-      <c r="O30">
-        <v>105.22199999999999</v>
-      </c>
-      <c r="P30">
-        <v>39</v>
-      </c>
-      <c r="Q30">
-        <v>16</v>
-      </c>
-      <c r="R30">
-        <v>19</v>
-      </c>
-      <c r="S30" s="5">
-        <v>398</v>
-      </c>
-      <c r="T30" s="2">
-        <v>16</v>
-      </c>
       <c r="U30" s="2">
-        <v>406</v>
+        <v>23</v>
       </c>
       <c r="V30" s="2">
         <v>127.532</v>
@@ -3814,14 +3757,14 @@
         <v>556</v>
       </c>
       <c r="AC30" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="AD30" s="2">
         <v>4</v>
       </c>
       <c r="AE30" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AF30" s="2">
         <v>410.483</v>
@@ -3848,7 +3791,7 @@
         <v>4</v>
       </c>
       <c r="C31" s="8">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D31" s="8">
         <v>12.882999999999999</v>
@@ -3873,34 +3816,32 @@
         <v>5</v>
       </c>
       <c r="L31">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="M31">
+        <v>163.78899999999999</v>
+      </c>
+      <c r="N31">
+        <v>20</v>
+      </c>
+      <c r="O31">
+        <v>434</v>
+      </c>
+      <c r="P31">
+        <v>16</v>
+      </c>
+      <c r="Q31">
+        <v>449</v>
+      </c>
+      <c r="S31" s="5">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="T31" s="2">
+        <v>4</v>
+      </c>
+      <c r="U31" s="2">
         <v>19</v>
-      </c>
-      <c r="N31">
-        <v>19</v>
-      </c>
-      <c r="O31">
-        <v>163.78899999999999</v>
-      </c>
-      <c r="P31">
-        <v>34</v>
-      </c>
-      <c r="Q31">
-        <v>16</v>
-      </c>
-      <c r="R31">
-        <v>20</v>
-      </c>
-      <c r="S31" s="5">
-        <v>434</v>
-      </c>
-      <c r="T31" s="2">
-        <v>16</v>
-      </c>
-      <c r="U31" s="2">
-        <v>449</v>
       </c>
       <c r="V31" s="2">
         <v>105.97799999999999</v>
@@ -3918,14 +3859,14 @@
         <v>485</v>
       </c>
       <c r="AC31" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>29</v>
       </c>
       <c r="AD31" s="2">
         <v>5</v>
       </c>
       <c r="AE31" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF31" s="2">
         <v>208.05099999999999</v>
@@ -3952,7 +3893,7 @@
         <v>8</v>
       </c>
       <c r="C32" s="8">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D32" s="8">
         <v>15.955</v>
@@ -3977,34 +3918,32 @@
         <v>6</v>
       </c>
       <c r="L32">
+        <v>28</v>
+      </c>
+      <c r="M32">
+        <v>234.398</v>
+      </c>
+      <c r="N32">
         <v>21</v>
       </c>
-      <c r="M32">
-        <v>27</v>
-      </c>
-      <c r="N32">
-        <v>27</v>
-      </c>
       <c r="O32">
-        <v>234.398</v>
+        <v>433</v>
       </c>
       <c r="P32">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="Q32">
-        <v>16</v>
-      </c>
-      <c r="R32">
-        <v>21</v>
+        <v>448</v>
       </c>
       <c r="S32" s="5">
-        <v>433</v>
+        <f t="shared" si="2"/>
+        <v>30</v>
       </c>
       <c r="T32" s="2">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="U32" s="2">
-        <v>448</v>
+        <v>17</v>
       </c>
       <c r="V32" s="2">
         <v>94.635000000000005</v>
@@ -4022,14 +3961,14 @@
         <v>505</v>
       </c>
       <c r="AC32" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="AD32" s="2">
         <v>5</v>
       </c>
       <c r="AE32" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AF32" s="2">
         <v>280.428</v>
@@ -4056,7 +3995,7 @@
         <v>5</v>
       </c>
       <c r="C33" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D33" s="8">
         <v>24.792999999999999</v>
@@ -4081,34 +4020,32 @@
         <v>5</v>
       </c>
       <c r="L33">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="M33">
-        <v>15</v>
+        <v>130.38399999999999</v>
       </c>
       <c r="N33">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="O33">
-        <v>130.38399999999999</v>
+        <v>429</v>
       </c>
       <c r="P33">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="Q33">
-        <v>16</v>
-      </c>
-      <c r="R33">
-        <v>20</v>
+        <v>442</v>
       </c>
       <c r="S33" s="5">
-        <v>429</v>
+        <f t="shared" si="2"/>
+        <v>31</v>
       </c>
       <c r="T33" s="2">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="U33" s="2">
-        <v>442</v>
+        <v>16</v>
       </c>
       <c r="V33" s="2">
         <v>87.183999999999997</v>
@@ -4126,14 +4063,14 @@
         <v>609</v>
       </c>
       <c r="AC33" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="AD33" s="2">
         <v>7</v>
       </c>
       <c r="AE33" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AF33" s="2">
         <v>531.53399999999999</v>
@@ -4160,7 +4097,7 @@
         <v>6</v>
       </c>
       <c r="C34" s="8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D34" s="8">
         <v>12.282999999999999</v>
@@ -4185,34 +4122,32 @@
         <v>6</v>
       </c>
       <c r="L34">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="M34">
-        <v>16</v>
+        <v>129.20500000000001</v>
       </c>
       <c r="N34">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O34">
-        <v>129.20500000000001</v>
+        <v>331</v>
       </c>
       <c r="P34">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="Q34">
-        <v>10</v>
-      </c>
-      <c r="R34">
-        <v>15</v>
+        <v>352</v>
       </c>
       <c r="S34" s="5">
-        <v>331</v>
+        <f t="shared" si="2"/>
+        <v>32</v>
       </c>
       <c r="T34" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="U34" s="2">
-        <v>352</v>
+        <v>18</v>
       </c>
       <c r="V34" s="2">
         <v>98.123999999999995</v>
@@ -4230,14 +4165,14 @@
         <v>720</v>
       </c>
       <c r="AC34" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
       <c r="AD34" s="2">
         <v>7</v>
       </c>
       <c r="AE34" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AF34" s="2">
         <v>239.80699999999999</v>
@@ -4264,7 +4199,7 @@
         <v>5</v>
       </c>
       <c r="C35" s="8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D35" s="8">
         <v>21.39</v>
@@ -4289,34 +4224,32 @@
         <v>1</v>
       </c>
       <c r="L35">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M35">
+        <v>97.379000000000005</v>
+      </c>
+      <c r="N35">
+        <v>10</v>
+      </c>
+      <c r="O35">
+        <v>287</v>
+      </c>
+      <c r="P35">
+        <v>10</v>
+      </c>
+      <c r="Q35">
+        <v>287</v>
+      </c>
+      <c r="S35" s="5">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="T35" s="2">
+        <v>5</v>
+      </c>
+      <c r="U35" s="2">
         <v>13</v>
-      </c>
-      <c r="N35">
-        <v>13</v>
-      </c>
-      <c r="O35">
-        <v>97.379000000000005</v>
-      </c>
-      <c r="P35">
-        <v>30</v>
-      </c>
-      <c r="Q35">
-        <v>10</v>
-      </c>
-      <c r="R35">
-        <v>10</v>
-      </c>
-      <c r="S35" s="5">
-        <v>287</v>
-      </c>
-      <c r="T35" s="2">
-        <v>10</v>
-      </c>
-      <c r="U35" s="2">
-        <v>287</v>
       </c>
       <c r="V35" s="2">
         <v>72.262</v>
@@ -4334,14 +4267,14 @@
         <v>483</v>
       </c>
       <c r="AC35" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
       <c r="AD35" s="2">
         <v>8</v>
       </c>
       <c r="AE35" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF35" s="2">
         <v>241.505</v>
@@ -4368,7 +4301,7 @@
         <v>10</v>
       </c>
       <c r="C36" s="8">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D36" s="8">
         <v>15.978999999999999</v>
@@ -4393,34 +4326,32 @@
         <v>5</v>
       </c>
       <c r="L36">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="M36">
-        <v>17</v>
+        <v>123.90600000000001</v>
       </c>
       <c r="N36">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="O36">
-        <v>123.90600000000001</v>
+        <v>286</v>
       </c>
       <c r="P36">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="Q36">
-        <v>10</v>
-      </c>
-      <c r="R36">
-        <v>14</v>
+        <v>303</v>
       </c>
       <c r="S36" s="5">
-        <v>286</v>
+        <f t="shared" si="2"/>
+        <v>34</v>
       </c>
       <c r="T36" s="2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="U36" s="2">
-        <v>303</v>
+        <v>20</v>
       </c>
       <c r="V36" s="2">
         <v>111.747</v>
@@ -4438,14 +4369,14 @@
         <v>474</v>
       </c>
       <c r="AC36" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
       <c r="AD36" s="2">
         <v>5</v>
       </c>
       <c r="AE36" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF36" s="2">
         <v>250.05099999999999</v>
@@ -4472,7 +4403,7 @@
         <v>8</v>
       </c>
       <c r="C37" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D37" s="8">
         <v>23.67</v>
@@ -4497,34 +4428,32 @@
         <v>5</v>
       </c>
       <c r="L37">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="M37">
-        <v>36</v>
+        <v>275.596</v>
       </c>
       <c r="N37">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="O37">
-        <v>275.596</v>
+        <v>462</v>
       </c>
       <c r="P37">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="Q37">
-        <v>16</v>
-      </c>
-      <c r="R37">
-        <v>20</v>
+        <v>478</v>
       </c>
       <c r="S37" s="5">
-        <v>462</v>
+        <f t="shared" si="2"/>
+        <v>35</v>
       </c>
       <c r="T37" s="2">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="U37" s="2">
-        <v>478</v>
+        <v>16</v>
       </c>
       <c r="V37" s="2">
         <v>90.671999999999997</v>
@@ -4542,14 +4471,14 @@
         <v>622</v>
       </c>
       <c r="AC37" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
       <c r="AD37" s="2">
         <v>12</v>
       </c>
       <c r="AE37" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AF37" s="2">
         <v>393.21600000000001</v>
@@ -4576,7 +4505,7 @@
         <v>5</v>
       </c>
       <c r="C38" s="8">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D38" s="8">
         <v>14.743</v>
@@ -4601,34 +4530,32 @@
         <v>6</v>
       </c>
       <c r="L38">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M38">
-        <v>29</v>
+        <v>221.74700000000001</v>
       </c>
       <c r="N38">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="O38">
-        <v>221.74700000000001</v>
+        <v>380</v>
       </c>
       <c r="P38">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="Q38">
-        <v>10</v>
-      </c>
-      <c r="R38">
-        <v>15</v>
+        <v>407</v>
       </c>
       <c r="S38" s="5">
-        <v>380</v>
+        <f t="shared" si="2"/>
+        <v>36</v>
       </c>
       <c r="T38" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="U38" s="2">
-        <v>407</v>
+        <v>17</v>
       </c>
       <c r="V38" s="2">
         <v>101.70399999999999</v>
@@ -4646,14 +4573,14 @@
         <v>515</v>
       </c>
       <c r="AC38" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>36</v>
       </c>
       <c r="AD38" s="2">
         <v>9</v>
       </c>
       <c r="AE38" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AF38" s="2">
         <v>474.89299999999997</v>
@@ -4680,7 +4607,7 @@
         <v>9</v>
       </c>
       <c r="C39" s="8">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D39" s="8">
         <v>16.09</v>
@@ -4705,34 +4632,32 @@
         <v>6</v>
       </c>
       <c r="L39">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="M39">
-        <v>20</v>
+        <v>150.57599999999999</v>
       </c>
       <c r="N39">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O39">
-        <v>150.57599999999999</v>
+        <v>398</v>
       </c>
       <c r="P39">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="Q39">
-        <v>16</v>
-      </c>
-      <c r="R39">
-        <v>21</v>
+        <v>412</v>
       </c>
       <c r="S39" s="5">
-        <v>398</v>
+        <f t="shared" si="2"/>
+        <v>37</v>
       </c>
       <c r="T39" s="2">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="U39" s="2">
-        <v>412</v>
+        <v>19</v>
       </c>
       <c r="V39" s="2">
         <v>111.694</v>
@@ -4750,14 +4675,14 @@
         <v>508</v>
       </c>
       <c r="AC39" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>37</v>
       </c>
       <c r="AD39" s="2">
         <v>7</v>
       </c>
       <c r="AE39" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AF39" s="2">
         <v>195.256</v>
@@ -4784,7 +4709,7 @@
         <v>1</v>
       </c>
       <c r="C40" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D40" s="8">
         <v>23.54</v>
@@ -4809,34 +4734,32 @@
         <v>7</v>
       </c>
       <c r="L40">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M40">
-        <v>36</v>
+        <v>285.07499999999999</v>
       </c>
       <c r="N40">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="O40">
-        <v>285.07499999999999</v>
+        <v>357</v>
       </c>
       <c r="P40">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="Q40">
-        <v>10</v>
-      </c>
-      <c r="R40">
-        <v>16</v>
+        <v>388</v>
       </c>
       <c r="S40" s="5">
-        <v>357</v>
+        <f t="shared" si="2"/>
+        <v>38</v>
       </c>
       <c r="T40" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="U40" s="2">
-        <v>388</v>
+        <v>18</v>
       </c>
       <c r="V40" s="2">
         <v>102.572</v>
@@ -4854,14 +4777,14 @@
         <v>617</v>
       </c>
       <c r="AC40" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>38</v>
       </c>
       <c r="AD40" s="2">
         <v>6</v>
       </c>
       <c r="AE40" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AF40" s="2">
         <v>260.38900000000001</v>
@@ -4888,7 +4811,7 @@
         <v>7</v>
       </c>
       <c r="C41" s="8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D41" s="8">
         <v>17.170999999999999</v>
@@ -4913,34 +4836,32 @@
         <v>5</v>
       </c>
       <c r="L41">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="M41">
-        <v>31</v>
+        <v>235.376</v>
       </c>
       <c r="N41">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="O41">
-        <v>235.376</v>
+        <v>352</v>
       </c>
       <c r="P41">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="Q41">
-        <v>10</v>
-      </c>
-      <c r="R41">
-        <v>14</v>
+        <v>379</v>
       </c>
       <c r="S41" s="5">
-        <v>352</v>
+        <f t="shared" si="2"/>
+        <v>39</v>
       </c>
       <c r="T41" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="U41" s="2">
-        <v>379</v>
+        <v>23</v>
       </c>
       <c r="V41" s="2">
         <v>136.077</v>
@@ -4958,14 +4879,14 @@
         <v>648</v>
       </c>
       <c r="AC41" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>39</v>
       </c>
       <c r="AD41" s="2">
         <v>7</v>
       </c>
       <c r="AE41" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AF41" s="2">
         <v>244.89599999999999</v>
@@ -4992,7 +4913,7 @@
         <v>8</v>
       </c>
       <c r="C42" s="8">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D42" s="8">
         <v>16.111000000000001</v>
@@ -5017,34 +4938,32 @@
         <v>8</v>
       </c>
       <c r="L42">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="M42">
-        <v>41</v>
+        <v>328.05500000000001</v>
       </c>
       <c r="N42">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="O42">
-        <v>328.05500000000001</v>
+        <v>448</v>
       </c>
       <c r="P42">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="Q42">
-        <v>10</v>
-      </c>
-      <c r="R42">
-        <v>17</v>
+        <v>487</v>
       </c>
       <c r="S42" s="5">
-        <v>448</v>
+        <f t="shared" si="2"/>
+        <v>40</v>
       </c>
       <c r="T42" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="U42" s="2">
-        <v>487</v>
+        <v>44</v>
       </c>
       <c r="V42" s="2">
         <v>259.23</v>
@@ -5062,14 +4981,14 @@
         <v>750</v>
       </c>
       <c r="AC42" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="AD42" s="2">
         <v>7</v>
       </c>
       <c r="AE42" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AF42" s="2">
         <v>268.14</v>
@@ -5096,7 +5015,7 @@
         <v>5</v>
       </c>
       <c r="C43" s="8">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D43" s="8">
         <v>13.808999999999999</v>
@@ -5121,34 +5040,32 @@
         <v>4</v>
       </c>
       <c r="L43">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="M43">
-        <v>12</v>
+        <v>95.573999999999998</v>
       </c>
       <c r="N43">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="O43">
-        <v>95.573999999999998</v>
+        <v>401</v>
       </c>
       <c r="P43">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="Q43">
-        <v>16</v>
-      </c>
-      <c r="R43">
-        <v>19</v>
+        <v>408</v>
       </c>
       <c r="S43" s="5">
-        <v>401</v>
+        <f t="shared" si="2"/>
+        <v>41</v>
       </c>
       <c r="T43" s="2">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="U43" s="2">
-        <v>408</v>
+        <v>15</v>
       </c>
       <c r="V43" s="2">
         <v>87.183999999999997</v>
@@ -5166,14 +5083,14 @@
         <v>424</v>
       </c>
       <c r="AC43" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>41</v>
       </c>
       <c r="AD43" s="2">
         <v>7</v>
       </c>
       <c r="AE43" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AF43" s="2">
         <v>552.50300000000004</v>
@@ -5200,7 +5117,7 @@
         <v>5</v>
       </c>
       <c r="C44" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D44" s="8">
         <v>23.315999999999999</v>
@@ -5225,34 +5142,32 @@
         <v>5</v>
       </c>
       <c r="L44">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="M44">
-        <v>24</v>
+        <v>185.91499999999999</v>
       </c>
       <c r="N44">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="O44">
-        <v>185.91499999999999</v>
+        <v>332</v>
       </c>
       <c r="P44">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="Q44">
-        <v>10</v>
-      </c>
-      <c r="R44">
-        <v>14</v>
+        <v>358</v>
       </c>
       <c r="S44" s="5">
-        <v>332</v>
+        <f t="shared" si="2"/>
+        <v>42</v>
       </c>
       <c r="T44" s="2">
         <v>10</v>
       </c>
       <c r="U44" s="2">
-        <v>358</v>
+        <v>23</v>
       </c>
       <c r="V44" s="2">
         <v>139.02799999999999</v>
@@ -5270,14 +5185,14 @@
         <v>608</v>
       </c>
       <c r="AC44" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>42</v>
       </c>
       <c r="AD44" s="2">
         <v>7</v>
       </c>
       <c r="AE44" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AF44" s="2">
         <v>358.96499999999997</v>
@@ -5304,7 +5219,7 @@
         <v>1</v>
       </c>
       <c r="C45" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D45" s="8">
         <v>29.433</v>
@@ -5329,34 +5244,32 @@
         <v>5</v>
       </c>
       <c r="L45">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M45">
-        <v>18</v>
+        <v>147.06200000000001</v>
       </c>
       <c r="N45">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="O45">
-        <v>147.06200000000001</v>
+        <v>453</v>
       </c>
       <c r="P45">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="Q45">
-        <v>16</v>
-      </c>
-      <c r="R45">
-        <v>20</v>
+        <v>466</v>
       </c>
       <c r="S45" s="5">
-        <v>453</v>
+        <f t="shared" si="2"/>
+        <v>43</v>
       </c>
       <c r="T45" s="2">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="U45" s="2">
-        <v>466</v>
+        <v>46</v>
       </c>
       <c r="V45" s="2">
         <v>281.87299999999999</v>
@@ -5374,14 +5287,14 @@
         <v>691</v>
       </c>
       <c r="AC45" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43</v>
       </c>
       <c r="AD45" s="2">
         <v>11</v>
       </c>
       <c r="AE45" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AF45" s="2">
         <v>265.21199999999999</v>
@@ -5408,7 +5321,7 @@
         <v>1</v>
       </c>
       <c r="C46" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D46" s="8">
         <v>22.913</v>
@@ -5433,34 +5346,32 @@
         <v>3</v>
       </c>
       <c r="L46">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M46">
-        <v>29</v>
+        <v>229.12299999999999</v>
       </c>
       <c r="N46">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="O46">
-        <v>229.12299999999999</v>
+        <v>403</v>
       </c>
       <c r="P46">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="Q46">
-        <v>16</v>
-      </c>
-      <c r="R46">
-        <v>18</v>
+        <v>409</v>
       </c>
       <c r="S46" s="5">
-        <v>403</v>
+        <f t="shared" si="2"/>
+        <v>44</v>
       </c>
       <c r="T46" s="2">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="U46" s="2">
-        <v>409</v>
+        <v>11</v>
       </c>
       <c r="V46" s="2">
         <v>65.995999999999995</v>
@@ -5478,14 +5389,14 @@
         <v>624</v>
       </c>
       <c r="AC46" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>44</v>
       </c>
       <c r="AD46" s="2">
         <v>6</v>
       </c>
       <c r="AE46" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AF46" s="2">
         <v>302.02600000000001</v>
@@ -5512,7 +5423,7 @@
         <v>5</v>
       </c>
       <c r="C47" s="8">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D47" s="8">
         <v>15.933999999999999</v>
@@ -5537,34 +5448,32 @@
         <v>7</v>
       </c>
       <c r="L47">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="M47">
-        <v>30</v>
+        <v>225.804</v>
       </c>
       <c r="N47">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="O47">
-        <v>225.804</v>
+        <v>425</v>
       </c>
       <c r="P47">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="Q47">
-        <v>10</v>
-      </c>
-      <c r="R47">
-        <v>16</v>
+        <v>464</v>
       </c>
       <c r="S47" s="5">
-        <v>425</v>
+        <f t="shared" si="2"/>
+        <v>45</v>
       </c>
       <c r="T47" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="U47" s="2">
-        <v>464</v>
+        <v>19</v>
       </c>
       <c r="V47" s="2">
         <v>116.49</v>
@@ -5582,14 +5491,14 @@
         <v>629</v>
       </c>
       <c r="AC47" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45</v>
       </c>
       <c r="AD47" s="2">
         <v>6</v>
       </c>
       <c r="AE47" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AF47" s="2">
         <v>265.29700000000003</v>
@@ -5616,7 +5525,7 @@
         <v>4</v>
       </c>
       <c r="C48" s="8">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D48" s="8">
         <v>15.727</v>
@@ -5641,34 +5550,32 @@
         <v>4</v>
       </c>
       <c r="L48">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="M48">
-        <v>10</v>
+        <v>80.084000000000003</v>
       </c>
       <c r="N48">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="O48">
-        <v>80.084000000000003</v>
+        <v>285</v>
       </c>
       <c r="P48">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="Q48">
-        <v>10</v>
-      </c>
-      <c r="R48">
-        <v>13</v>
+        <v>297</v>
       </c>
       <c r="S48" s="5">
-        <v>285</v>
+        <f t="shared" si="2"/>
+        <v>46</v>
       </c>
       <c r="T48" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="U48" s="2">
-        <v>297</v>
+        <v>31</v>
       </c>
       <c r="V48" s="2">
         <v>179.59100000000001</v>
@@ -5686,14 +5593,14 @@
         <v>587</v>
       </c>
       <c r="AC48" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>46</v>
       </c>
       <c r="AD48" s="2">
         <v>5</v>
       </c>
       <c r="AE48" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AF48" s="2">
         <v>383.88</v>
@@ -5720,7 +5627,7 @@
         <v>5</v>
       </c>
       <c r="C49" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D49" s="8">
         <v>24.338000000000001</v>
@@ -5745,34 +5652,32 @@
         <v>5</v>
       </c>
       <c r="L49">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="M49">
-        <v>13</v>
+        <v>104.55500000000001</v>
       </c>
       <c r="N49">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="O49">
-        <v>104.55500000000001</v>
+        <v>458</v>
       </c>
       <c r="P49">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="Q49">
-        <v>16</v>
-      </c>
-      <c r="R49">
-        <v>20</v>
+        <v>479</v>
       </c>
       <c r="S49" s="5">
-        <v>458</v>
+        <f t="shared" si="2"/>
+        <v>47</v>
       </c>
       <c r="T49" s="2">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="U49" s="2">
-        <v>479</v>
+        <v>22</v>
       </c>
       <c r="V49" s="2">
         <v>169.34800000000001</v>
@@ -5790,14 +5695,14 @@
         <v>608</v>
       </c>
       <c r="AC49" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>47</v>
       </c>
       <c r="AD49" s="2">
         <v>3</v>
       </c>
       <c r="AE49" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF49" s="2">
         <v>144.12200000000001</v>
@@ -5824,7 +5729,7 @@
         <v>6</v>
       </c>
       <c r="C50" s="8">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D50" s="8">
         <v>20.11</v>
@@ -5849,34 +5754,32 @@
         <v>6</v>
       </c>
       <c r="L50">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="M50">
-        <v>19</v>
+        <v>142.42099999999999</v>
       </c>
       <c r="N50">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O50">
-        <v>142.42099999999999</v>
+        <v>375</v>
       </c>
       <c r="P50">
+        <v>16</v>
+      </c>
+      <c r="Q50">
+        <v>388</v>
+      </c>
+      <c r="S50" s="5">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="T50" s="2">
+        <v>7</v>
+      </c>
+      <c r="U50" s="2">
         <v>44</v>
-      </c>
-      <c r="Q50">
-        <v>16</v>
-      </c>
-      <c r="R50">
-        <v>21</v>
-      </c>
-      <c r="S50" s="5">
-        <v>375</v>
-      </c>
-      <c r="T50" s="2">
-        <v>16</v>
-      </c>
-      <c r="U50" s="2">
-        <v>388</v>
       </c>
       <c r="V50" s="2">
         <v>343.73099999999999</v>
@@ -5894,14 +5797,14 @@
         <v>628</v>
       </c>
       <c r="AC50" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>48</v>
       </c>
       <c r="AD50" s="2">
         <v>4</v>
       </c>
       <c r="AE50" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AF50" s="2">
         <v>241.441</v>
@@ -5928,7 +5831,7 @@
         <v>5</v>
       </c>
       <c r="C51" s="8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D51" s="8">
         <v>17.495000000000001</v>
@@ -5953,34 +5856,32 @@
         <v>7</v>
       </c>
       <c r="L51">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="M51">
-        <v>37</v>
+        <v>284.77</v>
       </c>
       <c r="N51">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="O51">
-        <v>284.77</v>
+        <v>394</v>
       </c>
       <c r="P51">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="Q51">
-        <v>10</v>
-      </c>
-      <c r="R51">
-        <v>16</v>
+        <v>428</v>
       </c>
       <c r="S51" s="5">
-        <v>394</v>
+        <f t="shared" si="2"/>
+        <v>49</v>
       </c>
       <c r="T51" s="2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="U51" s="2">
-        <v>428</v>
+        <v>25</v>
       </c>
       <c r="V51" s="2">
         <v>198.57599999999999</v>
@@ -5998,14 +5899,14 @@
         <v>544</v>
       </c>
       <c r="AC51" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>49</v>
       </c>
       <c r="AD51" s="2">
         <v>5</v>
       </c>
       <c r="AE51" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AF51" s="2">
         <v>175.84100000000001</v>
@@ -6032,7 +5933,7 @@
         <v>5</v>
       </c>
       <c r="C52" s="8">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D52" s="8">
         <v>18.074999999999999</v>
@@ -6057,34 +5958,32 @@
         <v>6</v>
       </c>
       <c r="L52">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="M52">
-        <v>14</v>
+        <v>110.117</v>
       </c>
       <c r="N52">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O52">
-        <v>110.117</v>
+        <v>313</v>
       </c>
       <c r="P52">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="Q52">
-        <v>10</v>
-      </c>
-      <c r="R52">
-        <v>15</v>
+        <v>332</v>
       </c>
       <c r="S52" s="5">
-        <v>313</v>
+        <f t="shared" si="2"/>
+        <v>50</v>
       </c>
       <c r="T52" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="U52" s="2">
-        <v>332</v>
+        <v>55</v>
       </c>
       <c r="V52" s="2">
         <v>382.142</v>
@@ -6102,14 +6001,14 @@
         <v>678</v>
       </c>
       <c r="AC52" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="AD52" s="2">
         <v>9</v>
       </c>
       <c r="AE52" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AF52" s="2">
         <v>369.12400000000002</v>
@@ -6136,7 +6035,7 @@
         <v>5</v>
       </c>
       <c r="C53" s="8">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" s="8">
         <v>10.193</v>
@@ -6161,34 +6060,32 @@
         <v>5</v>
       </c>
       <c r="L53">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="M53">
-        <v>14</v>
+        <v>106.747</v>
       </c>
       <c r="N53">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="O53">
-        <v>106.747</v>
+        <v>449</v>
       </c>
       <c r="P53">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="Q53">
-        <v>16</v>
-      </c>
-      <c r="R53">
-        <v>20</v>
+        <v>464</v>
       </c>
       <c r="S53" s="5">
-        <v>449</v>
+        <f t="shared" si="2"/>
+        <v>51</v>
       </c>
       <c r="T53" s="2">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="U53" s="2">
-        <v>464</v>
+        <v>27</v>
       </c>
       <c r="V53" s="2">
         <v>141.93</v>
@@ -6206,14 +6103,14 @@
         <v>557</v>
       </c>
       <c r="AC53" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>51</v>
       </c>
       <c r="AD53" s="2">
         <v>8</v>
       </c>
       <c r="AE53" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AF53" s="2">
         <v>648.48299999999995</v>
@@ -6240,7 +6137,7 @@
         <v>8</v>
       </c>
       <c r="C54" s="8">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D54" s="8">
         <v>14.824</v>
@@ -6265,34 +6162,32 @@
         <v>4</v>
       </c>
       <c r="L54">
+        <v>13</v>
+      </c>
+      <c r="M54">
+        <v>93.61</v>
+      </c>
+      <c r="N54">
+        <v>13</v>
+      </c>
+      <c r="O54">
+        <v>290</v>
+      </c>
+      <c r="P54">
+        <v>10</v>
+      </c>
+      <c r="Q54">
+        <v>299</v>
+      </c>
+      <c r="S54" s="5">
+        <f t="shared" si="2"/>
+        <v>52</v>
+      </c>
+      <c r="T54" s="2">
         <v>8</v>
       </c>
-      <c r="M54">
-        <v>12</v>
-      </c>
-      <c r="N54">
-        <v>12</v>
-      </c>
-      <c r="O54">
-        <v>93.61</v>
-      </c>
-      <c r="P54">
-        <v>29</v>
-      </c>
-      <c r="Q54">
-        <v>10</v>
-      </c>
-      <c r="R54">
-        <v>13</v>
-      </c>
-      <c r="S54" s="5">
-        <v>290</v>
-      </c>
-      <c r="T54" s="2">
-        <v>10</v>
-      </c>
       <c r="U54" s="2">
-        <v>299</v>
+        <v>35</v>
       </c>
       <c r="V54" s="2">
         <v>181.96899999999999</v>
@@ -6310,14 +6205,14 @@
         <v>662</v>
       </c>
       <c r="AC54" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>52</v>
       </c>
       <c r="AD54" s="2">
         <v>8</v>
       </c>
       <c r="AE54" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AF54" s="2">
         <v>364.99400000000003</v>
@@ -6344,7 +6239,7 @@
         <v>5</v>
       </c>
       <c r="C55" s="8">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D55" s="8">
         <v>18.847999999999999</v>
@@ -6369,34 +6264,32 @@
         <v>4</v>
       </c>
       <c r="L55">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="M55">
-        <v>20</v>
+        <v>162.66</v>
       </c>
       <c r="N55">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="O55">
-        <v>162.66</v>
+        <v>312</v>
       </c>
       <c r="P55">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="Q55">
-        <v>10</v>
-      </c>
-      <c r="R55">
-        <v>13</v>
+        <v>325</v>
       </c>
       <c r="S55" s="5">
-        <v>312</v>
+        <f t="shared" si="2"/>
+        <v>53</v>
       </c>
       <c r="T55" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="U55" s="2">
-        <v>325</v>
+        <v>28</v>
       </c>
       <c r="V55" s="2">
         <v>152.56899999999999</v>
@@ -6414,14 +6307,14 @@
         <v>473</v>
       </c>
       <c r="AC55" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>53</v>
       </c>
       <c r="AD55" s="2">
         <v>3</v>
       </c>
       <c r="AE55" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF55" s="2">
         <v>149.834</v>
@@ -6448,7 +6341,7 @@
         <v>1</v>
       </c>
       <c r="C56" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" s="8">
         <v>9.7590000000000003</v>
@@ -6473,34 +6366,32 @@
         <v>5</v>
       </c>
       <c r="L56">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="M56">
-        <v>9</v>
+        <v>74.47</v>
       </c>
       <c r="N56">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="O56">
-        <v>74.47</v>
+        <v>396</v>
       </c>
       <c r="P56">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="Q56">
-        <v>16</v>
-      </c>
-      <c r="R56">
-        <v>20</v>
+        <v>406</v>
       </c>
       <c r="S56" s="5">
-        <v>396</v>
+        <f t="shared" si="2"/>
+        <v>54</v>
       </c>
       <c r="T56" s="2">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="U56" s="2">
-        <v>406</v>
+        <v>19</v>
       </c>
       <c r="V56" s="2">
         <v>96.656999999999996</v>
@@ -6518,14 +6409,14 @@
         <v>671</v>
       </c>
       <c r="AC56" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>54</v>
       </c>
       <c r="AD56" s="2">
         <v>9</v>
       </c>
       <c r="AE56" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AF56" s="2">
         <v>173.012</v>
@@ -6552,7 +6443,7 @@
         <v>6</v>
       </c>
       <c r="C57" s="8">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D57" s="8">
         <v>14.302</v>
@@ -6577,34 +6468,32 @@
         <v>6</v>
       </c>
       <c r="L57">
+        <v>22</v>
+      </c>
+      <c r="M57">
+        <v>168.602</v>
+      </c>
+      <c r="N57">
         <v>15</v>
       </c>
-      <c r="M57">
-        <v>21</v>
-      </c>
-      <c r="N57">
-        <v>21</v>
-      </c>
       <c r="O57">
-        <v>168.602</v>
+        <v>309</v>
       </c>
       <c r="P57">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="Q57">
-        <v>10</v>
-      </c>
-      <c r="R57">
+        <v>331</v>
+      </c>
+      <c r="S57" s="5">
+        <f t="shared" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="T57" s="2">
+        <v>1</v>
+      </c>
+      <c r="U57" s="2">
         <v>15</v>
-      </c>
-      <c r="S57" s="5">
-        <v>309</v>
-      </c>
-      <c r="T57" s="2">
-        <v>10</v>
-      </c>
-      <c r="U57" s="2">
-        <v>331</v>
       </c>
       <c r="V57" s="2">
         <v>78.650999999999996</v>
@@ -6622,14 +6511,14 @@
         <v>717</v>
       </c>
       <c r="AC57" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>55</v>
       </c>
       <c r="AD57" s="2">
         <v>6</v>
       </c>
       <c r="AE57" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF57" s="2">
         <v>150.56700000000001</v>
@@ -6656,7 +6545,7 @@
         <v>5</v>
       </c>
       <c r="C58" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D58" s="8">
         <v>23.318999999999999</v>
@@ -6681,34 +6570,32 @@
         <v>5</v>
       </c>
       <c r="L58">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="M58">
-        <v>15</v>
+        <v>118.383</v>
       </c>
       <c r="N58">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="O58">
-        <v>118.383</v>
+        <v>458</v>
       </c>
       <c r="P58">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="Q58">
-        <v>16</v>
-      </c>
-      <c r="R58">
-        <v>20</v>
+        <v>474</v>
       </c>
       <c r="S58" s="5">
-        <v>458</v>
+        <f t="shared" si="2"/>
+        <v>56</v>
       </c>
       <c r="T58" s="2">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="U58" s="2">
-        <v>474</v>
+        <v>23</v>
       </c>
       <c r="V58" s="2">
         <v>115.18300000000001</v>
@@ -6726,14 +6613,14 @@
         <v>642</v>
       </c>
       <c r="AC58" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>56</v>
       </c>
       <c r="AD58" s="2">
         <v>5</v>
       </c>
       <c r="AE58" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AF58" s="2">
         <v>492.673</v>
@@ -6760,7 +6647,7 @@
         <v>8</v>
       </c>
       <c r="C59" s="8">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D59" s="8">
         <v>16.71</v>
@@ -6785,34 +6672,32 @@
         <v>6</v>
       </c>
       <c r="L59">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="M59">
-        <v>16</v>
+        <v>126.027</v>
       </c>
       <c r="N59">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O59">
-        <v>126.027</v>
+        <v>334</v>
       </c>
       <c r="P59">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="Q59">
-        <v>10</v>
-      </c>
-      <c r="R59">
-        <v>15</v>
+        <v>358</v>
       </c>
       <c r="S59" s="5">
-        <v>334</v>
+        <f t="shared" si="2"/>
+        <v>57</v>
       </c>
       <c r="T59" s="2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="U59" s="2">
-        <v>358</v>
+        <v>21</v>
       </c>
       <c r="V59" s="2">
         <v>116.52</v>
@@ -6830,14 +6715,14 @@
         <v>517</v>
       </c>
       <c r="AC59" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>57</v>
       </c>
       <c r="AD59" s="2">
         <v>7</v>
       </c>
       <c r="AE59" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AF59" s="2">
         <v>198.39599999999999</v>
@@ -6864,7 +6749,7 @@
         <v>6</v>
       </c>
       <c r="C60" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D60" s="8">
         <v>28.215</v>
@@ -6889,34 +6774,32 @@
         <v>5</v>
       </c>
       <c r="L60">
+        <v>9</v>
+      </c>
+      <c r="M60">
+        <v>64.58</v>
+      </c>
+      <c r="N60">
+        <v>20</v>
+      </c>
+      <c r="O60">
+        <v>468</v>
+      </c>
+      <c r="P60">
+        <v>16</v>
+      </c>
+      <c r="Q60">
+        <v>482</v>
+      </c>
+      <c r="S60" s="5">
+        <f t="shared" si="2"/>
+        <v>58</v>
+      </c>
+      <c r="T60" s="2">
         <v>3</v>
       </c>
-      <c r="M60">
-        <v>8</v>
-      </c>
-      <c r="N60">
-        <v>8</v>
-      </c>
-      <c r="O60">
-        <v>64.58</v>
-      </c>
-      <c r="P60">
-        <v>23</v>
-      </c>
-      <c r="Q60">
-        <v>16</v>
-      </c>
-      <c r="R60">
-        <v>20</v>
-      </c>
-      <c r="S60" s="5">
-        <v>468</v>
-      </c>
-      <c r="T60" s="2">
-        <v>16</v>
-      </c>
       <c r="U60" s="2">
-        <v>482</v>
+        <v>12</v>
       </c>
       <c r="V60" s="2">
         <v>64.343000000000004</v>
@@ -6934,14 +6817,14 @@
         <v>425</v>
       </c>
       <c r="AC60" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>58</v>
       </c>
       <c r="AD60" s="2">
         <v>7</v>
       </c>
       <c r="AE60" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AF60" s="2">
         <v>256.88200000000001</v>
@@ -6968,7 +6851,7 @@
         <v>5</v>
       </c>
       <c r="C61" s="8">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D61" s="8">
         <v>17.635000000000002</v>
@@ -6993,34 +6876,32 @@
         <v>5</v>
       </c>
       <c r="L61">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="M61">
-        <v>17</v>
+        <v>128.47</v>
       </c>
       <c r="N61">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="O61">
-        <v>128.47</v>
+        <v>466</v>
       </c>
       <c r="P61">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="Q61">
-        <v>16</v>
-      </c>
-      <c r="R61">
+        <v>479</v>
+      </c>
+      <c r="S61" s="5">
+        <f t="shared" si="2"/>
+        <v>59</v>
+      </c>
+      <c r="T61" s="2">
+        <v>5</v>
+      </c>
+      <c r="U61" s="2">
         <v>20</v>
-      </c>
-      <c r="S61" s="5">
-        <v>466</v>
-      </c>
-      <c r="T61" s="2">
-        <v>16</v>
-      </c>
-      <c r="U61" s="2">
-        <v>479</v>
       </c>
       <c r="V61" s="2">
         <v>113.057</v>
@@ -7038,14 +6919,14 @@
         <v>537</v>
       </c>
       <c r="AC61" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>59</v>
       </c>
       <c r="AD61" s="2">
         <v>7</v>
       </c>
       <c r="AE61" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AF61" s="2">
         <v>275.25200000000001</v>
@@ -7072,7 +6953,7 @@
         <v>8</v>
       </c>
       <c r="C62" s="8">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D62" s="8">
         <v>16.283000000000001</v>
@@ -7097,34 +6978,32 @@
         <v>5</v>
       </c>
       <c r="L62">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="M62">
-        <v>42</v>
+        <v>334.428</v>
       </c>
       <c r="N62">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="O62">
-        <v>334.428</v>
+        <v>482</v>
       </c>
       <c r="P62">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="Q62">
-        <v>16</v>
-      </c>
-      <c r="R62">
-        <v>20</v>
+        <v>497</v>
       </c>
       <c r="S62" s="5">
-        <v>482</v>
+        <f t="shared" si="2"/>
+        <v>60</v>
       </c>
       <c r="T62" s="2">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="U62" s="2">
-        <v>497</v>
+        <v>19</v>
       </c>
       <c r="V62" s="2">
         <v>97.841999999999999</v>
@@ -7142,14 +7021,14 @@
         <v>577</v>
       </c>
       <c r="AC62" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="AD62" s="2">
         <v>5</v>
       </c>
       <c r="AE62" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AF62" s="2">
         <v>469.25200000000001</v>
@@ -7176,7 +7055,7 @@
         <v>7</v>
       </c>
       <c r="C63" s="8">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" s="8">
         <v>10.186999999999999</v>
@@ -7201,34 +7080,32 @@
         <v>7</v>
       </c>
       <c r="L63">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="M63">
-        <v>17</v>
+        <v>137.97999999999999</v>
       </c>
       <c r="N63">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O63">
-        <v>137.97999999999999</v>
+        <v>370</v>
       </c>
       <c r="P63">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="Q63">
-        <v>10</v>
-      </c>
-      <c r="R63">
-        <v>16</v>
+        <v>407</v>
       </c>
       <c r="S63" s="5">
-        <v>370</v>
+        <f t="shared" si="2"/>
+        <v>61</v>
       </c>
       <c r="T63" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="U63" s="2">
-        <v>407</v>
+        <v>18</v>
       </c>
       <c r="V63" s="2">
         <v>101.22499999999999</v>
@@ -7246,14 +7123,14 @@
         <v>521</v>
       </c>
       <c r="AC63" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>61</v>
       </c>
       <c r="AD63" s="2">
         <v>7</v>
       </c>
       <c r="AE63" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AF63" s="2">
         <v>529.70100000000002</v>
@@ -7280,7 +7157,7 @@
         <v>5</v>
       </c>
       <c r="C64" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D64" s="8">
         <v>19.363</v>
@@ -7305,34 +7182,32 @@
         <v>2</v>
       </c>
       <c r="L64">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M64">
-        <v>15</v>
+        <v>114.349</v>
       </c>
       <c r="N64">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="O64">
-        <v>114.349</v>
+        <v>283</v>
       </c>
       <c r="P64">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="Q64">
-        <v>10</v>
-      </c>
-      <c r="R64">
-        <v>11</v>
+        <v>287</v>
       </c>
       <c r="S64" s="5">
-        <v>283</v>
+        <f t="shared" si="2"/>
+        <v>62</v>
       </c>
       <c r="T64" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="U64" s="2">
-        <v>287</v>
+        <v>17</v>
       </c>
       <c r="V64" s="2">
         <v>91.805999999999997</v>
@@ -7350,14 +7225,14 @@
         <v>741</v>
       </c>
       <c r="AC64" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>62</v>
       </c>
       <c r="AD64" s="2">
         <v>4</v>
       </c>
       <c r="AE64" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AF64" s="2">
         <v>153.08199999999999</v>
@@ -7384,7 +7259,7 @@
         <v>4</v>
       </c>
       <c r="C65" s="8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D65" s="8">
         <v>11.712</v>
@@ -7409,34 +7284,32 @@
         <v>7</v>
       </c>
       <c r="L65">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="M65">
-        <v>24</v>
+        <v>186.25899999999999</v>
       </c>
       <c r="N65">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O65">
-        <v>186.25899999999999</v>
+        <v>402</v>
       </c>
       <c r="P65">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="Q65">
-        <v>16</v>
-      </c>
-      <c r="R65">
-        <v>22</v>
+        <v>419</v>
       </c>
       <c r="S65" s="5">
-        <v>402</v>
+        <f t="shared" si="2"/>
+        <v>63</v>
       </c>
       <c r="T65" s="2">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="U65" s="2">
-        <v>419</v>
+        <v>27</v>
       </c>
       <c r="V65" s="2">
         <v>147.226</v>
@@ -7454,14 +7327,14 @@
         <v>498</v>
       </c>
       <c r="AC65" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>63</v>
       </c>
       <c r="AD65" s="2">
         <v>6</v>
       </c>
       <c r="AE65" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AF65" s="2">
         <v>176.61</v>
@@ -7488,7 +7361,7 @@
         <v>7</v>
       </c>
       <c r="C66" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D66" s="8">
         <v>27.577000000000002</v>
@@ -7513,34 +7386,32 @@
         <v>7</v>
       </c>
       <c r="L66">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="M66">
-        <v>18</v>
+        <v>145.81200000000001</v>
       </c>
       <c r="N66">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O66">
-        <v>145.81200000000001</v>
+        <v>328</v>
       </c>
       <c r="P66">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="Q66">
-        <v>10</v>
-      </c>
-      <c r="R66">
-        <v>16</v>
+        <v>356</v>
       </c>
       <c r="S66" s="5">
-        <v>328</v>
+        <f t="shared" si="2"/>
+        <v>64</v>
       </c>
       <c r="T66" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U66" s="2">
-        <v>356</v>
+        <v>17</v>
       </c>
       <c r="V66" s="2">
         <v>92.528999999999996</v>
@@ -7558,14 +7429,14 @@
         <v>729</v>
       </c>
       <c r="AC66" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>64</v>
       </c>
       <c r="AD66" s="2">
         <v>7</v>
       </c>
       <c r="AE66" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AF66" s="2">
         <v>438.29700000000003</v>
@@ -7592,7 +7463,7 @@
         <v>5</v>
       </c>
       <c r="C67" s="8">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D67" s="8">
         <v>14.048</v>
@@ -7617,34 +7488,32 @@
         <v>6</v>
       </c>
       <c r="L67">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="M67">
-        <v>10</v>
+        <v>81.066000000000003</v>
       </c>
       <c r="N67">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="O67">
-        <v>81.066000000000003</v>
+        <v>309</v>
       </c>
       <c r="P67">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="Q67">
-        <v>10</v>
-      </c>
-      <c r="R67">
-        <v>15</v>
+        <v>332</v>
       </c>
       <c r="S67" s="5">
-        <v>309</v>
+        <f t="shared" si="2"/>
+        <v>65</v>
       </c>
       <c r="T67" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="U67" s="2">
-        <v>332</v>
+        <v>45</v>
       </c>
       <c r="V67" s="2">
         <v>254.58500000000001</v>
@@ -7662,14 +7531,14 @@
         <v>684</v>
       </c>
       <c r="AC67" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>65</v>
       </c>
       <c r="AD67" s="2">
         <v>6</v>
       </c>
       <c r="AE67" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF67" s="2">
         <v>239.441</v>
@@ -7696,7 +7565,7 @@
         <v>1</v>
       </c>
       <c r="C68" s="8">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D68" s="8">
         <v>13.138999999999999</v>
@@ -7721,34 +7590,32 @@
         <v>6</v>
       </c>
       <c r="L68">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="M68">
-        <v>38</v>
+        <v>292.38499999999999</v>
       </c>
       <c r="N68">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="O68">
-        <v>292.38499999999999</v>
+        <v>395</v>
       </c>
       <c r="P68">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="Q68">
-        <v>10</v>
-      </c>
-      <c r="R68">
-        <v>15</v>
+        <v>428</v>
       </c>
       <c r="S68" s="5">
-        <v>395</v>
+        <f t="shared" si="2"/>
+        <v>66</v>
       </c>
       <c r="T68" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="U68" s="2">
-        <v>428</v>
+        <v>8</v>
       </c>
       <c r="V68" s="2">
         <v>43.509</v>
@@ -7766,14 +7633,14 @@
         <v>418</v>
       </c>
       <c r="AC68" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>66</v>
       </c>
       <c r="AD68" s="2">
         <v>3</v>
       </c>
       <c r="AE68" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF68" s="2">
         <v>224.58</v>
@@ -7793,14 +7660,14 @@
     </row>
     <row r="69" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A69" s="5">
-        <f t="shared" ref="A69:A102" si="3">A68+1</f>
+        <f t="shared" ref="A69:A102" si="4">A68+1</f>
         <v>67</v>
       </c>
       <c r="B69" s="8">
         <v>5</v>
       </c>
       <c r="C69" s="8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D69" s="8">
         <v>20.712</v>
@@ -7818,41 +7685,39 @@
         <v>296</v>
       </c>
       <c r="J69" s="5">
-        <f t="shared" ref="J69:J102" si="4">J68+1</f>
+        <f t="shared" ref="J69:J102" si="5">J68+1</f>
         <v>67</v>
       </c>
       <c r="K69">
         <v>2</v>
       </c>
       <c r="L69">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="M69">
-        <v>10</v>
+        <v>77.426000000000002</v>
       </c>
       <c r="N69">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O69">
-        <v>77.426000000000002</v>
+        <v>281</v>
       </c>
       <c r="P69">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="Q69">
-        <v>10</v>
-      </c>
-      <c r="R69">
-        <v>11</v>
+        <v>283</v>
       </c>
       <c r="S69" s="5">
-        <v>281</v>
+        <f t="shared" ref="S69:S102" si="6">S68+1</f>
+        <v>67</v>
       </c>
       <c r="T69" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="U69" s="2">
-        <v>283</v>
+        <v>21</v>
       </c>
       <c r="V69" s="2">
         <v>116.19799999999999</v>
@@ -7870,14 +7735,14 @@
         <v>646</v>
       </c>
       <c r="AC69" s="5">
-        <f t="shared" ref="AC69:AC102" si="5">AC68+1</f>
+        <f t="shared" ref="AC69:AC102" si="7">AC68+1</f>
         <v>67</v>
       </c>
       <c r="AD69" s="2">
         <v>7</v>
       </c>
       <c r="AE69" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AF69" s="2">
         <v>229.70500000000001</v>
@@ -7897,14 +7762,14 @@
     </row>
     <row r="70" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A70" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>68</v>
       </c>
       <c r="B70" s="8">
         <v>7</v>
       </c>
       <c r="C70" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D70" s="8">
         <v>24.286999999999999</v>
@@ -7922,41 +7787,39 @@
         <v>295</v>
       </c>
       <c r="J70" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>68</v>
       </c>
       <c r="K70">
         <v>1</v>
       </c>
       <c r="L70">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M70">
+        <v>57.966000000000001</v>
+      </c>
+      <c r="N70">
+        <v>27</v>
+      </c>
+      <c r="O70">
+        <v>511</v>
+      </c>
+      <c r="P70">
+        <v>27</v>
+      </c>
+      <c r="Q70">
+        <v>511</v>
+      </c>
+      <c r="S70" s="5">
+        <f t="shared" si="6"/>
+        <v>68</v>
+      </c>
+      <c r="T70" s="2">
         <v>7</v>
       </c>
-      <c r="N70">
-        <v>7</v>
-      </c>
-      <c r="O70">
-        <v>57.966000000000001</v>
-      </c>
-      <c r="P70">
-        <v>33</v>
-      </c>
-      <c r="Q70">
-        <v>27</v>
-      </c>
-      <c r="R70">
-        <v>27</v>
-      </c>
-      <c r="S70" s="5">
-        <v>511</v>
-      </c>
-      <c r="T70" s="2">
-        <v>27</v>
-      </c>
       <c r="U70" s="2">
-        <v>511</v>
+        <v>23</v>
       </c>
       <c r="V70" s="2">
         <v>141.048</v>
@@ -7974,14 +7837,14 @@
         <v>556</v>
       </c>
       <c r="AC70" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>68</v>
       </c>
       <c r="AD70" s="2">
         <v>8</v>
       </c>
       <c r="AE70" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AF70" s="2">
         <v>291.02600000000001</v>
@@ -8001,14 +7864,14 @@
     </row>
     <row r="71" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A71" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>69</v>
       </c>
       <c r="B71" s="8">
         <v>5</v>
       </c>
       <c r="C71" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D71" s="8">
         <v>23.939</v>
@@ -8026,41 +7889,39 @@
         <v>313</v>
       </c>
       <c r="J71" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>69</v>
       </c>
       <c r="K71">
         <v>5</v>
       </c>
       <c r="L71">
+        <v>13</v>
+      </c>
+      <c r="M71">
+        <v>96.58</v>
+      </c>
+      <c r="N71">
+        <v>20</v>
+      </c>
+      <c r="O71">
+        <v>457</v>
+      </c>
+      <c r="P71">
+        <v>16</v>
+      </c>
+      <c r="Q71">
+        <v>477</v>
+      </c>
+      <c r="S71" s="5">
+        <f t="shared" si="6"/>
+        <v>69</v>
+      </c>
+      <c r="T71" s="2">
         <v>7</v>
       </c>
-      <c r="M71">
-        <v>12</v>
-      </c>
-      <c r="N71">
-        <v>12</v>
-      </c>
-      <c r="O71">
-        <v>96.58</v>
-      </c>
-      <c r="P71">
-        <v>27</v>
-      </c>
-      <c r="Q71">
-        <v>16</v>
-      </c>
-      <c r="R71">
-        <v>20</v>
-      </c>
-      <c r="S71" s="5">
-        <v>457</v>
-      </c>
-      <c r="T71" s="2">
-        <v>16</v>
-      </c>
       <c r="U71" s="2">
-        <v>477</v>
+        <v>45</v>
       </c>
       <c r="V71" s="2">
         <v>251.864</v>
@@ -8078,14 +7939,14 @@
         <v>700</v>
       </c>
       <c r="AC71" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>69</v>
       </c>
       <c r="AD71" s="2">
         <v>9</v>
       </c>
       <c r="AE71" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF71" s="2">
         <v>323.42899999999997</v>
@@ -8105,14 +7966,14 @@
     </row>
     <row r="72" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A72" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>70</v>
       </c>
       <c r="B72" s="8">
         <v>7</v>
       </c>
       <c r="C72" s="8">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D72" s="8">
         <v>19.800999999999998</v>
@@ -8130,41 +7991,39 @@
         <v>312</v>
       </c>
       <c r="J72" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>70</v>
       </c>
       <c r="K72">
         <v>5</v>
       </c>
       <c r="L72">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="M72">
-        <v>14</v>
+        <v>112.182</v>
       </c>
       <c r="N72">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="O72">
-        <v>112.182</v>
+        <v>461</v>
       </c>
       <c r="P72">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="Q72">
-        <v>16</v>
-      </c>
-      <c r="R72">
-        <v>20</v>
+        <v>476</v>
       </c>
       <c r="S72" s="5">
-        <v>461</v>
+        <f t="shared" si="6"/>
+        <v>70</v>
       </c>
       <c r="T72" s="2">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="U72" s="2">
-        <v>476</v>
+        <v>23</v>
       </c>
       <c r="V72" s="2">
         <v>135.505</v>
@@ -8182,14 +8041,14 @@
         <v>656</v>
       </c>
       <c r="AC72" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>70</v>
       </c>
       <c r="AD72" s="2">
         <v>2</v>
       </c>
       <c r="AE72" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF72" s="2">
         <v>144.89400000000001</v>
@@ -8209,14 +8068,14 @@
     </row>
     <row r="73" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A73" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>71</v>
       </c>
       <c r="B73" s="8">
         <v>9</v>
       </c>
       <c r="C73" s="8">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D73" s="8">
         <v>16.527999999999999</v>
@@ -8234,41 +8093,39 @@
         <v>274</v>
       </c>
       <c r="J73" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>71</v>
       </c>
       <c r="K73">
         <v>9</v>
       </c>
       <c r="L73">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="M73">
+        <v>114.262</v>
+      </c>
+      <c r="N73">
+        <v>18</v>
+      </c>
+      <c r="O73">
+        <v>382</v>
+      </c>
+      <c r="P73">
+        <v>10</v>
+      </c>
+      <c r="Q73">
+        <v>422</v>
+      </c>
+      <c r="S73" s="5">
+        <f t="shared" si="6"/>
+        <v>71</v>
+      </c>
+      <c r="T73" s="2">
+        <v>2</v>
+      </c>
+      <c r="U73" s="2">
         <v>14</v>
-      </c>
-      <c r="N73">
-        <v>14</v>
-      </c>
-      <c r="O73">
-        <v>114.262</v>
-      </c>
-      <c r="P73">
-        <v>30</v>
-      </c>
-      <c r="Q73">
-        <v>10</v>
-      </c>
-      <c r="R73">
-        <v>18</v>
-      </c>
-      <c r="S73" s="5">
-        <v>382</v>
-      </c>
-      <c r="T73" s="2">
-        <v>10</v>
-      </c>
-      <c r="U73" s="2">
-        <v>422</v>
       </c>
       <c r="V73" s="2">
         <v>80.555999999999997</v>
@@ -8286,14 +8143,14 @@
         <v>404</v>
       </c>
       <c r="AC73" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>71</v>
       </c>
       <c r="AD73" s="2">
         <v>6</v>
       </c>
       <c r="AE73" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AF73" s="2">
         <v>193.685</v>
@@ -8313,14 +8170,14 @@
     </row>
     <row r="74" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A74" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>72</v>
       </c>
       <c r="B74" s="8">
         <v>5</v>
       </c>
       <c r="C74" s="8">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D74" s="8">
         <v>15.086</v>
@@ -8338,41 +8195,39 @@
         <v>307</v>
       </c>
       <c r="J74" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>72</v>
       </c>
       <c r="K74">
         <v>2</v>
       </c>
       <c r="L74">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="M74">
-        <v>12</v>
+        <v>113.949</v>
       </c>
       <c r="N74">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O74">
-        <v>113.949</v>
+        <v>260</v>
       </c>
       <c r="P74">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="Q74">
-        <v>10</v>
-      </c>
-      <c r="R74">
-        <v>11</v>
+        <v>261</v>
       </c>
       <c r="S74" s="5">
-        <v>260</v>
+        <f t="shared" si="6"/>
+        <v>72</v>
       </c>
       <c r="T74" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="U74" s="2">
-        <v>261</v>
+        <v>27</v>
       </c>
       <c r="V74" s="2">
         <v>151.40799999999999</v>
@@ -8390,14 +8245,14 @@
         <v>539</v>
       </c>
       <c r="AC74" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>72</v>
       </c>
       <c r="AD74" s="2">
         <v>5</v>
       </c>
       <c r="AE74" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AF74" s="2">
         <v>338.625</v>
@@ -8417,14 +8272,14 @@
     </row>
     <row r="75" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A75" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>73</v>
       </c>
       <c r="B75" s="8">
         <v>5</v>
       </c>
       <c r="C75" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D75" s="8">
         <v>25.106999999999999</v>
@@ -8442,41 +8297,39 @@
         <v>336</v>
       </c>
       <c r="J75" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>73</v>
       </c>
       <c r="K75">
         <v>10</v>
       </c>
       <c r="L75">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="M75">
-        <v>24</v>
+        <v>190.81800000000001</v>
       </c>
       <c r="N75">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="O75">
-        <v>190.81800000000001</v>
+        <v>387</v>
       </c>
       <c r="P75">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="Q75">
-        <v>10</v>
-      </c>
-      <c r="R75">
-        <v>19</v>
+        <v>427</v>
       </c>
       <c r="S75" s="5">
-        <v>387</v>
+        <f t="shared" si="6"/>
+        <v>73</v>
       </c>
       <c r="T75" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U75" s="2">
-        <v>427</v>
+        <v>20</v>
       </c>
       <c r="V75" s="2">
         <v>116.26900000000001</v>
@@ -8494,14 +8347,14 @@
         <v>516</v>
       </c>
       <c r="AC75" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>73</v>
       </c>
       <c r="AD75" s="2">
         <v>1</v>
       </c>
       <c r="AE75" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AF75" s="2">
         <v>153.59800000000001</v>
@@ -8521,14 +8374,14 @@
     </row>
     <row r="76" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A76" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>74</v>
       </c>
       <c r="B76" s="8">
         <v>5</v>
       </c>
       <c r="C76" s="8">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D76" s="8">
         <v>11.404999999999999</v>
@@ -8546,41 +8399,39 @@
         <v>224</v>
       </c>
       <c r="J76" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>74</v>
       </c>
       <c r="K76">
         <v>5</v>
       </c>
       <c r="L76">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="M76">
-        <v>15</v>
+        <v>122.676</v>
       </c>
       <c r="N76">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="O76">
-        <v>122.676</v>
+        <v>425</v>
       </c>
       <c r="P76">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="Q76">
-        <v>16</v>
-      </c>
-      <c r="R76">
-        <v>20</v>
+        <v>437</v>
       </c>
       <c r="S76" s="5">
-        <v>425</v>
+        <f t="shared" si="6"/>
+        <v>74</v>
       </c>
       <c r="T76" s="2">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="U76" s="2">
-        <v>437</v>
+        <v>38</v>
       </c>
       <c r="V76" s="2">
         <v>221.43199999999999</v>
@@ -8598,14 +8449,14 @@
         <v>765</v>
       </c>
       <c r="AC76" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>74</v>
       </c>
       <c r="AD76" s="2">
         <v>6</v>
       </c>
       <c r="AE76" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AF76" s="2">
         <v>239.23599999999999</v>
@@ -8625,14 +8476,14 @@
     </row>
     <row r="77" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A77" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>75</v>
       </c>
       <c r="B77" s="8">
         <v>7</v>
       </c>
       <c r="C77" s="8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D77" s="8">
         <v>16.882999999999999</v>
@@ -8650,41 +8501,39 @@
         <v>255</v>
       </c>
       <c r="J77" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>75</v>
       </c>
       <c r="K77">
         <v>7</v>
       </c>
       <c r="L77">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="M77">
-        <v>17</v>
+        <v>133.81700000000001</v>
       </c>
       <c r="N77">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O77">
-        <v>133.81700000000001</v>
+        <v>350</v>
       </c>
       <c r="P77">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="Q77">
-        <v>10</v>
-      </c>
-      <c r="R77">
-        <v>16</v>
+        <v>379</v>
       </c>
       <c r="S77" s="5">
-        <v>350</v>
+        <f t="shared" si="6"/>
+        <v>75</v>
       </c>
       <c r="T77" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="U77" s="2">
-        <v>379</v>
+        <v>25</v>
       </c>
       <c r="V77" s="2">
         <v>136.65199999999999</v>
@@ -8702,14 +8551,14 @@
         <v>682</v>
       </c>
       <c r="AC77" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>75</v>
       </c>
       <c r="AD77" s="2">
         <v>4</v>
       </c>
       <c r="AE77" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF77" s="2">
         <v>216.767</v>
@@ -8729,14 +8578,14 @@
     </row>
     <row r="78" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A78" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>76</v>
       </c>
       <c r="B78" s="8">
         <v>6</v>
       </c>
       <c r="C78" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D78" s="8">
         <v>19.116</v>
@@ -8754,41 +8603,39 @@
         <v>304</v>
       </c>
       <c r="J78" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>76</v>
       </c>
       <c r="K78">
         <v>5</v>
       </c>
       <c r="L78">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="M78">
-        <v>11</v>
+        <v>102.71599999999999</v>
       </c>
       <c r="N78">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="O78">
-        <v>102.71599999999999</v>
+        <v>434</v>
       </c>
       <c r="P78">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="Q78">
-        <v>16</v>
-      </c>
-      <c r="R78">
-        <v>20</v>
+        <v>451</v>
       </c>
       <c r="S78" s="5">
-        <v>434</v>
+        <f t="shared" si="6"/>
+        <v>76</v>
       </c>
       <c r="T78" s="2">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="U78" s="2">
-        <v>451</v>
+        <v>59</v>
       </c>
       <c r="V78" s="2">
         <v>352.33300000000003</v>
@@ -8806,14 +8653,14 @@
         <v>824</v>
       </c>
       <c r="AC78" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>76</v>
       </c>
       <c r="AD78" s="2">
         <v>5</v>
       </c>
       <c r="AE78" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF78" s="2">
         <v>195.80799999999999</v>
@@ -8833,14 +8680,14 @@
     </row>
     <row r="79" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A79" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>77</v>
       </c>
       <c r="B79" s="8">
         <v>5</v>
       </c>
       <c r="C79" s="8">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D79" s="8">
         <v>15.08</v>
@@ -8858,41 +8705,39 @@
         <v>313</v>
       </c>
       <c r="J79" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>77</v>
       </c>
       <c r="K79">
         <v>8</v>
       </c>
       <c r="L79">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="M79">
-        <v>16</v>
+        <v>134.39599999999999</v>
       </c>
       <c r="N79">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="O79">
-        <v>134.39599999999999</v>
+        <v>340</v>
       </c>
       <c r="P79">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="Q79">
-        <v>10</v>
-      </c>
-      <c r="R79">
-        <v>17</v>
+        <v>371</v>
       </c>
       <c r="S79" s="5">
-        <v>340</v>
+        <f t="shared" si="6"/>
+        <v>77</v>
       </c>
       <c r="T79" s="2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="U79" s="2">
-        <v>371</v>
+        <v>29</v>
       </c>
       <c r="V79" s="2">
         <v>178.11099999999999</v>
@@ -8910,14 +8755,14 @@
         <v>576</v>
       </c>
       <c r="AC79" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>77</v>
       </c>
       <c r="AD79" s="2">
         <v>5</v>
       </c>
       <c r="AE79" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AF79" s="2">
         <v>173.965</v>
@@ -8937,14 +8782,14 @@
     </row>
     <row r="80" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A80" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>78</v>
       </c>
       <c r="B80" s="8">
         <v>5</v>
       </c>
       <c r="C80" s="8">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D80" s="8">
         <v>20.388999999999999</v>
@@ -8962,41 +8807,39 @@
         <v>282</v>
       </c>
       <c r="J80" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>78</v>
       </c>
       <c r="K80">
         <v>4</v>
       </c>
       <c r="L80">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="M80">
-        <v>10</v>
+        <v>84.671000000000006</v>
       </c>
       <c r="N80">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="O80">
-        <v>84.671000000000006</v>
+        <v>283</v>
       </c>
       <c r="P80">
+        <v>10</v>
+      </c>
+      <c r="Q80">
+        <v>292</v>
+      </c>
+      <c r="S80" s="5">
+        <f t="shared" si="6"/>
+        <v>78</v>
+      </c>
+      <c r="T80" s="2">
+        <v>7</v>
+      </c>
+      <c r="U80" s="2">
         <v>19</v>
-      </c>
-      <c r="Q80">
-        <v>10</v>
-      </c>
-      <c r="R80">
-        <v>13</v>
-      </c>
-      <c r="S80" s="5">
-        <v>283</v>
-      </c>
-      <c r="T80" s="2">
-        <v>10</v>
-      </c>
-      <c r="U80" s="2">
-        <v>292</v>
       </c>
       <c r="V80" s="2">
         <v>114.57599999999999</v>
@@ -9014,14 +8857,14 @@
         <v>557</v>
       </c>
       <c r="AC80" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>78</v>
       </c>
       <c r="AD80" s="2">
         <v>5</v>
       </c>
       <c r="AE80" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AF80" s="2">
         <v>162.00700000000001</v>
@@ -9041,14 +8884,14 @@
     </row>
     <row r="81" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A81" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>79</v>
       </c>
       <c r="B81" s="8">
         <v>4</v>
       </c>
       <c r="C81" s="8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D81" s="8">
         <v>16.922999999999998</v>
@@ -9066,41 +8909,39 @@
         <v>290</v>
       </c>
       <c r="J81" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>79</v>
       </c>
       <c r="K81">
         <v>4</v>
       </c>
       <c r="L81">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="M81">
+        <v>95.543000000000006</v>
+      </c>
+      <c r="N81">
+        <v>13</v>
+      </c>
+      <c r="O81">
+        <v>268</v>
+      </c>
+      <c r="P81">
+        <v>10</v>
+      </c>
+      <c r="Q81">
+        <v>278</v>
+      </c>
+      <c r="S81" s="5">
+        <f t="shared" si="6"/>
+        <v>79</v>
+      </c>
+      <c r="T81" s="2">
+        <v>2</v>
+      </c>
+      <c r="U81" s="2">
         <v>12</v>
-      </c>
-      <c r="N81">
-        <v>12</v>
-      </c>
-      <c r="O81">
-        <v>95.543000000000006</v>
-      </c>
-      <c r="P81">
-        <v>21</v>
-      </c>
-      <c r="Q81">
-        <v>10</v>
-      </c>
-      <c r="R81">
-        <v>13</v>
-      </c>
-      <c r="S81" s="5">
-        <v>268</v>
-      </c>
-      <c r="T81" s="2">
-        <v>10</v>
-      </c>
-      <c r="U81" s="2">
-        <v>278</v>
       </c>
       <c r="V81" s="2">
         <v>69.144000000000005</v>
@@ -9118,14 +8959,14 @@
         <v>410</v>
       </c>
       <c r="AC81" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>79</v>
       </c>
       <c r="AD81" s="2">
         <v>3</v>
       </c>
       <c r="AE81" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AF81" s="2">
         <v>178.94</v>
@@ -9145,14 +8986,14 @@
     </row>
     <row r="82" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A82" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>80</v>
       </c>
       <c r="B82" s="8">
         <v>6</v>
       </c>
       <c r="C82" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D82" s="8">
         <v>18.934999999999999</v>
@@ -9170,41 +9011,39 @@
         <v>291</v>
       </c>
       <c r="J82" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>80</v>
       </c>
       <c r="K82">
         <v>1</v>
       </c>
       <c r="L82">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M82">
-        <v>9</v>
+        <v>71.277000000000001</v>
       </c>
       <c r="N82">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O82">
-        <v>71.277000000000001</v>
+        <v>280</v>
       </c>
       <c r="P82">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="Q82">
-        <v>10</v>
-      </c>
-      <c r="R82">
-        <v>10</v>
+        <v>280</v>
       </c>
       <c r="S82" s="5">
-        <v>280</v>
+        <f t="shared" si="6"/>
+        <v>80</v>
       </c>
       <c r="T82" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="U82" s="2">
-        <v>280</v>
+        <v>11</v>
       </c>
       <c r="V82" s="2">
         <v>65.073999999999998</v>
@@ -9222,14 +9061,14 @@
         <v>426</v>
       </c>
       <c r="AC82" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>80</v>
       </c>
       <c r="AD82" s="2">
         <v>5</v>
       </c>
       <c r="AE82" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AF82" s="2">
         <v>407.73099999999999</v>
@@ -9249,14 +9088,14 @@
     </row>
     <row r="83" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A83" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>81</v>
       </c>
       <c r="B83" s="8">
         <v>7</v>
       </c>
       <c r="C83" s="8">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D83" s="8">
         <v>17.762</v>
@@ -9274,41 +9113,39 @@
         <v>296</v>
       </c>
       <c r="J83" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>81</v>
       </c>
       <c r="K83">
         <v>5</v>
       </c>
       <c r="L83">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="M83">
-        <v>11</v>
+        <v>109.709</v>
       </c>
       <c r="N83">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="O83">
-        <v>109.709</v>
+        <v>433</v>
       </c>
       <c r="P83">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="Q83">
-        <v>16</v>
-      </c>
-      <c r="R83">
+        <v>447</v>
+      </c>
+      <c r="S83" s="5">
+        <f t="shared" si="6"/>
+        <v>81</v>
+      </c>
+      <c r="T83" s="2">
+        <v>5</v>
+      </c>
+      <c r="U83" s="2">
         <v>20</v>
-      </c>
-      <c r="S83" s="5">
-        <v>433</v>
-      </c>
-      <c r="T83" s="2">
-        <v>16</v>
-      </c>
-      <c r="U83" s="2">
-        <v>447</v>
       </c>
       <c r="V83" s="2">
         <v>120.392</v>
@@ -9326,14 +9163,14 @@
         <v>479</v>
       </c>
       <c r="AC83" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>81</v>
       </c>
       <c r="AD83" s="2">
         <v>8</v>
       </c>
       <c r="AE83" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AF83" s="2">
         <v>271.87700000000001</v>
@@ -9353,14 +9190,14 @@
     </row>
     <row r="84" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A84" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>82</v>
       </c>
       <c r="B84" s="8">
         <v>4</v>
       </c>
       <c r="C84" s="8">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D84" s="8">
         <v>13.169</v>
@@ -9378,41 +9215,39 @@
         <v>200</v>
       </c>
       <c r="J84" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>82</v>
       </c>
       <c r="K84">
         <v>9</v>
       </c>
       <c r="L84">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="M84">
-        <v>23</v>
+        <v>205.31800000000001</v>
       </c>
       <c r="N84">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="O84">
-        <v>205.31800000000001</v>
+        <v>396</v>
       </c>
       <c r="P84">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="Q84">
-        <v>10</v>
-      </c>
-      <c r="R84">
-        <v>18</v>
+        <v>436</v>
       </c>
       <c r="S84" s="5">
-        <v>396</v>
+        <f t="shared" si="6"/>
+        <v>82</v>
       </c>
       <c r="T84" s="2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="U84" s="2">
-        <v>436</v>
+        <v>20</v>
       </c>
       <c r="V84" s="2">
         <v>112.902</v>
@@ -9430,14 +9265,14 @@
         <v>576</v>
       </c>
       <c r="AC84" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>82</v>
       </c>
       <c r="AD84" s="2">
         <v>9</v>
       </c>
       <c r="AE84" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AF84" s="2">
         <v>153.251</v>
@@ -9457,14 +9292,14 @@
     </row>
     <row r="85" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A85" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>83</v>
       </c>
       <c r="B85" s="8">
         <v>1</v>
       </c>
       <c r="C85" s="8">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" s="8">
         <v>9.7620000000000005</v>
@@ -9482,41 +9317,39 @@
         <v>187</v>
       </c>
       <c r="J85" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>83</v>
       </c>
       <c r="K85">
         <v>5</v>
       </c>
       <c r="L85">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="M85">
-        <v>17</v>
+        <v>135.47200000000001</v>
       </c>
       <c r="N85">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="O85">
-        <v>135.47200000000001</v>
+        <v>398</v>
       </c>
       <c r="P85">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="Q85">
-        <v>16</v>
-      </c>
-      <c r="R85">
-        <v>20</v>
+        <v>417</v>
       </c>
       <c r="S85" s="5">
-        <v>398</v>
+        <f t="shared" si="6"/>
+        <v>83</v>
       </c>
       <c r="T85" s="2">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="U85" s="2">
-        <v>417</v>
+        <v>22</v>
       </c>
       <c r="V85" s="2">
         <v>135.39699999999999</v>
@@ -9534,14 +9367,14 @@
         <v>589</v>
       </c>
       <c r="AC85" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>83</v>
       </c>
       <c r="AD85" s="2">
         <v>8</v>
       </c>
       <c r="AE85" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF85" s="2">
         <v>311.55</v>
@@ -9561,14 +9394,14 @@
     </row>
     <row r="86" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A86" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>84</v>
       </c>
       <c r="B86" s="8">
         <v>7</v>
       </c>
       <c r="C86" s="8">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D86" s="8">
         <v>20.131</v>
@@ -9586,41 +9419,39 @@
         <v>288</v>
       </c>
       <c r="J86" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>84</v>
       </c>
       <c r="K86">
         <v>7</v>
       </c>
       <c r="L86">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M86">
-        <v>25</v>
+        <v>200.929</v>
       </c>
       <c r="N86">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="O86">
-        <v>200.929</v>
+        <v>327</v>
       </c>
       <c r="P86">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="Q86">
-        <v>10</v>
-      </c>
-      <c r="R86">
-        <v>16</v>
+        <v>350</v>
       </c>
       <c r="S86" s="5">
-        <v>327</v>
+        <f t="shared" si="6"/>
+        <v>84</v>
       </c>
       <c r="T86" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="U86" s="2">
-        <v>350</v>
+        <v>31</v>
       </c>
       <c r="V86" s="2">
         <v>189.28200000000001</v>
@@ -9638,14 +9469,14 @@
         <v>626</v>
       </c>
       <c r="AC86" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>84</v>
       </c>
       <c r="AD86" s="2">
         <v>7</v>
       </c>
       <c r="AE86" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AF86" s="2">
         <v>196.75800000000001</v>
@@ -9665,14 +9496,14 @@
     </row>
     <row r="87" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A87" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>85</v>
       </c>
       <c r="B87" s="8">
         <v>3</v>
       </c>
       <c r="C87" s="8">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" s="8">
         <v>9.782</v>
@@ -9690,41 +9521,39 @@
         <v>183</v>
       </c>
       <c r="J87" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>85</v>
       </c>
       <c r="K87">
         <v>5</v>
       </c>
       <c r="L87">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="M87">
-        <v>19</v>
+        <v>155.566</v>
       </c>
       <c r="N87">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O87">
-        <v>155.566</v>
+        <v>467</v>
       </c>
       <c r="P87">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="Q87">
-        <v>16</v>
-      </c>
-      <c r="R87">
-        <v>20</v>
+        <v>482</v>
       </c>
       <c r="S87" s="5">
-        <v>467</v>
+        <f t="shared" si="6"/>
+        <v>85</v>
       </c>
       <c r="T87" s="2">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="U87" s="2">
-        <v>482</v>
+        <v>11</v>
       </c>
       <c r="V87" s="2">
         <v>65.573999999999998</v>
@@ -9742,14 +9571,14 @@
         <v>362</v>
       </c>
       <c r="AC87" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>85</v>
       </c>
       <c r="AD87" s="2">
         <v>6</v>
       </c>
       <c r="AE87" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AF87" s="2">
         <v>341.21499999999997</v>
@@ -9769,14 +9598,14 @@
     </row>
     <row r="88" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A88" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>86</v>
       </c>
       <c r="B88" s="8">
         <v>9</v>
       </c>
       <c r="C88" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D88" s="8">
         <v>30.114999999999998</v>
@@ -9794,41 +9623,39 @@
         <v>301</v>
       </c>
       <c r="J88" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>86</v>
       </c>
       <c r="K88">
         <v>7</v>
       </c>
       <c r="L88">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="M88">
-        <v>46</v>
+        <v>406.13400000000001</v>
       </c>
       <c r="N88">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="O88">
-        <v>406.13400000000001</v>
+        <v>434</v>
       </c>
       <c r="P88">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="Q88">
-        <v>10</v>
-      </c>
-      <c r="R88">
-        <v>16</v>
+        <v>473</v>
       </c>
       <c r="S88" s="5">
-        <v>434</v>
+        <f t="shared" si="6"/>
+        <v>86</v>
       </c>
       <c r="T88" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U88" s="2">
-        <v>473</v>
+        <v>18</v>
       </c>
       <c r="V88" s="2">
         <v>117.376</v>
@@ -9846,14 +9673,14 @@
         <v>509</v>
       </c>
       <c r="AC88" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>86</v>
       </c>
       <c r="AD88" s="2">
         <v>6</v>
       </c>
       <c r="AE88" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AF88" s="2">
         <v>188.304</v>
@@ -9873,14 +9700,14 @@
     </row>
     <row r="89" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A89" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>87</v>
       </c>
       <c r="B89" s="8">
         <v>6</v>
       </c>
       <c r="C89" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D89" s="8">
         <v>22.065000000000001</v>
@@ -9898,41 +9725,39 @@
         <v>277</v>
       </c>
       <c r="J89" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>87</v>
       </c>
       <c r="K89">
         <v>2</v>
       </c>
       <c r="L89">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="M89">
-        <v>8</v>
+        <v>68.319999999999993</v>
       </c>
       <c r="N89">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="O89">
-        <v>68.319999999999993</v>
+        <v>256</v>
       </c>
       <c r="P89">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="Q89">
-        <v>10</v>
-      </c>
-      <c r="R89">
-        <v>11</v>
+        <v>257</v>
       </c>
       <c r="S89" s="5">
-        <v>256</v>
+        <f t="shared" si="6"/>
+        <v>87</v>
       </c>
       <c r="T89" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="U89" s="2">
-        <v>257</v>
+        <v>15</v>
       </c>
       <c r="V89" s="2">
         <v>87.397999999999996</v>
@@ -9950,14 +9775,14 @@
         <v>501</v>
       </c>
       <c r="AC89" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>87</v>
       </c>
       <c r="AD89" s="2">
         <v>7</v>
       </c>
       <c r="AE89" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AF89" s="2">
         <v>655.03399999999999</v>
@@ -9977,14 +9802,14 @@
     </row>
     <row r="90" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A90" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>88</v>
       </c>
       <c r="B90" s="8">
         <v>4</v>
       </c>
       <c r="C90" s="8">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D90" s="8">
         <v>13.071</v>
@@ -10002,41 +9827,39 @@
         <v>217</v>
       </c>
       <c r="J90" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>88</v>
       </c>
       <c r="K90">
         <v>3</v>
       </c>
       <c r="L90">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="M90">
-        <v>11</v>
+        <v>91.247</v>
       </c>
       <c r="N90">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O90">
-        <v>91.247</v>
+        <v>291</v>
       </c>
       <c r="P90">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="Q90">
-        <v>10</v>
-      </c>
-      <c r="R90">
-        <v>12</v>
+        <v>297</v>
       </c>
       <c r="S90" s="5">
-        <v>291</v>
+        <f t="shared" si="6"/>
+        <v>88</v>
       </c>
       <c r="T90" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="U90" s="2">
-        <v>297</v>
+        <v>10</v>
       </c>
       <c r="V90" s="2">
         <v>59.731000000000002</v>
@@ -10054,14 +9877,14 @@
         <v>391</v>
       </c>
       <c r="AC90" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>88</v>
       </c>
       <c r="AD90" s="2">
         <v>5</v>
       </c>
       <c r="AE90" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF90" s="2">
         <v>151.82</v>
@@ -10081,14 +9904,14 @@
     </row>
     <row r="91" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A91" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>89</v>
       </c>
       <c r="B91" s="8">
         <v>1</v>
       </c>
       <c r="C91" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D91" s="8">
         <v>4.8600000000000003</v>
@@ -10106,41 +9929,39 @@
         <v>186</v>
       </c>
       <c r="J91" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>89</v>
       </c>
       <c r="K91">
         <v>3</v>
       </c>
       <c r="L91">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M91">
-        <v>23</v>
+        <v>179.572</v>
       </c>
       <c r="N91">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="O91">
-        <v>179.572</v>
+        <v>397</v>
       </c>
       <c r="P91">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="Q91">
-        <v>16</v>
-      </c>
-      <c r="R91">
-        <v>18</v>
+        <v>403</v>
       </c>
       <c r="S91" s="5">
-        <v>397</v>
+        <f t="shared" si="6"/>
+        <v>89</v>
       </c>
       <c r="T91" s="2">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="U91" s="2">
-        <v>403</v>
+        <v>9</v>
       </c>
       <c r="V91" s="2">
         <v>54.881</v>
@@ -10158,14 +9979,14 @@
         <v>417</v>
       </c>
       <c r="AC91" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>89</v>
       </c>
       <c r="AD91" s="2">
         <v>6</v>
       </c>
       <c r="AE91" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AF91" s="2">
         <v>200.78700000000001</v>
@@ -10185,14 +10006,14 @@
     </row>
     <row r="92" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A92" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>90</v>
       </c>
       <c r="B92" s="8">
         <v>5</v>
       </c>
       <c r="C92" s="8">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D92" s="8">
         <v>14.455</v>
@@ -10210,41 +10031,39 @@
         <v>313</v>
       </c>
       <c r="J92" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>90</v>
       </c>
       <c r="K92">
         <v>8</v>
       </c>
       <c r="L92">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="M92">
-        <v>24</v>
+        <v>196.233</v>
       </c>
       <c r="N92">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="O92">
-        <v>196.233</v>
+        <v>371</v>
       </c>
       <c r="P92">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="Q92">
-        <v>10</v>
-      </c>
-      <c r="R92">
-        <v>17</v>
+        <v>404</v>
       </c>
       <c r="S92" s="5">
-        <v>371</v>
+        <f t="shared" si="6"/>
+        <v>90</v>
       </c>
       <c r="T92" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="U92" s="2">
-        <v>404</v>
+        <v>23</v>
       </c>
       <c r="V92" s="2">
         <v>145.51</v>
@@ -10262,14 +10081,14 @@
         <v>562</v>
       </c>
       <c r="AC92" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>90</v>
       </c>
       <c r="AD92" s="2">
         <v>3</v>
       </c>
       <c r="AE92" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AF92" s="2">
         <v>183.02199999999999</v>
@@ -10289,14 +10108,14 @@
     </row>
     <row r="93" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A93" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>91</v>
       </c>
       <c r="B93" s="8">
         <v>5</v>
       </c>
       <c r="C93" s="8">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D93" s="8">
         <v>17.936</v>
@@ -10314,41 +10133,39 @@
         <v>336</v>
       </c>
       <c r="J93" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>91</v>
       </c>
       <c r="K93">
         <v>7</v>
       </c>
       <c r="L93">
+        <v>20</v>
+      </c>
+      <c r="M93">
+        <v>162.68299999999999</v>
+      </c>
+      <c r="N93">
+        <v>16</v>
+      </c>
+      <c r="O93">
+        <v>395</v>
+      </c>
+      <c r="P93">
+        <v>10</v>
+      </c>
+      <c r="Q93">
+        <v>429</v>
+      </c>
+      <c r="S93" s="5">
+        <f t="shared" si="6"/>
+        <v>91</v>
+      </c>
+      <c r="T93" s="2">
+        <v>5</v>
+      </c>
+      <c r="U93" s="2">
         <v>12</v>
-      </c>
-      <c r="M93">
-        <v>19</v>
-      </c>
-      <c r="N93">
-        <v>19</v>
-      </c>
-      <c r="O93">
-        <v>162.68299999999999</v>
-      </c>
-      <c r="P93">
-        <v>28</v>
-      </c>
-      <c r="Q93">
-        <v>10</v>
-      </c>
-      <c r="R93">
-        <v>16</v>
-      </c>
-      <c r="S93" s="5">
-        <v>395</v>
-      </c>
-      <c r="T93" s="2">
-        <v>10</v>
-      </c>
-      <c r="U93" s="2">
-        <v>429</v>
       </c>
       <c r="V93" s="2">
         <v>74.823999999999998</v>
@@ -10366,14 +10183,14 @@
         <v>505</v>
       </c>
       <c r="AC93" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>91</v>
       </c>
       <c r="AD93" s="2">
         <v>5</v>
       </c>
       <c r="AE93" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AF93" s="2">
         <v>205.38800000000001</v>
@@ -10393,14 +10210,14 @@
     </row>
     <row r="94" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A94" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>92</v>
       </c>
       <c r="B94" s="8">
         <v>5</v>
       </c>
       <c r="C94" s="8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D94" s="8">
         <v>17.155999999999999</v>
@@ -10418,41 +10235,39 @@
         <v>322</v>
       </c>
       <c r="J94" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>92</v>
       </c>
       <c r="K94">
         <v>5</v>
       </c>
       <c r="L94">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="M94">
-        <v>23</v>
+        <v>177.547</v>
       </c>
       <c r="N94">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="O94">
-        <v>177.547</v>
+        <v>474</v>
       </c>
       <c r="P94">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="Q94">
-        <v>16</v>
-      </c>
-      <c r="R94">
-        <v>20</v>
+        <v>493</v>
       </c>
       <c r="S94" s="5">
-        <v>474</v>
+        <f t="shared" si="6"/>
+        <v>92</v>
       </c>
       <c r="T94" s="2">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="U94" s="2">
-        <v>493</v>
+        <v>15</v>
       </c>
       <c r="V94" s="2">
         <v>93.522000000000006</v>
@@ -10470,14 +10285,14 @@
         <v>439</v>
       </c>
       <c r="AC94" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>92</v>
       </c>
       <c r="AD94" s="2">
         <v>10</v>
       </c>
       <c r="AE94" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AF94" s="2">
         <v>320.55900000000003</v>
@@ -10497,14 +10312,14 @@
     </row>
     <row r="95" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A95" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>93</v>
       </c>
       <c r="B95" s="8">
         <v>7</v>
       </c>
       <c r="C95" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D95" s="8">
         <v>23.064</v>
@@ -10522,41 +10337,39 @@
         <v>312</v>
       </c>
       <c r="J95" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>93</v>
       </c>
       <c r="K95">
         <v>5</v>
       </c>
       <c r="L95">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M95">
-        <v>18</v>
+        <v>146.58600000000001</v>
       </c>
       <c r="N95">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="O95">
-        <v>146.58600000000001</v>
+        <v>486</v>
       </c>
       <c r="P95">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="Q95">
-        <v>16</v>
-      </c>
-      <c r="R95">
-        <v>20</v>
+        <v>502</v>
       </c>
       <c r="S95" s="5">
-        <v>486</v>
+        <f t="shared" si="6"/>
+        <v>93</v>
       </c>
       <c r="T95" s="2">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="U95" s="2">
-        <v>502</v>
+        <v>23</v>
       </c>
       <c r="V95" s="2">
         <v>153.11000000000001</v>
@@ -10574,14 +10387,14 @@
         <v>619</v>
       </c>
       <c r="AC95" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>93</v>
       </c>
       <c r="AD95" s="2">
         <v>9</v>
       </c>
       <c r="AE95" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AF95" s="2">
         <v>234.00899999999999</v>
@@ -10601,14 +10414,14 @@
     </row>
     <row r="96" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A96" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>94</v>
       </c>
       <c r="B96" s="8">
         <v>6</v>
       </c>
       <c r="C96" s="8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D96" s="8">
         <v>17.751999999999999</v>
@@ -10626,41 +10439,39 @@
         <v>318</v>
       </c>
       <c r="J96" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>94</v>
       </c>
       <c r="K96">
         <v>7</v>
       </c>
       <c r="L96">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="M96">
-        <v>26</v>
+        <v>202.499</v>
       </c>
       <c r="N96">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="O96">
-        <v>202.499</v>
+        <v>355</v>
       </c>
       <c r="P96">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="Q96">
-        <v>10</v>
-      </c>
-      <c r="R96">
-        <v>16</v>
+        <v>388</v>
       </c>
       <c r="S96" s="5">
-        <v>355</v>
+        <f t="shared" si="6"/>
+        <v>94</v>
       </c>
       <c r="T96" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="U96" s="2">
-        <v>388</v>
+        <v>17</v>
       </c>
       <c r="V96" s="2">
         <v>107.40300000000001</v>
@@ -10678,14 +10489,14 @@
         <v>678</v>
       </c>
       <c r="AC96" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>94</v>
       </c>
       <c r="AD96" s="2">
         <v>4</v>
       </c>
       <c r="AE96" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AF96" s="2">
         <v>299.73200000000003</v>
@@ -10705,14 +10516,14 @@
     </row>
     <row r="97" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A97" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>95</v>
       </c>
       <c r="B97" s="8">
         <v>5</v>
       </c>
       <c r="C97" s="8">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D97" s="8">
         <v>16.689</v>
@@ -10730,41 +10541,39 @@
         <v>305</v>
       </c>
       <c r="J97" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>95</v>
       </c>
       <c r="K97">
         <v>8</v>
       </c>
       <c r="L97">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="M97">
-        <v>15</v>
+        <v>122.67</v>
       </c>
       <c r="N97">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O97">
-        <v>122.67</v>
+        <v>380</v>
       </c>
       <c r="P97">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="Q97">
-        <v>10</v>
-      </c>
-      <c r="R97">
-        <v>17</v>
+        <v>415</v>
       </c>
       <c r="S97" s="5">
-        <v>380</v>
+        <f t="shared" si="6"/>
+        <v>95</v>
       </c>
       <c r="T97" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="U97" s="2">
-        <v>415</v>
+        <v>10</v>
       </c>
       <c r="V97" s="2">
         <v>54.957999999999998</v>
@@ -10782,14 +10591,14 @@
         <v>434</v>
       </c>
       <c r="AC97" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>95</v>
       </c>
       <c r="AD97" s="2">
         <v>3</v>
       </c>
       <c r="AE97" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF97" s="2">
         <v>155.59299999999999</v>
@@ -10809,14 +10618,14 @@
     </row>
     <row r="98" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A98" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>96</v>
       </c>
       <c r="B98" s="8">
         <v>5</v>
       </c>
       <c r="C98" s="8">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D98" s="8">
         <v>12.872999999999999</v>
@@ -10834,41 +10643,39 @@
         <v>302</v>
       </c>
       <c r="J98" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>96</v>
       </c>
       <c r="K98">
         <v>5</v>
       </c>
       <c r="L98">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="M98">
-        <v>13</v>
+        <v>99.822000000000003</v>
       </c>
       <c r="N98">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O98">
-        <v>99.822000000000003</v>
+        <v>295</v>
       </c>
       <c r="P98">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="Q98">
-        <v>10</v>
-      </c>
-      <c r="R98">
-        <v>14</v>
+        <v>309</v>
       </c>
       <c r="S98" s="5">
-        <v>295</v>
+        <f t="shared" si="6"/>
+        <v>96</v>
       </c>
       <c r="T98" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="U98" s="2">
-        <v>309</v>
+        <v>9</v>
       </c>
       <c r="V98" s="2">
         <v>46.33</v>
@@ -10886,14 +10693,14 @@
         <v>407</v>
       </c>
       <c r="AC98" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>96</v>
       </c>
       <c r="AD98" s="2">
         <v>6</v>
       </c>
       <c r="AE98" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AF98" s="2">
         <v>300.87700000000001</v>
@@ -10913,14 +10720,14 @@
     </row>
     <row r="99" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A99" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>97</v>
       </c>
       <c r="B99" s="8">
         <v>8</v>
       </c>
       <c r="C99" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D99" s="8">
         <v>29.123000000000001</v>
@@ -10938,41 +10745,39 @@
         <v>313</v>
       </c>
       <c r="J99" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>97</v>
       </c>
       <c r="K99">
         <v>6</v>
       </c>
       <c r="L99">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="M99">
-        <v>16</v>
+        <v>128.33799999999999</v>
       </c>
       <c r="N99">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="O99">
-        <v>128.33799999999999</v>
+        <v>431</v>
       </c>
       <c r="P99">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="Q99">
-        <v>16</v>
-      </c>
-      <c r="R99">
-        <v>21</v>
+        <v>445</v>
       </c>
       <c r="S99" s="5">
-        <v>431</v>
+        <f t="shared" si="6"/>
+        <v>97</v>
       </c>
       <c r="T99" s="2">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="U99" s="2">
-        <v>445</v>
+        <v>35</v>
       </c>
       <c r="V99" s="2">
         <v>189.71</v>
@@ -10990,14 +10795,14 @@
         <v>587</v>
       </c>
       <c r="AC99" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>97</v>
       </c>
       <c r="AD99" s="2">
         <v>7</v>
       </c>
       <c r="AE99" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AF99" s="2">
         <v>195.78700000000001</v>
@@ -11017,14 +10822,14 @@
     </row>
     <row r="100" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A100" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>98</v>
       </c>
       <c r="B100" s="8">
         <v>7</v>
       </c>
       <c r="C100" s="8">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D100" s="8">
         <v>14.86</v>
@@ -11042,41 +10847,39 @@
         <v>233</v>
       </c>
       <c r="J100" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>98</v>
       </c>
       <c r="K100">
         <v>7</v>
       </c>
       <c r="L100">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="M100">
-        <v>42</v>
+        <v>344.42</v>
       </c>
       <c r="N100">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="O100">
-        <v>344.42</v>
+        <v>476</v>
       </c>
       <c r="P100">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="Q100">
-        <v>10</v>
-      </c>
-      <c r="R100">
-        <v>16</v>
+        <v>514</v>
       </c>
       <c r="S100" s="5">
-        <v>476</v>
+        <f t="shared" si="6"/>
+        <v>98</v>
       </c>
       <c r="T100" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="U100" s="2">
-        <v>514</v>
+        <v>25</v>
       </c>
       <c r="V100" s="2">
         <v>129.84100000000001</v>
@@ -11094,14 +10897,14 @@
         <v>774</v>
       </c>
       <c r="AC100" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>98</v>
       </c>
       <c r="AD100" s="2">
         <v>5</v>
       </c>
       <c r="AE100" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AF100" s="2">
         <v>187.42</v>
@@ -11121,14 +10924,14 @@
     </row>
     <row r="101" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A101" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>99</v>
       </c>
       <c r="B101" s="8">
         <v>8</v>
       </c>
       <c r="C101" s="8">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D101" s="8">
         <v>15.946</v>
@@ -11146,41 +10949,39 @@
         <v>257</v>
       </c>
       <c r="J101" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>99</v>
       </c>
       <c r="K101">
         <v>4</v>
       </c>
       <c r="L101">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="M101">
-        <v>12</v>
+        <v>97.864999999999995</v>
       </c>
       <c r="N101">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="O101">
-        <v>97.864999999999995</v>
+        <v>432</v>
       </c>
       <c r="P101">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="Q101">
-        <v>16</v>
-      </c>
-      <c r="R101">
-        <v>19</v>
+        <v>442</v>
       </c>
       <c r="S101" s="5">
-        <v>432</v>
+        <f t="shared" si="6"/>
+        <v>99</v>
       </c>
       <c r="T101" s="2">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="U101" s="2">
-        <v>442</v>
+        <v>25</v>
       </c>
       <c r="V101" s="2">
         <v>133.76400000000001</v>
@@ -11198,14 +10999,14 @@
         <v>514</v>
       </c>
       <c r="AC101" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>99</v>
       </c>
       <c r="AD101" s="2">
         <v>4</v>
       </c>
       <c r="AE101" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF101" s="2">
         <v>216.773</v>
@@ -11225,14 +11026,14 @@
     </row>
     <row r="102" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A102" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="B102" s="8">
         <v>7</v>
       </c>
       <c r="C102" s="8">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D102" s="8">
         <v>18.119</v>
@@ -11250,41 +11051,39 @@
         <v>300</v>
       </c>
       <c r="J102" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="K102">
         <v>7</v>
       </c>
       <c r="L102">
+        <v>22</v>
+      </c>
+      <c r="M102">
+        <v>191.73</v>
+      </c>
+      <c r="N102">
+        <v>16</v>
+      </c>
+      <c r="O102">
+        <v>342</v>
+      </c>
+      <c r="P102">
+        <v>10</v>
+      </c>
+      <c r="Q102">
+        <v>376</v>
+      </c>
+      <c r="S102" s="5">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="T102" s="2">
+        <v>5</v>
+      </c>
+      <c r="U102" s="2">
         <v>14</v>
-      </c>
-      <c r="M102">
-        <v>21</v>
-      </c>
-      <c r="N102">
-        <v>21</v>
-      </c>
-      <c r="O102">
-        <v>191.73</v>
-      </c>
-      <c r="P102">
-        <v>48</v>
-      </c>
-      <c r="Q102">
-        <v>10</v>
-      </c>
-      <c r="R102">
-        <v>16</v>
-      </c>
-      <c r="S102" s="5">
-        <v>342</v>
-      </c>
-      <c r="T102" s="2">
-        <v>10</v>
-      </c>
-      <c r="U102" s="2">
-        <v>376</v>
       </c>
       <c r="V102" s="2">
         <v>76.676000000000002</v>
@@ -11302,14 +11101,14 @@
         <v>468</v>
       </c>
       <c r="AC102" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
       <c r="AD102" s="2">
         <v>9</v>
       </c>
       <c r="AE102" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AF102" s="2">
         <v>322.76900000000001</v>
@@ -11378,8 +11177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15E8D70F-274A-43FA-B753-8D02C0E27419}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V37" sqref="V37"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/equal-costs_grid-topology_equal-dest_49-100-225-400-nodes.xlsx
+++ b/equal-costs_grid-topology_equal-dest_49-100-225-400-nodes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kátia Fernandes\Documents\GitHub\article-2018-leizerkatiakleber-dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{AE59D6BA-2514-4765-BA54-A42283752CEA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF89748F-0876-41B8-A7C3-AE28E6D7C768}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6670" activeTab="1" xr2:uid="{99FA101D-2E33-491E-9974-BE384F2B7570}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6670" xr2:uid="{99FA101D-2E33-491E-9974-BE384F2B7570}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,6 +129,12 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -188,7 +194,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -222,6 +228,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -244,22 +251,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>18142</xdr:rowOff>
+      <xdr:colOff>134154</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>169930</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>405115</xdr:colOff>
+      <xdr:colOff>8943</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>75036</xdr:rowOff>
+      <xdr:rowOff>39007</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Imagem 7">
+        <xdr:cNvPr id="4" name="Imagem 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A05252D-240E-4BED-95A7-7150903D8A87}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DB0A798-2C67-45E7-AA4E-50878EB65070}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -275,8 +282,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5470071" y="4009571"/>
-          <a:ext cx="5267401" cy="3322608"/>
+          <a:off x="5607675" y="4114085"/>
+          <a:ext cx="4740141" cy="3437598"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -294,16 +301,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>323993</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>155906</xdr:rowOff>
+      <xdr:colOff>315213</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>149186</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Imagem 11">
+        <xdr:cNvPr id="6" name="Imagem 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49CF980D-9E1E-42B1-A9B8-237CF1EBA445}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{824A8589-3F3A-41FA-A31B-B2D65C0BEB0B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -319,8 +326,52 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="607786" y="181429"/>
-          <a:ext cx="4578493" cy="3603048"/>
+          <a:off x="608169" y="187817"/>
+          <a:ext cx="4572396" cy="3529890"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>315213</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>23510</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Imagem 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D14EA85-7B91-4753-BC4B-2D2DF3882858}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="608169" y="4131972"/>
+          <a:ext cx="4572396" cy="3779848"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -338,16 +389,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>230308</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:colOff>398574</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>125211</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Imagem 15">
+        <xdr:cNvPr id="11" name="Imagem 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{828259CC-FEF3-4F6C-8EB5-B25FA342990F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7EC29DE-E8D3-4E5F-80D5-8D9D9D466894}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -356,15 +407,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5470071" y="181429"/>
-          <a:ext cx="5092594" cy="3029857"/>
+          <a:off x="5473521" y="187817"/>
+          <a:ext cx="5263926" cy="3318098"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -381,61 +432,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>212883</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>116164</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>17888</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>50232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="Imagem 17">
+        <xdr:cNvPr id="14" name="Imagem 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EFD6A85-990C-4E2A-A5EF-85F800FE704F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10940143" y="181429"/>
-          <a:ext cx="2036240" cy="3926164"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>336186</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>175663</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagem 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F42236AA-25C9-42A6-A94E-2B61ABDF52B4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B09432D7-19AA-46C2-B597-F6E084EC8789}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -451,8 +458,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="607786" y="3991429"/>
-          <a:ext cx="4590686" cy="3804234"/>
+          <a:off x="10947042" y="187817"/>
+          <a:ext cx="2450564" cy="4745654"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -763,8 +770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E63BA3A5-E0A8-46A4-B24D-EF36ED812C4F}">
   <dimension ref="A1:AJ111"/>
   <sheetViews>
-    <sheetView topLeftCell="AG1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AK16" sqref="AK16"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -958,50 +965,50 @@
       <c r="J3" s="5">
         <v>1</v>
       </c>
-      <c r="K3">
-        <v>6</v>
-      </c>
-      <c r="L3">
-        <v>18</v>
-      </c>
-      <c r="M3">
-        <v>129.94</v>
-      </c>
-      <c r="N3">
-        <v>15</v>
-      </c>
-      <c r="O3">
-        <v>361</v>
-      </c>
-      <c r="P3">
-        <v>10</v>
-      </c>
-      <c r="Q3">
-        <v>388</v>
+      <c r="K3" s="13">
+        <v>5</v>
+      </c>
+      <c r="L3" s="13">
+        <v>49</v>
+      </c>
+      <c r="M3" s="13">
+        <v>109.896</v>
+      </c>
+      <c r="N3" s="13">
+        <v>20</v>
+      </c>
+      <c r="O3" s="13">
+        <v>460</v>
+      </c>
+      <c r="P3" s="13">
+        <v>16</v>
+      </c>
+      <c r="Q3" s="13">
+        <v>476</v>
       </c>
       <c r="S3" s="5">
         <v>1</v>
       </c>
-      <c r="T3" s="2">
-        <v>4</v>
-      </c>
-      <c r="U3" s="2">
-        <v>17</v>
-      </c>
-      <c r="V3" s="2">
-        <v>95.138999999999996</v>
-      </c>
-      <c r="W3" s="2">
-        <v>13</v>
-      </c>
-      <c r="X3" s="2">
-        <v>432</v>
-      </c>
-      <c r="Y3" s="2">
-        <v>10</v>
-      </c>
-      <c r="Z3" s="2">
-        <v>440</v>
+      <c r="T3" s="13">
+        <v>6</v>
+      </c>
+      <c r="U3" s="13">
+        <v>16</v>
+      </c>
+      <c r="V3" s="13">
+        <v>39.979999999999997</v>
+      </c>
+      <c r="W3" s="13">
+        <v>15</v>
+      </c>
+      <c r="X3" s="13">
+        <v>343</v>
+      </c>
+      <c r="Y3" s="13">
+        <v>10</v>
+      </c>
+      <c r="Z3" s="13">
+        <v>368</v>
       </c>
       <c r="AC3" s="5">
         <v>1</v>
@@ -1058,51 +1065,51 @@
         <f>J3+1</f>
         <v>2</v>
       </c>
-      <c r="K4">
-        <v>6</v>
-      </c>
-      <c r="L4">
-        <v>16</v>
-      </c>
-      <c r="M4">
-        <v>123.84099999999999</v>
-      </c>
-      <c r="N4">
-        <v>15</v>
-      </c>
-      <c r="O4">
-        <v>308</v>
-      </c>
-      <c r="P4">
-        <v>10</v>
-      </c>
-      <c r="Q4">
-        <v>330</v>
+      <c r="K4" s="13">
+        <v>8</v>
+      </c>
+      <c r="L4" s="13">
+        <v>29</v>
+      </c>
+      <c r="M4" s="13">
+        <v>60.125999999999998</v>
+      </c>
+      <c r="N4" s="13">
+        <v>17</v>
+      </c>
+      <c r="O4" s="13">
+        <v>368</v>
+      </c>
+      <c r="P4" s="13">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="13">
+        <v>405</v>
       </c>
       <c r="S4" s="5">
         <f>S3+1</f>
         <v>2</v>
       </c>
-      <c r="T4" s="2">
-        <v>7</v>
-      </c>
-      <c r="U4" s="2">
-        <v>45</v>
-      </c>
-      <c r="V4" s="2">
-        <v>244.27600000000001</v>
-      </c>
-      <c r="W4" s="2">
-        <v>16</v>
-      </c>
-      <c r="X4" s="2">
-        <v>763</v>
-      </c>
-      <c r="Y4" s="2">
-        <v>10</v>
-      </c>
-      <c r="Z4" s="2">
-        <v>803</v>
+      <c r="T4" s="13">
+        <v>3</v>
+      </c>
+      <c r="U4" s="13">
+        <v>12</v>
+      </c>
+      <c r="V4" s="13">
+        <v>28.369</v>
+      </c>
+      <c r="W4" s="13">
+        <v>12</v>
+      </c>
+      <c r="X4" s="13">
+        <v>308</v>
+      </c>
+      <c r="Y4" s="13">
+        <v>10</v>
+      </c>
+      <c r="Z4" s="13">
+        <v>314</v>
       </c>
       <c r="AC4" s="5">
         <f>AC3+1</f>
@@ -1160,51 +1167,51 @@
         <f t="shared" ref="J5:J68" si="1">J4+1</f>
         <v>3</v>
       </c>
-      <c r="K5">
-        <v>9</v>
-      </c>
-      <c r="L5">
-        <v>21</v>
-      </c>
-      <c r="M5">
-        <v>158.18199999999999</v>
-      </c>
-      <c r="N5">
-        <v>18</v>
-      </c>
-      <c r="O5">
-        <v>333</v>
-      </c>
-      <c r="P5">
-        <v>10</v>
-      </c>
-      <c r="Q5">
-        <v>366</v>
+      <c r="K5" s="13">
+        <v>5</v>
+      </c>
+      <c r="L5" s="13">
+        <v>22</v>
+      </c>
+      <c r="M5" s="13">
+        <v>45.203000000000003</v>
+      </c>
+      <c r="N5" s="13">
+        <v>14</v>
+      </c>
+      <c r="O5" s="13">
+        <v>320</v>
+      </c>
+      <c r="P5" s="13">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="13">
+        <v>340</v>
       </c>
       <c r="S5" s="5">
         <f t="shared" ref="S5:S68" si="2">S4+1</f>
         <v>3</v>
       </c>
-      <c r="T5" s="2">
-        <v>7</v>
-      </c>
-      <c r="U5" s="2">
-        <v>14</v>
-      </c>
-      <c r="V5" s="2">
-        <v>73.045000000000002</v>
-      </c>
-      <c r="W5" s="2">
-        <v>16</v>
-      </c>
-      <c r="X5" s="2">
-        <v>520</v>
-      </c>
-      <c r="Y5" s="2">
-        <v>10</v>
-      </c>
-      <c r="Z5" s="2">
-        <v>547</v>
+      <c r="T5" s="13">
+        <v>1</v>
+      </c>
+      <c r="U5" s="13">
+        <v>11</v>
+      </c>
+      <c r="V5" s="13">
+        <v>24.216999999999999</v>
+      </c>
+      <c r="W5" s="13">
+        <v>10</v>
+      </c>
+      <c r="X5" s="13">
+        <v>275</v>
+      </c>
+      <c r="Y5" s="13">
+        <v>10</v>
+      </c>
+      <c r="Z5" s="13">
+        <v>275</v>
       </c>
       <c r="AC5" s="5">
         <f t="shared" ref="AC5:AC68" si="3">AC4+1</f>
@@ -1262,51 +1269,51 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="K6">
-        <v>9</v>
-      </c>
-      <c r="L6">
-        <v>17</v>
-      </c>
-      <c r="M6">
-        <v>126.798</v>
-      </c>
-      <c r="N6">
-        <v>18</v>
-      </c>
-      <c r="O6">
-        <v>346</v>
-      </c>
-      <c r="P6">
-        <v>10</v>
-      </c>
-      <c r="Q6">
-        <v>385</v>
+      <c r="K6" s="13">
+        <v>7</v>
+      </c>
+      <c r="L6" s="13">
+        <v>23</v>
+      </c>
+      <c r="M6" s="13">
+        <v>46.192</v>
+      </c>
+      <c r="N6" s="13">
+        <v>16</v>
+      </c>
+      <c r="O6" s="13">
+        <v>396</v>
+      </c>
+      <c r="P6" s="13">
+        <v>10</v>
+      </c>
+      <c r="Q6" s="13">
+        <v>431</v>
       </c>
       <c r="S6" s="5">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="T6" s="2">
-        <v>4</v>
-      </c>
-      <c r="U6" s="2">
+      <c r="T6" s="13">
+        <v>5</v>
+      </c>
+      <c r="U6" s="13">
+        <v>18</v>
+      </c>
+      <c r="V6" s="13">
+        <v>38.142000000000003</v>
+      </c>
+      <c r="W6" s="13">
         <v>14</v>
       </c>
-      <c r="V6" s="2">
-        <v>71.010999999999996</v>
-      </c>
-      <c r="W6" s="2">
-        <v>13</v>
-      </c>
-      <c r="X6" s="2">
-        <v>428</v>
-      </c>
-      <c r="Y6" s="2">
-        <v>10</v>
-      </c>
-      <c r="Z6" s="2">
-        <v>439</v>
+      <c r="X6" s="13">
+        <v>289</v>
+      </c>
+      <c r="Y6" s="13">
+        <v>10</v>
+      </c>
+      <c r="Z6" s="13">
+        <v>309</v>
       </c>
       <c r="AC6" s="5">
         <f t="shared" si="3"/>
@@ -1364,51 +1371,51 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="K7">
-        <v>8</v>
-      </c>
-      <c r="L7">
-        <v>22</v>
-      </c>
-      <c r="M7">
-        <v>173.86600000000001</v>
-      </c>
-      <c r="N7">
-        <v>17</v>
-      </c>
-      <c r="O7">
-        <v>382</v>
-      </c>
-      <c r="P7">
-        <v>10</v>
-      </c>
-      <c r="Q7">
-        <v>422</v>
+      <c r="K7" s="13">
+        <v>9</v>
+      </c>
+      <c r="L7" s="13">
+        <v>26</v>
+      </c>
+      <c r="M7" s="13">
+        <v>59.292000000000002</v>
+      </c>
+      <c r="N7" s="13">
+        <v>18</v>
+      </c>
+      <c r="O7" s="13">
+        <v>383</v>
+      </c>
+      <c r="P7" s="13">
+        <v>10</v>
+      </c>
+      <c r="Q7" s="13">
+        <v>419</v>
       </c>
       <c r="S7" s="5">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="T7" s="2">
-        <v>8</v>
-      </c>
-      <c r="U7" s="2">
-        <v>15</v>
-      </c>
-      <c r="V7" s="2">
-        <v>83.201999999999998</v>
-      </c>
-      <c r="W7" s="2">
-        <v>17</v>
-      </c>
-      <c r="X7" s="2">
-        <v>474</v>
-      </c>
-      <c r="Y7" s="2">
-        <v>10</v>
-      </c>
-      <c r="Z7" s="2">
-        <v>499</v>
+      <c r="T7" s="13">
+        <v>6</v>
+      </c>
+      <c r="U7" s="13">
+        <v>28</v>
+      </c>
+      <c r="V7" s="13">
+        <v>64.587999999999994</v>
+      </c>
+      <c r="W7" s="13">
+        <v>21</v>
+      </c>
+      <c r="X7" s="13">
+        <v>405</v>
+      </c>
+      <c r="Y7" s="13">
+        <v>16</v>
+      </c>
+      <c r="Z7" s="13">
+        <v>418</v>
       </c>
       <c r="AC7" s="5">
         <f t="shared" si="3"/>
@@ -1466,51 +1473,51 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>24</v>
-      </c>
-      <c r="M8">
-        <v>190.09399999999999</v>
-      </c>
-      <c r="N8">
+      <c r="K8" s="13">
+        <v>5</v>
+      </c>
+      <c r="L8" s="13">
         <v>18</v>
       </c>
-      <c r="O8">
-        <v>400</v>
-      </c>
-      <c r="P8">
-        <v>16</v>
-      </c>
-      <c r="Q8">
-        <v>406</v>
+      <c r="M8" s="13">
+        <v>38.213000000000001</v>
+      </c>
+      <c r="N8" s="13">
+        <v>14</v>
+      </c>
+      <c r="O8" s="13">
+        <v>330</v>
+      </c>
+      <c r="P8" s="13">
+        <v>10</v>
+      </c>
+      <c r="Q8" s="13">
+        <v>349</v>
       </c>
       <c r="S8" s="5">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="T8" s="2">
-        <v>6</v>
-      </c>
-      <c r="U8" s="2">
-        <v>18</v>
-      </c>
-      <c r="V8" s="2">
-        <v>100.82599999999999</v>
-      </c>
-      <c r="W8" s="2">
-        <v>15</v>
-      </c>
-      <c r="X8" s="2">
-        <v>576</v>
-      </c>
-      <c r="Y8" s="2">
-        <v>10</v>
-      </c>
-      <c r="Z8" s="2">
-        <v>601</v>
+      <c r="T8" s="13">
+        <v>4</v>
+      </c>
+      <c r="U8" s="13">
+        <v>25</v>
+      </c>
+      <c r="V8" s="13">
+        <v>58.683999999999997</v>
+      </c>
+      <c r="W8" s="13">
+        <v>13</v>
+      </c>
+      <c r="X8" s="13">
+        <v>315</v>
+      </c>
+      <c r="Y8" s="13">
+        <v>10</v>
+      </c>
+      <c r="Z8" s="13">
+        <v>334</v>
       </c>
       <c r="AC8" s="5">
         <f t="shared" si="3"/>
@@ -1568,51 +1575,51 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="K9">
-        <v>8</v>
-      </c>
-      <c r="L9">
-        <v>19</v>
-      </c>
-      <c r="M9">
-        <v>158.661</v>
-      </c>
-      <c r="N9">
-        <v>17</v>
-      </c>
-      <c r="O9">
-        <v>392</v>
-      </c>
-      <c r="P9">
-        <v>10</v>
-      </c>
-      <c r="Q9">
-        <v>431</v>
+      <c r="K9" s="13">
+        <v>5</v>
+      </c>
+      <c r="L9" s="13">
+        <v>16</v>
+      </c>
+      <c r="M9" s="13">
+        <v>33.430999999999997</v>
+      </c>
+      <c r="N9" s="13">
+        <v>20</v>
+      </c>
+      <c r="O9" s="13">
+        <v>414</v>
+      </c>
+      <c r="P9" s="13">
+        <v>16</v>
+      </c>
+      <c r="Q9" s="13">
+        <v>429</v>
       </c>
       <c r="S9" s="5">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="T9" s="2">
-        <v>7</v>
-      </c>
-      <c r="U9" s="2">
-        <v>41</v>
-      </c>
-      <c r="V9" s="2">
-        <v>213.565</v>
-      </c>
-      <c r="W9" s="2">
-        <v>16</v>
-      </c>
-      <c r="X9" s="2">
-        <v>620</v>
-      </c>
-      <c r="Y9" s="2">
-        <v>10</v>
-      </c>
-      <c r="Z9" s="2">
-        <v>654</v>
+      <c r="T9" s="13">
+        <v>5</v>
+      </c>
+      <c r="U9" s="13">
+        <v>16</v>
+      </c>
+      <c r="V9" s="13">
+        <v>35.741</v>
+      </c>
+      <c r="W9" s="13">
+        <v>14</v>
+      </c>
+      <c r="X9" s="13">
+        <v>317</v>
+      </c>
+      <c r="Y9" s="13">
+        <v>10</v>
+      </c>
+      <c r="Z9" s="13">
+        <v>334</v>
       </c>
       <c r="AC9" s="5">
         <f t="shared" si="3"/>
@@ -1670,51 +1677,51 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>34</v>
-      </c>
-      <c r="M10">
-        <v>265.98500000000001</v>
-      </c>
-      <c r="N10">
-        <v>27</v>
-      </c>
-      <c r="O10">
-        <v>484</v>
-      </c>
-      <c r="P10">
-        <v>27</v>
-      </c>
-      <c r="Q10">
-        <v>484</v>
+      <c r="K10" s="13">
+        <v>6</v>
+      </c>
+      <c r="L10" s="13">
+        <v>21</v>
+      </c>
+      <c r="M10" s="13">
+        <v>44.607999999999997</v>
+      </c>
+      <c r="N10" s="13">
+        <v>21</v>
+      </c>
+      <c r="O10" s="13">
+        <v>450</v>
+      </c>
+      <c r="P10" s="13">
+        <v>16</v>
+      </c>
+      <c r="Q10" s="13">
+        <v>463</v>
       </c>
       <c r="S10" s="5">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="T10" s="2">
-        <v>5</v>
-      </c>
-      <c r="U10" s="2">
-        <v>13</v>
-      </c>
-      <c r="V10" s="2">
-        <v>67.930999999999997</v>
-      </c>
-      <c r="W10" s="2">
-        <v>14</v>
-      </c>
-      <c r="X10" s="2">
-        <v>453</v>
-      </c>
-      <c r="Y10" s="2">
-        <v>10</v>
-      </c>
-      <c r="Z10" s="2">
-        <v>468</v>
+      <c r="T10" s="13">
+        <v>5</v>
+      </c>
+      <c r="U10" s="13">
+        <v>33</v>
+      </c>
+      <c r="V10" s="13">
+        <v>81.263999999999996</v>
+      </c>
+      <c r="W10" s="13">
+        <v>20</v>
+      </c>
+      <c r="X10" s="13">
+        <v>459</v>
+      </c>
+      <c r="Y10" s="13">
+        <v>16</v>
+      </c>
+      <c r="Z10" s="13">
+        <v>472</v>
       </c>
       <c r="AC10" s="5">
         <f t="shared" si="3"/>
@@ -1772,51 +1779,51 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="K11">
-        <v>6</v>
-      </c>
-      <c r="L11">
-        <v>16</v>
-      </c>
-      <c r="M11">
-        <v>117.50700000000001</v>
-      </c>
-      <c r="N11">
-        <v>15</v>
-      </c>
-      <c r="O11">
-        <v>294</v>
-      </c>
-      <c r="P11">
-        <v>10</v>
-      </c>
-      <c r="Q11">
-        <v>317</v>
+      <c r="K11" s="13">
+        <v>2</v>
+      </c>
+      <c r="L11" s="13">
+        <v>16</v>
+      </c>
+      <c r="M11" s="13">
+        <v>36.298999999999999</v>
+      </c>
+      <c r="N11" s="13">
+        <v>11</v>
+      </c>
+      <c r="O11" s="13">
+        <v>290</v>
+      </c>
+      <c r="P11" s="13">
+        <v>10</v>
+      </c>
+      <c r="Q11" s="13">
+        <v>295</v>
       </c>
       <c r="S11" s="5">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="T11" s="2">
-        <v>6</v>
-      </c>
-      <c r="U11" s="2">
-        <v>17</v>
-      </c>
-      <c r="V11" s="2">
-        <v>85.087999999999994</v>
-      </c>
-      <c r="W11" s="2">
-        <v>15</v>
-      </c>
-      <c r="X11" s="2">
-        <v>547</v>
-      </c>
-      <c r="Y11" s="2">
-        <v>10</v>
-      </c>
-      <c r="Z11" s="2">
-        <v>574</v>
+      <c r="T11" s="13">
+        <v>3</v>
+      </c>
+      <c r="U11" s="13">
+        <v>12</v>
+      </c>
+      <c r="V11" s="13">
+        <v>25.76</v>
+      </c>
+      <c r="W11" s="13">
+        <v>12</v>
+      </c>
+      <c r="X11" s="13">
+        <v>280</v>
+      </c>
+      <c r="Y11" s="13">
+        <v>10</v>
+      </c>
+      <c r="Z11" s="13">
+        <v>287</v>
       </c>
       <c r="AC11" s="5">
         <f t="shared" si="3"/>
@@ -1874,51 +1881,51 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="K12">
-        <v>2</v>
-      </c>
-      <c r="L12">
-        <v>11</v>
-      </c>
-      <c r="M12">
-        <v>79.277000000000001</v>
-      </c>
-      <c r="N12">
-        <v>11</v>
-      </c>
-      <c r="O12">
-        <v>267</v>
-      </c>
-      <c r="P12">
-        <v>10</v>
-      </c>
-      <c r="Q12">
-        <v>272</v>
+      <c r="K12" s="13">
+        <v>6</v>
+      </c>
+      <c r="L12" s="13">
+        <v>13</v>
+      </c>
+      <c r="M12" s="13">
+        <v>27.515999999999998</v>
+      </c>
+      <c r="N12" s="13">
+        <v>15</v>
+      </c>
+      <c r="O12" s="13">
+        <v>328</v>
+      </c>
+      <c r="P12" s="13">
+        <v>10</v>
+      </c>
+      <c r="Q12" s="13">
+        <v>351</v>
       </c>
       <c r="S12" s="5">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="T12" s="2">
-        <v>5</v>
-      </c>
-      <c r="U12" s="2">
-        <v>11</v>
-      </c>
-      <c r="V12" s="2">
-        <v>57.808999999999997</v>
-      </c>
-      <c r="W12" s="2">
-        <v>14</v>
-      </c>
-      <c r="X12" s="2">
-        <v>448</v>
-      </c>
-      <c r="Y12" s="2">
-        <v>10</v>
-      </c>
-      <c r="Z12" s="2">
-        <v>459</v>
+      <c r="T12" s="13">
+        <v>5</v>
+      </c>
+      <c r="U12" s="13">
+        <v>48</v>
+      </c>
+      <c r="V12" s="13">
+        <v>120.29900000000001</v>
+      </c>
+      <c r="W12" s="13">
+        <v>20</v>
+      </c>
+      <c r="X12" s="13">
+        <v>465</v>
+      </c>
+      <c r="Y12" s="13">
+        <v>16</v>
+      </c>
+      <c r="Z12" s="13">
+        <v>484</v>
       </c>
       <c r="AC12" s="5">
         <f t="shared" si="3"/>
@@ -1976,51 +1983,51 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="K13">
-        <v>6</v>
-      </c>
-      <c r="L13">
-        <v>14</v>
-      </c>
-      <c r="M13">
-        <v>108.17400000000001</v>
-      </c>
-      <c r="N13">
-        <v>21</v>
-      </c>
-      <c r="O13">
-        <v>398</v>
-      </c>
-      <c r="P13">
-        <v>16</v>
-      </c>
-      <c r="Q13">
-        <v>412</v>
+      <c r="K13" s="13">
+        <v>2</v>
+      </c>
+      <c r="L13" s="13">
+        <v>13</v>
+      </c>
+      <c r="M13" s="13">
+        <v>25.47</v>
+      </c>
+      <c r="N13" s="13">
+        <v>11</v>
+      </c>
+      <c r="O13" s="13">
+        <v>299</v>
+      </c>
+      <c r="P13" s="13">
+        <v>10</v>
+      </c>
+      <c r="Q13" s="13">
+        <v>304</v>
       </c>
       <c r="S13" s="5">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="T13" s="2">
-        <v>4</v>
-      </c>
-      <c r="U13" s="2">
-        <v>17</v>
-      </c>
-      <c r="V13" s="2">
-        <v>86.69</v>
-      </c>
-      <c r="W13" s="2">
-        <v>13</v>
-      </c>
-      <c r="X13" s="2">
-        <v>455</v>
-      </c>
-      <c r="Y13" s="2">
-        <v>10</v>
-      </c>
-      <c r="Z13" s="2">
-        <v>469</v>
+      <c r="T13" s="13">
+        <v>9</v>
+      </c>
+      <c r="U13" s="13">
+        <v>15</v>
+      </c>
+      <c r="V13" s="13">
+        <v>34.337000000000003</v>
+      </c>
+      <c r="W13" s="13">
+        <v>18</v>
+      </c>
+      <c r="X13" s="13">
+        <v>342</v>
+      </c>
+      <c r="Y13" s="13">
+        <v>10</v>
+      </c>
+      <c r="Z13" s="13">
+        <v>378</v>
       </c>
       <c r="AC13" s="5">
         <f t="shared" si="3"/>
@@ -2078,51 +2085,51 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="K14">
-        <v>11</v>
-      </c>
-      <c r="L14">
+      <c r="K14" s="13">
+        <v>6</v>
+      </c>
+      <c r="L14" s="13">
         <v>19</v>
       </c>
-      <c r="M14">
-        <v>161.648</v>
-      </c>
-      <c r="N14">
-        <v>20</v>
-      </c>
-      <c r="O14">
-        <v>382</v>
-      </c>
-      <c r="P14">
-        <v>10</v>
-      </c>
-      <c r="Q14">
-        <v>427</v>
+      <c r="M14" s="13">
+        <v>37.506999999999998</v>
+      </c>
+      <c r="N14" s="13">
+        <v>21</v>
+      </c>
+      <c r="O14" s="13">
+        <v>418</v>
+      </c>
+      <c r="P14" s="13">
+        <v>16</v>
+      </c>
+      <c r="Q14" s="13">
+        <v>433</v>
       </c>
       <c r="S14" s="5">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="T14" s="2">
-        <v>3</v>
-      </c>
-      <c r="U14" s="2">
-        <v>21</v>
-      </c>
-      <c r="V14" s="2">
-        <v>109.754</v>
-      </c>
-      <c r="W14" s="2">
-        <v>12</v>
-      </c>
-      <c r="X14" s="2">
-        <v>496</v>
-      </c>
-      <c r="Y14" s="2">
-        <v>10</v>
-      </c>
-      <c r="Z14" s="2">
-        <v>504</v>
+      <c r="T14" s="13">
+        <v>6</v>
+      </c>
+      <c r="U14" s="13">
+        <v>13</v>
+      </c>
+      <c r="V14" s="13">
+        <v>27.292999999999999</v>
+      </c>
+      <c r="W14" s="13">
+        <v>15</v>
+      </c>
+      <c r="X14" s="13">
+        <v>296</v>
+      </c>
+      <c r="Y14" s="13">
+        <v>10</v>
+      </c>
+      <c r="Z14" s="13">
+        <v>315</v>
       </c>
       <c r="AC14" s="5">
         <f t="shared" si="3"/>
@@ -2180,51 +2187,51 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="K15">
-        <v>7</v>
-      </c>
-      <c r="L15">
-        <v>39</v>
-      </c>
-      <c r="M15">
-        <v>304.65199999999999</v>
-      </c>
-      <c r="N15">
-        <v>16</v>
-      </c>
-      <c r="O15">
+      <c r="K15" s="13">
+        <v>8</v>
+      </c>
+      <c r="L15" s="13">
+        <v>13</v>
+      </c>
+      <c r="M15" s="13">
+        <v>25.574000000000002</v>
+      </c>
+      <c r="N15" s="13">
+        <v>17</v>
+      </c>
+      <c r="O15" s="13">
+        <v>354</v>
+      </c>
+      <c r="P15" s="13">
+        <v>10</v>
+      </c>
+      <c r="Q15" s="13">
         <v>388</v>
-      </c>
-      <c r="P15">
-        <v>10</v>
-      </c>
-      <c r="Q15">
-        <v>425</v>
       </c>
       <c r="S15" s="5">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="T15" s="2">
-        <v>6</v>
-      </c>
-      <c r="U15" s="2">
-        <v>14</v>
-      </c>
-      <c r="V15" s="2">
-        <v>70.635999999999996</v>
-      </c>
-      <c r="W15" s="2">
-        <v>15</v>
-      </c>
-      <c r="X15" s="2">
-        <v>530</v>
-      </c>
-      <c r="Y15" s="2">
-        <v>10</v>
-      </c>
-      <c r="Z15" s="2">
-        <v>559</v>
+      <c r="T15" s="13">
+        <v>8</v>
+      </c>
+      <c r="U15" s="13">
+        <v>18</v>
+      </c>
+      <c r="V15" s="13">
+        <v>40.018000000000001</v>
+      </c>
+      <c r="W15" s="13">
+        <v>17</v>
+      </c>
+      <c r="X15" s="13">
+        <v>372</v>
+      </c>
+      <c r="Y15" s="13">
+        <v>10</v>
+      </c>
+      <c r="Z15" s="13">
+        <v>411</v>
       </c>
       <c r="AC15" s="5">
         <f t="shared" si="3"/>
@@ -2282,51 +2289,51 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="K16">
-        <v>9</v>
-      </c>
-      <c r="L16">
-        <v>20</v>
-      </c>
-      <c r="M16">
-        <v>163.172</v>
-      </c>
-      <c r="N16">
-        <v>18</v>
-      </c>
-      <c r="O16">
-        <v>373</v>
-      </c>
-      <c r="P16">
-        <v>10</v>
-      </c>
-      <c r="Q16">
-        <v>410</v>
+      <c r="K16" s="13">
+        <v>2</v>
+      </c>
+      <c r="L16" s="13">
+        <v>13</v>
+      </c>
+      <c r="M16" s="13">
+        <v>25.155000000000001</v>
+      </c>
+      <c r="N16" s="13">
+        <v>11</v>
+      </c>
+      <c r="O16" s="13">
+        <v>299</v>
+      </c>
+      <c r="P16" s="13">
+        <v>10</v>
+      </c>
+      <c r="Q16" s="13">
+        <v>304</v>
       </c>
       <c r="S16" s="5">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="T16" s="2">
-        <v>5</v>
-      </c>
-      <c r="U16" s="2">
-        <v>31</v>
-      </c>
-      <c r="V16" s="2">
-        <v>165.083</v>
-      </c>
-      <c r="W16" s="2">
-        <v>14</v>
-      </c>
-      <c r="X16" s="2">
-        <v>512</v>
-      </c>
-      <c r="Y16" s="2">
-        <v>10</v>
-      </c>
-      <c r="Z16" s="2">
-        <v>528</v>
+      <c r="T16" s="13">
+        <v>1</v>
+      </c>
+      <c r="U16" s="13">
+        <v>10</v>
+      </c>
+      <c r="V16" s="13">
+        <v>20.539000000000001</v>
+      </c>
+      <c r="W16" s="13">
+        <v>10</v>
+      </c>
+      <c r="X16" s="13">
+        <v>249</v>
+      </c>
+      <c r="Y16" s="13">
+        <v>10</v>
+      </c>
+      <c r="Z16" s="13">
+        <v>249</v>
       </c>
       <c r="AC16" s="5">
         <f t="shared" si="3"/>
@@ -2384,51 +2391,51 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="K17">
-        <v>7</v>
-      </c>
-      <c r="L17">
-        <v>19</v>
-      </c>
-      <c r="M17">
-        <v>153.31899999999999</v>
-      </c>
-      <c r="N17">
-        <v>16</v>
-      </c>
-      <c r="O17">
-        <v>348</v>
-      </c>
-      <c r="P17">
-        <v>10</v>
-      </c>
-      <c r="Q17">
-        <v>375</v>
+      <c r="K17" s="13">
+        <v>8</v>
+      </c>
+      <c r="L17" s="13">
+        <v>34</v>
+      </c>
+      <c r="M17" s="13">
+        <v>69.105000000000004</v>
+      </c>
+      <c r="N17" s="13">
+        <v>17</v>
+      </c>
+      <c r="O17" s="13">
+        <v>394</v>
+      </c>
+      <c r="P17" s="13">
+        <v>10</v>
+      </c>
+      <c r="Q17" s="13">
+        <v>432</v>
       </c>
       <c r="S17" s="5">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="T17" s="2">
-        <v>3</v>
-      </c>
-      <c r="U17" s="2">
-        <v>14</v>
-      </c>
-      <c r="V17" s="2">
-        <v>69.543999999999997</v>
-      </c>
-      <c r="W17" s="2">
-        <v>12</v>
-      </c>
-      <c r="X17" s="2">
-        <v>457</v>
-      </c>
-      <c r="Y17" s="2">
-        <v>10</v>
-      </c>
-      <c r="Z17" s="2">
-        <v>467</v>
+      <c r="T17" s="13">
+        <v>10</v>
+      </c>
+      <c r="U17" s="13">
+        <v>18</v>
+      </c>
+      <c r="V17" s="13">
+        <v>40.798999999999999</v>
+      </c>
+      <c r="W17" s="13">
+        <v>19</v>
+      </c>
+      <c r="X17" s="13">
+        <v>381</v>
+      </c>
+      <c r="Y17" s="13">
+        <v>10</v>
+      </c>
+      <c r="Z17" s="13">
+        <v>424</v>
       </c>
       <c r="AC17" s="5">
         <f t="shared" si="3"/>
@@ -2486,51 +2493,51 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="K18">
-        <v>8</v>
-      </c>
-      <c r="L18">
-        <v>42</v>
-      </c>
-      <c r="M18">
-        <v>340.41500000000002</v>
-      </c>
-      <c r="N18">
-        <v>17</v>
-      </c>
-      <c r="O18">
-        <v>404</v>
-      </c>
-      <c r="P18">
-        <v>10</v>
-      </c>
-      <c r="Q18">
-        <v>444</v>
+      <c r="K18" s="13">
+        <v>6</v>
+      </c>
+      <c r="L18" s="13">
+        <v>14</v>
+      </c>
+      <c r="M18" s="13">
+        <v>27.010999999999999</v>
+      </c>
+      <c r="N18" s="13">
+        <v>15</v>
+      </c>
+      <c r="O18" s="13">
+        <v>285</v>
+      </c>
+      <c r="P18" s="13">
+        <v>10</v>
+      </c>
+      <c r="Q18" s="13">
+        <v>303</v>
       </c>
       <c r="S18" s="5">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="T18" s="2">
-        <v>7</v>
-      </c>
-      <c r="U18" s="2">
-        <v>19</v>
-      </c>
-      <c r="V18" s="2">
-        <v>105.818</v>
-      </c>
-      <c r="W18" s="2">
-        <v>16</v>
-      </c>
-      <c r="X18" s="2">
-        <v>505</v>
-      </c>
-      <c r="Y18" s="2">
-        <v>10</v>
-      </c>
-      <c r="Z18" s="2">
-        <v>531</v>
+      <c r="T18" s="13">
+        <v>2</v>
+      </c>
+      <c r="U18" s="13">
+        <v>11</v>
+      </c>
+      <c r="V18" s="13">
+        <v>23.971</v>
+      </c>
+      <c r="W18" s="13">
+        <v>11</v>
+      </c>
+      <c r="X18" s="13">
+        <v>273</v>
+      </c>
+      <c r="Y18" s="13">
+        <v>10</v>
+      </c>
+      <c r="Z18" s="13">
+        <v>274</v>
       </c>
       <c r="AC18" s="5">
         <f t="shared" si="3"/>
@@ -2588,51 +2595,51 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="K19">
-        <v>5</v>
-      </c>
-      <c r="L19">
-        <v>47</v>
-      </c>
-      <c r="M19">
-        <v>368.43799999999999</v>
-      </c>
-      <c r="N19">
-        <v>20</v>
-      </c>
-      <c r="O19">
-        <v>432</v>
-      </c>
-      <c r="P19">
-        <v>16</v>
-      </c>
-      <c r="Q19">
-        <v>450</v>
+      <c r="K19" s="13">
+        <v>10</v>
+      </c>
+      <c r="L19" s="13">
+        <v>19</v>
+      </c>
+      <c r="M19" s="13">
+        <v>38.335999999999999</v>
+      </c>
+      <c r="N19" s="13">
+        <v>19</v>
+      </c>
+      <c r="O19" s="13">
+        <v>382</v>
+      </c>
+      <c r="P19" s="13">
+        <v>10</v>
+      </c>
+      <c r="Q19" s="13">
+        <v>427</v>
       </c>
       <c r="S19" s="5">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="T19" s="2">
-        <v>8</v>
-      </c>
-      <c r="U19" s="2">
-        <v>44</v>
-      </c>
-      <c r="V19" s="2">
-        <v>239.001</v>
-      </c>
-      <c r="W19" s="2">
-        <v>17</v>
-      </c>
-      <c r="X19" s="2">
-        <v>572</v>
-      </c>
-      <c r="Y19" s="2">
-        <v>10</v>
-      </c>
-      <c r="Z19" s="2">
-        <v>610</v>
+      <c r="T19" s="13">
+        <v>5</v>
+      </c>
+      <c r="U19" s="13">
+        <v>20</v>
+      </c>
+      <c r="V19" s="13">
+        <v>45.116</v>
+      </c>
+      <c r="W19" s="13">
+        <v>14</v>
+      </c>
+      <c r="X19" s="13">
+        <v>324</v>
+      </c>
+      <c r="Y19" s="13">
+        <v>10</v>
+      </c>
+      <c r="Z19" s="13">
+        <v>344</v>
       </c>
       <c r="AC19" s="5">
         <f t="shared" si="3"/>
@@ -2690,51 +2697,51 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="K20">
-        <v>4</v>
-      </c>
-      <c r="L20">
-        <v>11</v>
-      </c>
-      <c r="M20">
-        <v>83.677000000000007</v>
-      </c>
-      <c r="N20">
-        <v>13</v>
-      </c>
-      <c r="O20">
-        <v>293</v>
-      </c>
-      <c r="P20">
-        <v>10</v>
-      </c>
-      <c r="Q20">
-        <v>302</v>
+      <c r="K20" s="13">
+        <v>9</v>
+      </c>
+      <c r="L20" s="13">
+        <v>23</v>
+      </c>
+      <c r="M20" s="13">
+        <v>46.872</v>
+      </c>
+      <c r="N20" s="13">
+        <v>18</v>
+      </c>
+      <c r="O20" s="13">
+        <v>364</v>
+      </c>
+      <c r="P20" s="13">
+        <v>10</v>
+      </c>
+      <c r="Q20" s="13">
+        <v>398</v>
       </c>
       <c r="S20" s="5">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="T20" s="2">
-        <v>5</v>
-      </c>
-      <c r="U20" s="2">
-        <v>14</v>
-      </c>
-      <c r="V20" s="2">
-        <v>76.448999999999998</v>
-      </c>
-      <c r="W20" s="2">
-        <v>20</v>
-      </c>
-      <c r="X20" s="2">
-        <v>673</v>
-      </c>
-      <c r="Y20" s="2">
-        <v>16</v>
-      </c>
-      <c r="Z20" s="2">
-        <v>685</v>
+      <c r="T20" s="13">
+        <v>6</v>
+      </c>
+      <c r="U20" s="13">
+        <v>33</v>
+      </c>
+      <c r="V20" s="13">
+        <v>75.853999999999999</v>
+      </c>
+      <c r="W20" s="13">
+        <v>15</v>
+      </c>
+      <c r="X20" s="13">
+        <v>365</v>
+      </c>
+      <c r="Y20" s="13">
+        <v>10</v>
+      </c>
+      <c r="Z20" s="13">
+        <v>393</v>
       </c>
       <c r="AC20" s="5">
         <f t="shared" si="3"/>
@@ -2792,51 +2799,51 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="K21">
-        <v>5</v>
-      </c>
-      <c r="L21">
-        <v>18</v>
-      </c>
-      <c r="M21">
-        <v>140.68700000000001</v>
-      </c>
-      <c r="N21">
-        <v>20</v>
-      </c>
-      <c r="O21">
-        <v>497</v>
-      </c>
-      <c r="P21">
-        <v>16</v>
-      </c>
-      <c r="Q21">
-        <v>515</v>
+      <c r="K21" s="13">
+        <v>5</v>
+      </c>
+      <c r="L21" s="13">
+        <v>13</v>
+      </c>
+      <c r="M21" s="13">
+        <v>26.175000000000001</v>
+      </c>
+      <c r="N21" s="13">
+        <v>14</v>
+      </c>
+      <c r="O21" s="13">
+        <v>339</v>
+      </c>
+      <c r="P21" s="13">
+        <v>10</v>
+      </c>
+      <c r="Q21" s="13">
+        <v>357</v>
       </c>
       <c r="S21" s="5">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="T21" s="2">
-        <v>8</v>
-      </c>
-      <c r="U21" s="2">
-        <v>17</v>
-      </c>
-      <c r="V21" s="2">
-        <v>94.260999999999996</v>
-      </c>
-      <c r="W21" s="2">
-        <v>17</v>
-      </c>
-      <c r="X21" s="2">
-        <v>474</v>
-      </c>
-      <c r="Y21" s="2">
-        <v>10</v>
-      </c>
-      <c r="Z21" s="2">
-        <v>501</v>
+      <c r="T21" s="13">
+        <v>5</v>
+      </c>
+      <c r="U21" s="13">
+        <v>14</v>
+      </c>
+      <c r="V21" s="13">
+        <v>30.100999999999999</v>
+      </c>
+      <c r="W21" s="13">
+        <v>20</v>
+      </c>
+      <c r="X21" s="13">
+        <v>444</v>
+      </c>
+      <c r="Y21" s="13">
+        <v>16</v>
+      </c>
+      <c r="Z21" s="13">
+        <v>459</v>
       </c>
       <c r="AC21" s="5">
         <f t="shared" si="3"/>
@@ -2894,51 +2901,51 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="K22">
-        <v>8</v>
-      </c>
-      <c r="L22">
-        <v>15</v>
-      </c>
-      <c r="M22">
-        <v>119.09</v>
-      </c>
-      <c r="N22">
-        <v>17</v>
-      </c>
-      <c r="O22">
-        <v>351</v>
-      </c>
-      <c r="P22">
-        <v>10</v>
-      </c>
-      <c r="Q22">
-        <v>386</v>
+      <c r="K22" s="13">
+        <v>5</v>
+      </c>
+      <c r="L22" s="13">
+        <v>19</v>
+      </c>
+      <c r="M22" s="13">
+        <v>38.926000000000002</v>
+      </c>
+      <c r="N22" s="13">
+        <v>20</v>
+      </c>
+      <c r="O22" s="13">
+        <v>460</v>
+      </c>
+      <c r="P22" s="13">
+        <v>16</v>
+      </c>
+      <c r="Q22" s="13">
+        <v>473</v>
       </c>
       <c r="S22" s="5">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="T22" s="2">
+      <c r="T22" s="13">
         <v>7</v>
       </c>
-      <c r="U22" s="2">
-        <v>18</v>
-      </c>
-      <c r="V22" s="2">
-        <v>94.06</v>
-      </c>
-      <c r="W22" s="2">
-        <v>16</v>
-      </c>
-      <c r="X22" s="2">
-        <v>607</v>
-      </c>
-      <c r="Y22" s="2">
-        <v>10</v>
-      </c>
-      <c r="Z22" s="2">
-        <v>640</v>
+      <c r="U22" s="13">
+        <v>41</v>
+      </c>
+      <c r="V22" s="13">
+        <v>94.14</v>
+      </c>
+      <c r="W22" s="13">
+        <v>16</v>
+      </c>
+      <c r="X22" s="13">
+        <v>409</v>
+      </c>
+      <c r="Y22" s="13">
+        <v>10</v>
+      </c>
+      <c r="Z22" s="13">
+        <v>446</v>
       </c>
       <c r="AC22" s="5">
         <f t="shared" si="3"/>
@@ -2996,51 +3003,51 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="K23">
-        <v>8</v>
-      </c>
-      <c r="L23">
-        <v>17</v>
-      </c>
-      <c r="M23">
-        <v>155.428</v>
-      </c>
-      <c r="N23">
-        <v>17</v>
-      </c>
-      <c r="O23">
-        <v>304</v>
-      </c>
-      <c r="P23">
-        <v>10</v>
-      </c>
-      <c r="Q23">
-        <v>336</v>
+      <c r="K23" s="13">
+        <v>3</v>
+      </c>
+      <c r="L23" s="13">
+        <v>10</v>
+      </c>
+      <c r="M23" s="13">
+        <v>18.925000000000001</v>
+      </c>
+      <c r="N23" s="13">
+        <v>12</v>
+      </c>
+      <c r="O23" s="13">
+        <v>271</v>
+      </c>
+      <c r="P23" s="13">
+        <v>10</v>
+      </c>
+      <c r="Q23" s="13">
+        <v>277</v>
       </c>
       <c r="S23" s="5">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="T23" s="2">
-        <v>1</v>
-      </c>
-      <c r="U23" s="2">
-        <v>9</v>
-      </c>
-      <c r="V23" s="2">
-        <v>48.83</v>
-      </c>
-      <c r="W23" s="2">
-        <v>10</v>
-      </c>
-      <c r="X23" s="2">
-        <v>415</v>
-      </c>
-      <c r="Y23" s="2">
-        <v>10</v>
-      </c>
-      <c r="Z23" s="2">
-        <v>415</v>
+      <c r="T23" s="13">
+        <v>8</v>
+      </c>
+      <c r="U23" s="13">
+        <v>23</v>
+      </c>
+      <c r="V23" s="13">
+        <v>52.295000000000002</v>
+      </c>
+      <c r="W23" s="13">
+        <v>17</v>
+      </c>
+      <c r="X23" s="13">
+        <v>323</v>
+      </c>
+      <c r="Y23" s="13">
+        <v>10</v>
+      </c>
+      <c r="Z23" s="13">
+        <v>353</v>
       </c>
       <c r="AC23" s="5">
         <f t="shared" si="3"/>
@@ -3098,51 +3105,51 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="K24">
-        <v>5</v>
-      </c>
-      <c r="L24">
-        <v>16</v>
-      </c>
-      <c r="M24">
-        <v>129.72900000000001</v>
-      </c>
-      <c r="N24">
-        <v>14</v>
-      </c>
-      <c r="O24">
-        <v>318</v>
-      </c>
-      <c r="P24">
-        <v>10</v>
-      </c>
-      <c r="Q24">
-        <v>335</v>
+      <c r="K24" s="13">
+        <v>5</v>
+      </c>
+      <c r="L24" s="13">
+        <v>21</v>
+      </c>
+      <c r="M24" s="13">
+        <v>42.124000000000002</v>
+      </c>
+      <c r="N24" s="13">
+        <v>20</v>
+      </c>
+      <c r="O24" s="13">
+        <v>431</v>
+      </c>
+      <c r="P24" s="13">
+        <v>16</v>
+      </c>
+      <c r="Q24" s="13">
+        <v>442</v>
       </c>
       <c r="S24" s="5">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="T24" s="2">
-        <v>6</v>
-      </c>
-      <c r="U24" s="2">
-        <v>19</v>
-      </c>
-      <c r="V24" s="2">
-        <v>101.235</v>
-      </c>
-      <c r="W24" s="2">
-        <v>15</v>
-      </c>
-      <c r="X24" s="2">
-        <v>490</v>
-      </c>
-      <c r="Y24" s="2">
-        <v>10</v>
-      </c>
-      <c r="Z24" s="2">
-        <v>515</v>
+      <c r="T24" s="13">
+        <v>5</v>
+      </c>
+      <c r="U24" s="13">
+        <v>25</v>
+      </c>
+      <c r="V24" s="13">
+        <v>55.11</v>
+      </c>
+      <c r="W24" s="13">
+        <v>20</v>
+      </c>
+      <c r="X24" s="13">
+        <v>477</v>
+      </c>
+      <c r="Y24" s="13">
+        <v>16</v>
+      </c>
+      <c r="Z24" s="13">
+        <v>496</v>
       </c>
       <c r="AC24" s="5">
         <f t="shared" si="3"/>
@@ -3200,51 +3207,51 @@
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="K25">
-        <v>5</v>
-      </c>
-      <c r="L25">
-        <v>19</v>
-      </c>
-      <c r="M25">
-        <v>151.48599999999999</v>
-      </c>
-      <c r="N25">
-        <v>14</v>
-      </c>
-      <c r="O25">
-        <v>340</v>
-      </c>
-      <c r="P25">
-        <v>10</v>
-      </c>
-      <c r="Q25">
-        <v>363</v>
+      <c r="K25" s="13">
+        <v>3</v>
+      </c>
+      <c r="L25" s="13">
+        <v>11</v>
+      </c>
+      <c r="M25" s="13">
+        <v>22.661000000000001</v>
+      </c>
+      <c r="N25" s="13">
+        <v>12</v>
+      </c>
+      <c r="O25" s="13">
+        <v>289</v>
+      </c>
+      <c r="P25" s="13">
+        <v>10</v>
+      </c>
+      <c r="Q25" s="13">
+        <v>296</v>
       </c>
       <c r="S25" s="5">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="T25" s="2">
-        <v>4</v>
-      </c>
-      <c r="U25" s="2">
-        <v>18</v>
-      </c>
-      <c r="V25" s="2">
-        <v>94.149000000000001</v>
-      </c>
-      <c r="W25" s="2">
-        <v>13</v>
-      </c>
-      <c r="X25" s="2">
-        <v>447</v>
-      </c>
-      <c r="Y25" s="2">
-        <v>10</v>
-      </c>
-      <c r="Z25" s="2">
-        <v>461</v>
+      <c r="T25" s="13">
+        <v>7</v>
+      </c>
+      <c r="U25" s="13">
+        <v>17</v>
+      </c>
+      <c r="V25" s="13">
+        <v>38.432000000000002</v>
+      </c>
+      <c r="W25" s="13">
+        <v>16</v>
+      </c>
+      <c r="X25" s="13">
+        <v>421</v>
+      </c>
+      <c r="Y25" s="13">
+        <v>10</v>
+      </c>
+      <c r="Z25" s="13">
+        <v>458</v>
       </c>
       <c r="AC25" s="5">
         <f t="shared" si="3"/>
@@ -3302,51 +3309,51 @@
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="K26">
-        <v>9</v>
-      </c>
-      <c r="L26">
+      <c r="K26" s="13">
+        <v>7</v>
+      </c>
+      <c r="L26" s="13">
         <v>26</v>
       </c>
-      <c r="M26">
-        <v>210.93799999999999</v>
-      </c>
-      <c r="N26">
-        <v>18</v>
-      </c>
-      <c r="O26">
-        <v>395</v>
-      </c>
-      <c r="P26">
-        <v>10</v>
-      </c>
-      <c r="Q26">
-        <v>435</v>
+      <c r="M26" s="13">
+        <v>53.601999999999997</v>
+      </c>
+      <c r="N26" s="13">
+        <v>22</v>
+      </c>
+      <c r="O26" s="13">
+        <v>456</v>
+      </c>
+      <c r="P26" s="13">
+        <v>16</v>
+      </c>
+      <c r="Q26" s="13">
+        <v>482</v>
       </c>
       <c r="S26" s="5">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="T26" s="2">
-        <v>1</v>
-      </c>
-      <c r="U26" s="2">
-        <v>34</v>
-      </c>
-      <c r="V26" s="2">
-        <v>187.10499999999999</v>
-      </c>
-      <c r="W26" s="2">
-        <v>27</v>
-      </c>
-      <c r="X26" s="2">
-        <v>782</v>
-      </c>
-      <c r="Y26" s="2">
-        <v>27</v>
-      </c>
-      <c r="Z26" s="2">
-        <v>782</v>
+      <c r="T26" s="13">
+        <v>5</v>
+      </c>
+      <c r="U26" s="13">
+        <v>19</v>
+      </c>
+      <c r="V26" s="13">
+        <v>40.344000000000001</v>
+      </c>
+      <c r="W26" s="13">
+        <v>20</v>
+      </c>
+      <c r="X26" s="13">
+        <v>449</v>
+      </c>
+      <c r="Y26" s="13">
+        <v>16</v>
+      </c>
+      <c r="Z26" s="13">
+        <v>462</v>
       </c>
       <c r="AC26" s="5">
         <f t="shared" si="3"/>
@@ -3404,51 +3411,51 @@
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="K27">
-        <v>5</v>
-      </c>
-      <c r="L27">
-        <v>11</v>
-      </c>
-      <c r="M27">
-        <v>89.463999999999999</v>
-      </c>
-      <c r="N27">
-        <v>20</v>
-      </c>
-      <c r="O27">
-        <v>421</v>
-      </c>
-      <c r="P27">
-        <v>16</v>
-      </c>
-      <c r="Q27">
-        <v>432</v>
+      <c r="K27" s="13">
+        <v>6</v>
+      </c>
+      <c r="L27" s="13">
+        <v>19</v>
+      </c>
+      <c r="M27" s="13">
+        <v>38.768999999999998</v>
+      </c>
+      <c r="N27" s="13">
+        <v>15</v>
+      </c>
+      <c r="O27" s="13">
+        <v>378</v>
+      </c>
+      <c r="P27" s="13">
+        <v>10</v>
+      </c>
+      <c r="Q27" s="13">
+        <v>408</v>
       </c>
       <c r="S27" s="5">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="T27" s="2">
-        <v>7</v>
-      </c>
-      <c r="U27" s="2">
-        <v>16</v>
-      </c>
-      <c r="V27" s="2">
-        <v>89.397999999999996</v>
-      </c>
-      <c r="W27" s="2">
-        <v>16</v>
-      </c>
-      <c r="X27" s="2">
-        <v>568</v>
-      </c>
-      <c r="Y27" s="2">
-        <v>10</v>
-      </c>
-      <c r="Z27" s="2">
-        <v>600</v>
+      <c r="T27" s="13">
+        <v>5</v>
+      </c>
+      <c r="U27" s="13">
+        <v>16</v>
+      </c>
+      <c r="V27" s="13">
+        <v>35.987000000000002</v>
+      </c>
+      <c r="W27" s="13">
+        <v>14</v>
+      </c>
+      <c r="X27" s="13">
+        <v>306</v>
+      </c>
+      <c r="Y27" s="13">
+        <v>10</v>
+      </c>
+      <c r="Z27" s="13">
+        <v>324</v>
       </c>
       <c r="AC27" s="5">
         <f t="shared" si="3"/>
@@ -3506,51 +3513,51 @@
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="K28">
+      <c r="K28" s="13">
         <v>1</v>
       </c>
-      <c r="L28">
-        <v>13</v>
-      </c>
-      <c r="M28">
-        <v>106.28100000000001</v>
-      </c>
-      <c r="N28">
+      <c r="L28" s="13">
+        <v>29</v>
+      </c>
+      <c r="M28" s="13">
+        <v>57.308</v>
+      </c>
+      <c r="N28" s="13">
         <v>27</v>
       </c>
-      <c r="O28">
-        <v>497</v>
-      </c>
-      <c r="P28">
+      <c r="O28" s="13">
+        <v>467</v>
+      </c>
+      <c r="P28" s="13">
         <v>27</v>
       </c>
-      <c r="Q28">
-        <v>497</v>
+      <c r="Q28" s="13">
+        <v>467</v>
       </c>
       <c r="S28" s="5">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="T28" s="2">
-        <v>7</v>
-      </c>
-      <c r="U28" s="2">
-        <v>27</v>
-      </c>
-      <c r="V28" s="2">
-        <v>138.13399999999999</v>
-      </c>
-      <c r="W28" s="2">
-        <v>16</v>
-      </c>
-      <c r="X28" s="2">
-        <v>708</v>
-      </c>
-      <c r="Y28" s="2">
-        <v>10</v>
-      </c>
-      <c r="Z28" s="2">
-        <v>744</v>
+      <c r="T28" s="13">
+        <v>3</v>
+      </c>
+      <c r="U28" s="13">
+        <v>15</v>
+      </c>
+      <c r="V28" s="13">
+        <v>32.585999999999999</v>
+      </c>
+      <c r="W28" s="13">
+        <v>12</v>
+      </c>
+      <c r="X28" s="13">
+        <v>285</v>
+      </c>
+      <c r="Y28" s="13">
+        <v>10</v>
+      </c>
+      <c r="Z28" s="13">
+        <v>295</v>
       </c>
       <c r="AC28" s="5">
         <f t="shared" si="3"/>
@@ -3608,51 +3615,51 @@
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="K29">
-        <v>9</v>
-      </c>
-      <c r="L29">
-        <v>26</v>
-      </c>
-      <c r="M29">
-        <v>215.43600000000001</v>
-      </c>
-      <c r="N29">
-        <v>18</v>
-      </c>
-      <c r="O29">
-        <v>370</v>
-      </c>
-      <c r="P29">
-        <v>10</v>
-      </c>
-      <c r="Q29">
-        <v>403</v>
+      <c r="K29" s="13">
+        <v>5</v>
+      </c>
+      <c r="L29" s="13">
+        <v>16</v>
+      </c>
+      <c r="M29" s="13">
+        <v>77</v>
+      </c>
+      <c r="N29" s="13">
+        <v>20</v>
+      </c>
+      <c r="O29" s="13">
+        <v>407</v>
+      </c>
+      <c r="P29" s="13">
+        <v>16</v>
+      </c>
+      <c r="Q29" s="13">
+        <v>417</v>
       </c>
       <c r="S29" s="5">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="T29" s="2">
-        <v>10</v>
-      </c>
-      <c r="U29" s="2">
-        <v>22</v>
-      </c>
-      <c r="V29" s="2">
-        <v>120.444</v>
-      </c>
-      <c r="W29" s="2">
+      <c r="T29" s="13">
+        <v>10</v>
+      </c>
+      <c r="U29" s="13">
+        <v>20</v>
+      </c>
+      <c r="V29" s="13">
+        <v>77</v>
+      </c>
+      <c r="W29" s="13">
         <v>19</v>
       </c>
-      <c r="X29" s="2">
-        <v>590</v>
-      </c>
-      <c r="Y29" s="2">
-        <v>10</v>
-      </c>
-      <c r="Z29" s="2">
-        <v>630</v>
+      <c r="X29" s="13">
+        <v>375</v>
+      </c>
+      <c r="Y29" s="13">
+        <v>10</v>
+      </c>
+      <c r="Z29" s="13">
+        <v>413</v>
       </c>
       <c r="AC29" s="5">
         <f t="shared" si="3"/>
@@ -3710,51 +3717,51 @@
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="K30">
-        <v>4</v>
-      </c>
-      <c r="L30">
-        <v>13</v>
-      </c>
-      <c r="M30">
-        <v>105.22199999999999</v>
-      </c>
-      <c r="N30">
-        <v>19</v>
-      </c>
-      <c r="O30">
-        <v>398</v>
-      </c>
-      <c r="P30">
-        <v>16</v>
-      </c>
-      <c r="Q30">
-        <v>406</v>
+      <c r="K30" s="13">
+        <v>1</v>
+      </c>
+      <c r="L30" s="13">
+        <v>5</v>
+      </c>
+      <c r="M30" s="13">
+        <v>8.8770000000000007</v>
+      </c>
+      <c r="N30" s="13">
+        <v>27</v>
+      </c>
+      <c r="O30" s="13">
+        <v>492</v>
+      </c>
+      <c r="P30" s="13">
+        <v>27</v>
+      </c>
+      <c r="Q30" s="13">
+        <v>492</v>
       </c>
       <c r="S30" s="5">
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="T30" s="2">
-        <v>8</v>
-      </c>
-      <c r="U30" s="2">
-        <v>23</v>
-      </c>
-      <c r="V30" s="2">
-        <v>127.532</v>
-      </c>
-      <c r="W30" s="2">
-        <v>17</v>
-      </c>
-      <c r="X30" s="2">
-        <v>527</v>
-      </c>
-      <c r="Y30" s="2">
-        <v>10</v>
-      </c>
-      <c r="Z30" s="2">
-        <v>556</v>
+      <c r="T30" s="13">
+        <v>4</v>
+      </c>
+      <c r="U30" s="13">
+        <v>12</v>
+      </c>
+      <c r="V30" s="13">
+        <v>26.23</v>
+      </c>
+      <c r="W30" s="13">
+        <v>19</v>
+      </c>
+      <c r="X30" s="13">
+        <v>361</v>
+      </c>
+      <c r="Y30" s="13">
+        <v>16</v>
+      </c>
+      <c r="Z30" s="13">
+        <v>370</v>
       </c>
       <c r="AC30" s="5">
         <f t="shared" si="3"/>
@@ -3812,51 +3819,51 @@
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="K31">
-        <v>5</v>
-      </c>
-      <c r="L31">
+      <c r="K31" s="13">
+        <v>5</v>
+      </c>
+      <c r="L31" s="13">
+        <v>30</v>
+      </c>
+      <c r="M31" s="13">
+        <v>61.481000000000002</v>
+      </c>
+      <c r="N31" s="13">
         <v>20</v>
       </c>
-      <c r="M31">
-        <v>163.78899999999999</v>
-      </c>
-      <c r="N31">
-        <v>20</v>
-      </c>
-      <c r="O31">
-        <v>434</v>
-      </c>
-      <c r="P31">
-        <v>16</v>
-      </c>
-      <c r="Q31">
-        <v>449</v>
+      <c r="O31" s="13">
+        <v>402</v>
+      </c>
+      <c r="P31" s="13">
+        <v>16</v>
+      </c>
+      <c r="Q31" s="13">
+        <v>416</v>
       </c>
       <c r="S31" s="5">
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="T31" s="2">
-        <v>4</v>
-      </c>
-      <c r="U31" s="2">
-        <v>19</v>
-      </c>
-      <c r="V31" s="2">
-        <v>105.97799999999999</v>
-      </c>
-      <c r="W31" s="2">
-        <v>13</v>
-      </c>
-      <c r="X31" s="2">
-        <v>469</v>
-      </c>
-      <c r="Y31" s="2">
-        <v>10</v>
-      </c>
-      <c r="Z31" s="2">
-        <v>485</v>
+      <c r="T31" s="13">
+        <v>5</v>
+      </c>
+      <c r="U31" s="13">
+        <v>16</v>
+      </c>
+      <c r="V31" s="13">
+        <v>35.280999999999999</v>
+      </c>
+      <c r="W31" s="13">
+        <v>20</v>
+      </c>
+      <c r="X31" s="13">
+        <v>466</v>
+      </c>
+      <c r="Y31" s="13">
+        <v>16</v>
+      </c>
+      <c r="Z31" s="13">
+        <v>486</v>
       </c>
       <c r="AC31" s="5">
         <f t="shared" si="3"/>
@@ -3914,51 +3921,51 @@
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="K32">
-        <v>6</v>
-      </c>
-      <c r="L32">
-        <v>28</v>
-      </c>
-      <c r="M32">
-        <v>234.398</v>
-      </c>
-      <c r="N32">
-        <v>21</v>
-      </c>
-      <c r="O32">
-        <v>433</v>
-      </c>
-      <c r="P32">
-        <v>16</v>
-      </c>
-      <c r="Q32">
-        <v>448</v>
+      <c r="K32" s="13">
+        <v>8</v>
+      </c>
+      <c r="L32" s="13">
+        <v>36</v>
+      </c>
+      <c r="M32" s="13">
+        <v>72.826999999999998</v>
+      </c>
+      <c r="N32" s="13">
+        <v>17</v>
+      </c>
+      <c r="O32" s="13">
+        <v>404</v>
+      </c>
+      <c r="P32" s="13">
+        <v>10</v>
+      </c>
+      <c r="Q32" s="13">
+        <v>440</v>
       </c>
       <c r="S32" s="5">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="T32" s="2">
-        <v>4</v>
-      </c>
-      <c r="U32" s="2">
-        <v>17</v>
-      </c>
-      <c r="V32" s="2">
-        <v>94.635000000000005</v>
-      </c>
-      <c r="W32" s="2">
+      <c r="T32" s="13">
+        <v>6</v>
+      </c>
+      <c r="U32" s="13">
         <v>13</v>
       </c>
-      <c r="X32" s="2">
-        <v>489</v>
-      </c>
-      <c r="Y32" s="2">
-        <v>10</v>
-      </c>
-      <c r="Z32" s="2">
-        <v>505</v>
+      <c r="V32" s="13">
+        <v>28.283999999999999</v>
+      </c>
+      <c r="W32" s="13">
+        <v>21</v>
+      </c>
+      <c r="X32" s="13">
+        <v>403</v>
+      </c>
+      <c r="Y32" s="13">
+        <v>16</v>
+      </c>
+      <c r="Z32" s="13">
+        <v>417</v>
       </c>
       <c r="AC32" s="5">
         <f t="shared" si="3"/>
@@ -4016,51 +4023,51 @@
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="K33">
-        <v>5</v>
-      </c>
-      <c r="L33">
-        <v>16</v>
-      </c>
-      <c r="M33">
-        <v>130.38399999999999</v>
-      </c>
-      <c r="N33">
-        <v>20</v>
-      </c>
-      <c r="O33">
-        <v>429</v>
-      </c>
-      <c r="P33">
-        <v>16</v>
-      </c>
-      <c r="Q33">
-        <v>442</v>
+      <c r="K33" s="13">
+        <v>7</v>
+      </c>
+      <c r="L33" s="13">
+        <v>22</v>
+      </c>
+      <c r="M33" s="13">
+        <v>46.081000000000003</v>
+      </c>
+      <c r="N33" s="13">
+        <v>16</v>
+      </c>
+      <c r="O33" s="13">
+        <v>355</v>
+      </c>
+      <c r="P33" s="13">
+        <v>10</v>
+      </c>
+      <c r="Q33" s="13">
+        <v>387</v>
       </c>
       <c r="S33" s="5">
         <f t="shared" si="2"/>
         <v>31</v>
       </c>
-      <c r="T33" s="2">
-        <v>8</v>
-      </c>
-      <c r="U33" s="2">
-        <v>16</v>
-      </c>
-      <c r="V33" s="2">
-        <v>87.183999999999997</v>
-      </c>
-      <c r="W33" s="2">
-        <v>17</v>
-      </c>
-      <c r="X33" s="2">
-        <v>574</v>
-      </c>
-      <c r="Y33" s="2">
-        <v>10</v>
-      </c>
-      <c r="Z33" s="2">
-        <v>609</v>
+      <c r="T33" s="13">
+        <v>5</v>
+      </c>
+      <c r="U33" s="13">
+        <v>18</v>
+      </c>
+      <c r="V33" s="13">
+        <v>37.601999999999997</v>
+      </c>
+      <c r="W33" s="13">
+        <v>20</v>
+      </c>
+      <c r="X33" s="13">
+        <v>443</v>
+      </c>
+      <c r="Y33" s="13">
+        <v>16</v>
+      </c>
+      <c r="Z33" s="13">
+        <v>460</v>
       </c>
       <c r="AC33" s="5">
         <f t="shared" si="3"/>
@@ -4118,51 +4125,51 @@
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="K34">
+      <c r="K34" s="13">
         <v>6</v>
       </c>
-      <c r="L34">
-        <v>17</v>
-      </c>
-      <c r="M34">
-        <v>129.20500000000001</v>
-      </c>
-      <c r="N34">
+      <c r="L34" s="13">
+        <v>37</v>
+      </c>
+      <c r="M34" s="13">
+        <v>75.384</v>
+      </c>
+      <c r="N34" s="13">
         <v>15</v>
       </c>
-      <c r="O34">
-        <v>331</v>
-      </c>
-      <c r="P34">
-        <v>10</v>
-      </c>
-      <c r="Q34">
-        <v>352</v>
+      <c r="O34" s="13">
+        <v>371</v>
+      </c>
+      <c r="P34" s="13">
+        <v>10</v>
+      </c>
+      <c r="Q34" s="13">
+        <v>398</v>
       </c>
       <c r="S34" s="5">
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
-      <c r="T34" s="2">
-        <v>5</v>
-      </c>
-      <c r="U34" s="2">
-        <v>18</v>
-      </c>
-      <c r="V34" s="2">
-        <v>98.123999999999995</v>
-      </c>
-      <c r="W34" s="2">
+      <c r="T34" s="13">
+        <v>5</v>
+      </c>
+      <c r="U34" s="13">
+        <v>48</v>
+      </c>
+      <c r="V34" s="13">
+        <v>109.93600000000001</v>
+      </c>
+      <c r="W34" s="13">
         <v>20</v>
       </c>
-      <c r="X34" s="2">
-        <v>702</v>
-      </c>
-      <c r="Y34" s="2">
-        <v>16</v>
-      </c>
-      <c r="Z34" s="2">
-        <v>720</v>
+      <c r="X34" s="13">
+        <v>492</v>
+      </c>
+      <c r="Y34" s="13">
+        <v>16</v>
+      </c>
+      <c r="Z34" s="13">
+        <v>512</v>
       </c>
       <c r="AC34" s="5">
         <f t="shared" si="3"/>
@@ -4220,51 +4227,51 @@
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="K35">
-        <v>1</v>
-      </c>
-      <c r="L35">
-        <v>14</v>
-      </c>
-      <c r="M35">
-        <v>97.379000000000005</v>
-      </c>
-      <c r="N35">
-        <v>10</v>
-      </c>
-      <c r="O35">
+      <c r="K35" s="13">
+        <v>4</v>
+      </c>
+      <c r="L35" s="13">
+        <v>13</v>
+      </c>
+      <c r="M35" s="13">
+        <v>25.744</v>
+      </c>
+      <c r="N35" s="13">
+        <v>13</v>
+      </c>
+      <c r="O35" s="13">
         <v>287</v>
       </c>
-      <c r="P35">
-        <v>10</v>
-      </c>
-      <c r="Q35">
-        <v>287</v>
+      <c r="P35" s="13">
+        <v>10</v>
+      </c>
+      <c r="Q35" s="13">
+        <v>299</v>
       </c>
       <c r="S35" s="5">
         <f t="shared" si="2"/>
         <v>33</v>
       </c>
-      <c r="T35" s="2">
-        <v>5</v>
-      </c>
-      <c r="U35" s="2">
-        <v>13</v>
-      </c>
-      <c r="V35" s="2">
-        <v>72.262</v>
-      </c>
-      <c r="W35" s="2">
-        <v>14</v>
-      </c>
-      <c r="X35" s="2">
-        <v>466</v>
-      </c>
-      <c r="Y35" s="2">
-        <v>10</v>
-      </c>
-      <c r="Z35" s="2">
-        <v>483</v>
+      <c r="T35" s="13">
+        <v>6</v>
+      </c>
+      <c r="U35" s="13">
+        <v>17</v>
+      </c>
+      <c r="V35" s="13">
+        <v>35.915999999999997</v>
+      </c>
+      <c r="W35" s="13">
+        <v>15</v>
+      </c>
+      <c r="X35" s="13">
+        <v>372</v>
+      </c>
+      <c r="Y35" s="13">
+        <v>10</v>
+      </c>
+      <c r="Z35" s="13">
+        <v>400</v>
       </c>
       <c r="AC35" s="5">
         <f t="shared" si="3"/>
@@ -4322,51 +4329,51 @@
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="K36">
-        <v>5</v>
-      </c>
-      <c r="L36">
-        <v>18</v>
-      </c>
-      <c r="M36">
-        <v>123.90600000000001</v>
-      </c>
-      <c r="N36">
-        <v>14</v>
-      </c>
-      <c r="O36">
-        <v>286</v>
-      </c>
-      <c r="P36">
-        <v>10</v>
-      </c>
-      <c r="Q36">
-        <v>303</v>
+      <c r="K36" s="13">
+        <v>8</v>
+      </c>
+      <c r="L36" s="13">
+        <v>21</v>
+      </c>
+      <c r="M36" s="13">
+        <v>41.868000000000002</v>
+      </c>
+      <c r="N36" s="13">
+        <v>23</v>
+      </c>
+      <c r="O36" s="13">
+        <v>442</v>
+      </c>
+      <c r="P36" s="13">
+        <v>16</v>
+      </c>
+      <c r="Q36" s="13">
+        <v>461</v>
       </c>
       <c r="S36" s="5">
         <f t="shared" si="2"/>
         <v>34</v>
       </c>
-      <c r="T36" s="2">
-        <v>6</v>
-      </c>
-      <c r="U36" s="2">
+      <c r="T36" s="13">
+        <v>5</v>
+      </c>
+      <c r="U36" s="13">
+        <v>16</v>
+      </c>
+      <c r="V36" s="13">
+        <v>34.869999999999997</v>
+      </c>
+      <c r="W36" s="13">
         <v>20</v>
       </c>
-      <c r="V36" s="2">
-        <v>111.747</v>
-      </c>
-      <c r="W36" s="2">
-        <v>15</v>
-      </c>
-      <c r="X36" s="2">
-        <v>454</v>
-      </c>
-      <c r="Y36" s="2">
-        <v>10</v>
-      </c>
-      <c r="Z36" s="2">
-        <v>474</v>
+      <c r="X36" s="13">
+        <v>401</v>
+      </c>
+      <c r="Y36" s="13">
+        <v>16</v>
+      </c>
+      <c r="Z36" s="13">
+        <v>412</v>
       </c>
       <c r="AC36" s="5">
         <f t="shared" si="3"/>
@@ -4424,51 +4431,51 @@
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="K37">
-        <v>5</v>
-      </c>
-      <c r="L37">
+      <c r="K37" s="13">
+        <v>6</v>
+      </c>
+      <c r="L37" s="13">
         <v>37</v>
       </c>
-      <c r="M37">
-        <v>275.596</v>
-      </c>
-      <c r="N37">
-        <v>20</v>
-      </c>
-      <c r="O37">
-        <v>462</v>
-      </c>
-      <c r="P37">
-        <v>16</v>
-      </c>
-      <c r="Q37">
-        <v>478</v>
+      <c r="M37" s="13">
+        <v>74.674000000000007</v>
+      </c>
+      <c r="N37" s="13">
+        <v>15</v>
+      </c>
+      <c r="O37" s="13">
+        <v>365</v>
+      </c>
+      <c r="P37" s="13">
+        <v>10</v>
+      </c>
+      <c r="Q37" s="13">
+        <v>389</v>
       </c>
       <c r="S37" s="5">
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="T37" s="2">
-        <v>5</v>
-      </c>
-      <c r="U37" s="2">
-        <v>16</v>
-      </c>
-      <c r="V37" s="2">
-        <v>90.671999999999997</v>
-      </c>
-      <c r="W37" s="2">
+      <c r="T37" s="13">
+        <v>5</v>
+      </c>
+      <c r="U37" s="13">
+        <v>18</v>
+      </c>
+      <c r="V37" s="13">
+        <v>37.503999999999998</v>
+      </c>
+      <c r="W37" s="13">
         <v>20</v>
       </c>
-      <c r="X37" s="2">
-        <v>611</v>
-      </c>
-      <c r="Y37" s="2">
-        <v>16</v>
-      </c>
-      <c r="Z37" s="2">
-        <v>622</v>
+      <c r="X37" s="13">
+        <v>488</v>
+      </c>
+      <c r="Y37" s="13">
+        <v>16</v>
+      </c>
+      <c r="Z37" s="13">
+        <v>504</v>
       </c>
       <c r="AC37" s="5">
         <f t="shared" si="3"/>
@@ -4526,51 +4533,51 @@
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="K38">
-        <v>6</v>
-      </c>
-      <c r="L38">
-        <v>30</v>
-      </c>
-      <c r="M38">
-        <v>221.74700000000001</v>
-      </c>
-      <c r="N38">
-        <v>15</v>
-      </c>
-      <c r="O38">
-        <v>380</v>
-      </c>
-      <c r="P38">
-        <v>10</v>
-      </c>
-      <c r="Q38">
-        <v>407</v>
+      <c r="K38" s="13">
+        <v>5</v>
+      </c>
+      <c r="L38" s="13">
+        <v>34</v>
+      </c>
+      <c r="M38" s="13">
+        <v>79.61</v>
+      </c>
+      <c r="N38" s="13">
+        <v>20</v>
+      </c>
+      <c r="O38" s="13">
+        <v>413</v>
+      </c>
+      <c r="P38" s="13">
+        <v>16</v>
+      </c>
+      <c r="Q38" s="13">
+        <v>430</v>
       </c>
       <c r="S38" s="5">
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
-      <c r="T38" s="2">
-        <v>7</v>
-      </c>
-      <c r="U38" s="2">
-        <v>17</v>
-      </c>
-      <c r="V38" s="2">
-        <v>101.70399999999999</v>
-      </c>
-      <c r="W38" s="2">
-        <v>16</v>
-      </c>
-      <c r="X38" s="2">
-        <v>491</v>
-      </c>
-      <c r="Y38" s="2">
-        <v>10</v>
-      </c>
-      <c r="Z38" s="2">
-        <v>515</v>
+      <c r="T38" s="13">
+        <v>4</v>
+      </c>
+      <c r="U38" s="13">
+        <v>12</v>
+      </c>
+      <c r="V38" s="13">
+        <v>25.276</v>
+      </c>
+      <c r="W38" s="13">
+        <v>13</v>
+      </c>
+      <c r="X38" s="13">
+        <v>301</v>
+      </c>
+      <c r="Y38" s="13">
+        <v>10</v>
+      </c>
+      <c r="Z38" s="13">
+        <v>313</v>
       </c>
       <c r="AC38" s="5">
         <f t="shared" si="3"/>
@@ -4628,51 +4635,51 @@
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="K39">
-        <v>6</v>
-      </c>
-      <c r="L39">
-        <v>21</v>
-      </c>
-      <c r="M39">
-        <v>150.57599999999999</v>
-      </c>
-      <c r="N39">
-        <v>21</v>
-      </c>
-      <c r="O39">
-        <v>398</v>
-      </c>
-      <c r="P39">
-        <v>16</v>
-      </c>
-      <c r="Q39">
-        <v>412</v>
+      <c r="K39" s="13">
+        <v>1</v>
+      </c>
+      <c r="L39" s="13">
+        <v>39</v>
+      </c>
+      <c r="M39" s="13">
+        <v>82.998999999999995</v>
+      </c>
+      <c r="N39" s="13">
+        <v>27</v>
+      </c>
+      <c r="O39" s="13">
+        <v>505</v>
+      </c>
+      <c r="P39" s="13">
+        <v>27</v>
+      </c>
+      <c r="Q39" s="13">
+        <v>505</v>
       </c>
       <c r="S39" s="5">
         <f t="shared" si="2"/>
         <v>37</v>
       </c>
-      <c r="T39" s="2">
-        <v>5</v>
-      </c>
-      <c r="U39" s="2">
-        <v>19</v>
-      </c>
-      <c r="V39" s="2">
-        <v>111.694</v>
-      </c>
-      <c r="W39" s="2">
-        <v>14</v>
-      </c>
-      <c r="X39" s="2">
-        <v>486</v>
-      </c>
-      <c r="Y39" s="2">
-        <v>10</v>
-      </c>
-      <c r="Z39" s="2">
-        <v>508</v>
+      <c r="T39" s="13">
+        <v>9</v>
+      </c>
+      <c r="U39" s="13">
+        <v>26</v>
+      </c>
+      <c r="V39" s="13">
+        <v>57.658999999999999</v>
+      </c>
+      <c r="W39" s="13">
+        <v>18</v>
+      </c>
+      <c r="X39" s="13">
+        <v>372</v>
+      </c>
+      <c r="Y39" s="13">
+        <v>10</v>
+      </c>
+      <c r="Z39" s="13">
+        <v>410</v>
       </c>
       <c r="AC39" s="5">
         <f t="shared" si="3"/>
@@ -4730,51 +4737,51 @@
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="K40">
-        <v>7</v>
-      </c>
-      <c r="L40">
-        <v>37</v>
-      </c>
-      <c r="M40">
-        <v>285.07499999999999</v>
-      </c>
-      <c r="N40">
-        <v>16</v>
-      </c>
-      <c r="O40">
-        <v>357</v>
-      </c>
-      <c r="P40">
-        <v>10</v>
-      </c>
-      <c r="Q40">
-        <v>388</v>
+      <c r="K40" s="13">
+        <v>10</v>
+      </c>
+      <c r="L40" s="13">
+        <v>15</v>
+      </c>
+      <c r="M40" s="13">
+        <v>30.199000000000002</v>
+      </c>
+      <c r="N40" s="13">
+        <v>19</v>
+      </c>
+      <c r="O40" s="13">
+        <v>377</v>
+      </c>
+      <c r="P40" s="13">
+        <v>10</v>
+      </c>
+      <c r="Q40" s="13">
+        <v>420</v>
       </c>
       <c r="S40" s="5">
         <f t="shared" si="2"/>
         <v>38</v>
       </c>
-      <c r="T40" s="2">
-        <v>4</v>
-      </c>
-      <c r="U40" s="2">
-        <v>18</v>
-      </c>
-      <c r="V40" s="2">
-        <v>102.572</v>
-      </c>
-      <c r="W40" s="2">
-        <v>19</v>
-      </c>
-      <c r="X40" s="2">
-        <v>608</v>
-      </c>
-      <c r="Y40" s="2">
-        <v>16</v>
-      </c>
-      <c r="Z40" s="2">
-        <v>617</v>
+      <c r="T40" s="13">
+        <v>7</v>
+      </c>
+      <c r="U40" s="13">
+        <v>15</v>
+      </c>
+      <c r="V40" s="13">
+        <v>31.870999999999999</v>
+      </c>
+      <c r="W40" s="13">
+        <v>22</v>
+      </c>
+      <c r="X40" s="13">
+        <v>419</v>
+      </c>
+      <c r="Y40" s="13">
+        <v>16</v>
+      </c>
+      <c r="Z40" s="13">
+        <v>435</v>
       </c>
       <c r="AC40" s="5">
         <f t="shared" si="3"/>
@@ -4832,51 +4839,51 @@
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="K41">
-        <v>5</v>
-      </c>
-      <c r="L41">
-        <v>32</v>
-      </c>
-      <c r="M41">
-        <v>235.376</v>
-      </c>
-      <c r="N41">
-        <v>14</v>
-      </c>
-      <c r="O41">
-        <v>352</v>
-      </c>
-      <c r="P41">
-        <v>10</v>
-      </c>
-      <c r="Q41">
-        <v>379</v>
+      <c r="K41" s="13">
+        <v>6</v>
+      </c>
+      <c r="L41" s="13">
+        <v>17</v>
+      </c>
+      <c r="M41" s="13">
+        <v>36.25</v>
+      </c>
+      <c r="N41" s="13">
+        <v>21</v>
+      </c>
+      <c r="O41" s="13">
+        <v>390</v>
+      </c>
+      <c r="P41" s="13">
+        <v>16</v>
+      </c>
+      <c r="Q41" s="13">
+        <v>405</v>
       </c>
       <c r="S41" s="5">
         <f t="shared" si="2"/>
         <v>39</v>
       </c>
-      <c r="T41" s="2">
-        <v>7</v>
-      </c>
-      <c r="U41" s="2">
-        <v>23</v>
-      </c>
-      <c r="V41" s="2">
-        <v>136.077</v>
-      </c>
-      <c r="W41" s="2">
-        <v>16</v>
-      </c>
-      <c r="X41" s="2">
-        <v>614</v>
-      </c>
-      <c r="Y41" s="2">
-        <v>10</v>
-      </c>
-      <c r="Z41" s="2">
-        <v>648</v>
+      <c r="T41" s="13">
+        <v>5</v>
+      </c>
+      <c r="U41" s="13">
+        <v>15</v>
+      </c>
+      <c r="V41" s="13">
+        <v>31.643000000000001</v>
+      </c>
+      <c r="W41" s="13">
+        <v>20</v>
+      </c>
+      <c r="X41" s="13">
+        <v>496</v>
+      </c>
+      <c r="Y41" s="13">
+        <v>16</v>
+      </c>
+      <c r="Z41" s="13">
+        <v>515</v>
       </c>
       <c r="AC41" s="5">
         <f t="shared" si="3"/>
@@ -4934,51 +4941,51 @@
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="K42">
-        <v>8</v>
-      </c>
-      <c r="L42">
-        <v>42</v>
-      </c>
-      <c r="M42">
-        <v>328.05500000000001</v>
-      </c>
-      <c r="N42">
-        <v>17</v>
-      </c>
-      <c r="O42">
-        <v>448</v>
-      </c>
-      <c r="P42">
-        <v>10</v>
-      </c>
-      <c r="Q42">
-        <v>487</v>
+      <c r="K42" s="13">
+        <v>6</v>
+      </c>
+      <c r="L42" s="13">
+        <v>19</v>
+      </c>
+      <c r="M42" s="13">
+        <v>36.383000000000003</v>
+      </c>
+      <c r="N42" s="13">
+        <v>15</v>
+      </c>
+      <c r="O42" s="13">
+        <v>338</v>
+      </c>
+      <c r="P42" s="13">
+        <v>10</v>
+      </c>
+      <c r="Q42" s="13">
+        <v>362</v>
       </c>
       <c r="S42" s="5">
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="T42" s="2">
-        <v>9</v>
-      </c>
-      <c r="U42" s="2">
-        <v>44</v>
-      </c>
-      <c r="V42" s="2">
-        <v>259.23</v>
-      </c>
-      <c r="W42" s="2">
-        <v>18</v>
-      </c>
-      <c r="X42" s="2">
-        <v>708</v>
-      </c>
-      <c r="Y42" s="2">
-        <v>10</v>
-      </c>
-      <c r="Z42" s="2">
-        <v>750</v>
+      <c r="T42" s="13">
+        <v>10</v>
+      </c>
+      <c r="U42" s="13">
+        <v>16</v>
+      </c>
+      <c r="V42" s="13">
+        <v>34.343000000000004</v>
+      </c>
+      <c r="W42" s="13">
+        <v>19</v>
+      </c>
+      <c r="X42" s="13">
+        <v>355</v>
+      </c>
+      <c r="Y42" s="13">
+        <v>10</v>
+      </c>
+      <c r="Z42" s="13">
+        <v>396</v>
       </c>
       <c r="AC42" s="5">
         <f t="shared" si="3"/>
@@ -5036,51 +5043,51 @@
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="K43">
-        <v>4</v>
-      </c>
-      <c r="L43">
-        <v>13</v>
-      </c>
-      <c r="M43">
-        <v>95.573999999999998</v>
-      </c>
-      <c r="N43">
-        <v>19</v>
-      </c>
-      <c r="O43">
-        <v>401</v>
-      </c>
-      <c r="P43">
-        <v>16</v>
-      </c>
-      <c r="Q43">
-        <v>408</v>
+      <c r="K43" s="13">
+        <v>5</v>
+      </c>
+      <c r="L43" s="13">
+        <v>18</v>
+      </c>
+      <c r="M43" s="13">
+        <v>33.677</v>
+      </c>
+      <c r="N43" s="13">
+        <v>20</v>
+      </c>
+      <c r="O43" s="13">
+        <v>426</v>
+      </c>
+      <c r="P43" s="13">
+        <v>16</v>
+      </c>
+      <c r="Q43" s="13">
+        <v>440</v>
       </c>
       <c r="S43" s="5">
         <f t="shared" si="2"/>
         <v>41</v>
       </c>
-      <c r="T43" s="2">
-        <v>3</v>
-      </c>
-      <c r="U43" s="2">
-        <v>15</v>
-      </c>
-      <c r="V43" s="2">
-        <v>87.183999999999997</v>
-      </c>
-      <c r="W43" s="2">
-        <v>12</v>
-      </c>
-      <c r="X43" s="2">
-        <v>415</v>
-      </c>
-      <c r="Y43" s="2">
-        <v>10</v>
-      </c>
-      <c r="Z43" s="2">
-        <v>424</v>
+      <c r="T43" s="13">
+        <v>5</v>
+      </c>
+      <c r="U43" s="13">
+        <v>23</v>
+      </c>
+      <c r="V43" s="13">
+        <v>49.308999999999997</v>
+      </c>
+      <c r="W43" s="13">
+        <v>14</v>
+      </c>
+      <c r="X43" s="13">
+        <v>341</v>
+      </c>
+      <c r="Y43" s="13">
+        <v>10</v>
+      </c>
+      <c r="Z43" s="13">
+        <v>367</v>
       </c>
       <c r="AC43" s="5">
         <f t="shared" si="3"/>
@@ -5138,51 +5145,51 @@
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="K44">
-        <v>5</v>
-      </c>
-      <c r="L44">
-        <v>25</v>
-      </c>
-      <c r="M44">
-        <v>185.91499999999999</v>
-      </c>
-      <c r="N44">
-        <v>14</v>
-      </c>
-      <c r="O44">
-        <v>332</v>
-      </c>
-      <c r="P44">
-        <v>10</v>
-      </c>
-      <c r="Q44">
-        <v>358</v>
+      <c r="K44" s="13">
+        <v>5</v>
+      </c>
+      <c r="L44" s="13">
+        <v>19</v>
+      </c>
+      <c r="M44" s="13">
+        <v>36.359000000000002</v>
+      </c>
+      <c r="N44" s="13">
+        <v>20</v>
+      </c>
+      <c r="O44" s="13">
+        <v>466</v>
+      </c>
+      <c r="P44" s="13">
+        <v>16</v>
+      </c>
+      <c r="Q44" s="13">
+        <v>482</v>
       </c>
       <c r="S44" s="5">
         <f t="shared" si="2"/>
         <v>42</v>
       </c>
-      <c r="T44" s="2">
-        <v>10</v>
-      </c>
-      <c r="U44" s="2">
-        <v>23</v>
-      </c>
-      <c r="V44" s="2">
-        <v>139.02799999999999</v>
-      </c>
-      <c r="W44" s="2">
-        <v>19</v>
-      </c>
-      <c r="X44" s="2">
-        <v>567</v>
-      </c>
-      <c r="Y44" s="2">
-        <v>10</v>
-      </c>
-      <c r="Z44" s="2">
-        <v>608</v>
+      <c r="T44" s="13">
+        <v>8</v>
+      </c>
+      <c r="U44" s="13">
+        <v>28</v>
+      </c>
+      <c r="V44" s="13">
+        <v>60.606999999999999</v>
+      </c>
+      <c r="W44" s="13">
+        <v>17</v>
+      </c>
+      <c r="X44" s="13">
+        <v>359</v>
+      </c>
+      <c r="Y44" s="13">
+        <v>10</v>
+      </c>
+      <c r="Z44" s="13">
+        <v>391</v>
       </c>
       <c r="AC44" s="5">
         <f t="shared" si="3"/>
@@ -5240,51 +5247,51 @@
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="K45">
-        <v>5</v>
-      </c>
-      <c r="L45">
-        <v>19</v>
-      </c>
-      <c r="M45">
-        <v>147.06200000000001</v>
-      </c>
-      <c r="N45">
-        <v>20</v>
-      </c>
-      <c r="O45">
-        <v>453</v>
-      </c>
-      <c r="P45">
-        <v>16</v>
-      </c>
-      <c r="Q45">
-        <v>466</v>
+      <c r="K45" s="13">
+        <v>5</v>
+      </c>
+      <c r="L45" s="13">
+        <v>25</v>
+      </c>
+      <c r="M45" s="13">
+        <v>46.456000000000003</v>
+      </c>
+      <c r="N45" s="13">
+        <v>14</v>
+      </c>
+      <c r="O45" s="13">
+        <v>314</v>
+      </c>
+      <c r="P45" s="13">
+        <v>10</v>
+      </c>
+      <c r="Q45" s="13">
+        <v>335</v>
       </c>
       <c r="S45" s="5">
         <f t="shared" si="2"/>
         <v>43</v>
       </c>
-      <c r="T45" s="2">
-        <v>7</v>
-      </c>
-      <c r="U45" s="2">
-        <v>46</v>
-      </c>
-      <c r="V45" s="2">
-        <v>281.87299999999999</v>
-      </c>
-      <c r="W45" s="2">
-        <v>16</v>
-      </c>
-      <c r="X45" s="2">
-        <v>655</v>
-      </c>
-      <c r="Y45" s="2">
-        <v>10</v>
-      </c>
-      <c r="Z45" s="2">
-        <v>691</v>
+      <c r="T45" s="13">
+        <v>8</v>
+      </c>
+      <c r="U45" s="13">
+        <v>29</v>
+      </c>
+      <c r="V45" s="13">
+        <v>63.491999999999997</v>
+      </c>
+      <c r="W45" s="13">
+        <v>17</v>
+      </c>
+      <c r="X45" s="13">
+        <v>355</v>
+      </c>
+      <c r="Y45" s="13">
+        <v>10</v>
+      </c>
+      <c r="Z45" s="13">
+        <v>388</v>
       </c>
       <c r="AC45" s="5">
         <f t="shared" si="3"/>
@@ -5342,51 +5349,51 @@
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="K46">
-        <v>3</v>
-      </c>
-      <c r="L46">
-        <v>30</v>
-      </c>
-      <c r="M46">
-        <v>229.12299999999999</v>
-      </c>
-      <c r="N46">
-        <v>18</v>
-      </c>
-      <c r="O46">
-        <v>403</v>
-      </c>
-      <c r="P46">
-        <v>16</v>
-      </c>
-      <c r="Q46">
-        <v>409</v>
+      <c r="K46" s="13">
+        <v>4</v>
+      </c>
+      <c r="L46" s="13">
+        <v>11</v>
+      </c>
+      <c r="M46" s="13">
+        <v>21.59</v>
+      </c>
+      <c r="N46" s="13">
+        <v>19</v>
+      </c>
+      <c r="O46" s="13">
+        <v>440</v>
+      </c>
+      <c r="P46" s="13">
+        <v>16</v>
+      </c>
+      <c r="Q46" s="13">
+        <v>452</v>
       </c>
       <c r="S46" s="5">
         <f t="shared" si="2"/>
         <v>44</v>
       </c>
-      <c r="T46" s="2">
-        <v>5</v>
-      </c>
-      <c r="U46" s="2">
-        <v>11</v>
-      </c>
-      <c r="V46" s="2">
-        <v>65.995999999999995</v>
-      </c>
-      <c r="W46" s="2">
-        <v>20</v>
-      </c>
-      <c r="X46" s="2">
-        <v>610</v>
-      </c>
-      <c r="Y46" s="2">
-        <v>16</v>
-      </c>
-      <c r="Z46" s="2">
-        <v>624</v>
+      <c r="T46" s="13">
+        <v>1</v>
+      </c>
+      <c r="U46" s="13">
+        <v>43</v>
+      </c>
+      <c r="V46" s="13">
+        <v>93.12</v>
+      </c>
+      <c r="W46" s="13">
+        <v>27</v>
+      </c>
+      <c r="X46" s="13">
+        <v>521</v>
+      </c>
+      <c r="Y46" s="13">
+        <v>27</v>
+      </c>
+      <c r="Z46" s="13">
+        <v>521</v>
       </c>
       <c r="AC46" s="5">
         <f t="shared" si="3"/>
@@ -5444,51 +5451,51 @@
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="K47">
-        <v>7</v>
-      </c>
-      <c r="L47">
-        <v>31</v>
-      </c>
-      <c r="M47">
-        <v>225.804</v>
-      </c>
-      <c r="N47">
-        <v>16</v>
-      </c>
-      <c r="O47">
-        <v>425</v>
-      </c>
-      <c r="P47">
-        <v>10</v>
-      </c>
-      <c r="Q47">
-        <v>464</v>
+      <c r="K47" s="13">
+        <v>8</v>
+      </c>
+      <c r="L47" s="13">
+        <v>28</v>
+      </c>
+      <c r="M47" s="13">
+        <v>58.045999999999999</v>
+      </c>
+      <c r="N47" s="13">
+        <v>17</v>
+      </c>
+      <c r="O47" s="13">
+        <v>373</v>
+      </c>
+      <c r="P47" s="13">
+        <v>10</v>
+      </c>
+      <c r="Q47" s="13">
+        <v>403</v>
       </c>
       <c r="S47" s="5">
         <f t="shared" si="2"/>
         <v>45</v>
       </c>
-      <c r="T47" s="2">
-        <v>5</v>
-      </c>
-      <c r="U47" s="2">
-        <v>19</v>
-      </c>
-      <c r="V47" s="2">
-        <v>116.49</v>
-      </c>
-      <c r="W47" s="2">
+      <c r="T47" s="13">
+        <v>5</v>
+      </c>
+      <c r="U47" s="13">
+        <v>21</v>
+      </c>
+      <c r="V47" s="13">
+        <v>43.095999999999997</v>
+      </c>
+      <c r="W47" s="13">
         <v>20</v>
       </c>
-      <c r="X47" s="2">
-        <v>619</v>
-      </c>
-      <c r="Y47" s="2">
-        <v>16</v>
-      </c>
-      <c r="Z47" s="2">
-        <v>629</v>
+      <c r="X47" s="13">
+        <v>427</v>
+      </c>
+      <c r="Y47" s="13">
+        <v>16</v>
+      </c>
+      <c r="Z47" s="13">
+        <v>440</v>
       </c>
       <c r="AC47" s="5">
         <f t="shared" si="3"/>
@@ -5546,51 +5553,51 @@
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="K48">
+      <c r="K48" s="13">
         <v>4</v>
       </c>
-      <c r="L48">
-        <v>11</v>
-      </c>
-      <c r="M48">
-        <v>80.084000000000003</v>
-      </c>
-      <c r="N48">
+      <c r="L48" s="13">
+        <v>15</v>
+      </c>
+      <c r="M48" s="13">
+        <v>28.026</v>
+      </c>
+      <c r="N48" s="13">
         <v>13</v>
       </c>
-      <c r="O48">
-        <v>285</v>
-      </c>
-      <c r="P48">
-        <v>10</v>
-      </c>
-      <c r="Q48">
-        <v>297</v>
+      <c r="O48" s="13">
+        <v>303</v>
+      </c>
+      <c r="P48" s="13">
+        <v>10</v>
+      </c>
+      <c r="Q48" s="13">
+        <v>317</v>
       </c>
       <c r="S48" s="5">
         <f t="shared" si="2"/>
         <v>46</v>
       </c>
-      <c r="T48" s="2">
+      <c r="T48" s="13">
         <v>7</v>
       </c>
-      <c r="U48" s="2">
-        <v>31</v>
-      </c>
-      <c r="V48" s="2">
-        <v>179.59100000000001</v>
-      </c>
-      <c r="W48" s="2">
-        <v>16</v>
-      </c>
-      <c r="X48" s="2">
-        <v>557</v>
-      </c>
-      <c r="Y48" s="2">
-        <v>10</v>
-      </c>
-      <c r="Z48" s="2">
-        <v>587</v>
+      <c r="U48" s="13">
+        <v>24</v>
+      </c>
+      <c r="V48" s="13">
+        <v>52.671999999999997</v>
+      </c>
+      <c r="W48" s="13">
+        <v>16</v>
+      </c>
+      <c r="X48" s="13">
+        <v>380</v>
+      </c>
+      <c r="Y48" s="13">
+        <v>10</v>
+      </c>
+      <c r="Z48" s="13">
+        <v>414</v>
       </c>
       <c r="AC48" s="5">
         <f t="shared" si="3"/>
@@ -5648,51 +5655,51 @@
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="K49">
-        <v>5</v>
-      </c>
-      <c r="L49">
-        <v>14</v>
-      </c>
-      <c r="M49">
-        <v>104.55500000000001</v>
-      </c>
-      <c r="N49">
-        <v>20</v>
-      </c>
-      <c r="O49">
-        <v>458</v>
-      </c>
-      <c r="P49">
-        <v>16</v>
-      </c>
-      <c r="Q49">
-        <v>479</v>
+      <c r="K49" s="13">
+        <v>4</v>
+      </c>
+      <c r="L49" s="13">
+        <v>32</v>
+      </c>
+      <c r="M49" s="13">
+        <v>64.984999999999999</v>
+      </c>
+      <c r="N49" s="13">
+        <v>19</v>
+      </c>
+      <c r="O49" s="13">
+        <v>429</v>
+      </c>
+      <c r="P49" s="13">
+        <v>16</v>
+      </c>
+      <c r="Q49" s="13">
+        <v>441</v>
       </c>
       <c r="S49" s="5">
         <f t="shared" si="2"/>
         <v>47</v>
       </c>
-      <c r="T49" s="2">
-        <v>7</v>
-      </c>
-      <c r="U49" s="2">
-        <v>22</v>
-      </c>
-      <c r="V49" s="2">
-        <v>169.34800000000001</v>
-      </c>
-      <c r="W49" s="2">
-        <v>16</v>
-      </c>
-      <c r="X49" s="2">
-        <v>573</v>
-      </c>
-      <c r="Y49" s="2">
-        <v>10</v>
-      </c>
-      <c r="Z49" s="2">
-        <v>608</v>
+      <c r="T49" s="13">
+        <v>8</v>
+      </c>
+      <c r="U49" s="13">
+        <v>30</v>
+      </c>
+      <c r="V49" s="13">
+        <v>61.5</v>
+      </c>
+      <c r="W49" s="13">
+        <v>17</v>
+      </c>
+      <c r="X49" s="13">
+        <v>433</v>
+      </c>
+      <c r="Y49" s="13">
+        <v>10</v>
+      </c>
+      <c r="Z49" s="13">
+        <v>469</v>
       </c>
       <c r="AC49" s="5">
         <f t="shared" si="3"/>
@@ -5750,51 +5757,51 @@
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="K50">
-        <v>6</v>
-      </c>
-      <c r="L50">
-        <v>20</v>
-      </c>
-      <c r="M50">
-        <v>142.42099999999999</v>
-      </c>
-      <c r="N50">
-        <v>21</v>
-      </c>
-      <c r="O50">
-        <v>375</v>
-      </c>
-      <c r="P50">
-        <v>16</v>
-      </c>
-      <c r="Q50">
-        <v>388</v>
+      <c r="K50" s="13">
+        <v>7</v>
+      </c>
+      <c r="L50" s="13">
+        <v>14</v>
+      </c>
+      <c r="M50" s="13">
+        <v>28.998000000000001</v>
+      </c>
+      <c r="N50" s="13">
+        <v>16</v>
+      </c>
+      <c r="O50" s="13">
+        <v>371</v>
+      </c>
+      <c r="P50" s="13">
+        <v>10</v>
+      </c>
+      <c r="Q50" s="13">
+        <v>397</v>
       </c>
       <c r="S50" s="5">
         <f t="shared" si="2"/>
         <v>48</v>
       </c>
-      <c r="T50" s="2">
-        <v>7</v>
-      </c>
-      <c r="U50" s="2">
-        <v>44</v>
-      </c>
-      <c r="V50" s="2">
-        <v>343.73099999999999</v>
-      </c>
-      <c r="W50" s="2">
-        <v>16</v>
-      </c>
-      <c r="X50" s="2">
-        <v>591</v>
-      </c>
-      <c r="Y50" s="2">
-        <v>10</v>
-      </c>
-      <c r="Z50" s="2">
-        <v>628</v>
+      <c r="T50" s="13">
+        <v>5</v>
+      </c>
+      <c r="U50" s="13">
+        <v>19</v>
+      </c>
+      <c r="V50" s="13">
+        <v>38.972000000000001</v>
+      </c>
+      <c r="W50" s="13">
+        <v>20</v>
+      </c>
+      <c r="X50" s="13">
+        <v>473</v>
+      </c>
+      <c r="Y50" s="13">
+        <v>16</v>
+      </c>
+      <c r="Z50" s="13">
+        <v>490</v>
       </c>
       <c r="AC50" s="5">
         <f t="shared" si="3"/>
@@ -5852,51 +5859,51 @@
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="K51">
-        <v>7</v>
-      </c>
-      <c r="L51">
-        <v>38</v>
-      </c>
-      <c r="M51">
-        <v>284.77</v>
-      </c>
-      <c r="N51">
-        <v>16</v>
-      </c>
-      <c r="O51">
-        <v>394</v>
-      </c>
-      <c r="P51">
-        <v>10</v>
-      </c>
-      <c r="Q51">
-        <v>428</v>
+      <c r="K51" s="13">
+        <v>3</v>
+      </c>
+      <c r="L51" s="13">
+        <v>12</v>
+      </c>
+      <c r="M51" s="13">
+        <v>26.983000000000001</v>
+      </c>
+      <c r="N51" s="13">
+        <v>12</v>
+      </c>
+      <c r="O51" s="13">
+        <v>303</v>
+      </c>
+      <c r="P51" s="13">
+        <v>10</v>
+      </c>
+      <c r="Q51" s="13">
+        <v>312</v>
       </c>
       <c r="S51" s="5">
         <f t="shared" si="2"/>
         <v>49</v>
       </c>
-      <c r="T51" s="2">
-        <v>6</v>
-      </c>
-      <c r="U51" s="2">
-        <v>25</v>
-      </c>
-      <c r="V51" s="2">
-        <v>198.57599999999999</v>
-      </c>
-      <c r="W51" s="2">
-        <v>15</v>
-      </c>
-      <c r="X51" s="2">
-        <v>515</v>
-      </c>
-      <c r="Y51" s="2">
-        <v>10</v>
-      </c>
-      <c r="Z51" s="2">
-        <v>544</v>
+      <c r="T51" s="13">
+        <v>8</v>
+      </c>
+      <c r="U51" s="13">
+        <v>27</v>
+      </c>
+      <c r="V51" s="13">
+        <v>59.097000000000001</v>
+      </c>
+      <c r="W51" s="13">
+        <v>17</v>
+      </c>
+      <c r="X51" s="13">
+        <v>350</v>
+      </c>
+      <c r="Y51" s="13">
+        <v>10</v>
+      </c>
+      <c r="Z51" s="13">
+        <v>382</v>
       </c>
       <c r="AC51" s="5">
         <f t="shared" si="3"/>
@@ -5954,51 +5961,51 @@
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="K52">
+      <c r="K52" s="13">
         <v>6</v>
       </c>
-      <c r="L52">
+      <c r="L52" s="13">
+        <v>22</v>
+      </c>
+      <c r="M52" s="13">
+        <v>43.808999999999997</v>
+      </c>
+      <c r="N52" s="13">
         <v>15</v>
       </c>
-      <c r="M52">
-        <v>110.117</v>
-      </c>
-      <c r="N52">
-        <v>15</v>
-      </c>
-      <c r="O52">
-        <v>313</v>
-      </c>
-      <c r="P52">
-        <v>10</v>
-      </c>
-      <c r="Q52">
-        <v>332</v>
+      <c r="O52" s="13">
+        <v>335</v>
+      </c>
+      <c r="P52" s="13">
+        <v>10</v>
+      </c>
+      <c r="Q52" s="13">
+        <v>366</v>
       </c>
       <c r="S52" s="5">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="T52" s="2">
-        <v>7</v>
-      </c>
-      <c r="U52" s="2">
-        <v>55</v>
-      </c>
-      <c r="V52" s="2">
-        <v>382.142</v>
-      </c>
-      <c r="W52" s="2">
-        <v>16</v>
-      </c>
-      <c r="X52" s="2">
-        <v>638</v>
-      </c>
-      <c r="Y52" s="2">
-        <v>10</v>
-      </c>
-      <c r="Z52" s="2">
-        <v>678</v>
+      <c r="T52" s="13">
+        <v>4</v>
+      </c>
+      <c r="U52" s="13">
+        <v>14</v>
+      </c>
+      <c r="V52" s="13">
+        <v>30.417999999999999</v>
+      </c>
+      <c r="W52" s="13">
+        <v>19</v>
+      </c>
+      <c r="X52" s="13">
+        <v>432</v>
+      </c>
+      <c r="Y52" s="13">
+        <v>16</v>
+      </c>
+      <c r="Z52" s="13">
+        <v>442</v>
       </c>
       <c r="AC52" s="5">
         <f t="shared" si="3"/>
@@ -6056,51 +6063,51 @@
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
-      <c r="K53">
-        <v>5</v>
-      </c>
-      <c r="L53">
-        <v>15</v>
-      </c>
-      <c r="M53">
-        <v>106.747</v>
-      </c>
-      <c r="N53">
-        <v>20</v>
-      </c>
-      <c r="O53">
-        <v>449</v>
-      </c>
-      <c r="P53">
-        <v>16</v>
-      </c>
-      <c r="Q53">
-        <v>464</v>
+      <c r="K53" s="13">
+        <v>9</v>
+      </c>
+      <c r="L53" s="13">
+        <v>21</v>
+      </c>
+      <c r="M53" s="13">
+        <v>41.411999999999999</v>
+      </c>
+      <c r="N53" s="13">
+        <v>18</v>
+      </c>
+      <c r="O53" s="13">
+        <v>352</v>
+      </c>
+      <c r="P53" s="13">
+        <v>10</v>
+      </c>
+      <c r="Q53" s="13">
+        <v>388</v>
       </c>
       <c r="S53" s="5">
         <f t="shared" si="2"/>
         <v>51</v>
       </c>
-      <c r="T53" s="2">
-        <v>5</v>
-      </c>
-      <c r="U53" s="2">
-        <v>27</v>
-      </c>
-      <c r="V53" s="2">
-        <v>141.93</v>
-      </c>
-      <c r="W53" s="2">
-        <v>14</v>
-      </c>
-      <c r="X53" s="2">
-        <v>537</v>
-      </c>
-      <c r="Y53" s="2">
-        <v>10</v>
-      </c>
-      <c r="Z53" s="2">
-        <v>557</v>
+      <c r="T53" s="13">
+        <v>8</v>
+      </c>
+      <c r="U53" s="13">
+        <v>13</v>
+      </c>
+      <c r="V53" s="13">
+        <v>27.302</v>
+      </c>
+      <c r="W53" s="13">
+        <v>17</v>
+      </c>
+      <c r="X53" s="13">
+        <v>384</v>
+      </c>
+      <c r="Y53" s="13">
+        <v>10</v>
+      </c>
+      <c r="Z53" s="13">
+        <v>418</v>
       </c>
       <c r="AC53" s="5">
         <f t="shared" si="3"/>
@@ -6158,51 +6165,51 @@
         <f t="shared" si="1"/>
         <v>52</v>
       </c>
-      <c r="K54">
-        <v>4</v>
-      </c>
-      <c r="L54">
-        <v>13</v>
-      </c>
-      <c r="M54">
-        <v>93.61</v>
-      </c>
-      <c r="N54">
-        <v>13</v>
-      </c>
-      <c r="O54">
-        <v>290</v>
-      </c>
-      <c r="P54">
-        <v>10</v>
-      </c>
-      <c r="Q54">
-        <v>299</v>
+      <c r="K54" s="13">
+        <v>6</v>
+      </c>
+      <c r="L54" s="13">
+        <v>15</v>
+      </c>
+      <c r="M54" s="13">
+        <v>32.713999999999999</v>
+      </c>
+      <c r="N54" s="13">
+        <v>21</v>
+      </c>
+      <c r="O54" s="13">
+        <v>436</v>
+      </c>
+      <c r="P54" s="13">
+        <v>16</v>
+      </c>
+      <c r="Q54" s="13">
+        <v>449</v>
       </c>
       <c r="S54" s="5">
         <f t="shared" si="2"/>
         <v>52</v>
       </c>
-      <c r="T54" s="2">
-        <v>8</v>
-      </c>
-      <c r="U54" s="2">
-        <v>35</v>
-      </c>
-      <c r="V54" s="2">
-        <v>181.96899999999999</v>
-      </c>
-      <c r="W54" s="2">
-        <v>17</v>
-      </c>
-      <c r="X54" s="2">
-        <v>625</v>
-      </c>
-      <c r="Y54" s="2">
-        <v>10</v>
-      </c>
-      <c r="Z54" s="2">
-        <v>662</v>
+      <c r="T54" s="13">
+        <v>5</v>
+      </c>
+      <c r="U54" s="13">
+        <v>14</v>
+      </c>
+      <c r="V54" s="13">
+        <v>29.082000000000001</v>
+      </c>
+      <c r="W54" s="13">
+        <v>20</v>
+      </c>
+      <c r="X54" s="13">
+        <v>411</v>
+      </c>
+      <c r="Y54" s="13">
+        <v>16</v>
+      </c>
+      <c r="Z54" s="13">
+        <v>425</v>
       </c>
       <c r="AC54" s="5">
         <f t="shared" si="3"/>
@@ -6260,51 +6267,51 @@
         <f t="shared" si="1"/>
         <v>53</v>
       </c>
-      <c r="K55">
-        <v>4</v>
-      </c>
-      <c r="L55">
-        <v>21</v>
-      </c>
-      <c r="M55">
-        <v>162.66</v>
-      </c>
-      <c r="N55">
-        <v>13</v>
-      </c>
-      <c r="O55">
-        <v>312</v>
-      </c>
-      <c r="P55">
-        <v>10</v>
-      </c>
-      <c r="Q55">
-        <v>325</v>
+      <c r="K55" s="13">
+        <v>10</v>
+      </c>
+      <c r="L55" s="13">
+        <v>16</v>
+      </c>
+      <c r="M55" s="13">
+        <v>34.067</v>
+      </c>
+      <c r="N55" s="13">
+        <v>19</v>
+      </c>
+      <c r="O55" s="13">
+        <v>397</v>
+      </c>
+      <c r="P55" s="13">
+        <v>10</v>
+      </c>
+      <c r="Q55" s="13">
+        <v>441</v>
       </c>
       <c r="S55" s="5">
         <f t="shared" si="2"/>
         <v>53</v>
       </c>
-      <c r="T55" s="2">
-        <v>5</v>
-      </c>
-      <c r="U55" s="2">
-        <v>28</v>
-      </c>
-      <c r="V55" s="2">
-        <v>152.56899999999999</v>
-      </c>
-      <c r="W55" s="2">
-        <v>14</v>
-      </c>
-      <c r="X55" s="2">
-        <v>456</v>
-      </c>
-      <c r="Y55" s="2">
-        <v>10</v>
-      </c>
-      <c r="Z55" s="2">
-        <v>473</v>
+      <c r="T55" s="13">
+        <v>8</v>
+      </c>
+      <c r="U55" s="13">
+        <v>15</v>
+      </c>
+      <c r="V55" s="13">
+        <v>31.355</v>
+      </c>
+      <c r="W55" s="13">
+        <v>17</v>
+      </c>
+      <c r="X55" s="13">
+        <v>369</v>
+      </c>
+      <c r="Y55" s="13">
+        <v>10</v>
+      </c>
+      <c r="Z55" s="13">
+        <v>399</v>
       </c>
       <c r="AC55" s="5">
         <f t="shared" si="3"/>
@@ -6362,51 +6369,51 @@
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
-      <c r="K56">
-        <v>5</v>
-      </c>
-      <c r="L56">
-        <v>10</v>
-      </c>
-      <c r="M56">
-        <v>74.47</v>
-      </c>
-      <c r="N56">
-        <v>20</v>
-      </c>
-      <c r="O56">
-        <v>396</v>
-      </c>
-      <c r="P56">
-        <v>16</v>
-      </c>
-      <c r="Q56">
-        <v>406</v>
+      <c r="K56" s="13">
+        <v>8</v>
+      </c>
+      <c r="L56" s="13">
+        <v>13</v>
+      </c>
+      <c r="M56" s="13">
+        <v>27.431999999999999</v>
+      </c>
+      <c r="N56" s="13">
+        <v>17</v>
+      </c>
+      <c r="O56" s="13">
+        <v>336</v>
+      </c>
+      <c r="P56" s="13">
+        <v>10</v>
+      </c>
+      <c r="Q56" s="13">
+        <v>368</v>
       </c>
       <c r="S56" s="5">
         <f t="shared" si="2"/>
         <v>54</v>
       </c>
-      <c r="T56" s="2">
-        <v>11</v>
-      </c>
-      <c r="U56" s="2">
-        <v>19</v>
-      </c>
-      <c r="V56" s="2">
-        <v>96.656999999999996</v>
-      </c>
-      <c r="W56" s="2">
-        <v>20</v>
-      </c>
-      <c r="X56" s="2">
-        <v>625</v>
-      </c>
-      <c r="Y56" s="2">
-        <v>10</v>
-      </c>
-      <c r="Z56" s="2">
-        <v>671</v>
+      <c r="T56" s="13">
+        <v>6</v>
+      </c>
+      <c r="U56" s="13">
+        <v>46</v>
+      </c>
+      <c r="V56" s="13">
+        <v>98.581999999999994</v>
+      </c>
+      <c r="W56" s="13">
+        <v>21</v>
+      </c>
+      <c r="X56" s="13">
+        <v>435</v>
+      </c>
+      <c r="Y56" s="13">
+        <v>16</v>
+      </c>
+      <c r="Z56" s="13">
+        <v>459</v>
       </c>
       <c r="AC56" s="5">
         <f t="shared" si="3"/>
@@ -6464,51 +6471,51 @@
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
-      <c r="K57">
-        <v>6</v>
-      </c>
-      <c r="L57">
-        <v>22</v>
-      </c>
-      <c r="M57">
-        <v>168.602</v>
-      </c>
-      <c r="N57">
-        <v>15</v>
-      </c>
-      <c r="O57">
-        <v>309</v>
-      </c>
-      <c r="P57">
-        <v>10</v>
-      </c>
-      <c r="Q57">
-        <v>331</v>
+      <c r="K57" s="13">
+        <v>1</v>
+      </c>
+      <c r="L57" s="13">
+        <v>12</v>
+      </c>
+      <c r="M57" s="13">
+        <v>23.774000000000001</v>
+      </c>
+      <c r="N57" s="13">
+        <v>10</v>
+      </c>
+      <c r="O57" s="13">
+        <v>261</v>
+      </c>
+      <c r="P57" s="13">
+        <v>10</v>
+      </c>
+      <c r="Q57" s="13">
+        <v>261</v>
       </c>
       <c r="S57" s="5">
         <f t="shared" si="2"/>
         <v>55</v>
       </c>
-      <c r="T57" s="2">
-        <v>1</v>
-      </c>
-      <c r="U57" s="2">
-        <v>15</v>
-      </c>
-      <c r="V57" s="2">
-        <v>78.650999999999996</v>
-      </c>
-      <c r="W57" s="2">
+      <c r="T57" s="13">
+        <v>5</v>
+      </c>
+      <c r="U57" s="13">
         <v>27</v>
       </c>
-      <c r="X57" s="2">
-        <v>717</v>
-      </c>
-      <c r="Y57" s="2">
-        <v>27</v>
-      </c>
-      <c r="Z57" s="2">
-        <v>717</v>
+      <c r="V57" s="13">
+        <v>56.658999999999999</v>
+      </c>
+      <c r="W57" s="13">
+        <v>20</v>
+      </c>
+      <c r="X57" s="13">
+        <v>411</v>
+      </c>
+      <c r="Y57" s="13">
+        <v>16</v>
+      </c>
+      <c r="Z57" s="13">
+        <v>424</v>
       </c>
       <c r="AC57" s="5">
         <f t="shared" si="3"/>
@@ -6566,51 +6573,51 @@
         <f t="shared" si="1"/>
         <v>56</v>
       </c>
-      <c r="K58">
-        <v>5</v>
-      </c>
-      <c r="L58">
-        <v>16</v>
-      </c>
-      <c r="M58">
-        <v>118.383</v>
-      </c>
-      <c r="N58">
-        <v>20</v>
-      </c>
-      <c r="O58">
-        <v>458</v>
-      </c>
-      <c r="P58">
-        <v>16</v>
-      </c>
-      <c r="Q58">
-        <v>474</v>
+      <c r="K58" s="13">
+        <v>6</v>
+      </c>
+      <c r="L58" s="13">
+        <v>17</v>
+      </c>
+      <c r="M58" s="13">
+        <v>34.411999999999999</v>
+      </c>
+      <c r="N58" s="13">
+        <v>15</v>
+      </c>
+      <c r="O58" s="13">
+        <v>333</v>
+      </c>
+      <c r="P58" s="13">
+        <v>10</v>
+      </c>
+      <c r="Q58" s="13">
+        <v>361</v>
       </c>
       <c r="S58" s="5">
         <f t="shared" si="2"/>
         <v>56</v>
       </c>
-      <c r="T58" s="2">
-        <v>7</v>
-      </c>
-      <c r="U58" s="2">
-        <v>23</v>
-      </c>
-      <c r="V58" s="2">
-        <v>115.18300000000001</v>
-      </c>
-      <c r="W58" s="2">
-        <v>16</v>
-      </c>
-      <c r="X58" s="2">
-        <v>607</v>
-      </c>
-      <c r="Y58" s="2">
-        <v>10</v>
-      </c>
-      <c r="Z58" s="2">
-        <v>642</v>
+      <c r="T58" s="13">
+        <v>8</v>
+      </c>
+      <c r="U58" s="13">
+        <v>18</v>
+      </c>
+      <c r="V58" s="13">
+        <v>37.186999999999998</v>
+      </c>
+      <c r="W58" s="13">
+        <v>17</v>
+      </c>
+      <c r="X58" s="13">
+        <v>313</v>
+      </c>
+      <c r="Y58" s="13">
+        <v>10</v>
+      </c>
+      <c r="Z58" s="13">
+        <v>339</v>
       </c>
       <c r="AC58" s="5">
         <f t="shared" si="3"/>
@@ -6668,51 +6675,51 @@
         <f t="shared" si="1"/>
         <v>57</v>
       </c>
-      <c r="K59">
-        <v>6</v>
-      </c>
-      <c r="L59">
-        <v>17</v>
-      </c>
-      <c r="M59">
-        <v>126.027</v>
-      </c>
-      <c r="N59">
-        <v>15</v>
-      </c>
-      <c r="O59">
-        <v>334</v>
-      </c>
-      <c r="P59">
-        <v>10</v>
-      </c>
-      <c r="Q59">
-        <v>358</v>
+      <c r="K59" s="13">
+        <v>4</v>
+      </c>
+      <c r="L59" s="13">
+        <v>11</v>
+      </c>
+      <c r="M59" s="13">
+        <v>23.26</v>
+      </c>
+      <c r="N59" s="13">
+        <v>13</v>
+      </c>
+      <c r="O59" s="13">
+        <v>289</v>
+      </c>
+      <c r="P59" s="13">
+        <v>10</v>
+      </c>
+      <c r="Q59" s="13">
+        <v>304</v>
       </c>
       <c r="S59" s="5">
         <f t="shared" si="2"/>
         <v>57</v>
       </c>
-      <c r="T59" s="2">
-        <v>6</v>
-      </c>
-      <c r="U59" s="2">
-        <v>21</v>
-      </c>
-      <c r="V59" s="2">
-        <v>116.52</v>
-      </c>
-      <c r="W59" s="2">
-        <v>15</v>
-      </c>
-      <c r="X59" s="2">
-        <v>496</v>
-      </c>
-      <c r="Y59" s="2">
-        <v>10</v>
-      </c>
-      <c r="Z59" s="2">
-        <v>517</v>
+      <c r="T59" s="13">
+        <v>2</v>
+      </c>
+      <c r="U59" s="13">
+        <v>11</v>
+      </c>
+      <c r="V59" s="13">
+        <v>21.303999999999998</v>
+      </c>
+      <c r="W59" s="13">
+        <v>11</v>
+      </c>
+      <c r="X59" s="13">
+        <v>275</v>
+      </c>
+      <c r="Y59" s="13">
+        <v>10</v>
+      </c>
+      <c r="Z59" s="13">
+        <v>280</v>
       </c>
       <c r="AC59" s="5">
         <f t="shared" si="3"/>
@@ -6770,51 +6777,51 @@
         <f t="shared" si="1"/>
         <v>58</v>
       </c>
-      <c r="K60">
-        <v>5</v>
-      </c>
-      <c r="L60">
-        <v>9</v>
-      </c>
-      <c r="M60">
-        <v>64.58</v>
-      </c>
-      <c r="N60">
-        <v>20</v>
-      </c>
-      <c r="O60">
-        <v>468</v>
-      </c>
-      <c r="P60">
-        <v>16</v>
-      </c>
-      <c r="Q60">
-        <v>482</v>
+      <c r="K60" s="13">
+        <v>7</v>
+      </c>
+      <c r="L60" s="13">
+        <v>27</v>
+      </c>
+      <c r="M60" s="13">
+        <v>54.436999999999998</v>
+      </c>
+      <c r="N60" s="13">
+        <v>16</v>
+      </c>
+      <c r="O60" s="13">
+        <v>399</v>
+      </c>
+      <c r="P60" s="13">
+        <v>10</v>
+      </c>
+      <c r="Q60" s="13">
+        <v>438</v>
       </c>
       <c r="S60" s="5">
         <f t="shared" si="2"/>
         <v>58</v>
       </c>
-      <c r="T60" s="2">
-        <v>3</v>
-      </c>
-      <c r="U60" s="2">
-        <v>12</v>
-      </c>
-      <c r="V60" s="2">
-        <v>64.343000000000004</v>
-      </c>
-      <c r="W60" s="2">
-        <v>12</v>
-      </c>
-      <c r="X60" s="2">
-        <v>421</v>
-      </c>
-      <c r="Y60" s="2">
-        <v>10</v>
-      </c>
-      <c r="Z60" s="2">
-        <v>425</v>
+      <c r="T60" s="13">
+        <v>7</v>
+      </c>
+      <c r="U60" s="13">
+        <v>49</v>
+      </c>
+      <c r="V60" s="13">
+        <v>105.86799999999999</v>
+      </c>
+      <c r="W60" s="13">
+        <v>16</v>
+      </c>
+      <c r="X60" s="13">
+        <v>428</v>
+      </c>
+      <c r="Y60" s="13">
+        <v>10</v>
+      </c>
+      <c r="Z60" s="13">
+        <v>463</v>
       </c>
       <c r="AC60" s="5">
         <f t="shared" si="3"/>
@@ -6872,51 +6879,51 @@
         <f t="shared" si="1"/>
         <v>59</v>
       </c>
-      <c r="K61">
-        <v>5</v>
-      </c>
-      <c r="L61">
-        <v>18</v>
-      </c>
-      <c r="M61">
-        <v>128.47</v>
-      </c>
-      <c r="N61">
-        <v>20</v>
-      </c>
-      <c r="O61">
-        <v>466</v>
-      </c>
-      <c r="P61">
-        <v>16</v>
-      </c>
-      <c r="Q61">
-        <v>479</v>
+      <c r="K61" s="13">
+        <v>7</v>
+      </c>
+      <c r="L61" s="13">
+        <v>37</v>
+      </c>
+      <c r="M61" s="13">
+        <v>77.960999999999999</v>
+      </c>
+      <c r="N61" s="13">
+        <v>16</v>
+      </c>
+      <c r="O61" s="13">
+        <v>413</v>
+      </c>
+      <c r="P61" s="13">
+        <v>10</v>
+      </c>
+      <c r="Q61" s="13">
+        <v>447</v>
       </c>
       <c r="S61" s="5">
         <f t="shared" si="2"/>
         <v>59</v>
       </c>
-      <c r="T61" s="2">
-        <v>5</v>
-      </c>
-      <c r="U61" s="2">
+      <c r="T61" s="13">
+        <v>5</v>
+      </c>
+      <c r="U61" s="13">
+        <v>25</v>
+      </c>
+      <c r="V61" s="13">
+        <v>53.259</v>
+      </c>
+      <c r="W61" s="13">
         <v>20</v>
       </c>
-      <c r="V61" s="2">
-        <v>113.057</v>
-      </c>
-      <c r="W61" s="2">
-        <v>14</v>
-      </c>
-      <c r="X61" s="2">
-        <v>517</v>
-      </c>
-      <c r="Y61" s="2">
-        <v>10</v>
-      </c>
-      <c r="Z61" s="2">
-        <v>537</v>
+      <c r="X61" s="13">
+        <v>399</v>
+      </c>
+      <c r="Y61" s="13">
+        <v>16</v>
+      </c>
+      <c r="Z61" s="13">
+        <v>409</v>
       </c>
       <c r="AC61" s="5">
         <f t="shared" si="3"/>
@@ -6974,51 +6981,51 @@
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="K62">
-        <v>5</v>
-      </c>
-      <c r="L62">
-        <v>43</v>
-      </c>
-      <c r="M62">
-        <v>334.428</v>
-      </c>
-      <c r="N62">
-        <v>20</v>
-      </c>
-      <c r="O62">
-        <v>482</v>
-      </c>
-      <c r="P62">
-        <v>16</v>
-      </c>
-      <c r="Q62">
-        <v>497</v>
+      <c r="K62" s="13">
+        <v>3</v>
+      </c>
+      <c r="L62" s="13">
+        <v>14</v>
+      </c>
+      <c r="M62" s="13">
+        <v>25.471</v>
+      </c>
+      <c r="N62" s="13">
+        <v>12</v>
+      </c>
+      <c r="O62" s="13">
+        <v>268</v>
+      </c>
+      <c r="P62" s="13">
+        <v>10</v>
+      </c>
+      <c r="Q62" s="13">
+        <v>276</v>
       </c>
       <c r="S62" s="5">
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="T62" s="2">
-        <v>10</v>
-      </c>
-      <c r="U62" s="2">
-        <v>19</v>
-      </c>
-      <c r="V62" s="2">
-        <v>97.841999999999999</v>
-      </c>
-      <c r="W62" s="2">
-        <v>19</v>
-      </c>
-      <c r="X62" s="2">
-        <v>541</v>
-      </c>
-      <c r="Y62" s="2">
-        <v>10</v>
-      </c>
-      <c r="Z62" s="2">
-        <v>577</v>
+      <c r="T62" s="13">
+        <v>6</v>
+      </c>
+      <c r="U62" s="13">
+        <v>25</v>
+      </c>
+      <c r="V62" s="13">
+        <v>54.603999999999999</v>
+      </c>
+      <c r="W62" s="13">
+        <v>15</v>
+      </c>
+      <c r="X62" s="13">
+        <v>328</v>
+      </c>
+      <c r="Y62" s="13">
+        <v>10</v>
+      </c>
+      <c r="Z62" s="13">
+        <v>356</v>
       </c>
       <c r="AC62" s="5">
         <f t="shared" si="3"/>
@@ -7076,51 +7083,51 @@
         <f t="shared" si="1"/>
         <v>61</v>
       </c>
-      <c r="K63">
-        <v>7</v>
-      </c>
-      <c r="L63">
-        <v>18</v>
-      </c>
-      <c r="M63">
-        <v>137.97999999999999</v>
-      </c>
-      <c r="N63">
-        <v>16</v>
-      </c>
-      <c r="O63">
-        <v>370</v>
-      </c>
-      <c r="P63">
-        <v>10</v>
-      </c>
-      <c r="Q63">
-        <v>407</v>
+      <c r="K63" s="13">
+        <v>5</v>
+      </c>
+      <c r="L63" s="13">
+        <v>29</v>
+      </c>
+      <c r="M63" s="13">
+        <v>57.793999999999997</v>
+      </c>
+      <c r="N63" s="13">
+        <v>14</v>
+      </c>
+      <c r="O63" s="13">
+        <v>317</v>
+      </c>
+      <c r="P63" s="13">
+        <v>10</v>
+      </c>
+      <c r="Q63" s="13">
+        <v>338</v>
       </c>
       <c r="S63" s="5">
         <f t="shared" si="2"/>
         <v>61</v>
       </c>
-      <c r="T63" s="2">
-        <v>5</v>
-      </c>
-      <c r="U63" s="2">
-        <v>18</v>
-      </c>
-      <c r="V63" s="2">
-        <v>101.22499999999999</v>
-      </c>
-      <c r="W63" s="2">
-        <v>14</v>
-      </c>
-      <c r="X63" s="2">
-        <v>500</v>
-      </c>
-      <c r="Y63" s="2">
-        <v>10</v>
-      </c>
-      <c r="Z63" s="2">
-        <v>521</v>
+      <c r="T63" s="13">
+        <v>6</v>
+      </c>
+      <c r="U63" s="13">
+        <v>20</v>
+      </c>
+      <c r="V63" s="13">
+        <v>42.267000000000003</v>
+      </c>
+      <c r="W63" s="13">
+        <v>15</v>
+      </c>
+      <c r="X63" s="13">
+        <v>368</v>
+      </c>
+      <c r="Y63" s="13">
+        <v>10</v>
+      </c>
+      <c r="Z63" s="13">
+        <v>401</v>
       </c>
       <c r="AC63" s="5">
         <f t="shared" si="3"/>
@@ -7178,51 +7185,51 @@
         <f t="shared" si="1"/>
         <v>62</v>
       </c>
-      <c r="K64">
-        <v>2</v>
-      </c>
-      <c r="L64">
-        <v>16</v>
-      </c>
-      <c r="M64">
-        <v>114.349</v>
-      </c>
-      <c r="N64">
-        <v>11</v>
-      </c>
-      <c r="O64">
-        <v>283</v>
-      </c>
-      <c r="P64">
-        <v>10</v>
-      </c>
-      <c r="Q64">
-        <v>287</v>
+      <c r="K64" s="13">
+        <v>8</v>
+      </c>
+      <c r="L64" s="13">
+        <v>34</v>
+      </c>
+      <c r="M64" s="13">
+        <v>67.519000000000005</v>
+      </c>
+      <c r="N64" s="13">
+        <v>17</v>
+      </c>
+      <c r="O64" s="13">
+        <v>426</v>
+      </c>
+      <c r="P64" s="13">
+        <v>10</v>
+      </c>
+      <c r="Q64" s="13">
+        <v>464</v>
       </c>
       <c r="S64" s="5">
         <f t="shared" si="2"/>
         <v>62</v>
       </c>
-      <c r="T64" s="2">
-        <v>7</v>
-      </c>
-      <c r="U64" s="2">
-        <v>17</v>
-      </c>
-      <c r="V64" s="2">
-        <v>91.805999999999997</v>
-      </c>
-      <c r="W64" s="2">
-        <v>22</v>
-      </c>
-      <c r="X64" s="2">
-        <v>725</v>
-      </c>
-      <c r="Y64" s="2">
-        <v>16</v>
-      </c>
-      <c r="Z64" s="2">
-        <v>741</v>
+      <c r="T64" s="13">
+        <v>1</v>
+      </c>
+      <c r="U64" s="13">
+        <v>9</v>
+      </c>
+      <c r="V64" s="13">
+        <v>18.457000000000001</v>
+      </c>
+      <c r="W64" s="13">
+        <v>10</v>
+      </c>
+      <c r="X64" s="13">
+        <v>273</v>
+      </c>
+      <c r="Y64" s="13">
+        <v>10</v>
+      </c>
+      <c r="Z64" s="13">
+        <v>273</v>
       </c>
       <c r="AC64" s="5">
         <f t="shared" si="3"/>
@@ -7280,51 +7287,51 @@
         <f t="shared" si="1"/>
         <v>63</v>
       </c>
-      <c r="K65">
+      <c r="K65" s="13">
         <v>7</v>
       </c>
-      <c r="L65">
-        <v>25</v>
-      </c>
-      <c r="M65">
-        <v>186.25899999999999</v>
-      </c>
-      <c r="N65">
-        <v>22</v>
-      </c>
-      <c r="O65">
-        <v>402</v>
-      </c>
-      <c r="P65">
-        <v>16</v>
-      </c>
-      <c r="Q65">
-        <v>419</v>
+      <c r="L65" s="13">
+        <v>18</v>
+      </c>
+      <c r="M65" s="13">
+        <v>34.243000000000002</v>
+      </c>
+      <c r="N65" s="13">
+        <v>16</v>
+      </c>
+      <c r="O65" s="13">
+        <v>314</v>
+      </c>
+      <c r="P65" s="13">
+        <v>10</v>
+      </c>
+      <c r="Q65" s="13">
+        <v>339</v>
       </c>
       <c r="S65" s="5">
         <f t="shared" si="2"/>
         <v>63</v>
       </c>
-      <c r="T65" s="2">
-        <v>5</v>
-      </c>
-      <c r="U65" s="2">
-        <v>27</v>
-      </c>
-      <c r="V65" s="2">
-        <v>147.226</v>
-      </c>
-      <c r="W65" s="2">
-        <v>14</v>
-      </c>
-      <c r="X65" s="2">
-        <v>475</v>
-      </c>
-      <c r="Y65" s="2">
-        <v>10</v>
-      </c>
-      <c r="Z65" s="2">
-        <v>498</v>
+      <c r="T65" s="13">
+        <v>11</v>
+      </c>
+      <c r="U65" s="13">
+        <v>19</v>
+      </c>
+      <c r="V65" s="13">
+        <v>40.381</v>
+      </c>
+      <c r="W65" s="13">
+        <v>20</v>
+      </c>
+      <c r="X65" s="13">
+        <v>403</v>
+      </c>
+      <c r="Y65" s="13">
+        <v>10</v>
+      </c>
+      <c r="Z65" s="13">
+        <v>449</v>
       </c>
       <c r="AC65" s="5">
         <f t="shared" si="3"/>
@@ -7382,51 +7389,51 @@
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
-      <c r="K66">
-        <v>7</v>
-      </c>
-      <c r="L66">
-        <v>19</v>
-      </c>
-      <c r="M66">
-        <v>145.81200000000001</v>
-      </c>
-      <c r="N66">
-        <v>16</v>
-      </c>
-      <c r="O66">
-        <v>328</v>
-      </c>
-      <c r="P66">
-        <v>10</v>
-      </c>
-      <c r="Q66">
-        <v>356</v>
+      <c r="K66" s="13">
+        <v>5</v>
+      </c>
+      <c r="L66" s="13">
+        <v>27</v>
+      </c>
+      <c r="M66" s="13">
+        <v>50.328000000000003</v>
+      </c>
+      <c r="N66" s="13">
+        <v>20</v>
+      </c>
+      <c r="O66" s="13">
+        <v>380</v>
+      </c>
+      <c r="P66" s="13">
+        <v>16</v>
+      </c>
+      <c r="Q66" s="13">
+        <v>390</v>
       </c>
       <c r="S66" s="5">
         <f t="shared" si="2"/>
         <v>64</v>
       </c>
-      <c r="T66" s="2">
-        <v>8</v>
-      </c>
-      <c r="U66" s="2">
-        <v>17</v>
-      </c>
-      <c r="V66" s="2">
-        <v>92.528999999999996</v>
-      </c>
-      <c r="W66" s="2">
-        <v>23</v>
-      </c>
-      <c r="X66" s="2">
-        <v>710</v>
-      </c>
-      <c r="Y66" s="2">
-        <v>16</v>
-      </c>
-      <c r="Z66" s="2">
-        <v>729</v>
+      <c r="T66" s="13">
+        <v>4</v>
+      </c>
+      <c r="U66" s="13">
+        <v>15</v>
+      </c>
+      <c r="V66" s="13">
+        <v>32.063000000000002</v>
+      </c>
+      <c r="W66" s="13">
+        <v>13</v>
+      </c>
+      <c r="X66" s="13">
+        <v>284</v>
+      </c>
+      <c r="Y66" s="13">
+        <v>10</v>
+      </c>
+      <c r="Z66" s="13">
+        <v>298</v>
       </c>
       <c r="AC66" s="5">
         <f t="shared" si="3"/>
@@ -7484,51 +7491,51 @@
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
-      <c r="K67">
-        <v>6</v>
-      </c>
-      <c r="L67">
-        <v>11</v>
-      </c>
-      <c r="M67">
-        <v>81.066000000000003</v>
-      </c>
-      <c r="N67">
-        <v>15</v>
-      </c>
-      <c r="O67">
-        <v>309</v>
-      </c>
-      <c r="P67">
-        <v>10</v>
-      </c>
-      <c r="Q67">
-        <v>332</v>
+      <c r="K67" s="13">
+        <v>7</v>
+      </c>
+      <c r="L67" s="13">
+        <v>17</v>
+      </c>
+      <c r="M67" s="13">
+        <v>32.209000000000003</v>
+      </c>
+      <c r="N67" s="13">
+        <v>16</v>
+      </c>
+      <c r="O67" s="13">
+        <v>377</v>
+      </c>
+      <c r="P67" s="13">
+        <v>10</v>
+      </c>
+      <c r="Q67" s="13">
+        <v>410</v>
       </c>
       <c r="S67" s="5">
         <f t="shared" si="2"/>
         <v>65</v>
       </c>
-      <c r="T67" s="2">
-        <v>5</v>
-      </c>
-      <c r="U67" s="2">
-        <v>45</v>
-      </c>
-      <c r="V67" s="2">
-        <v>254.58500000000001</v>
-      </c>
-      <c r="W67" s="2">
-        <v>20</v>
-      </c>
-      <c r="X67" s="2">
-        <v>666</v>
-      </c>
-      <c r="Y67" s="2">
-        <v>16</v>
-      </c>
-      <c r="Z67" s="2">
-        <v>684</v>
+      <c r="T67" s="13">
+        <v>10</v>
+      </c>
+      <c r="U67" s="13">
+        <v>15</v>
+      </c>
+      <c r="V67" s="13">
+        <v>32.030999999999999</v>
+      </c>
+      <c r="W67" s="13">
+        <v>19</v>
+      </c>
+      <c r="X67" s="13">
+        <v>379</v>
+      </c>
+      <c r="Y67" s="13">
+        <v>10</v>
+      </c>
+      <c r="Z67" s="13">
+        <v>422</v>
       </c>
       <c r="AC67" s="5">
         <f t="shared" si="3"/>
@@ -7586,51 +7593,51 @@
         <f t="shared" si="1"/>
         <v>66</v>
       </c>
-      <c r="K68">
+      <c r="K68" s="13">
         <v>6</v>
       </c>
-      <c r="L68">
-        <v>39</v>
-      </c>
-      <c r="M68">
-        <v>292.38499999999999</v>
-      </c>
-      <c r="N68">
+      <c r="L68" s="13">
+        <v>46</v>
+      </c>
+      <c r="M68" s="13">
+        <v>88.673000000000002</v>
+      </c>
+      <c r="N68" s="13">
         <v>15</v>
       </c>
-      <c r="O68">
-        <v>395</v>
-      </c>
-      <c r="P68">
-        <v>10</v>
-      </c>
-      <c r="Q68">
-        <v>428</v>
+      <c r="O68" s="13">
+        <v>408</v>
+      </c>
+      <c r="P68" s="13">
+        <v>10</v>
+      </c>
+      <c r="Q68" s="13">
+        <v>439</v>
       </c>
       <c r="S68" s="5">
         <f t="shared" si="2"/>
         <v>66</v>
       </c>
-      <c r="T68" s="2">
+      <c r="T68" s="13">
         <v>1</v>
       </c>
-      <c r="U68" s="2">
-        <v>8</v>
-      </c>
-      <c r="V68" s="2">
-        <v>43.509</v>
-      </c>
-      <c r="W68" s="2">
-        <v>10</v>
-      </c>
-      <c r="X68" s="2">
-        <v>418</v>
-      </c>
-      <c r="Y68" s="2">
-        <v>10</v>
-      </c>
-      <c r="Z68" s="2">
-        <v>418</v>
+      <c r="U68" s="13">
+        <v>12</v>
+      </c>
+      <c r="V68" s="13">
+        <v>24.719000000000001</v>
+      </c>
+      <c r="W68" s="13">
+        <v>10</v>
+      </c>
+      <c r="X68" s="13">
+        <v>281</v>
+      </c>
+      <c r="Y68" s="13">
+        <v>10</v>
+      </c>
+      <c r="Z68" s="13">
+        <v>281</v>
       </c>
       <c r="AC68" s="5">
         <f t="shared" si="3"/>
@@ -7688,51 +7695,51 @@
         <f t="shared" ref="J69:J102" si="5">J68+1</f>
         <v>67</v>
       </c>
-      <c r="K69">
-        <v>2</v>
-      </c>
-      <c r="L69">
-        <v>11</v>
-      </c>
-      <c r="M69">
-        <v>77.426000000000002</v>
-      </c>
-      <c r="N69">
-        <v>11</v>
-      </c>
-      <c r="O69">
-        <v>281</v>
-      </c>
-      <c r="P69">
-        <v>10</v>
-      </c>
-      <c r="Q69">
-        <v>283</v>
+      <c r="K69" s="13">
+        <v>5</v>
+      </c>
+      <c r="L69" s="13">
+        <v>19</v>
+      </c>
+      <c r="M69" s="13">
+        <v>35.784999999999997</v>
+      </c>
+      <c r="N69" s="13">
+        <v>20</v>
+      </c>
+      <c r="O69" s="13">
+        <v>454</v>
+      </c>
+      <c r="P69" s="13">
+        <v>16</v>
+      </c>
+      <c r="Q69" s="13">
+        <v>470</v>
       </c>
       <c r="S69" s="5">
         <f t="shared" ref="S69:S102" si="6">S68+1</f>
         <v>67</v>
       </c>
-      <c r="T69" s="2">
+      <c r="T69" s="13">
         <v>7</v>
       </c>
-      <c r="U69" s="2">
-        <v>21</v>
-      </c>
-      <c r="V69" s="2">
-        <v>116.19799999999999</v>
-      </c>
-      <c r="W69" s="2">
-        <v>16</v>
-      </c>
-      <c r="X69" s="2">
-        <v>610</v>
-      </c>
-      <c r="Y69" s="2">
-        <v>10</v>
-      </c>
-      <c r="Z69" s="2">
-        <v>646</v>
+      <c r="U69" s="13">
+        <v>19</v>
+      </c>
+      <c r="V69" s="13">
+        <v>40.770000000000003</v>
+      </c>
+      <c r="W69" s="13">
+        <v>16</v>
+      </c>
+      <c r="X69" s="13">
+        <v>334</v>
+      </c>
+      <c r="Y69" s="13">
+        <v>10</v>
+      </c>
+      <c r="Z69" s="13">
+        <v>360</v>
       </c>
       <c r="AC69" s="5">
         <f t="shared" ref="AC69:AC102" si="7">AC68+1</f>
@@ -7790,51 +7797,51 @@
         <f t="shared" si="5"/>
         <v>68</v>
       </c>
-      <c r="K70">
-        <v>1</v>
-      </c>
-      <c r="L70">
-        <v>8</v>
-      </c>
-      <c r="M70">
-        <v>57.966000000000001</v>
-      </c>
-      <c r="N70">
-        <v>27</v>
-      </c>
-      <c r="O70">
-        <v>511</v>
-      </c>
-      <c r="P70">
-        <v>27</v>
-      </c>
-      <c r="Q70">
-        <v>511</v>
+      <c r="K70" s="13">
+        <v>5</v>
+      </c>
+      <c r="L70" s="13">
+        <v>17</v>
+      </c>
+      <c r="M70" s="13">
+        <v>31.645</v>
+      </c>
+      <c r="N70" s="13">
+        <v>14</v>
+      </c>
+      <c r="O70" s="13">
+        <v>306</v>
+      </c>
+      <c r="P70" s="13">
+        <v>10</v>
+      </c>
+      <c r="Q70" s="13">
+        <v>329</v>
       </c>
       <c r="S70" s="5">
         <f t="shared" si="6"/>
         <v>68</v>
       </c>
-      <c r="T70" s="2">
-        <v>7</v>
-      </c>
-      <c r="U70" s="2">
-        <v>23</v>
-      </c>
-      <c r="V70" s="2">
-        <v>141.048</v>
-      </c>
-      <c r="W70" s="2">
-        <v>16</v>
-      </c>
-      <c r="X70" s="2">
-        <v>526</v>
-      </c>
-      <c r="Y70" s="2">
-        <v>10</v>
-      </c>
-      <c r="Z70" s="2">
-        <v>556</v>
+      <c r="T70" s="13">
+        <v>6</v>
+      </c>
+      <c r="U70" s="13">
+        <v>17</v>
+      </c>
+      <c r="V70" s="13">
+        <v>36.487000000000002</v>
+      </c>
+      <c r="W70" s="13">
+        <v>15</v>
+      </c>
+      <c r="X70" s="13">
+        <v>334</v>
+      </c>
+      <c r="Y70" s="13">
+        <v>10</v>
+      </c>
+      <c r="Z70" s="13">
+        <v>363</v>
       </c>
       <c r="AC70" s="5">
         <f t="shared" si="7"/>
@@ -7892,51 +7899,51 @@
         <f t="shared" si="5"/>
         <v>69</v>
       </c>
-      <c r="K71">
-        <v>5</v>
-      </c>
-      <c r="L71">
-        <v>13</v>
-      </c>
-      <c r="M71">
-        <v>96.58</v>
-      </c>
-      <c r="N71">
-        <v>20</v>
-      </c>
-      <c r="O71">
-        <v>457</v>
-      </c>
-      <c r="P71">
-        <v>16</v>
-      </c>
-      <c r="Q71">
-        <v>477</v>
+      <c r="K71" s="13">
+        <v>5</v>
+      </c>
+      <c r="L71" s="13">
+        <v>21</v>
+      </c>
+      <c r="M71" s="13">
+        <v>40.256999999999998</v>
+      </c>
+      <c r="N71" s="13">
+        <v>14</v>
+      </c>
+      <c r="O71" s="13">
+        <v>329</v>
+      </c>
+      <c r="P71" s="13">
+        <v>10</v>
+      </c>
+      <c r="Q71" s="13">
+        <v>354</v>
       </c>
       <c r="S71" s="5">
         <f t="shared" si="6"/>
         <v>69</v>
       </c>
-      <c r="T71" s="2">
+      <c r="T71" s="13">
         <v>7</v>
       </c>
-      <c r="U71" s="2">
-        <v>45</v>
-      </c>
-      <c r="V71" s="2">
-        <v>251.864</v>
-      </c>
-      <c r="W71" s="2">
-        <v>16</v>
-      </c>
-      <c r="X71" s="2">
-        <v>662</v>
-      </c>
-      <c r="Y71" s="2">
-        <v>10</v>
-      </c>
-      <c r="Z71" s="2">
-        <v>700</v>
+      <c r="U71" s="13">
+        <v>46</v>
+      </c>
+      <c r="V71" s="13">
+        <v>102.086</v>
+      </c>
+      <c r="W71" s="13">
+        <v>16</v>
+      </c>
+      <c r="X71" s="13">
+        <v>440</v>
+      </c>
+      <c r="Y71" s="13">
+        <v>10</v>
+      </c>
+      <c r="Z71" s="13">
+        <v>478</v>
       </c>
       <c r="AC71" s="5">
         <f t="shared" si="7"/>
@@ -7994,51 +8001,51 @@
         <f t="shared" si="5"/>
         <v>70</v>
       </c>
-      <c r="K72">
-        <v>5</v>
-      </c>
-      <c r="L72">
+      <c r="K72" s="13">
+        <v>6</v>
+      </c>
+      <c r="L72" s="13">
+        <v>17</v>
+      </c>
+      <c r="M72" s="13">
+        <v>34.063000000000002</v>
+      </c>
+      <c r="N72" s="13">
         <v>15</v>
       </c>
-      <c r="M72">
-        <v>112.182</v>
-      </c>
-      <c r="N72">
-        <v>20</v>
-      </c>
-      <c r="O72">
-        <v>461</v>
-      </c>
-      <c r="P72">
-        <v>16</v>
-      </c>
-      <c r="Q72">
-        <v>476</v>
+      <c r="O72" s="13">
+        <v>372</v>
+      </c>
+      <c r="P72" s="13">
+        <v>10</v>
+      </c>
+      <c r="Q72" s="13">
+        <v>399</v>
       </c>
       <c r="S72" s="5">
         <f t="shared" si="6"/>
         <v>70</v>
       </c>
-      <c r="T72" s="2">
-        <v>6</v>
-      </c>
-      <c r="U72" s="2">
-        <v>23</v>
-      </c>
-      <c r="V72" s="2">
-        <v>135.505</v>
-      </c>
-      <c r="W72" s="2">
-        <v>21</v>
-      </c>
-      <c r="X72" s="2">
-        <v>643</v>
-      </c>
-      <c r="Y72" s="2">
-        <v>16</v>
-      </c>
-      <c r="Z72" s="2">
-        <v>656</v>
+      <c r="T72" s="13">
+        <v>8</v>
+      </c>
+      <c r="U72" s="13">
+        <v>20</v>
+      </c>
+      <c r="V72" s="13">
+        <v>42.84</v>
+      </c>
+      <c r="W72" s="13">
+        <v>17</v>
+      </c>
+      <c r="X72" s="13">
+        <v>391</v>
+      </c>
+      <c r="Y72" s="13">
+        <v>10</v>
+      </c>
+      <c r="Z72" s="13">
+        <v>430</v>
       </c>
       <c r="AC72" s="5">
         <f t="shared" si="7"/>
@@ -8096,51 +8103,51 @@
         <f t="shared" si="5"/>
         <v>71</v>
       </c>
-      <c r="K73">
-        <v>9</v>
-      </c>
-      <c r="L73">
-        <v>15</v>
-      </c>
-      <c r="M73">
-        <v>114.262</v>
-      </c>
-      <c r="N73">
-        <v>18</v>
-      </c>
-      <c r="O73">
-        <v>382</v>
-      </c>
-      <c r="P73">
-        <v>10</v>
-      </c>
-      <c r="Q73">
-        <v>422</v>
+      <c r="K73" s="13">
+        <v>5</v>
+      </c>
+      <c r="L73" s="13">
+        <v>25</v>
+      </c>
+      <c r="M73" s="13">
+        <v>48.258000000000003</v>
+      </c>
+      <c r="N73" s="13">
+        <v>14</v>
+      </c>
+      <c r="O73" s="13">
+        <v>349</v>
+      </c>
+      <c r="P73" s="13">
+        <v>10</v>
+      </c>
+      <c r="Q73" s="13">
+        <v>366</v>
       </c>
       <c r="S73" s="5">
         <f t="shared" si="6"/>
         <v>71</v>
       </c>
-      <c r="T73" s="2">
-        <v>2</v>
-      </c>
-      <c r="U73" s="2">
-        <v>14</v>
-      </c>
-      <c r="V73" s="2">
-        <v>80.555999999999997</v>
-      </c>
-      <c r="W73" s="2">
-        <v>11</v>
-      </c>
-      <c r="X73" s="2">
-        <v>400</v>
-      </c>
-      <c r="Y73" s="2">
-        <v>10</v>
-      </c>
-      <c r="Z73" s="2">
-        <v>404</v>
+      <c r="T73" s="13">
+        <v>6</v>
+      </c>
+      <c r="U73" s="13">
+        <v>22</v>
+      </c>
+      <c r="V73" s="13">
+        <v>46.235999999999997</v>
+      </c>
+      <c r="W73" s="13">
+        <v>15</v>
+      </c>
+      <c r="X73" s="13">
+        <v>310</v>
+      </c>
+      <c r="Y73" s="13">
+        <v>10</v>
+      </c>
+      <c r="Z73" s="13">
+        <v>338</v>
       </c>
       <c r="AC73" s="5">
         <f t="shared" si="7"/>
@@ -8198,51 +8205,51 @@
         <f t="shared" si="5"/>
         <v>72</v>
       </c>
-      <c r="K74">
-        <v>2</v>
-      </c>
-      <c r="L74">
-        <v>13</v>
-      </c>
-      <c r="M74">
-        <v>113.949</v>
-      </c>
-      <c r="N74">
-        <v>11</v>
-      </c>
-      <c r="O74">
-        <v>260</v>
-      </c>
-      <c r="P74">
-        <v>10</v>
-      </c>
-      <c r="Q74">
-        <v>261</v>
+      <c r="K74" s="13">
+        <v>5</v>
+      </c>
+      <c r="L74" s="13">
+        <v>43</v>
+      </c>
+      <c r="M74" s="13">
+        <v>83.843000000000004</v>
+      </c>
+      <c r="N74" s="13">
+        <v>20</v>
+      </c>
+      <c r="O74" s="13">
+        <v>438</v>
+      </c>
+      <c r="P74" s="13">
+        <v>16</v>
+      </c>
+      <c r="Q74" s="13">
+        <v>453</v>
       </c>
       <c r="S74" s="5">
         <f t="shared" si="6"/>
         <v>72</v>
       </c>
-      <c r="T74" s="2">
-        <v>5</v>
-      </c>
-      <c r="U74" s="2">
-        <v>27</v>
-      </c>
-      <c r="V74" s="2">
-        <v>151.40799999999999</v>
-      </c>
-      <c r="W74" s="2">
-        <v>14</v>
-      </c>
-      <c r="X74" s="2">
-        <v>519</v>
-      </c>
-      <c r="Y74" s="2">
-        <v>10</v>
-      </c>
-      <c r="Z74" s="2">
-        <v>539</v>
+      <c r="T74" s="13">
+        <v>8</v>
+      </c>
+      <c r="U74" s="13">
+        <v>17</v>
+      </c>
+      <c r="V74" s="13">
+        <v>35.140999999999998</v>
+      </c>
+      <c r="W74" s="13">
+        <v>17</v>
+      </c>
+      <c r="X74" s="13">
+        <v>377</v>
+      </c>
+      <c r="Y74" s="13">
+        <v>10</v>
+      </c>
+      <c r="Z74" s="13">
+        <v>414</v>
       </c>
       <c r="AC74" s="5">
         <f t="shared" si="7"/>
@@ -8300,51 +8307,51 @@
         <f t="shared" si="5"/>
         <v>73</v>
       </c>
-      <c r="K75">
-        <v>10</v>
-      </c>
-      <c r="L75">
-        <v>25</v>
-      </c>
-      <c r="M75">
-        <v>190.81800000000001</v>
-      </c>
-      <c r="N75">
-        <v>19</v>
-      </c>
-      <c r="O75">
-        <v>387</v>
-      </c>
-      <c r="P75">
-        <v>10</v>
-      </c>
-      <c r="Q75">
-        <v>427</v>
+      <c r="K75" s="13">
+        <v>5</v>
+      </c>
+      <c r="L75" s="13">
+        <v>18</v>
+      </c>
+      <c r="M75" s="13">
+        <v>34.814</v>
+      </c>
+      <c r="N75" s="13">
+        <v>20</v>
+      </c>
+      <c r="O75" s="13">
+        <v>390</v>
+      </c>
+      <c r="P75" s="13">
+        <v>16</v>
+      </c>
+      <c r="Q75" s="13">
+        <v>403</v>
       </c>
       <c r="S75" s="5">
         <f t="shared" si="6"/>
         <v>73</v>
       </c>
-      <c r="T75" s="2">
-        <v>8</v>
-      </c>
-      <c r="U75" s="2">
-        <v>20</v>
-      </c>
-      <c r="V75" s="2">
-        <v>116.26900000000001</v>
-      </c>
-      <c r="W75" s="2">
-        <v>17</v>
-      </c>
-      <c r="X75" s="2">
-        <v>488</v>
-      </c>
-      <c r="Y75" s="2">
-        <v>10</v>
-      </c>
-      <c r="Z75" s="2">
-        <v>516</v>
+      <c r="T75" s="13">
+        <v>4</v>
+      </c>
+      <c r="U75" s="13">
+        <v>19</v>
+      </c>
+      <c r="V75" s="13">
+        <v>40.539000000000001</v>
+      </c>
+      <c r="W75" s="13">
+        <v>19</v>
+      </c>
+      <c r="X75" s="13">
+        <v>366</v>
+      </c>
+      <c r="Y75" s="13">
+        <v>16</v>
+      </c>
+      <c r="Z75" s="13">
+        <v>376</v>
       </c>
       <c r="AC75" s="5">
         <f t="shared" si="7"/>
@@ -8402,51 +8409,51 @@
         <f t="shared" si="5"/>
         <v>74</v>
       </c>
-      <c r="K76">
-        <v>5</v>
-      </c>
-      <c r="L76">
-        <v>16</v>
-      </c>
-      <c r="M76">
-        <v>122.676</v>
-      </c>
-      <c r="N76">
-        <v>20</v>
-      </c>
-      <c r="O76">
-        <v>425</v>
-      </c>
-      <c r="P76">
-        <v>16</v>
-      </c>
-      <c r="Q76">
-        <v>437</v>
+      <c r="K76" s="13">
+        <v>7</v>
+      </c>
+      <c r="L76" s="13">
+        <v>42</v>
+      </c>
+      <c r="M76" s="13">
+        <v>83.656000000000006</v>
+      </c>
+      <c r="N76" s="13">
+        <v>16</v>
+      </c>
+      <c r="O76" s="13">
+        <v>411</v>
+      </c>
+      <c r="P76" s="13">
+        <v>10</v>
+      </c>
+      <c r="Q76" s="13">
+        <v>446</v>
       </c>
       <c r="S76" s="5">
         <f t="shared" si="6"/>
         <v>74</v>
       </c>
-      <c r="T76" s="2">
-        <v>1</v>
-      </c>
-      <c r="U76" s="2">
-        <v>38</v>
-      </c>
-      <c r="V76" s="2">
-        <v>221.43199999999999</v>
-      </c>
-      <c r="W76" s="2">
-        <v>27</v>
-      </c>
-      <c r="X76" s="2">
-        <v>765</v>
-      </c>
-      <c r="Y76" s="2">
-        <v>27</v>
-      </c>
-      <c r="Z76" s="2">
-        <v>765</v>
+      <c r="T76" s="13">
+        <v>6</v>
+      </c>
+      <c r="U76" s="13">
+        <v>29</v>
+      </c>
+      <c r="V76" s="13">
+        <v>63.082000000000001</v>
+      </c>
+      <c r="W76" s="13">
+        <v>21</v>
+      </c>
+      <c r="X76" s="13">
+        <v>432</v>
+      </c>
+      <c r="Y76" s="13">
+        <v>16</v>
+      </c>
+      <c r="Z76" s="13">
+        <v>447</v>
       </c>
       <c r="AC76" s="5">
         <f t="shared" si="7"/>
@@ -8504,51 +8511,51 @@
         <f t="shared" si="5"/>
         <v>75</v>
       </c>
-      <c r="K77">
-        <v>7</v>
-      </c>
-      <c r="L77">
-        <v>18</v>
-      </c>
-      <c r="M77">
-        <v>133.81700000000001</v>
-      </c>
-      <c r="N77">
-        <v>16</v>
-      </c>
-      <c r="O77">
-        <v>350</v>
-      </c>
-      <c r="P77">
-        <v>10</v>
-      </c>
-      <c r="Q77">
-        <v>379</v>
+      <c r="K77" s="13">
+        <v>5</v>
+      </c>
+      <c r="L77" s="13">
+        <v>19</v>
+      </c>
+      <c r="M77" s="13">
+        <v>37.655000000000001</v>
+      </c>
+      <c r="N77" s="13">
+        <v>20</v>
+      </c>
+      <c r="O77" s="13">
+        <v>437</v>
+      </c>
+      <c r="P77" s="13">
+        <v>16</v>
+      </c>
+      <c r="Q77" s="13">
+        <v>451</v>
       </c>
       <c r="S77" s="5">
         <f t="shared" si="6"/>
         <v>75</v>
       </c>
-      <c r="T77" s="2">
-        <v>7</v>
-      </c>
-      <c r="U77" s="2">
-        <v>25</v>
-      </c>
-      <c r="V77" s="2">
-        <v>136.65199999999999</v>
-      </c>
-      <c r="W77" s="2">
-        <v>16</v>
-      </c>
-      <c r="X77" s="2">
-        <v>642</v>
-      </c>
-      <c r="Y77" s="2">
-        <v>10</v>
-      </c>
-      <c r="Z77" s="2">
-        <v>682</v>
+      <c r="T77" s="13">
+        <v>4</v>
+      </c>
+      <c r="U77" s="13">
+        <v>14</v>
+      </c>
+      <c r="V77" s="13">
+        <v>29.547000000000001</v>
+      </c>
+      <c r="W77" s="13">
+        <v>13</v>
+      </c>
+      <c r="X77" s="13">
+        <v>293</v>
+      </c>
+      <c r="Y77" s="13">
+        <v>10</v>
+      </c>
+      <c r="Z77" s="13">
+        <v>307</v>
       </c>
       <c r="AC77" s="5">
         <f t="shared" si="7"/>
@@ -8606,51 +8613,51 @@
         <f t="shared" si="5"/>
         <v>76</v>
       </c>
-      <c r="K78">
-        <v>5</v>
-      </c>
-      <c r="L78">
-        <v>12</v>
-      </c>
-      <c r="M78">
-        <v>102.71599999999999</v>
-      </c>
-      <c r="N78">
-        <v>20</v>
-      </c>
-      <c r="O78">
-        <v>434</v>
-      </c>
-      <c r="P78">
-        <v>16</v>
-      </c>
-      <c r="Q78">
-        <v>451</v>
+      <c r="K78" s="13">
+        <v>6</v>
+      </c>
+      <c r="L78" s="13">
+        <v>19</v>
+      </c>
+      <c r="M78" s="13">
+        <v>36.636000000000003</v>
+      </c>
+      <c r="N78" s="13">
+        <v>15</v>
+      </c>
+      <c r="O78" s="13">
+        <v>364</v>
+      </c>
+      <c r="P78" s="13">
+        <v>10</v>
+      </c>
+      <c r="Q78" s="13">
+        <v>390</v>
       </c>
       <c r="S78" s="5">
         <f t="shared" si="6"/>
         <v>76</v>
       </c>
-      <c r="T78" s="2">
-        <v>5</v>
-      </c>
-      <c r="U78" s="2">
-        <v>59</v>
-      </c>
-      <c r="V78" s="2">
-        <v>352.33300000000003</v>
-      </c>
-      <c r="W78" s="2">
-        <v>20</v>
-      </c>
-      <c r="X78" s="2">
-        <v>808</v>
-      </c>
-      <c r="Y78" s="2">
-        <v>16</v>
-      </c>
-      <c r="Z78" s="2">
-        <v>824</v>
+      <c r="T78" s="13">
+        <v>4</v>
+      </c>
+      <c r="U78" s="13">
+        <v>16</v>
+      </c>
+      <c r="V78" s="13">
+        <v>33.972000000000001</v>
+      </c>
+      <c r="W78" s="13">
+        <v>13</v>
+      </c>
+      <c r="X78" s="13">
+        <v>299</v>
+      </c>
+      <c r="Y78" s="13">
+        <v>10</v>
+      </c>
+      <c r="Z78" s="13">
+        <v>310</v>
       </c>
       <c r="AC78" s="5">
         <f t="shared" si="7"/>
@@ -8708,51 +8715,51 @@
         <f t="shared" si="5"/>
         <v>77</v>
       </c>
-      <c r="K79">
-        <v>8</v>
-      </c>
-      <c r="L79">
-        <v>17</v>
-      </c>
-      <c r="M79">
-        <v>134.39599999999999</v>
-      </c>
-      <c r="N79">
-        <v>17</v>
-      </c>
-      <c r="O79">
-        <v>340</v>
-      </c>
-      <c r="P79">
-        <v>10</v>
-      </c>
-      <c r="Q79">
-        <v>371</v>
+      <c r="K79" s="13">
+        <v>4</v>
+      </c>
+      <c r="L79" s="13">
+        <v>9</v>
+      </c>
+      <c r="M79" s="13">
+        <v>18.169</v>
+      </c>
+      <c r="N79" s="13">
+        <v>13</v>
+      </c>
+      <c r="O79" s="13">
+        <v>291</v>
+      </c>
+      <c r="P79" s="13">
+        <v>10</v>
+      </c>
+      <c r="Q79" s="13">
+        <v>305</v>
       </c>
       <c r="S79" s="5">
         <f t="shared" si="6"/>
         <v>77</v>
       </c>
-      <c r="T79" s="2">
-        <v>6</v>
-      </c>
-      <c r="U79" s="2">
-        <v>29</v>
-      </c>
-      <c r="V79" s="2">
-        <v>178.11099999999999</v>
-      </c>
-      <c r="W79" s="2">
-        <v>15</v>
-      </c>
-      <c r="X79" s="2">
-        <v>547</v>
-      </c>
-      <c r="Y79" s="2">
-        <v>10</v>
-      </c>
-      <c r="Z79" s="2">
-        <v>576</v>
+      <c r="T79" s="13">
+        <v>7</v>
+      </c>
+      <c r="U79" s="13">
+        <v>23</v>
+      </c>
+      <c r="V79" s="13">
+        <v>47.780999999999999</v>
+      </c>
+      <c r="W79" s="13">
+        <v>16</v>
+      </c>
+      <c r="X79" s="13">
+        <v>315</v>
+      </c>
+      <c r="Y79" s="13">
+        <v>10</v>
+      </c>
+      <c r="Z79" s="13">
+        <v>338</v>
       </c>
       <c r="AC79" s="5">
         <f t="shared" si="7"/>
@@ -8810,51 +8817,51 @@
         <f t="shared" si="5"/>
         <v>78</v>
       </c>
-      <c r="K80">
-        <v>4</v>
-      </c>
-      <c r="L80">
-        <v>11</v>
-      </c>
-      <c r="M80">
-        <v>84.671000000000006</v>
-      </c>
-      <c r="N80">
-        <v>13</v>
-      </c>
-      <c r="O80">
-        <v>283</v>
-      </c>
-      <c r="P80">
-        <v>10</v>
-      </c>
-      <c r="Q80">
-        <v>292</v>
+      <c r="K80" s="13">
+        <v>5</v>
+      </c>
+      <c r="L80" s="13">
+        <v>21</v>
+      </c>
+      <c r="M80" s="13">
+        <v>41.444000000000003</v>
+      </c>
+      <c r="N80" s="13">
+        <v>20</v>
+      </c>
+      <c r="O80" s="13">
+        <v>414</v>
+      </c>
+      <c r="P80" s="13">
+        <v>16</v>
+      </c>
+      <c r="Q80" s="13">
+        <v>430</v>
       </c>
       <c r="S80" s="5">
         <f t="shared" si="6"/>
         <v>78</v>
       </c>
-      <c r="T80" s="2">
-        <v>7</v>
-      </c>
-      <c r="U80" s="2">
-        <v>19</v>
-      </c>
-      <c r="V80" s="2">
-        <v>114.57599999999999</v>
-      </c>
-      <c r="W80" s="2">
-        <v>16</v>
-      </c>
-      <c r="X80" s="2">
-        <v>533</v>
-      </c>
-      <c r="Y80" s="2">
-        <v>10</v>
-      </c>
-      <c r="Z80" s="2">
-        <v>557</v>
+      <c r="T80" s="13">
+        <v>5</v>
+      </c>
+      <c r="U80" s="13">
+        <v>15</v>
+      </c>
+      <c r="V80" s="13">
+        <v>32.229999999999997</v>
+      </c>
+      <c r="W80" s="13">
+        <v>14</v>
+      </c>
+      <c r="X80" s="13">
+        <v>320</v>
+      </c>
+      <c r="Y80" s="13">
+        <v>10</v>
+      </c>
+      <c r="Z80" s="13">
+        <v>345</v>
       </c>
       <c r="AC80" s="5">
         <f t="shared" si="7"/>
@@ -8912,51 +8919,51 @@
         <f t="shared" si="5"/>
         <v>79</v>
       </c>
-      <c r="K81">
-        <v>4</v>
-      </c>
-      <c r="L81">
-        <v>13</v>
-      </c>
-      <c r="M81">
-        <v>95.543000000000006</v>
-      </c>
-      <c r="N81">
-        <v>13</v>
-      </c>
-      <c r="O81">
-        <v>268</v>
-      </c>
-      <c r="P81">
-        <v>10</v>
-      </c>
-      <c r="Q81">
-        <v>278</v>
+      <c r="K81" s="13">
+        <v>5</v>
+      </c>
+      <c r="L81" s="13">
+        <v>33</v>
+      </c>
+      <c r="M81" s="13">
+        <v>67.491</v>
+      </c>
+      <c r="N81" s="13">
+        <v>20</v>
+      </c>
+      <c r="O81" s="13">
+        <v>445</v>
+      </c>
+      <c r="P81" s="13">
+        <v>16</v>
+      </c>
+      <c r="Q81" s="13">
+        <v>460</v>
       </c>
       <c r="S81" s="5">
         <f t="shared" si="6"/>
         <v>79</v>
       </c>
-      <c r="T81" s="2">
-        <v>2</v>
-      </c>
-      <c r="U81" s="2">
-        <v>12</v>
-      </c>
-      <c r="V81" s="2">
-        <v>69.144000000000005</v>
-      </c>
-      <c r="W81" s="2">
-        <v>11</v>
-      </c>
-      <c r="X81" s="2">
-        <v>409</v>
-      </c>
-      <c r="Y81" s="2">
-        <v>10</v>
-      </c>
-      <c r="Z81" s="2">
-        <v>410</v>
+      <c r="T81" s="13">
+        <v>4</v>
+      </c>
+      <c r="U81" s="13">
+        <v>19</v>
+      </c>
+      <c r="V81" s="13">
+        <v>40.558</v>
+      </c>
+      <c r="W81" s="13">
+        <v>13</v>
+      </c>
+      <c r="X81" s="13">
+        <v>303</v>
+      </c>
+      <c r="Y81" s="13">
+        <v>10</v>
+      </c>
+      <c r="Z81" s="13">
+        <v>316</v>
       </c>
       <c r="AC81" s="5">
         <f t="shared" si="7"/>
@@ -9014,51 +9021,51 @@
         <f t="shared" si="5"/>
         <v>80</v>
       </c>
-      <c r="K82">
-        <v>1</v>
-      </c>
-      <c r="L82">
-        <v>10</v>
-      </c>
-      <c r="M82">
-        <v>71.277000000000001</v>
-      </c>
-      <c r="N82">
-        <v>10</v>
-      </c>
-      <c r="O82">
-        <v>280</v>
-      </c>
-      <c r="P82">
-        <v>10</v>
-      </c>
-      <c r="Q82">
-        <v>280</v>
+      <c r="K82" s="13">
+        <v>7</v>
+      </c>
+      <c r="L82" s="13">
+        <v>21</v>
+      </c>
+      <c r="M82" s="13">
+        <v>42.965000000000003</v>
+      </c>
+      <c r="N82" s="13">
+        <v>16</v>
+      </c>
+      <c r="O82" s="13">
+        <v>348</v>
+      </c>
+      <c r="P82" s="13">
+        <v>10</v>
+      </c>
+      <c r="Q82" s="13">
+        <v>376</v>
       </c>
       <c r="S82" s="5">
         <f t="shared" si="6"/>
         <v>80</v>
       </c>
-      <c r="T82" s="2">
-        <v>2</v>
-      </c>
-      <c r="U82" s="2">
-        <v>11</v>
-      </c>
-      <c r="V82" s="2">
-        <v>65.073999999999998</v>
-      </c>
-      <c r="W82" s="2">
-        <v>11</v>
-      </c>
-      <c r="X82" s="2">
-        <v>423</v>
-      </c>
-      <c r="Y82" s="2">
-        <v>10</v>
-      </c>
-      <c r="Z82" s="2">
-        <v>426</v>
+      <c r="T82" s="13">
+        <v>4</v>
+      </c>
+      <c r="U82" s="13">
+        <v>34</v>
+      </c>
+      <c r="V82" s="13">
+        <v>75.534000000000006</v>
+      </c>
+      <c r="W82" s="13">
+        <v>19</v>
+      </c>
+      <c r="X82" s="13">
+        <v>462</v>
+      </c>
+      <c r="Y82" s="13">
+        <v>16</v>
+      </c>
+      <c r="Z82" s="13">
+        <v>474</v>
       </c>
       <c r="AC82" s="5">
         <f t="shared" si="7"/>
@@ -9116,51 +9123,51 @@
         <f t="shared" si="5"/>
         <v>81</v>
       </c>
-      <c r="K83">
-        <v>5</v>
-      </c>
-      <c r="L83">
-        <v>12</v>
-      </c>
-      <c r="M83">
-        <v>109.709</v>
-      </c>
-      <c r="N83">
+      <c r="K83" s="13">
+        <v>5</v>
+      </c>
+      <c r="L83" s="13">
+        <v>14</v>
+      </c>
+      <c r="M83" s="13">
+        <v>27.945</v>
+      </c>
+      <c r="N83" s="13">
         <v>20</v>
       </c>
-      <c r="O83">
-        <v>433</v>
-      </c>
-      <c r="P83">
-        <v>16</v>
-      </c>
-      <c r="Q83">
-        <v>447</v>
+      <c r="O83" s="13">
+        <v>494</v>
+      </c>
+      <c r="P83" s="13">
+        <v>16</v>
+      </c>
+      <c r="Q83" s="13">
+        <v>516</v>
       </c>
       <c r="S83" s="5">
         <f t="shared" si="6"/>
         <v>81</v>
       </c>
-      <c r="T83" s="2">
-        <v>5</v>
-      </c>
-      <c r="U83" s="2">
-        <v>20</v>
-      </c>
-      <c r="V83" s="2">
-        <v>120.392</v>
-      </c>
-      <c r="W83" s="2">
-        <v>14</v>
-      </c>
-      <c r="X83" s="2">
-        <v>461</v>
-      </c>
-      <c r="Y83" s="2">
-        <v>10</v>
-      </c>
-      <c r="Z83" s="2">
-        <v>479</v>
+      <c r="T83" s="13">
+        <v>9</v>
+      </c>
+      <c r="U83" s="13">
+        <v>25</v>
+      </c>
+      <c r="V83" s="13">
+        <v>51.570999999999998</v>
+      </c>
+      <c r="W83" s="13">
+        <v>18</v>
+      </c>
+      <c r="X83" s="13">
+        <v>340</v>
+      </c>
+      <c r="Y83" s="13">
+        <v>10</v>
+      </c>
+      <c r="Z83" s="13">
+        <v>373</v>
       </c>
       <c r="AC83" s="5">
         <f t="shared" si="7"/>
@@ -9218,51 +9225,51 @@
         <f t="shared" si="5"/>
         <v>82</v>
       </c>
-      <c r="K84">
-        <v>9</v>
-      </c>
-      <c r="L84">
-        <v>24</v>
-      </c>
-      <c r="M84">
-        <v>205.31800000000001</v>
-      </c>
-      <c r="N84">
+      <c r="K84" s="13">
+        <v>5</v>
+      </c>
+      <c r="L84" s="13">
         <v>18</v>
       </c>
-      <c r="O84">
-        <v>396</v>
-      </c>
-      <c r="P84">
-        <v>10</v>
-      </c>
-      <c r="Q84">
-        <v>436</v>
+      <c r="M84" s="13">
+        <v>40.155999999999999</v>
+      </c>
+      <c r="N84" s="13">
+        <v>20</v>
+      </c>
+      <c r="O84" s="13">
+        <v>455</v>
+      </c>
+      <c r="P84" s="13">
+        <v>16</v>
+      </c>
+      <c r="Q84" s="13">
+        <v>476</v>
       </c>
       <c r="S84" s="5">
         <f t="shared" si="6"/>
         <v>82</v>
       </c>
-      <c r="T84" s="2">
-        <v>6</v>
-      </c>
-      <c r="U84" s="2">
-        <v>20</v>
-      </c>
-      <c r="V84" s="2">
-        <v>112.902</v>
-      </c>
-      <c r="W84" s="2">
-        <v>15</v>
-      </c>
-      <c r="X84" s="2">
-        <v>550</v>
-      </c>
-      <c r="Y84" s="2">
-        <v>10</v>
-      </c>
-      <c r="Z84" s="2">
-        <v>576</v>
+      <c r="T84" s="13">
+        <v>9</v>
+      </c>
+      <c r="U84" s="13">
+        <v>25</v>
+      </c>
+      <c r="V84" s="13">
+        <v>54.34</v>
+      </c>
+      <c r="W84" s="13">
+        <v>18</v>
+      </c>
+      <c r="X84" s="13">
+        <v>356</v>
+      </c>
+      <c r="Y84" s="13">
+        <v>10</v>
+      </c>
+      <c r="Z84" s="13">
+        <v>393</v>
       </c>
       <c r="AC84" s="5">
         <f t="shared" si="7"/>
@@ -9320,51 +9327,51 @@
         <f t="shared" si="5"/>
         <v>83</v>
       </c>
-      <c r="K85">
-        <v>5</v>
-      </c>
-      <c r="L85">
-        <v>18</v>
-      </c>
-      <c r="M85">
-        <v>135.47200000000001</v>
-      </c>
-      <c r="N85">
-        <v>20</v>
-      </c>
-      <c r="O85">
-        <v>398</v>
-      </c>
-      <c r="P85">
-        <v>16</v>
-      </c>
-      <c r="Q85">
-        <v>417</v>
+      <c r="K85" s="13">
+        <v>8</v>
+      </c>
+      <c r="L85" s="13">
+        <v>32</v>
+      </c>
+      <c r="M85" s="13">
+        <v>62.877000000000002</v>
+      </c>
+      <c r="N85" s="13">
+        <v>17</v>
+      </c>
+      <c r="O85" s="13">
+        <v>420</v>
+      </c>
+      <c r="P85" s="13">
+        <v>10</v>
+      </c>
+      <c r="Q85" s="13">
+        <v>460</v>
       </c>
       <c r="S85" s="5">
         <f t="shared" si="6"/>
         <v>83</v>
       </c>
-      <c r="T85" s="2">
-        <v>8</v>
-      </c>
-      <c r="U85" s="2">
-        <v>22</v>
-      </c>
-      <c r="V85" s="2">
-        <v>135.39699999999999</v>
-      </c>
-      <c r="W85" s="2">
-        <v>17</v>
-      </c>
-      <c r="X85" s="2">
-        <v>554</v>
-      </c>
-      <c r="Y85" s="2">
-        <v>10</v>
-      </c>
-      <c r="Z85" s="2">
-        <v>589</v>
+      <c r="T85" s="13">
+        <v>7</v>
+      </c>
+      <c r="U85" s="13">
+        <v>16</v>
+      </c>
+      <c r="V85" s="13">
+        <v>34.637999999999998</v>
+      </c>
+      <c r="W85" s="13">
+        <v>16</v>
+      </c>
+      <c r="X85" s="13">
+        <v>337</v>
+      </c>
+      <c r="Y85" s="13">
+        <v>10</v>
+      </c>
+      <c r="Z85" s="13">
+        <v>365</v>
       </c>
       <c r="AC85" s="5">
         <f t="shared" si="7"/>
@@ -9422,51 +9429,51 @@
         <f t="shared" si="5"/>
         <v>84</v>
       </c>
-      <c r="K86">
-        <v>7</v>
-      </c>
-      <c r="L86">
-        <v>26</v>
-      </c>
-      <c r="M86">
-        <v>200.929</v>
-      </c>
-      <c r="N86">
-        <v>16</v>
-      </c>
-      <c r="O86">
-        <v>327</v>
-      </c>
-      <c r="P86">
-        <v>10</v>
-      </c>
-      <c r="Q86">
-        <v>350</v>
+      <c r="K86" s="13">
+        <v>8</v>
+      </c>
+      <c r="L86" s="13">
+        <v>31</v>
+      </c>
+      <c r="M86" s="13">
+        <v>62.481999999999999</v>
+      </c>
+      <c r="N86" s="13">
+        <v>17</v>
+      </c>
+      <c r="O86" s="13">
+        <v>374</v>
+      </c>
+      <c r="P86" s="13">
+        <v>10</v>
+      </c>
+      <c r="Q86" s="13">
+        <v>406</v>
       </c>
       <c r="S86" s="5">
         <f t="shared" si="6"/>
         <v>84</v>
       </c>
-      <c r="T86" s="2">
-        <v>7</v>
-      </c>
-      <c r="U86" s="2">
-        <v>31</v>
-      </c>
-      <c r="V86" s="2">
-        <v>189.28200000000001</v>
-      </c>
-      <c r="W86" s="2">
-        <v>16</v>
-      </c>
-      <c r="X86" s="2">
-        <v>590</v>
-      </c>
-      <c r="Y86" s="2">
-        <v>10</v>
-      </c>
-      <c r="Z86" s="2">
-        <v>626</v>
+      <c r="T86" s="13">
+        <v>5</v>
+      </c>
+      <c r="U86" s="13">
+        <v>17</v>
+      </c>
+      <c r="V86" s="13">
+        <v>35.89</v>
+      </c>
+      <c r="W86" s="13">
+        <v>14</v>
+      </c>
+      <c r="X86" s="13">
+        <v>308</v>
+      </c>
+      <c r="Y86" s="13">
+        <v>10</v>
+      </c>
+      <c r="Z86" s="13">
+        <v>324</v>
       </c>
       <c r="AC86" s="5">
         <f t="shared" si="7"/>
@@ -9524,51 +9531,51 @@
         <f t="shared" si="5"/>
         <v>85</v>
       </c>
-      <c r="K87">
-        <v>5</v>
-      </c>
-      <c r="L87">
-        <v>20</v>
-      </c>
-      <c r="M87">
-        <v>155.566</v>
-      </c>
-      <c r="N87">
-        <v>20</v>
-      </c>
-      <c r="O87">
-        <v>467</v>
-      </c>
-      <c r="P87">
-        <v>16</v>
-      </c>
-      <c r="Q87">
-        <v>482</v>
+      <c r="K87" s="13">
+        <v>6</v>
+      </c>
+      <c r="L87" s="13">
+        <v>17</v>
+      </c>
+      <c r="M87" s="13">
+        <v>34.713000000000001</v>
+      </c>
+      <c r="N87" s="13">
+        <v>15</v>
+      </c>
+      <c r="O87" s="13">
+        <v>351</v>
+      </c>
+      <c r="P87" s="13">
+        <v>10</v>
+      </c>
+      <c r="Q87" s="13">
+        <v>380</v>
       </c>
       <c r="S87" s="5">
         <f t="shared" si="6"/>
         <v>85</v>
       </c>
-      <c r="T87" s="2">
-        <v>2</v>
-      </c>
-      <c r="U87" s="2">
-        <v>11</v>
-      </c>
-      <c r="V87" s="2">
-        <v>65.573999999999998</v>
-      </c>
-      <c r="W87" s="2">
-        <v>11</v>
-      </c>
-      <c r="X87" s="2">
-        <v>361</v>
-      </c>
-      <c r="Y87" s="2">
-        <v>10</v>
-      </c>
-      <c r="Z87" s="2">
-        <v>362</v>
+      <c r="T87" s="13">
+        <v>5</v>
+      </c>
+      <c r="U87" s="13">
+        <v>21</v>
+      </c>
+      <c r="V87" s="13">
+        <v>45.552999999999997</v>
+      </c>
+      <c r="W87" s="13">
+        <v>20</v>
+      </c>
+      <c r="X87" s="13">
+        <v>413</v>
+      </c>
+      <c r="Y87" s="13">
+        <v>16</v>
+      </c>
+      <c r="Z87" s="13">
+        <v>425</v>
       </c>
       <c r="AC87" s="5">
         <f t="shared" si="7"/>
@@ -9626,51 +9633,51 @@
         <f t="shared" si="5"/>
         <v>86</v>
       </c>
-      <c r="K88">
-        <v>7</v>
-      </c>
-      <c r="L88">
-        <v>47</v>
-      </c>
-      <c r="M88">
-        <v>406.13400000000001</v>
-      </c>
-      <c r="N88">
-        <v>16</v>
-      </c>
-      <c r="O88">
-        <v>434</v>
-      </c>
-      <c r="P88">
-        <v>10</v>
-      </c>
-      <c r="Q88">
-        <v>473</v>
+      <c r="K88" s="13">
+        <v>4</v>
+      </c>
+      <c r="L88" s="13">
+        <v>14</v>
+      </c>
+      <c r="M88" s="13">
+        <v>30.881</v>
+      </c>
+      <c r="N88" s="13">
+        <v>13</v>
+      </c>
+      <c r="O88" s="13">
+        <v>318</v>
+      </c>
+      <c r="P88" s="13">
+        <v>10</v>
+      </c>
+      <c r="Q88" s="13">
+        <v>333</v>
       </c>
       <c r="S88" s="5">
         <f t="shared" si="6"/>
         <v>86</v>
       </c>
-      <c r="T88" s="2">
-        <v>8</v>
-      </c>
-      <c r="U88" s="2">
-        <v>18</v>
-      </c>
-      <c r="V88" s="2">
-        <v>117.376</v>
-      </c>
-      <c r="W88" s="2">
-        <v>17</v>
-      </c>
-      <c r="X88" s="2">
-        <v>483</v>
-      </c>
-      <c r="Y88" s="2">
-        <v>10</v>
-      </c>
-      <c r="Z88" s="2">
-        <v>509</v>
+      <c r="T88" s="13">
+        <v>4</v>
+      </c>
+      <c r="U88" s="13">
+        <v>16</v>
+      </c>
+      <c r="V88" s="13">
+        <v>33.829000000000001</v>
+      </c>
+      <c r="W88" s="13">
+        <v>19</v>
+      </c>
+      <c r="X88" s="13">
+        <v>374</v>
+      </c>
+      <c r="Y88" s="13">
+        <v>16</v>
+      </c>
+      <c r="Z88" s="13">
+        <v>382</v>
       </c>
       <c r="AC88" s="5">
         <f t="shared" si="7"/>
@@ -9728,51 +9735,51 @@
         <f t="shared" si="5"/>
         <v>87</v>
       </c>
-      <c r="K89">
-        <v>2</v>
-      </c>
-      <c r="L89">
-        <v>9</v>
-      </c>
-      <c r="M89">
-        <v>68.319999999999993</v>
-      </c>
-      <c r="N89">
+      <c r="K89" s="13">
         <v>11</v>
       </c>
-      <c r="O89">
-        <v>256</v>
-      </c>
-      <c r="P89">
-        <v>10</v>
-      </c>
-      <c r="Q89">
-        <v>257</v>
+      <c r="L89" s="13">
+        <v>27</v>
+      </c>
+      <c r="M89" s="13">
+        <v>54.734999999999999</v>
+      </c>
+      <c r="N89" s="13">
+        <v>20</v>
+      </c>
+      <c r="O89" s="13">
+        <v>378</v>
+      </c>
+      <c r="P89" s="13">
+        <v>10</v>
+      </c>
+      <c r="Q89" s="13">
+        <v>425</v>
       </c>
       <c r="S89" s="5">
         <f t="shared" si="6"/>
         <v>87</v>
       </c>
-      <c r="T89" s="2">
-        <v>4</v>
-      </c>
-      <c r="U89" s="2">
-        <v>15</v>
-      </c>
-      <c r="V89" s="2">
-        <v>87.397999999999996</v>
-      </c>
-      <c r="W89" s="2">
-        <v>13</v>
-      </c>
-      <c r="X89" s="2">
-        <v>487</v>
-      </c>
-      <c r="Y89" s="2">
-        <v>10</v>
-      </c>
-      <c r="Z89" s="2">
-        <v>501</v>
+      <c r="T89" s="13">
+        <v>8</v>
+      </c>
+      <c r="U89" s="13">
+        <v>14</v>
+      </c>
+      <c r="V89" s="13">
+        <v>29.466999999999999</v>
+      </c>
+      <c r="W89" s="13">
+        <v>17</v>
+      </c>
+      <c r="X89" s="13">
+        <v>363</v>
+      </c>
+      <c r="Y89" s="13">
+        <v>10</v>
+      </c>
+      <c r="Z89" s="13">
+        <v>394</v>
       </c>
       <c r="AC89" s="5">
         <f t="shared" si="7"/>
@@ -9830,51 +9837,51 @@
         <f t="shared" si="5"/>
         <v>88</v>
       </c>
-      <c r="K90">
-        <v>3</v>
-      </c>
-      <c r="L90">
-        <v>12</v>
-      </c>
-      <c r="M90">
-        <v>91.247</v>
-      </c>
-      <c r="N90">
-        <v>12</v>
-      </c>
-      <c r="O90">
-        <v>291</v>
-      </c>
-      <c r="P90">
-        <v>10</v>
-      </c>
-      <c r="Q90">
-        <v>297</v>
+      <c r="K90" s="13">
+        <v>8</v>
+      </c>
+      <c r="L90" s="13">
+        <v>15</v>
+      </c>
+      <c r="M90" s="13">
+        <v>29.895</v>
+      </c>
+      <c r="N90" s="13">
+        <v>17</v>
+      </c>
+      <c r="O90" s="13">
+        <v>344</v>
+      </c>
+      <c r="P90" s="13">
+        <v>10</v>
+      </c>
+      <c r="Q90" s="13">
+        <v>372</v>
       </c>
       <c r="S90" s="5">
         <f t="shared" si="6"/>
         <v>88</v>
       </c>
-      <c r="T90" s="2">
-        <v>4</v>
-      </c>
-      <c r="U90" s="2">
-        <v>10</v>
-      </c>
-      <c r="V90" s="2">
-        <v>59.731000000000002</v>
-      </c>
-      <c r="W90" s="2">
-        <v>13</v>
-      </c>
-      <c r="X90" s="2">
-        <v>384</v>
-      </c>
-      <c r="Y90" s="2">
-        <v>10</v>
-      </c>
-      <c r="Z90" s="2">
-        <v>391</v>
+      <c r="T90" s="13">
+        <v>3</v>
+      </c>
+      <c r="U90" s="13">
+        <v>15</v>
+      </c>
+      <c r="V90" s="13">
+        <v>30.501000000000001</v>
+      </c>
+      <c r="W90" s="13">
+        <v>18</v>
+      </c>
+      <c r="X90" s="13">
+        <v>355</v>
+      </c>
+      <c r="Y90" s="13">
+        <v>16</v>
+      </c>
+      <c r="Z90" s="13">
+        <v>361</v>
       </c>
       <c r="AC90" s="5">
         <f t="shared" si="7"/>
@@ -9932,51 +9939,51 @@
         <f t="shared" si="5"/>
         <v>89</v>
       </c>
-      <c r="K91">
-        <v>3</v>
-      </c>
-      <c r="L91">
-        <v>24</v>
-      </c>
-      <c r="M91">
-        <v>179.572</v>
-      </c>
-      <c r="N91">
-        <v>18</v>
-      </c>
-      <c r="O91">
-        <v>397</v>
-      </c>
-      <c r="P91">
-        <v>16</v>
-      </c>
-      <c r="Q91">
-        <v>403</v>
+      <c r="K91" s="13">
+        <v>6</v>
+      </c>
+      <c r="L91" s="13">
+        <v>16</v>
+      </c>
+      <c r="M91" s="13">
+        <v>30.832999999999998</v>
+      </c>
+      <c r="N91" s="13">
+        <v>15</v>
+      </c>
+      <c r="O91" s="13">
+        <v>368</v>
+      </c>
+      <c r="P91" s="13">
+        <v>10</v>
+      </c>
+      <c r="Q91" s="13">
+        <v>394</v>
       </c>
       <c r="S91" s="5">
         <f t="shared" si="6"/>
         <v>89</v>
       </c>
-      <c r="T91" s="2">
-        <v>2</v>
-      </c>
-      <c r="U91" s="2">
-        <v>9</v>
-      </c>
-      <c r="V91" s="2">
-        <v>54.881</v>
-      </c>
-      <c r="W91" s="2">
+      <c r="T91" s="13">
+        <v>3</v>
+      </c>
+      <c r="U91" s="13">
         <v>11</v>
       </c>
-      <c r="X91" s="2">
-        <v>413</v>
-      </c>
-      <c r="Y91" s="2">
-        <v>10</v>
-      </c>
-      <c r="Z91" s="2">
-        <v>417</v>
+      <c r="V91" s="13">
+        <v>22.73</v>
+      </c>
+      <c r="W91" s="13">
+        <v>12</v>
+      </c>
+      <c r="X91" s="13">
+        <v>296</v>
+      </c>
+      <c r="Y91" s="13">
+        <v>10</v>
+      </c>
+      <c r="Z91" s="13">
+        <v>308</v>
       </c>
       <c r="AC91" s="5">
         <f t="shared" si="7"/>
@@ -10034,51 +10041,51 @@
         <f t="shared" si="5"/>
         <v>90</v>
       </c>
-      <c r="K92">
+      <c r="K92" s="13">
         <v>8</v>
       </c>
-      <c r="L92">
-        <v>25</v>
-      </c>
-      <c r="M92">
-        <v>196.233</v>
-      </c>
-      <c r="N92">
+      <c r="L92" s="13">
+        <v>18</v>
+      </c>
+      <c r="M92" s="13">
+        <v>34.323999999999998</v>
+      </c>
+      <c r="N92" s="13">
         <v>17</v>
       </c>
-      <c r="O92">
-        <v>371</v>
-      </c>
-      <c r="P92">
-        <v>10</v>
-      </c>
-      <c r="Q92">
-        <v>404</v>
+      <c r="O92" s="13">
+        <v>410</v>
+      </c>
+      <c r="P92" s="13">
+        <v>10</v>
+      </c>
+      <c r="Q92" s="13">
+        <v>443</v>
       </c>
       <c r="S92" s="5">
         <f t="shared" si="6"/>
         <v>90</v>
       </c>
-      <c r="T92" s="2">
-        <v>9</v>
-      </c>
-      <c r="U92" s="2">
-        <v>23</v>
-      </c>
-      <c r="V92" s="2">
-        <v>145.51</v>
-      </c>
-      <c r="W92" s="2">
-        <v>18</v>
-      </c>
-      <c r="X92" s="2">
-        <v>532</v>
-      </c>
-      <c r="Y92" s="2">
-        <v>10</v>
-      </c>
-      <c r="Z92" s="2">
-        <v>562</v>
+      <c r="T92" s="13">
+        <v>5</v>
+      </c>
+      <c r="U92" s="13">
+        <v>15</v>
+      </c>
+      <c r="V92" s="13">
+        <v>31.213999999999999</v>
+      </c>
+      <c r="W92" s="13">
+        <v>14</v>
+      </c>
+      <c r="X92" s="13">
+        <v>338</v>
+      </c>
+      <c r="Y92" s="13">
+        <v>10</v>
+      </c>
+      <c r="Z92" s="13">
+        <v>365</v>
       </c>
       <c r="AC92" s="5">
         <f t="shared" si="7"/>
@@ -10136,51 +10143,51 @@
         <f t="shared" si="5"/>
         <v>91</v>
       </c>
-      <c r="K93">
+      <c r="K93" s="13">
         <v>7</v>
       </c>
-      <c r="L93">
-        <v>20</v>
-      </c>
-      <c r="M93">
-        <v>162.68299999999999</v>
-      </c>
-      <c r="N93">
-        <v>16</v>
-      </c>
-      <c r="O93">
-        <v>395</v>
-      </c>
-      <c r="P93">
-        <v>10</v>
-      </c>
-      <c r="Q93">
-        <v>429</v>
+      <c r="L93" s="13">
+        <v>37</v>
+      </c>
+      <c r="M93" s="13">
+        <v>84.231999999999999</v>
+      </c>
+      <c r="N93" s="13">
+        <v>16</v>
+      </c>
+      <c r="O93" s="13">
+        <v>360</v>
+      </c>
+      <c r="P93" s="13">
+        <v>10</v>
+      </c>
+      <c r="Q93" s="13">
+        <v>391</v>
       </c>
       <c r="S93" s="5">
         <f t="shared" si="6"/>
         <v>91</v>
       </c>
-      <c r="T93" s="2">
-        <v>5</v>
-      </c>
-      <c r="U93" s="2">
-        <v>12</v>
-      </c>
-      <c r="V93" s="2">
-        <v>74.823999999999998</v>
-      </c>
-      <c r="W93" s="2">
-        <v>14</v>
-      </c>
-      <c r="X93" s="2">
-        <v>487</v>
-      </c>
-      <c r="Y93" s="2">
-        <v>10</v>
-      </c>
-      <c r="Z93" s="2">
-        <v>505</v>
+      <c r="T93" s="13">
+        <v>6</v>
+      </c>
+      <c r="U93" s="13">
+        <v>21</v>
+      </c>
+      <c r="V93" s="13">
+        <v>44.656999999999996</v>
+      </c>
+      <c r="W93" s="13">
+        <v>15</v>
+      </c>
+      <c r="X93" s="13">
+        <v>342</v>
+      </c>
+      <c r="Y93" s="13">
+        <v>10</v>
+      </c>
+      <c r="Z93" s="13">
+        <v>374</v>
       </c>
       <c r="AC93" s="5">
         <f t="shared" si="7"/>
@@ -10238,51 +10245,51 @@
         <f t="shared" si="5"/>
         <v>92</v>
       </c>
-      <c r="K94">
-        <v>5</v>
-      </c>
-      <c r="L94">
-        <v>24</v>
-      </c>
-      <c r="M94">
-        <v>177.547</v>
-      </c>
-      <c r="N94">
-        <v>20</v>
-      </c>
-      <c r="O94">
-        <v>474</v>
-      </c>
-      <c r="P94">
-        <v>16</v>
-      </c>
-      <c r="Q94">
-        <v>493</v>
+      <c r="K94" s="13">
+        <v>4</v>
+      </c>
+      <c r="L94" s="13">
+        <v>15</v>
+      </c>
+      <c r="M94" s="13">
+        <v>28.753</v>
+      </c>
+      <c r="N94" s="13">
+        <v>19</v>
+      </c>
+      <c r="O94" s="13">
+        <v>425</v>
+      </c>
+      <c r="P94" s="13">
+        <v>16</v>
+      </c>
+      <c r="Q94" s="13">
+        <v>435</v>
       </c>
       <c r="S94" s="5">
         <f t="shared" si="6"/>
         <v>92</v>
       </c>
-      <c r="T94" s="2">
-        <v>3</v>
-      </c>
-      <c r="U94" s="2">
-        <v>15</v>
-      </c>
-      <c r="V94" s="2">
-        <v>93.522000000000006</v>
-      </c>
-      <c r="W94" s="2">
-        <v>12</v>
-      </c>
-      <c r="X94" s="2">
-        <v>433</v>
-      </c>
-      <c r="Y94" s="2">
-        <v>10</v>
-      </c>
-      <c r="Z94" s="2">
+      <c r="T94" s="13">
+        <v>5</v>
+      </c>
+      <c r="U94" s="13">
+        <v>33</v>
+      </c>
+      <c r="V94" s="13">
+        <v>76.212000000000003</v>
+      </c>
+      <c r="W94" s="13">
+        <v>20</v>
+      </c>
+      <c r="X94" s="13">
         <v>439</v>
+      </c>
+      <c r="Y94" s="13">
+        <v>16</v>
+      </c>
+      <c r="Z94" s="13">
+        <v>453</v>
       </c>
       <c r="AC94" s="5">
         <f t="shared" si="7"/>
@@ -10340,51 +10347,51 @@
         <f t="shared" si="5"/>
         <v>93</v>
       </c>
-      <c r="K95">
-        <v>5</v>
-      </c>
-      <c r="L95">
-        <v>19</v>
-      </c>
-      <c r="M95">
-        <v>146.58600000000001</v>
-      </c>
-      <c r="N95">
+      <c r="K95" s="13">
+        <v>5</v>
+      </c>
+      <c r="L95" s="13">
+        <v>17</v>
+      </c>
+      <c r="M95" s="13">
+        <v>33.514000000000003</v>
+      </c>
+      <c r="N95" s="13">
         <v>20</v>
       </c>
-      <c r="O95">
-        <v>486</v>
-      </c>
-      <c r="P95">
-        <v>16</v>
-      </c>
-      <c r="Q95">
-        <v>502</v>
+      <c r="O95" s="13">
+        <v>415</v>
+      </c>
+      <c r="P95" s="13">
+        <v>16</v>
+      </c>
+      <c r="Q95" s="13">
+        <v>426</v>
       </c>
       <c r="S95" s="5">
         <f t="shared" si="6"/>
         <v>93</v>
       </c>
-      <c r="T95" s="2">
+      <c r="T95" s="13">
         <v>7</v>
       </c>
-      <c r="U95" s="2">
-        <v>23</v>
-      </c>
-      <c r="V95" s="2">
-        <v>153.11000000000001</v>
-      </c>
-      <c r="W95" s="2">
-        <v>16</v>
-      </c>
-      <c r="X95" s="2">
-        <v>588</v>
-      </c>
-      <c r="Y95" s="2">
-        <v>10</v>
-      </c>
-      <c r="Z95" s="2">
-        <v>619</v>
+      <c r="U95" s="13">
+        <v>45</v>
+      </c>
+      <c r="V95" s="13">
+        <v>100.879</v>
+      </c>
+      <c r="W95" s="13">
+        <v>16</v>
+      </c>
+      <c r="X95" s="13">
+        <v>437</v>
+      </c>
+      <c r="Y95" s="13">
+        <v>10</v>
+      </c>
+      <c r="Z95" s="13">
+        <v>475</v>
       </c>
       <c r="AC95" s="5">
         <f t="shared" si="7"/>
@@ -10442,51 +10449,51 @@
         <f t="shared" si="5"/>
         <v>94</v>
       </c>
-      <c r="K96">
-        <v>7</v>
-      </c>
-      <c r="L96">
-        <v>27</v>
-      </c>
-      <c r="M96">
-        <v>202.499</v>
-      </c>
-      <c r="N96">
-        <v>16</v>
-      </c>
-      <c r="O96">
-        <v>355</v>
-      </c>
-      <c r="P96">
-        <v>10</v>
-      </c>
-      <c r="Q96">
-        <v>388</v>
+      <c r="K96" s="13">
+        <v>6</v>
+      </c>
+      <c r="L96" s="13">
+        <v>19</v>
+      </c>
+      <c r="M96" s="13">
+        <v>36.725000000000001</v>
+      </c>
+      <c r="N96" s="13">
+        <v>21</v>
+      </c>
+      <c r="O96" s="13">
+        <v>425</v>
+      </c>
+      <c r="P96" s="13">
+        <v>16</v>
+      </c>
+      <c r="Q96" s="13">
+        <v>438</v>
       </c>
       <c r="S96" s="5">
         <f t="shared" si="6"/>
         <v>94</v>
       </c>
-      <c r="T96" s="2">
-        <v>5</v>
-      </c>
-      <c r="U96" s="2">
-        <v>17</v>
-      </c>
-      <c r="V96" s="2">
-        <v>107.40300000000001</v>
-      </c>
-      <c r="W96" s="2">
-        <v>20</v>
-      </c>
-      <c r="X96" s="2">
-        <v>666</v>
-      </c>
-      <c r="Y96" s="2">
-        <v>16</v>
-      </c>
-      <c r="Z96" s="2">
-        <v>678</v>
+      <c r="T96" s="13">
+        <v>10</v>
+      </c>
+      <c r="U96" s="13">
+        <v>21</v>
+      </c>
+      <c r="V96" s="13">
+        <v>45.838999999999999</v>
+      </c>
+      <c r="W96" s="13">
+        <v>19</v>
+      </c>
+      <c r="X96" s="13">
+        <v>375</v>
+      </c>
+      <c r="Y96" s="13">
+        <v>10</v>
+      </c>
+      <c r="Z96" s="13">
+        <v>412</v>
       </c>
       <c r="AC96" s="5">
         <f t="shared" si="7"/>
@@ -10544,51 +10551,51 @@
         <f t="shared" si="5"/>
         <v>95</v>
       </c>
-      <c r="K97">
-        <v>8</v>
-      </c>
-      <c r="L97">
-        <v>16</v>
-      </c>
-      <c r="M97">
-        <v>122.67</v>
-      </c>
-      <c r="N97">
-        <v>17</v>
-      </c>
-      <c r="O97">
-        <v>380</v>
-      </c>
-      <c r="P97">
-        <v>10</v>
-      </c>
-      <c r="Q97">
-        <v>415</v>
+      <c r="K97" s="13">
+        <v>4</v>
+      </c>
+      <c r="L97" s="13">
+        <v>18</v>
+      </c>
+      <c r="M97" s="13">
+        <v>35.058999999999997</v>
+      </c>
+      <c r="N97" s="13">
+        <v>13</v>
+      </c>
+      <c r="O97" s="13">
+        <v>322</v>
+      </c>
+      <c r="P97" s="13">
+        <v>10</v>
+      </c>
+      <c r="Q97" s="13">
+        <v>340</v>
       </c>
       <c r="S97" s="5">
         <f t="shared" si="6"/>
         <v>95</v>
       </c>
-      <c r="T97" s="2">
-        <v>2</v>
-      </c>
-      <c r="U97" s="2">
-        <v>10</v>
-      </c>
-      <c r="V97" s="2">
-        <v>54.957999999999998</v>
-      </c>
-      <c r="W97" s="2">
-        <v>11</v>
-      </c>
-      <c r="X97" s="2">
-        <v>430</v>
-      </c>
-      <c r="Y97" s="2">
-        <v>10</v>
-      </c>
-      <c r="Z97" s="2">
-        <v>434</v>
+      <c r="T97" s="13">
+        <v>5</v>
+      </c>
+      <c r="U97" s="13">
+        <v>25</v>
+      </c>
+      <c r="V97" s="13">
+        <v>52.856000000000002</v>
+      </c>
+      <c r="W97" s="13">
+        <v>20</v>
+      </c>
+      <c r="X97" s="13">
+        <v>464</v>
+      </c>
+      <c r="Y97" s="13">
+        <v>16</v>
+      </c>
+      <c r="Z97" s="13">
+        <v>481</v>
       </c>
       <c r="AC97" s="5">
         <f t="shared" si="7"/>
@@ -10646,51 +10653,51 @@
         <f t="shared" si="5"/>
         <v>96</v>
       </c>
-      <c r="K98">
-        <v>5</v>
-      </c>
-      <c r="L98">
-        <v>14</v>
-      </c>
-      <c r="M98">
-        <v>99.822000000000003</v>
-      </c>
-      <c r="N98">
-        <v>14</v>
-      </c>
-      <c r="O98">
-        <v>295</v>
-      </c>
-      <c r="P98">
-        <v>10</v>
-      </c>
-      <c r="Q98">
-        <v>309</v>
+      <c r="K98" s="13">
+        <v>4</v>
+      </c>
+      <c r="L98" s="13">
+        <v>23</v>
+      </c>
+      <c r="M98" s="13">
+        <v>46.015999999999998</v>
+      </c>
+      <c r="N98" s="13">
+        <v>19</v>
+      </c>
+      <c r="O98" s="13">
+        <v>415</v>
+      </c>
+      <c r="P98" s="13">
+        <v>16</v>
+      </c>
+      <c r="Q98" s="13">
+        <v>425</v>
       </c>
       <c r="S98" s="5">
         <f t="shared" si="6"/>
         <v>96</v>
       </c>
-      <c r="T98" s="2">
-        <v>1</v>
-      </c>
-      <c r="U98" s="2">
-        <v>9</v>
-      </c>
-      <c r="V98" s="2">
-        <v>46.33</v>
-      </c>
-      <c r="W98" s="2">
-        <v>10</v>
-      </c>
-      <c r="X98" s="2">
-        <v>407</v>
-      </c>
-      <c r="Y98" s="2">
-        <v>10</v>
-      </c>
-      <c r="Z98" s="2">
-        <v>407</v>
+      <c r="T98" s="13">
+        <v>7</v>
+      </c>
+      <c r="U98" s="13">
+        <v>33</v>
+      </c>
+      <c r="V98" s="13">
+        <v>71.087999999999994</v>
+      </c>
+      <c r="W98" s="13">
+        <v>16</v>
+      </c>
+      <c r="X98" s="13">
+        <v>353</v>
+      </c>
+      <c r="Y98" s="13">
+        <v>10</v>
+      </c>
+      <c r="Z98" s="13">
+        <v>390</v>
       </c>
       <c r="AC98" s="5">
         <f t="shared" si="7"/>
@@ -10748,51 +10755,51 @@
         <f t="shared" si="5"/>
         <v>97</v>
       </c>
-      <c r="K99">
-        <v>6</v>
-      </c>
-      <c r="L99">
-        <v>17</v>
-      </c>
-      <c r="M99">
-        <v>128.33799999999999</v>
-      </c>
-      <c r="N99">
-        <v>21</v>
-      </c>
-      <c r="O99">
-        <v>431</v>
-      </c>
-      <c r="P99">
-        <v>16</v>
-      </c>
-      <c r="Q99">
-        <v>445</v>
+      <c r="K99" s="13">
+        <v>1</v>
+      </c>
+      <c r="L99" s="13">
+        <v>29</v>
+      </c>
+      <c r="M99" s="13">
+        <v>57.533999999999999</v>
+      </c>
+      <c r="N99" s="13">
+        <v>27</v>
+      </c>
+      <c r="O99" s="13">
+        <v>489</v>
+      </c>
+      <c r="P99" s="13">
+        <v>27</v>
+      </c>
+      <c r="Q99" s="13">
+        <v>489</v>
       </c>
       <c r="S99" s="5">
         <f t="shared" si="6"/>
         <v>97</v>
       </c>
-      <c r="T99" s="2">
-        <v>6</v>
-      </c>
-      <c r="U99" s="2">
-        <v>35</v>
-      </c>
-      <c r="V99" s="2">
-        <v>189.71</v>
-      </c>
-      <c r="W99" s="2">
+      <c r="T99" s="13">
+        <v>4</v>
+      </c>
+      <c r="U99" s="13">
         <v>15</v>
       </c>
-      <c r="X99" s="2">
-        <v>558</v>
-      </c>
-      <c r="Y99" s="2">
-        <v>10</v>
-      </c>
-      <c r="Z99" s="2">
-        <v>587</v>
+      <c r="V99" s="13">
+        <v>31.602</v>
+      </c>
+      <c r="W99" s="13">
+        <v>19</v>
+      </c>
+      <c r="X99" s="13">
+        <v>426</v>
+      </c>
+      <c r="Y99" s="13">
+        <v>16</v>
+      </c>
+      <c r="Z99" s="13">
+        <v>437</v>
       </c>
       <c r="AC99" s="5">
         <f t="shared" si="7"/>
@@ -10850,51 +10857,51 @@
         <f t="shared" si="5"/>
         <v>98</v>
       </c>
-      <c r="K100">
-        <v>7</v>
-      </c>
-      <c r="L100">
-        <v>43</v>
-      </c>
-      <c r="M100">
-        <v>344.42</v>
-      </c>
-      <c r="N100">
-        <v>16</v>
-      </c>
-      <c r="O100">
-        <v>476</v>
-      </c>
-      <c r="P100">
-        <v>10</v>
-      </c>
-      <c r="Q100">
-        <v>514</v>
+      <c r="K100" s="13">
+        <v>4</v>
+      </c>
+      <c r="L100" s="13">
+        <v>16</v>
+      </c>
+      <c r="M100" s="13">
+        <v>33.235999999999997</v>
+      </c>
+      <c r="N100" s="13">
+        <v>19</v>
+      </c>
+      <c r="O100" s="13">
+        <v>412</v>
+      </c>
+      <c r="P100" s="13">
+        <v>16</v>
+      </c>
+      <c r="Q100" s="13">
+        <v>428</v>
       </c>
       <c r="S100" s="5">
         <f t="shared" si="6"/>
         <v>98</v>
       </c>
-      <c r="T100" s="2">
-        <v>5</v>
-      </c>
-      <c r="U100" s="2">
-        <v>25</v>
-      </c>
-      <c r="V100" s="2">
-        <v>129.84100000000001</v>
-      </c>
-      <c r="W100" s="2">
+      <c r="T100" s="13">
+        <v>5</v>
+      </c>
+      <c r="U100" s="13">
+        <v>19</v>
+      </c>
+      <c r="V100" s="13">
+        <v>41.140999999999998</v>
+      </c>
+      <c r="W100" s="13">
         <v>20</v>
       </c>
-      <c r="X100" s="2">
-        <v>755</v>
-      </c>
-      <c r="Y100" s="2">
-        <v>16</v>
-      </c>
-      <c r="Z100" s="2">
-        <v>774</v>
+      <c r="X100" s="13">
+        <v>460</v>
+      </c>
+      <c r="Y100" s="13">
+        <v>16</v>
+      </c>
+      <c r="Z100" s="13">
+        <v>477</v>
       </c>
       <c r="AC100" s="5">
         <f t="shared" si="7"/>
@@ -10952,51 +10959,51 @@
         <f t="shared" si="5"/>
         <v>99</v>
       </c>
-      <c r="K101">
-        <v>4</v>
-      </c>
-      <c r="L101">
-        <v>13</v>
-      </c>
-      <c r="M101">
-        <v>97.864999999999995</v>
-      </c>
-      <c r="N101">
-        <v>19</v>
-      </c>
-      <c r="O101">
-        <v>432</v>
-      </c>
-      <c r="P101">
-        <v>16</v>
-      </c>
-      <c r="Q101">
-        <v>442</v>
+      <c r="K101" s="13">
+        <v>6</v>
+      </c>
+      <c r="L101" s="13">
+        <v>38</v>
+      </c>
+      <c r="M101" s="13">
+        <v>74.941999999999993</v>
+      </c>
+      <c r="N101" s="13">
+        <v>15</v>
+      </c>
+      <c r="O101" s="13">
+        <v>385</v>
+      </c>
+      <c r="P101" s="13">
+        <v>10</v>
+      </c>
+      <c r="Q101" s="13">
+        <v>416</v>
       </c>
       <c r="S101" s="5">
         <f t="shared" si="6"/>
         <v>99</v>
       </c>
-      <c r="T101" s="2">
+      <c r="T101" s="13">
         <v>6</v>
       </c>
-      <c r="U101" s="2">
-        <v>25</v>
-      </c>
-      <c r="V101" s="2">
-        <v>133.76400000000001</v>
-      </c>
-      <c r="W101" s="2">
+      <c r="U101" s="13">
+        <v>14</v>
+      </c>
+      <c r="V101" s="13">
+        <v>30.085000000000001</v>
+      </c>
+      <c r="W101" s="13">
         <v>15</v>
       </c>
-      <c r="X101" s="2">
-        <v>491</v>
-      </c>
-      <c r="Y101" s="2">
-        <v>10</v>
-      </c>
-      <c r="Z101" s="2">
-        <v>514</v>
+      <c r="X101" s="13">
+        <v>312</v>
+      </c>
+      <c r="Y101" s="13">
+        <v>10</v>
+      </c>
+      <c r="Z101" s="13">
+        <v>332</v>
       </c>
       <c r="AC101" s="5">
         <f t="shared" si="7"/>
@@ -11054,51 +11061,51 @@
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="K102">
-        <v>7</v>
-      </c>
-      <c r="L102">
-        <v>22</v>
-      </c>
-      <c r="M102">
-        <v>191.73</v>
-      </c>
-      <c r="N102">
-        <v>16</v>
-      </c>
-      <c r="O102">
-        <v>342</v>
-      </c>
-      <c r="P102">
-        <v>10</v>
-      </c>
-      <c r="Q102">
-        <v>376</v>
+      <c r="K102" s="13">
+        <v>4</v>
+      </c>
+      <c r="L102" s="13">
+        <v>15</v>
+      </c>
+      <c r="M102" s="13">
+        <v>32.975999999999999</v>
+      </c>
+      <c r="N102" s="13">
+        <v>13</v>
+      </c>
+      <c r="O102" s="13">
+        <v>328</v>
+      </c>
+      <c r="P102" s="13">
+        <v>10</v>
+      </c>
+      <c r="Q102" s="13">
+        <v>341</v>
       </c>
       <c r="S102" s="5">
         <f t="shared" si="6"/>
         <v>100</v>
       </c>
-      <c r="T102" s="2">
-        <v>5</v>
-      </c>
-      <c r="U102" s="2">
-        <v>14</v>
-      </c>
-      <c r="V102" s="2">
-        <v>76.676000000000002</v>
-      </c>
-      <c r="W102" s="2">
-        <v>14</v>
-      </c>
-      <c r="X102" s="2">
-        <v>451</v>
-      </c>
-      <c r="Y102" s="2">
-        <v>10</v>
-      </c>
-      <c r="Z102" s="2">
-        <v>468</v>
+      <c r="T102" s="13">
+        <v>4</v>
+      </c>
+      <c r="U102" s="13">
+        <v>18</v>
+      </c>
+      <c r="V102" s="13">
+        <v>38.176000000000002</v>
+      </c>
+      <c r="W102" s="13">
+        <v>19</v>
+      </c>
+      <c r="X102" s="13">
+        <v>396</v>
+      </c>
+      <c r="Y102" s="13">
+        <v>16</v>
+      </c>
+      <c r="Z102" s="13">
+        <v>405</v>
       </c>
       <c r="AC102" s="5">
         <f t="shared" si="7"/>
@@ -11177,8 +11184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15E8D70F-274A-43FA-B753-8D02C0E27419}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView zoomScale="71" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="X18" sqref="X18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/equal-costs_grid-topology_equal-dest_49-100-225-400-nodes.xlsx
+++ b/equal-costs_grid-topology_equal-dest_49-100-225-400-nodes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kátia Fernandes\Documents\GitHub\article-2018-leizerkatiakleber-dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF89748F-0876-41B8-A7C3-AE28E6D7C768}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FFF5524-1E6D-4562-AE77-ED4DE6371A0E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6670" xr2:uid="{99FA101D-2E33-491E-9974-BE384F2B7570}"/>
   </bookViews>
@@ -219,6 +219,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -228,7 +229,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -771,7 +771,7 @@
   <dimension ref="A1:AJ111"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="R1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+      <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -788,56 +788,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="E1" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12" t="s">
+      <c r="B1" s="12"/>
+      <c r="E1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="12"/>
-      <c r="J1" s="11" t="s">
+      <c r="H1" s="13"/>
+      <c r="J1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="11"/>
+      <c r="K1" s="12"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
-      <c r="N1" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12" t="s">
+      <c r="N1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="12"/>
-      <c r="S1" s="11" t="s">
+      <c r="Q1" s="13"/>
+      <c r="S1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="T1" s="11"/>
-      <c r="W1" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="X1" s="10"/>
-      <c r="Y1" s="10" t="s">
+      <c r="T1" s="12"/>
+      <c r="W1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="Z1" s="10"/>
-      <c r="AC1" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD1" s="11"/>
-      <c r="AG1" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="AH1" s="10"/>
-      <c r="AI1" s="10" t="s">
+      <c r="Z1" s="11"/>
+      <c r="AC1" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD1" s="12"/>
+      <c r="AG1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH1" s="11"/>
+      <c r="AI1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="AJ1" s="10"/>
+      <c r="AJ1" s="11"/>
     </row>
     <row r="2" spans="1:36" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
@@ -965,49 +965,49 @@
       <c r="J3" s="5">
         <v>1</v>
       </c>
-      <c r="K3" s="13">
-        <v>5</v>
-      </c>
-      <c r="L3" s="13">
+      <c r="K3" s="10">
+        <v>5</v>
+      </c>
+      <c r="L3" s="10">
         <v>49</v>
       </c>
-      <c r="M3" s="13">
+      <c r="M3" s="10">
         <v>109.896</v>
       </c>
-      <c r="N3" s="13">
+      <c r="N3" s="10">
         <v>20</v>
       </c>
-      <c r="O3" s="13">
+      <c r="O3" s="10">
         <v>460</v>
       </c>
-      <c r="P3" s="13">
-        <v>16</v>
-      </c>
-      <c r="Q3" s="13">
+      <c r="P3" s="10">
+        <v>16</v>
+      </c>
+      <c r="Q3" s="10">
         <v>476</v>
       </c>
       <c r="S3" s="5">
         <v>1</v>
       </c>
-      <c r="T3" s="13">
+      <c r="T3" s="10">
         <v>6</v>
       </c>
-      <c r="U3" s="13">
-        <v>16</v>
-      </c>
-      <c r="V3" s="13">
+      <c r="U3" s="10">
+        <v>16</v>
+      </c>
+      <c r="V3" s="10">
         <v>39.979999999999997</v>
       </c>
-      <c r="W3" s="13">
+      <c r="W3" s="10">
         <v>15</v>
       </c>
-      <c r="X3" s="13">
+      <c r="X3" s="10">
         <v>343</v>
       </c>
-      <c r="Y3" s="13">
-        <v>10</v>
-      </c>
-      <c r="Z3" s="13">
+      <c r="Y3" s="10">
+        <v>10</v>
+      </c>
+      <c r="Z3" s="10">
         <v>368</v>
       </c>
       <c r="AC3" s="5">
@@ -1065,50 +1065,50 @@
         <f>J3+1</f>
         <v>2</v>
       </c>
-      <c r="K4" s="13">
+      <c r="K4" s="10">
         <v>8</v>
       </c>
-      <c r="L4" s="13">
+      <c r="L4" s="10">
         <v>29</v>
       </c>
-      <c r="M4" s="13">
+      <c r="M4" s="10">
         <v>60.125999999999998</v>
       </c>
-      <c r="N4" s="13">
+      <c r="N4" s="10">
         <v>17</v>
       </c>
-      <c r="O4" s="13">
+      <c r="O4" s="10">
         <v>368</v>
       </c>
-      <c r="P4" s="13">
-        <v>10</v>
-      </c>
-      <c r="Q4" s="13">
+      <c r="P4" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="10">
         <v>405</v>
       </c>
       <c r="S4" s="5">
         <f>S3+1</f>
         <v>2</v>
       </c>
-      <c r="T4" s="13">
+      <c r="T4" s="10">
         <v>3</v>
       </c>
-      <c r="U4" s="13">
+      <c r="U4" s="10">
         <v>12</v>
       </c>
-      <c r="V4" s="13">
+      <c r="V4" s="10">
         <v>28.369</v>
       </c>
-      <c r="W4" s="13">
+      <c r="W4" s="10">
         <v>12</v>
       </c>
-      <c r="X4" s="13">
+      <c r="X4" s="10">
         <v>308</v>
       </c>
-      <c r="Y4" s="13">
-        <v>10</v>
-      </c>
-      <c r="Z4" s="13">
+      <c r="Y4" s="10">
+        <v>10</v>
+      </c>
+      <c r="Z4" s="10">
         <v>314</v>
       </c>
       <c r="AC4" s="5">
@@ -1167,50 +1167,50 @@
         <f t="shared" ref="J5:J68" si="1">J4+1</f>
         <v>3</v>
       </c>
-      <c r="K5" s="13">
-        <v>5</v>
-      </c>
-      <c r="L5" s="13">
+      <c r="K5" s="10">
+        <v>5</v>
+      </c>
+      <c r="L5" s="10">
         <v>22</v>
       </c>
-      <c r="M5" s="13">
+      <c r="M5" s="10">
         <v>45.203000000000003</v>
       </c>
-      <c r="N5" s="13">
+      <c r="N5" s="10">
         <v>14</v>
       </c>
-      <c r="O5" s="13">
+      <c r="O5" s="10">
         <v>320</v>
       </c>
-      <c r="P5" s="13">
-        <v>10</v>
-      </c>
-      <c r="Q5" s="13">
+      <c r="P5" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="10">
         <v>340</v>
       </c>
       <c r="S5" s="5">
         <f t="shared" ref="S5:S68" si="2">S4+1</f>
         <v>3</v>
       </c>
-      <c r="T5" s="13">
+      <c r="T5" s="10">
         <v>1</v>
       </c>
-      <c r="U5" s="13">
+      <c r="U5" s="10">
         <v>11</v>
       </c>
-      <c r="V5" s="13">
+      <c r="V5" s="10">
         <v>24.216999999999999</v>
       </c>
-      <c r="W5" s="13">
-        <v>10</v>
-      </c>
-      <c r="X5" s="13">
+      <c r="W5" s="10">
+        <v>10</v>
+      </c>
+      <c r="X5" s="10">
         <v>275</v>
       </c>
-      <c r="Y5" s="13">
-        <v>10</v>
-      </c>
-      <c r="Z5" s="13">
+      <c r="Y5" s="10">
+        <v>10</v>
+      </c>
+      <c r="Z5" s="10">
         <v>275</v>
       </c>
       <c r="AC5" s="5">
@@ -1269,50 +1269,50 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="K6" s="13">
+      <c r="K6" s="10">
         <v>7</v>
       </c>
-      <c r="L6" s="13">
+      <c r="L6" s="10">
         <v>23</v>
       </c>
-      <c r="M6" s="13">
+      <c r="M6" s="10">
         <v>46.192</v>
       </c>
-      <c r="N6" s="13">
-        <v>16</v>
-      </c>
-      <c r="O6" s="13">
+      <c r="N6" s="10">
+        <v>16</v>
+      </c>
+      <c r="O6" s="10">
         <v>396</v>
       </c>
-      <c r="P6" s="13">
-        <v>10</v>
-      </c>
-      <c r="Q6" s="13">
+      <c r="P6" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q6" s="10">
         <v>431</v>
       </c>
       <c r="S6" s="5">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="T6" s="13">
-        <v>5</v>
-      </c>
-      <c r="U6" s="13">
+      <c r="T6" s="10">
+        <v>5</v>
+      </c>
+      <c r="U6" s="10">
         <v>18</v>
       </c>
-      <c r="V6" s="13">
+      <c r="V6" s="10">
         <v>38.142000000000003</v>
       </c>
-      <c r="W6" s="13">
+      <c r="W6" s="10">
         <v>14</v>
       </c>
-      <c r="X6" s="13">
+      <c r="X6" s="10">
         <v>289</v>
       </c>
-      <c r="Y6" s="13">
-        <v>10</v>
-      </c>
-      <c r="Z6" s="13">
+      <c r="Y6" s="10">
+        <v>10</v>
+      </c>
+      <c r="Z6" s="10">
         <v>309</v>
       </c>
       <c r="AC6" s="5">
@@ -1371,50 +1371,50 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="K7" s="13">
+      <c r="K7" s="10">
         <v>9</v>
       </c>
-      <c r="L7" s="13">
+      <c r="L7" s="10">
         <v>26</v>
       </c>
-      <c r="M7" s="13">
+      <c r="M7" s="10">
         <v>59.292000000000002</v>
       </c>
-      <c r="N7" s="13">
+      <c r="N7" s="10">
         <v>18</v>
       </c>
-      <c r="O7" s="13">
+      <c r="O7" s="10">
         <v>383</v>
       </c>
-      <c r="P7" s="13">
-        <v>10</v>
-      </c>
-      <c r="Q7" s="13">
+      <c r="P7" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q7" s="10">
         <v>419</v>
       </c>
       <c r="S7" s="5">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="T7" s="13">
+      <c r="T7" s="10">
         <v>6</v>
       </c>
-      <c r="U7" s="13">
+      <c r="U7" s="10">
         <v>28</v>
       </c>
-      <c r="V7" s="13">
+      <c r="V7" s="10">
         <v>64.587999999999994</v>
       </c>
-      <c r="W7" s="13">
+      <c r="W7" s="10">
         <v>21</v>
       </c>
-      <c r="X7" s="13">
+      <c r="X7" s="10">
         <v>405</v>
       </c>
-      <c r="Y7" s="13">
-        <v>16</v>
-      </c>
-      <c r="Z7" s="13">
+      <c r="Y7" s="10">
+        <v>16</v>
+      </c>
+      <c r="Z7" s="10">
         <v>418</v>
       </c>
       <c r="AC7" s="5">
@@ -1473,50 +1473,50 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="K8" s="13">
-        <v>5</v>
-      </c>
-      <c r="L8" s="13">
+      <c r="K8" s="10">
+        <v>5</v>
+      </c>
+      <c r="L8" s="10">
         <v>18</v>
       </c>
-      <c r="M8" s="13">
+      <c r="M8" s="10">
         <v>38.213000000000001</v>
       </c>
-      <c r="N8" s="13">
+      <c r="N8" s="10">
         <v>14</v>
       </c>
-      <c r="O8" s="13">
+      <c r="O8" s="10">
         <v>330</v>
       </c>
-      <c r="P8" s="13">
-        <v>10</v>
-      </c>
-      <c r="Q8" s="13">
+      <c r="P8" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q8" s="10">
         <v>349</v>
       </c>
       <c r="S8" s="5">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="T8" s="13">
+      <c r="T8" s="10">
         <v>4</v>
       </c>
-      <c r="U8" s="13">
+      <c r="U8" s="10">
         <v>25</v>
       </c>
-      <c r="V8" s="13">
+      <c r="V8" s="10">
         <v>58.683999999999997</v>
       </c>
-      <c r="W8" s="13">
+      <c r="W8" s="10">
         <v>13</v>
       </c>
-      <c r="X8" s="13">
+      <c r="X8" s="10">
         <v>315</v>
       </c>
-      <c r="Y8" s="13">
-        <v>10</v>
-      </c>
-      <c r="Z8" s="13">
+      <c r="Y8" s="10">
+        <v>10</v>
+      </c>
+      <c r="Z8" s="10">
         <v>334</v>
       </c>
       <c r="AC8" s="5">
@@ -1575,50 +1575,50 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="K9" s="13">
-        <v>5</v>
-      </c>
-      <c r="L9" s="13">
-        <v>16</v>
-      </c>
-      <c r="M9" s="13">
+      <c r="K9" s="10">
+        <v>5</v>
+      </c>
+      <c r="L9" s="10">
+        <v>16</v>
+      </c>
+      <c r="M9" s="10">
         <v>33.430999999999997</v>
       </c>
-      <c r="N9" s="13">
+      <c r="N9" s="10">
         <v>20</v>
       </c>
-      <c r="O9" s="13">
+      <c r="O9" s="10">
         <v>414</v>
       </c>
-      <c r="P9" s="13">
-        <v>16</v>
-      </c>
-      <c r="Q9" s="13">
+      <c r="P9" s="10">
+        <v>16</v>
+      </c>
+      <c r="Q9" s="10">
         <v>429</v>
       </c>
       <c r="S9" s="5">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="T9" s="13">
-        <v>5</v>
-      </c>
-      <c r="U9" s="13">
-        <v>16</v>
-      </c>
-      <c r="V9" s="13">
+      <c r="T9" s="10">
+        <v>5</v>
+      </c>
+      <c r="U9" s="10">
+        <v>16</v>
+      </c>
+      <c r="V9" s="10">
         <v>35.741</v>
       </c>
-      <c r="W9" s="13">
+      <c r="W9" s="10">
         <v>14</v>
       </c>
-      <c r="X9" s="13">
+      <c r="X9" s="10">
         <v>317</v>
       </c>
-      <c r="Y9" s="13">
-        <v>10</v>
-      </c>
-      <c r="Z9" s="13">
+      <c r="Y9" s="10">
+        <v>10</v>
+      </c>
+      <c r="Z9" s="10">
         <v>334</v>
       </c>
       <c r="AC9" s="5">
@@ -1677,50 +1677,50 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="K10" s="13">
+      <c r="K10" s="10">
         <v>6</v>
       </c>
-      <c r="L10" s="13">
+      <c r="L10" s="10">
         <v>21</v>
       </c>
-      <c r="M10" s="13">
+      <c r="M10" s="10">
         <v>44.607999999999997</v>
       </c>
-      <c r="N10" s="13">
+      <c r="N10" s="10">
         <v>21</v>
       </c>
-      <c r="O10" s="13">
+      <c r="O10" s="10">
         <v>450</v>
       </c>
-      <c r="P10" s="13">
-        <v>16</v>
-      </c>
-      <c r="Q10" s="13">
+      <c r="P10" s="10">
+        <v>16</v>
+      </c>
+      <c r="Q10" s="10">
         <v>463</v>
       </c>
       <c r="S10" s="5">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="T10" s="13">
-        <v>5</v>
-      </c>
-      <c r="U10" s="13">
+      <c r="T10" s="10">
+        <v>5</v>
+      </c>
+      <c r="U10" s="10">
         <v>33</v>
       </c>
-      <c r="V10" s="13">
+      <c r="V10" s="10">
         <v>81.263999999999996</v>
       </c>
-      <c r="W10" s="13">
+      <c r="W10" s="10">
         <v>20</v>
       </c>
-      <c r="X10" s="13">
+      <c r="X10" s="10">
         <v>459</v>
       </c>
-      <c r="Y10" s="13">
-        <v>16</v>
-      </c>
-      <c r="Z10" s="13">
+      <c r="Y10" s="10">
+        <v>16</v>
+      </c>
+      <c r="Z10" s="10">
         <v>472</v>
       </c>
       <c r="AC10" s="5">
@@ -1779,50 +1779,50 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="K11" s="13">
+      <c r="K11" s="10">
         <v>2</v>
       </c>
-      <c r="L11" s="13">
-        <v>16</v>
-      </c>
-      <c r="M11" s="13">
+      <c r="L11" s="10">
+        <v>16</v>
+      </c>
+      <c r="M11" s="10">
         <v>36.298999999999999</v>
       </c>
-      <c r="N11" s="13">
+      <c r="N11" s="10">
         <v>11</v>
       </c>
-      <c r="O11" s="13">
+      <c r="O11" s="10">
         <v>290</v>
       </c>
-      <c r="P11" s="13">
-        <v>10</v>
-      </c>
-      <c r="Q11" s="13">
+      <c r="P11" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q11" s="10">
         <v>295</v>
       </c>
       <c r="S11" s="5">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="T11" s="13">
+      <c r="T11" s="10">
         <v>3</v>
       </c>
-      <c r="U11" s="13">
+      <c r="U11" s="10">
         <v>12</v>
       </c>
-      <c r="V11" s="13">
+      <c r="V11" s="10">
         <v>25.76</v>
       </c>
-      <c r="W11" s="13">
+      <c r="W11" s="10">
         <v>12</v>
       </c>
-      <c r="X11" s="13">
+      <c r="X11" s="10">
         <v>280</v>
       </c>
-      <c r="Y11" s="13">
-        <v>10</v>
-      </c>
-      <c r="Z11" s="13">
+      <c r="Y11" s="10">
+        <v>10</v>
+      </c>
+      <c r="Z11" s="10">
         <v>287</v>
       </c>
       <c r="AC11" s="5">
@@ -1881,50 +1881,50 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="K12" s="13">
+      <c r="K12" s="10">
         <v>6</v>
       </c>
-      <c r="L12" s="13">
+      <c r="L12" s="10">
         <v>13</v>
       </c>
-      <c r="M12" s="13">
+      <c r="M12" s="10">
         <v>27.515999999999998</v>
       </c>
-      <c r="N12" s="13">
+      <c r="N12" s="10">
         <v>15</v>
       </c>
-      <c r="O12" s="13">
+      <c r="O12" s="10">
         <v>328</v>
       </c>
-      <c r="P12" s="13">
-        <v>10</v>
-      </c>
-      <c r="Q12" s="13">
+      <c r="P12" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q12" s="10">
         <v>351</v>
       </c>
       <c r="S12" s="5">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="T12" s="13">
-        <v>5</v>
-      </c>
-      <c r="U12" s="13">
+      <c r="T12" s="10">
+        <v>5</v>
+      </c>
+      <c r="U12" s="10">
         <v>48</v>
       </c>
-      <c r="V12" s="13">
+      <c r="V12" s="10">
         <v>120.29900000000001</v>
       </c>
-      <c r="W12" s="13">
+      <c r="W12" s="10">
         <v>20</v>
       </c>
-      <c r="X12" s="13">
+      <c r="X12" s="10">
         <v>465</v>
       </c>
-      <c r="Y12" s="13">
-        <v>16</v>
-      </c>
-      <c r="Z12" s="13">
+      <c r="Y12" s="10">
+        <v>16</v>
+      </c>
+      <c r="Z12" s="10">
         <v>484</v>
       </c>
       <c r="AC12" s="5">
@@ -1983,50 +1983,50 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="K13" s="13">
+      <c r="K13" s="10">
         <v>2</v>
       </c>
-      <c r="L13" s="13">
+      <c r="L13" s="10">
         <v>13</v>
       </c>
-      <c r="M13" s="13">
+      <c r="M13" s="10">
         <v>25.47</v>
       </c>
-      <c r="N13" s="13">
+      <c r="N13" s="10">
         <v>11</v>
       </c>
-      <c r="O13" s="13">
+      <c r="O13" s="10">
         <v>299</v>
       </c>
-      <c r="P13" s="13">
-        <v>10</v>
-      </c>
-      <c r="Q13" s="13">
+      <c r="P13" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q13" s="10">
         <v>304</v>
       </c>
       <c r="S13" s="5">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="T13" s="13">
+      <c r="T13" s="10">
         <v>9</v>
       </c>
-      <c r="U13" s="13">
+      <c r="U13" s="10">
         <v>15</v>
       </c>
-      <c r="V13" s="13">
+      <c r="V13" s="10">
         <v>34.337000000000003</v>
       </c>
-      <c r="W13" s="13">
+      <c r="W13" s="10">
         <v>18</v>
       </c>
-      <c r="X13" s="13">
+      <c r="X13" s="10">
         <v>342</v>
       </c>
-      <c r="Y13" s="13">
-        <v>10</v>
-      </c>
-      <c r="Z13" s="13">
+      <c r="Y13" s="10">
+        <v>10</v>
+      </c>
+      <c r="Z13" s="10">
         <v>378</v>
       </c>
       <c r="AC13" s="5">
@@ -2085,50 +2085,50 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="K14" s="13">
+      <c r="K14" s="10">
         <v>6</v>
       </c>
-      <c r="L14" s="13">
+      <c r="L14" s="10">
         <v>19</v>
       </c>
-      <c r="M14" s="13">
+      <c r="M14" s="10">
         <v>37.506999999999998</v>
       </c>
-      <c r="N14" s="13">
+      <c r="N14" s="10">
         <v>21</v>
       </c>
-      <c r="O14" s="13">
+      <c r="O14" s="10">
         <v>418</v>
       </c>
-      <c r="P14" s="13">
-        <v>16</v>
-      </c>
-      <c r="Q14" s="13">
+      <c r="P14" s="10">
+        <v>16</v>
+      </c>
+      <c r="Q14" s="10">
         <v>433</v>
       </c>
       <c r="S14" s="5">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="T14" s="13">
+      <c r="T14" s="10">
         <v>6</v>
       </c>
-      <c r="U14" s="13">
+      <c r="U14" s="10">
         <v>13</v>
       </c>
-      <c r="V14" s="13">
+      <c r="V14" s="10">
         <v>27.292999999999999</v>
       </c>
-      <c r="W14" s="13">
+      <c r="W14" s="10">
         <v>15</v>
       </c>
-      <c r="X14" s="13">
+      <c r="X14" s="10">
         <v>296</v>
       </c>
-      <c r="Y14" s="13">
-        <v>10</v>
-      </c>
-      <c r="Z14" s="13">
+      <c r="Y14" s="10">
+        <v>10</v>
+      </c>
+      <c r="Z14" s="10">
         <v>315</v>
       </c>
       <c r="AC14" s="5">
@@ -2187,50 +2187,50 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="K15" s="13">
+      <c r="K15" s="10">
         <v>8</v>
       </c>
-      <c r="L15" s="13">
+      <c r="L15" s="10">
         <v>13</v>
       </c>
-      <c r="M15" s="13">
+      <c r="M15" s="10">
         <v>25.574000000000002</v>
       </c>
-      <c r="N15" s="13">
+      <c r="N15" s="10">
         <v>17</v>
       </c>
-      <c r="O15" s="13">
+      <c r="O15" s="10">
         <v>354</v>
       </c>
-      <c r="P15" s="13">
-        <v>10</v>
-      </c>
-      <c r="Q15" s="13">
+      <c r="P15" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q15" s="10">
         <v>388</v>
       </c>
       <c r="S15" s="5">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="T15" s="13">
+      <c r="T15" s="10">
         <v>8</v>
       </c>
-      <c r="U15" s="13">
+      <c r="U15" s="10">
         <v>18</v>
       </c>
-      <c r="V15" s="13">
+      <c r="V15" s="10">
         <v>40.018000000000001</v>
       </c>
-      <c r="W15" s="13">
+      <c r="W15" s="10">
         <v>17</v>
       </c>
-      <c r="X15" s="13">
+      <c r="X15" s="10">
         <v>372</v>
       </c>
-      <c r="Y15" s="13">
-        <v>10</v>
-      </c>
-      <c r="Z15" s="13">
+      <c r="Y15" s="10">
+        <v>10</v>
+      </c>
+      <c r="Z15" s="10">
         <v>411</v>
       </c>
       <c r="AC15" s="5">
@@ -2289,50 +2289,50 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="K16" s="13">
+      <c r="K16" s="10">
         <v>2</v>
       </c>
-      <c r="L16" s="13">
+      <c r="L16" s="10">
         <v>13</v>
       </c>
-      <c r="M16" s="13">
+      <c r="M16" s="10">
         <v>25.155000000000001</v>
       </c>
-      <c r="N16" s="13">
+      <c r="N16" s="10">
         <v>11</v>
       </c>
-      <c r="O16" s="13">
+      <c r="O16" s="10">
         <v>299</v>
       </c>
-      <c r="P16" s="13">
-        <v>10</v>
-      </c>
-      <c r="Q16" s="13">
+      <c r="P16" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q16" s="10">
         <v>304</v>
       </c>
       <c r="S16" s="5">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="T16" s="13">
+      <c r="T16" s="10">
         <v>1</v>
       </c>
-      <c r="U16" s="13">
-        <v>10</v>
-      </c>
-      <c r="V16" s="13">
+      <c r="U16" s="10">
+        <v>10</v>
+      </c>
+      <c r="V16" s="10">
         <v>20.539000000000001</v>
       </c>
-      <c r="W16" s="13">
-        <v>10</v>
-      </c>
-      <c r="X16" s="13">
+      <c r="W16" s="10">
+        <v>10</v>
+      </c>
+      <c r="X16" s="10">
         <v>249</v>
       </c>
-      <c r="Y16" s="13">
-        <v>10</v>
-      </c>
-      <c r="Z16" s="13">
+      <c r="Y16" s="10">
+        <v>10</v>
+      </c>
+      <c r="Z16" s="10">
         <v>249</v>
       </c>
       <c r="AC16" s="5">
@@ -2391,50 +2391,50 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="K17" s="13">
+      <c r="K17" s="10">
         <v>8</v>
       </c>
-      <c r="L17" s="13">
+      <c r="L17" s="10">
         <v>34</v>
       </c>
-      <c r="M17" s="13">
+      <c r="M17" s="10">
         <v>69.105000000000004</v>
       </c>
-      <c r="N17" s="13">
+      <c r="N17" s="10">
         <v>17</v>
       </c>
-      <c r="O17" s="13">
+      <c r="O17" s="10">
         <v>394</v>
       </c>
-      <c r="P17" s="13">
-        <v>10</v>
-      </c>
-      <c r="Q17" s="13">
+      <c r="P17" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q17" s="10">
         <v>432</v>
       </c>
       <c r="S17" s="5">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="T17" s="13">
-        <v>10</v>
-      </c>
-      <c r="U17" s="13">
+      <c r="T17" s="10">
+        <v>10</v>
+      </c>
+      <c r="U17" s="10">
         <v>18</v>
       </c>
-      <c r="V17" s="13">
+      <c r="V17" s="10">
         <v>40.798999999999999</v>
       </c>
-      <c r="W17" s="13">
+      <c r="W17" s="10">
         <v>19</v>
       </c>
-      <c r="X17" s="13">
+      <c r="X17" s="10">
         <v>381</v>
       </c>
-      <c r="Y17" s="13">
-        <v>10</v>
-      </c>
-      <c r="Z17" s="13">
+      <c r="Y17" s="10">
+        <v>10</v>
+      </c>
+      <c r="Z17" s="10">
         <v>424</v>
       </c>
       <c r="AC17" s="5">
@@ -2493,50 +2493,50 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="K18" s="13">
+      <c r="K18" s="10">
         <v>6</v>
       </c>
-      <c r="L18" s="13">
+      <c r="L18" s="10">
         <v>14</v>
       </c>
-      <c r="M18" s="13">
+      <c r="M18" s="10">
         <v>27.010999999999999</v>
       </c>
-      <c r="N18" s="13">
+      <c r="N18" s="10">
         <v>15</v>
       </c>
-      <c r="O18" s="13">
+      <c r="O18" s="10">
         <v>285</v>
       </c>
-      <c r="P18" s="13">
-        <v>10</v>
-      </c>
-      <c r="Q18" s="13">
+      <c r="P18" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q18" s="10">
         <v>303</v>
       </c>
       <c r="S18" s="5">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="T18" s="13">
+      <c r="T18" s="10">
         <v>2</v>
       </c>
-      <c r="U18" s="13">
+      <c r="U18" s="10">
         <v>11</v>
       </c>
-      <c r="V18" s="13">
+      <c r="V18" s="10">
         <v>23.971</v>
       </c>
-      <c r="W18" s="13">
+      <c r="W18" s="10">
         <v>11</v>
       </c>
-      <c r="X18" s="13">
+      <c r="X18" s="10">
         <v>273</v>
       </c>
-      <c r="Y18" s="13">
-        <v>10</v>
-      </c>
-      <c r="Z18" s="13">
+      <c r="Y18" s="10">
+        <v>10</v>
+      </c>
+      <c r="Z18" s="10">
         <v>274</v>
       </c>
       <c r="AC18" s="5">
@@ -2595,50 +2595,50 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="K19" s="13">
-        <v>10</v>
-      </c>
-      <c r="L19" s="13">
+      <c r="K19" s="10">
+        <v>10</v>
+      </c>
+      <c r="L19" s="10">
         <v>19</v>
       </c>
-      <c r="M19" s="13">
+      <c r="M19" s="10">
         <v>38.335999999999999</v>
       </c>
-      <c r="N19" s="13">
+      <c r="N19" s="10">
         <v>19</v>
       </c>
-      <c r="O19" s="13">
+      <c r="O19" s="10">
         <v>382</v>
       </c>
-      <c r="P19" s="13">
-        <v>10</v>
-      </c>
-      <c r="Q19" s="13">
+      <c r="P19" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q19" s="10">
         <v>427</v>
       </c>
       <c r="S19" s="5">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="T19" s="13">
-        <v>5</v>
-      </c>
-      <c r="U19" s="13">
+      <c r="T19" s="10">
+        <v>5</v>
+      </c>
+      <c r="U19" s="10">
         <v>20</v>
       </c>
-      <c r="V19" s="13">
+      <c r="V19" s="10">
         <v>45.116</v>
       </c>
-      <c r="W19" s="13">
+      <c r="W19" s="10">
         <v>14</v>
       </c>
-      <c r="X19" s="13">
+      <c r="X19" s="10">
         <v>324</v>
       </c>
-      <c r="Y19" s="13">
-        <v>10</v>
-      </c>
-      <c r="Z19" s="13">
+      <c r="Y19" s="10">
+        <v>10</v>
+      </c>
+      <c r="Z19" s="10">
         <v>344</v>
       </c>
       <c r="AC19" s="5">
@@ -2697,50 +2697,50 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="K20" s="13">
+      <c r="K20" s="10">
         <v>9</v>
       </c>
-      <c r="L20" s="13">
+      <c r="L20" s="10">
         <v>23</v>
       </c>
-      <c r="M20" s="13">
+      <c r="M20" s="10">
         <v>46.872</v>
       </c>
-      <c r="N20" s="13">
+      <c r="N20" s="10">
         <v>18</v>
       </c>
-      <c r="O20" s="13">
+      <c r="O20" s="10">
         <v>364</v>
       </c>
-      <c r="P20" s="13">
-        <v>10</v>
-      </c>
-      <c r="Q20" s="13">
+      <c r="P20" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q20" s="10">
         <v>398</v>
       </c>
       <c r="S20" s="5">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="T20" s="13">
+      <c r="T20" s="10">
         <v>6</v>
       </c>
-      <c r="U20" s="13">
+      <c r="U20" s="10">
         <v>33</v>
       </c>
-      <c r="V20" s="13">
+      <c r="V20" s="10">
         <v>75.853999999999999</v>
       </c>
-      <c r="W20" s="13">
+      <c r="W20" s="10">
         <v>15</v>
       </c>
-      <c r="X20" s="13">
+      <c r="X20" s="10">
         <v>365</v>
       </c>
-      <c r="Y20" s="13">
-        <v>10</v>
-      </c>
-      <c r="Z20" s="13">
+      <c r="Y20" s="10">
+        <v>10</v>
+      </c>
+      <c r="Z20" s="10">
         <v>393</v>
       </c>
       <c r="AC20" s="5">
@@ -2799,50 +2799,50 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="K21" s="13">
-        <v>5</v>
-      </c>
-      <c r="L21" s="13">
+      <c r="K21" s="10">
+        <v>5</v>
+      </c>
+      <c r="L21" s="10">
         <v>13</v>
       </c>
-      <c r="M21" s="13">
+      <c r="M21" s="10">
         <v>26.175000000000001</v>
       </c>
-      <c r="N21" s="13">
+      <c r="N21" s="10">
         <v>14</v>
       </c>
-      <c r="O21" s="13">
+      <c r="O21" s="10">
         <v>339</v>
       </c>
-      <c r="P21" s="13">
-        <v>10</v>
-      </c>
-      <c r="Q21" s="13">
+      <c r="P21" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q21" s="10">
         <v>357</v>
       </c>
       <c r="S21" s="5">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="T21" s="13">
-        <v>5</v>
-      </c>
-      <c r="U21" s="13">
+      <c r="T21" s="10">
+        <v>5</v>
+      </c>
+      <c r="U21" s="10">
         <v>14</v>
       </c>
-      <c r="V21" s="13">
+      <c r="V21" s="10">
         <v>30.100999999999999</v>
       </c>
-      <c r="W21" s="13">
+      <c r="W21" s="10">
         <v>20</v>
       </c>
-      <c r="X21" s="13">
+      <c r="X21" s="10">
         <v>444</v>
       </c>
-      <c r="Y21" s="13">
-        <v>16</v>
-      </c>
-      <c r="Z21" s="13">
+      <c r="Y21" s="10">
+        <v>16</v>
+      </c>
+      <c r="Z21" s="10">
         <v>459</v>
       </c>
       <c r="AC21" s="5">
@@ -2901,50 +2901,50 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="K22" s="13">
-        <v>5</v>
-      </c>
-      <c r="L22" s="13">
+      <c r="K22" s="10">
+        <v>5</v>
+      </c>
+      <c r="L22" s="10">
         <v>19</v>
       </c>
-      <c r="M22" s="13">
+      <c r="M22" s="10">
         <v>38.926000000000002</v>
       </c>
-      <c r="N22" s="13">
+      <c r="N22" s="10">
         <v>20</v>
       </c>
-      <c r="O22" s="13">
+      <c r="O22" s="10">
         <v>460</v>
       </c>
-      <c r="P22" s="13">
-        <v>16</v>
-      </c>
-      <c r="Q22" s="13">
+      <c r="P22" s="10">
+        <v>16</v>
+      </c>
+      <c r="Q22" s="10">
         <v>473</v>
       </c>
       <c r="S22" s="5">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="T22" s="13">
+      <c r="T22" s="10">
         <v>7</v>
       </c>
-      <c r="U22" s="13">
+      <c r="U22" s="10">
         <v>41</v>
       </c>
-      <c r="V22" s="13">
+      <c r="V22" s="10">
         <v>94.14</v>
       </c>
-      <c r="W22" s="13">
-        <v>16</v>
-      </c>
-      <c r="X22" s="13">
+      <c r="W22" s="10">
+        <v>16</v>
+      </c>
+      <c r="X22" s="10">
         <v>409</v>
       </c>
-      <c r="Y22" s="13">
-        <v>10</v>
-      </c>
-      <c r="Z22" s="13">
+      <c r="Y22" s="10">
+        <v>10</v>
+      </c>
+      <c r="Z22" s="10">
         <v>446</v>
       </c>
       <c r="AC22" s="5">
@@ -3003,50 +3003,50 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="K23" s="13">
+      <c r="K23" s="10">
         <v>3</v>
       </c>
-      <c r="L23" s="13">
-        <v>10</v>
-      </c>
-      <c r="M23" s="13">
+      <c r="L23" s="10">
+        <v>10</v>
+      </c>
+      <c r="M23" s="10">
         <v>18.925000000000001</v>
       </c>
-      <c r="N23" s="13">
+      <c r="N23" s="10">
         <v>12</v>
       </c>
-      <c r="O23" s="13">
+      <c r="O23" s="10">
         <v>271</v>
       </c>
-      <c r="P23" s="13">
-        <v>10</v>
-      </c>
-      <c r="Q23" s="13">
+      <c r="P23" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q23" s="10">
         <v>277</v>
       </c>
       <c r="S23" s="5">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="T23" s="13">
+      <c r="T23" s="10">
         <v>8</v>
       </c>
-      <c r="U23" s="13">
+      <c r="U23" s="10">
         <v>23</v>
       </c>
-      <c r="V23" s="13">
+      <c r="V23" s="10">
         <v>52.295000000000002</v>
       </c>
-      <c r="W23" s="13">
+      <c r="W23" s="10">
         <v>17</v>
       </c>
-      <c r="X23" s="13">
+      <c r="X23" s="10">
         <v>323</v>
       </c>
-      <c r="Y23" s="13">
-        <v>10</v>
-      </c>
-      <c r="Z23" s="13">
+      <c r="Y23" s="10">
+        <v>10</v>
+      </c>
+      <c r="Z23" s="10">
         <v>353</v>
       </c>
       <c r="AC23" s="5">
@@ -3105,50 +3105,50 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="K24" s="13">
-        <v>5</v>
-      </c>
-      <c r="L24" s="13">
+      <c r="K24" s="10">
+        <v>5</v>
+      </c>
+      <c r="L24" s="10">
         <v>21</v>
       </c>
-      <c r="M24" s="13">
+      <c r="M24" s="10">
         <v>42.124000000000002</v>
       </c>
-      <c r="N24" s="13">
+      <c r="N24" s="10">
         <v>20</v>
       </c>
-      <c r="O24" s="13">
+      <c r="O24" s="10">
         <v>431</v>
       </c>
-      <c r="P24" s="13">
-        <v>16</v>
-      </c>
-      <c r="Q24" s="13">
+      <c r="P24" s="10">
+        <v>16</v>
+      </c>
+      <c r="Q24" s="10">
         <v>442</v>
       </c>
       <c r="S24" s="5">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="T24" s="13">
-        <v>5</v>
-      </c>
-      <c r="U24" s="13">
+      <c r="T24" s="10">
+        <v>5</v>
+      </c>
+      <c r="U24" s="10">
         <v>25</v>
       </c>
-      <c r="V24" s="13">
+      <c r="V24" s="10">
         <v>55.11</v>
       </c>
-      <c r="W24" s="13">
+      <c r="W24" s="10">
         <v>20</v>
       </c>
-      <c r="X24" s="13">
+      <c r="X24" s="10">
         <v>477</v>
       </c>
-      <c r="Y24" s="13">
-        <v>16</v>
-      </c>
-      <c r="Z24" s="13">
+      <c r="Y24" s="10">
+        <v>16</v>
+      </c>
+      <c r="Z24" s="10">
         <v>496</v>
       </c>
       <c r="AC24" s="5">
@@ -3207,50 +3207,50 @@
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="K25" s="13">
+      <c r="K25" s="10">
         <v>3</v>
       </c>
-      <c r="L25" s="13">
+      <c r="L25" s="10">
         <v>11</v>
       </c>
-      <c r="M25" s="13">
+      <c r="M25" s="10">
         <v>22.661000000000001</v>
       </c>
-      <c r="N25" s="13">
+      <c r="N25" s="10">
         <v>12</v>
       </c>
-      <c r="O25" s="13">
+      <c r="O25" s="10">
         <v>289</v>
       </c>
-      <c r="P25" s="13">
-        <v>10</v>
-      </c>
-      <c r="Q25" s="13">
+      <c r="P25" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q25" s="10">
         <v>296</v>
       </c>
       <c r="S25" s="5">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="T25" s="13">
+      <c r="T25" s="10">
         <v>7</v>
       </c>
-      <c r="U25" s="13">
+      <c r="U25" s="10">
         <v>17</v>
       </c>
-      <c r="V25" s="13">
+      <c r="V25" s="10">
         <v>38.432000000000002</v>
       </c>
-      <c r="W25" s="13">
-        <v>16</v>
-      </c>
-      <c r="X25" s="13">
+      <c r="W25" s="10">
+        <v>16</v>
+      </c>
+      <c r="X25" s="10">
         <v>421</v>
       </c>
-      <c r="Y25" s="13">
-        <v>10</v>
-      </c>
-      <c r="Z25" s="13">
+      <c r="Y25" s="10">
+        <v>10</v>
+      </c>
+      <c r="Z25" s="10">
         <v>458</v>
       </c>
       <c r="AC25" s="5">
@@ -3309,50 +3309,50 @@
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="K26" s="13">
+      <c r="K26" s="10">
         <v>7</v>
       </c>
-      <c r="L26" s="13">
+      <c r="L26" s="10">
         <v>26</v>
       </c>
-      <c r="M26" s="13">
+      <c r="M26" s="10">
         <v>53.601999999999997</v>
       </c>
-      <c r="N26" s="13">
+      <c r="N26" s="10">
         <v>22</v>
       </c>
-      <c r="O26" s="13">
+      <c r="O26" s="10">
         <v>456</v>
       </c>
-      <c r="P26" s="13">
-        <v>16</v>
-      </c>
-      <c r="Q26" s="13">
+      <c r="P26" s="10">
+        <v>16</v>
+      </c>
+      <c r="Q26" s="10">
         <v>482</v>
       </c>
       <c r="S26" s="5">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="T26" s="13">
-        <v>5</v>
-      </c>
-      <c r="U26" s="13">
+      <c r="T26" s="10">
+        <v>5</v>
+      </c>
+      <c r="U26" s="10">
         <v>19</v>
       </c>
-      <c r="V26" s="13">
+      <c r="V26" s="10">
         <v>40.344000000000001</v>
       </c>
-      <c r="W26" s="13">
+      <c r="W26" s="10">
         <v>20</v>
       </c>
-      <c r="X26" s="13">
+      <c r="X26" s="10">
         <v>449</v>
       </c>
-      <c r="Y26" s="13">
-        <v>16</v>
-      </c>
-      <c r="Z26" s="13">
+      <c r="Y26" s="10">
+        <v>16</v>
+      </c>
+      <c r="Z26" s="10">
         <v>462</v>
       </c>
       <c r="AC26" s="5">
@@ -3411,50 +3411,50 @@
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="K27" s="13">
+      <c r="K27" s="10">
         <v>6</v>
       </c>
-      <c r="L27" s="13">
+      <c r="L27" s="10">
         <v>19</v>
       </c>
-      <c r="M27" s="13">
+      <c r="M27" s="10">
         <v>38.768999999999998</v>
       </c>
-      <c r="N27" s="13">
+      <c r="N27" s="10">
         <v>15</v>
       </c>
-      <c r="O27" s="13">
+      <c r="O27" s="10">
         <v>378</v>
       </c>
-      <c r="P27" s="13">
-        <v>10</v>
-      </c>
-      <c r="Q27" s="13">
+      <c r="P27" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q27" s="10">
         <v>408</v>
       </c>
       <c r="S27" s="5">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="T27" s="13">
-        <v>5</v>
-      </c>
-      <c r="U27" s="13">
-        <v>16</v>
-      </c>
-      <c r="V27" s="13">
+      <c r="T27" s="10">
+        <v>5</v>
+      </c>
+      <c r="U27" s="10">
+        <v>16</v>
+      </c>
+      <c r="V27" s="10">
         <v>35.987000000000002</v>
       </c>
-      <c r="W27" s="13">
+      <c r="W27" s="10">
         <v>14</v>
       </c>
-      <c r="X27" s="13">
+      <c r="X27" s="10">
         <v>306</v>
       </c>
-      <c r="Y27" s="13">
-        <v>10</v>
-      </c>
-      <c r="Z27" s="13">
+      <c r="Y27" s="10">
+        <v>10</v>
+      </c>
+      <c r="Z27" s="10">
         <v>324</v>
       </c>
       <c r="AC27" s="5">
@@ -3513,50 +3513,50 @@
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="K28" s="13">
+      <c r="K28" s="10">
         <v>1</v>
       </c>
-      <c r="L28" s="13">
+      <c r="L28" s="10">
         <v>29</v>
       </c>
-      <c r="M28" s="13">
+      <c r="M28" s="10">
         <v>57.308</v>
       </c>
-      <c r="N28" s="13">
+      <c r="N28" s="10">
         <v>27</v>
       </c>
-      <c r="O28" s="13">
+      <c r="O28" s="10">
         <v>467</v>
       </c>
-      <c r="P28" s="13">
+      <c r="P28" s="10">
         <v>27</v>
       </c>
-      <c r="Q28" s="13">
+      <c r="Q28" s="10">
         <v>467</v>
       </c>
       <c r="S28" s="5">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="T28" s="13">
+      <c r="T28" s="10">
         <v>3</v>
       </c>
-      <c r="U28" s="13">
+      <c r="U28" s="10">
         <v>15</v>
       </c>
-      <c r="V28" s="13">
+      <c r="V28" s="10">
         <v>32.585999999999999</v>
       </c>
-      <c r="W28" s="13">
+      <c r="W28" s="10">
         <v>12</v>
       </c>
-      <c r="X28" s="13">
+      <c r="X28" s="10">
         <v>285</v>
       </c>
-      <c r="Y28" s="13">
-        <v>10</v>
-      </c>
-      <c r="Z28" s="13">
+      <c r="Y28" s="10">
+        <v>10</v>
+      </c>
+      <c r="Z28" s="10">
         <v>295</v>
       </c>
       <c r="AC28" s="5">
@@ -3615,50 +3615,50 @@
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="K29" s="13">
-        <v>5</v>
-      </c>
-      <c r="L29" s="13">
-        <v>16</v>
-      </c>
-      <c r="M29" s="13">
+      <c r="K29" s="10">
+        <v>5</v>
+      </c>
+      <c r="L29" s="10">
+        <v>16</v>
+      </c>
+      <c r="M29" s="10">
         <v>77</v>
       </c>
-      <c r="N29" s="13">
+      <c r="N29" s="10">
         <v>20</v>
       </c>
-      <c r="O29" s="13">
+      <c r="O29" s="10">
         <v>407</v>
       </c>
-      <c r="P29" s="13">
-        <v>16</v>
-      </c>
-      <c r="Q29" s="13">
+      <c r="P29" s="10">
+        <v>16</v>
+      </c>
+      <c r="Q29" s="10">
         <v>417</v>
       </c>
       <c r="S29" s="5">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="T29" s="13">
-        <v>10</v>
-      </c>
-      <c r="U29" s="13">
+      <c r="T29" s="10">
+        <v>10</v>
+      </c>
+      <c r="U29" s="10">
         <v>20</v>
       </c>
-      <c r="V29" s="13">
+      <c r="V29" s="10">
         <v>77</v>
       </c>
-      <c r="W29" s="13">
+      <c r="W29" s="10">
         <v>19</v>
       </c>
-      <c r="X29" s="13">
+      <c r="X29" s="10">
         <v>375</v>
       </c>
-      <c r="Y29" s="13">
-        <v>10</v>
-      </c>
-      <c r="Z29" s="13">
+      <c r="Y29" s="10">
+        <v>10</v>
+      </c>
+      <c r="Z29" s="10">
         <v>413</v>
       </c>
       <c r="AC29" s="5">
@@ -3717,50 +3717,50 @@
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="K30" s="13">
+      <c r="K30" s="10">
         <v>1</v>
       </c>
-      <c r="L30" s="13">
-        <v>5</v>
-      </c>
-      <c r="M30" s="13">
+      <c r="L30" s="10">
+        <v>5</v>
+      </c>
+      <c r="M30" s="10">
         <v>8.8770000000000007</v>
       </c>
-      <c r="N30" s="13">
+      <c r="N30" s="10">
         <v>27</v>
       </c>
-      <c r="O30" s="13">
+      <c r="O30" s="10">
         <v>492</v>
       </c>
-      <c r="P30" s="13">
+      <c r="P30" s="10">
         <v>27</v>
       </c>
-      <c r="Q30" s="13">
+      <c r="Q30" s="10">
         <v>492</v>
       </c>
       <c r="S30" s="5">
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="T30" s="13">
+      <c r="T30" s="10">
         <v>4</v>
       </c>
-      <c r="U30" s="13">
+      <c r="U30" s="10">
         <v>12</v>
       </c>
-      <c r="V30" s="13">
+      <c r="V30" s="10">
         <v>26.23</v>
       </c>
-      <c r="W30" s="13">
+      <c r="W30" s="10">
         <v>19</v>
       </c>
-      <c r="X30" s="13">
+      <c r="X30" s="10">
         <v>361</v>
       </c>
-      <c r="Y30" s="13">
-        <v>16</v>
-      </c>
-      <c r="Z30" s="13">
+      <c r="Y30" s="10">
+        <v>16</v>
+      </c>
+      <c r="Z30" s="10">
         <v>370</v>
       </c>
       <c r="AC30" s="5">
@@ -3819,50 +3819,50 @@
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="K31" s="13">
-        <v>5</v>
-      </c>
-      <c r="L31" s="13">
+      <c r="K31" s="10">
+        <v>5</v>
+      </c>
+      <c r="L31" s="10">
         <v>30</v>
       </c>
-      <c r="M31" s="13">
+      <c r="M31" s="10">
         <v>61.481000000000002</v>
       </c>
-      <c r="N31" s="13">
+      <c r="N31" s="10">
         <v>20</v>
       </c>
-      <c r="O31" s="13">
+      <c r="O31" s="10">
         <v>402</v>
       </c>
-      <c r="P31" s="13">
-        <v>16</v>
-      </c>
-      <c r="Q31" s="13">
+      <c r="P31" s="10">
+        <v>16</v>
+      </c>
+      <c r="Q31" s="10">
         <v>416</v>
       </c>
       <c r="S31" s="5">
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="T31" s="13">
-        <v>5</v>
-      </c>
-      <c r="U31" s="13">
-        <v>16</v>
-      </c>
-      <c r="V31" s="13">
+      <c r="T31" s="10">
+        <v>5</v>
+      </c>
+      <c r="U31" s="10">
+        <v>16</v>
+      </c>
+      <c r="V31" s="10">
         <v>35.280999999999999</v>
       </c>
-      <c r="W31" s="13">
+      <c r="W31" s="10">
         <v>20</v>
       </c>
-      <c r="X31" s="13">
+      <c r="X31" s="10">
         <v>466</v>
       </c>
-      <c r="Y31" s="13">
-        <v>16</v>
-      </c>
-      <c r="Z31" s="13">
+      <c r="Y31" s="10">
+        <v>16</v>
+      </c>
+      <c r="Z31" s="10">
         <v>486</v>
       </c>
       <c r="AC31" s="5">
@@ -3921,50 +3921,50 @@
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="K32" s="13">
+      <c r="K32" s="10">
         <v>8</v>
       </c>
-      <c r="L32" s="13">
+      <c r="L32" s="10">
         <v>36</v>
       </c>
-      <c r="M32" s="13">
+      <c r="M32" s="10">
         <v>72.826999999999998</v>
       </c>
-      <c r="N32" s="13">
+      <c r="N32" s="10">
         <v>17</v>
       </c>
-      <c r="O32" s="13">
+      <c r="O32" s="10">
         <v>404</v>
       </c>
-      <c r="P32" s="13">
-        <v>10</v>
-      </c>
-      <c r="Q32" s="13">
+      <c r="P32" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q32" s="10">
         <v>440</v>
       </c>
       <c r="S32" s="5">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="T32" s="13">
+      <c r="T32" s="10">
         <v>6</v>
       </c>
-      <c r="U32" s="13">
+      <c r="U32" s="10">
         <v>13</v>
       </c>
-      <c r="V32" s="13">
+      <c r="V32" s="10">
         <v>28.283999999999999</v>
       </c>
-      <c r="W32" s="13">
+      <c r="W32" s="10">
         <v>21</v>
       </c>
-      <c r="X32" s="13">
+      <c r="X32" s="10">
         <v>403</v>
       </c>
-      <c r="Y32" s="13">
-        <v>16</v>
-      </c>
-      <c r="Z32" s="13">
+      <c r="Y32" s="10">
+        <v>16</v>
+      </c>
+      <c r="Z32" s="10">
         <v>417</v>
       </c>
       <c r="AC32" s="5">
@@ -4023,50 +4023,50 @@
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="K33" s="13">
+      <c r="K33" s="10">
         <v>7</v>
       </c>
-      <c r="L33" s="13">
+      <c r="L33" s="10">
         <v>22</v>
       </c>
-      <c r="M33" s="13">
+      <c r="M33" s="10">
         <v>46.081000000000003</v>
       </c>
-      <c r="N33" s="13">
-        <v>16</v>
-      </c>
-      <c r="O33" s="13">
+      <c r="N33" s="10">
+        <v>16</v>
+      </c>
+      <c r="O33" s="10">
         <v>355</v>
       </c>
-      <c r="P33" s="13">
-        <v>10</v>
-      </c>
-      <c r="Q33" s="13">
+      <c r="P33" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q33" s="10">
         <v>387</v>
       </c>
       <c r="S33" s="5">
         <f t="shared" si="2"/>
         <v>31</v>
       </c>
-      <c r="T33" s="13">
-        <v>5</v>
-      </c>
-      <c r="U33" s="13">
+      <c r="T33" s="10">
+        <v>5</v>
+      </c>
+      <c r="U33" s="10">
         <v>18</v>
       </c>
-      <c r="V33" s="13">
+      <c r="V33" s="10">
         <v>37.601999999999997</v>
       </c>
-      <c r="W33" s="13">
+      <c r="W33" s="10">
         <v>20</v>
       </c>
-      <c r="X33" s="13">
+      <c r="X33" s="10">
         <v>443</v>
       </c>
-      <c r="Y33" s="13">
-        <v>16</v>
-      </c>
-      <c r="Z33" s="13">
+      <c r="Y33" s="10">
+        <v>16</v>
+      </c>
+      <c r="Z33" s="10">
         <v>460</v>
       </c>
       <c r="AC33" s="5">
@@ -4125,50 +4125,50 @@
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="K34" s="13">
+      <c r="K34" s="10">
         <v>6</v>
       </c>
-      <c r="L34" s="13">
+      <c r="L34" s="10">
         <v>37</v>
       </c>
-      <c r="M34" s="13">
+      <c r="M34" s="10">
         <v>75.384</v>
       </c>
-      <c r="N34" s="13">
+      <c r="N34" s="10">
         <v>15</v>
       </c>
-      <c r="O34" s="13">
+      <c r="O34" s="10">
         <v>371</v>
       </c>
-      <c r="P34" s="13">
-        <v>10</v>
-      </c>
-      <c r="Q34" s="13">
+      <c r="P34" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q34" s="10">
         <v>398</v>
       </c>
       <c r="S34" s="5">
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
-      <c r="T34" s="13">
-        <v>5</v>
-      </c>
-      <c r="U34" s="13">
+      <c r="T34" s="10">
+        <v>5</v>
+      </c>
+      <c r="U34" s="10">
         <v>48</v>
       </c>
-      <c r="V34" s="13">
+      <c r="V34" s="10">
         <v>109.93600000000001</v>
       </c>
-      <c r="W34" s="13">
+      <c r="W34" s="10">
         <v>20</v>
       </c>
-      <c r="X34" s="13">
+      <c r="X34" s="10">
         <v>492</v>
       </c>
-      <c r="Y34" s="13">
-        <v>16</v>
-      </c>
-      <c r="Z34" s="13">
+      <c r="Y34" s="10">
+        <v>16</v>
+      </c>
+      <c r="Z34" s="10">
         <v>512</v>
       </c>
       <c r="AC34" s="5">
@@ -4227,50 +4227,50 @@
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="K35" s="13">
+      <c r="K35" s="10">
         <v>4</v>
       </c>
-      <c r="L35" s="13">
+      <c r="L35" s="10">
         <v>13</v>
       </c>
-      <c r="M35" s="13">
+      <c r="M35" s="10">
         <v>25.744</v>
       </c>
-      <c r="N35" s="13">
+      <c r="N35" s="10">
         <v>13</v>
       </c>
-      <c r="O35" s="13">
+      <c r="O35" s="10">
         <v>287</v>
       </c>
-      <c r="P35" s="13">
-        <v>10</v>
-      </c>
-      <c r="Q35" s="13">
+      <c r="P35" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q35" s="10">
         <v>299</v>
       </c>
       <c r="S35" s="5">
         <f t="shared" si="2"/>
         <v>33</v>
       </c>
-      <c r="T35" s="13">
+      <c r="T35" s="10">
         <v>6</v>
       </c>
-      <c r="U35" s="13">
+      <c r="U35" s="10">
         <v>17</v>
       </c>
-      <c r="V35" s="13">
+      <c r="V35" s="10">
         <v>35.915999999999997</v>
       </c>
-      <c r="W35" s="13">
+      <c r="W35" s="10">
         <v>15</v>
       </c>
-      <c r="X35" s="13">
+      <c r="X35" s="10">
         <v>372</v>
       </c>
-      <c r="Y35" s="13">
-        <v>10</v>
-      </c>
-      <c r="Z35" s="13">
+      <c r="Y35" s="10">
+        <v>10</v>
+      </c>
+      <c r="Z35" s="10">
         <v>400</v>
       </c>
       <c r="AC35" s="5">
@@ -4329,50 +4329,50 @@
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="K36" s="13">
+      <c r="K36" s="10">
         <v>8</v>
       </c>
-      <c r="L36" s="13">
+      <c r="L36" s="10">
         <v>21</v>
       </c>
-      <c r="M36" s="13">
+      <c r="M36" s="10">
         <v>41.868000000000002</v>
       </c>
-      <c r="N36" s="13">
+      <c r="N36" s="10">
         <v>23</v>
       </c>
-      <c r="O36" s="13">
+      <c r="O36" s="10">
         <v>442</v>
       </c>
-      <c r="P36" s="13">
-        <v>16</v>
-      </c>
-      <c r="Q36" s="13">
+      <c r="P36" s="10">
+        <v>16</v>
+      </c>
+      <c r="Q36" s="10">
         <v>461</v>
       </c>
       <c r="S36" s="5">
         <f t="shared" si="2"/>
         <v>34</v>
       </c>
-      <c r="T36" s="13">
-        <v>5</v>
-      </c>
-      <c r="U36" s="13">
-        <v>16</v>
-      </c>
-      <c r="V36" s="13">
+      <c r="T36" s="10">
+        <v>5</v>
+      </c>
+      <c r="U36" s="10">
+        <v>16</v>
+      </c>
+      <c r="V36" s="10">
         <v>34.869999999999997</v>
       </c>
-      <c r="W36" s="13">
+      <c r="W36" s="10">
         <v>20</v>
       </c>
-      <c r="X36" s="13">
+      <c r="X36" s="10">
         <v>401</v>
       </c>
-      <c r="Y36" s="13">
-        <v>16</v>
-      </c>
-      <c r="Z36" s="13">
+      <c r="Y36" s="10">
+        <v>16</v>
+      </c>
+      <c r="Z36" s="10">
         <v>412</v>
       </c>
       <c r="AC36" s="5">
@@ -4431,50 +4431,50 @@
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="K37" s="13">
+      <c r="K37" s="10">
         <v>6</v>
       </c>
-      <c r="L37" s="13">
+      <c r="L37" s="10">
         <v>37</v>
       </c>
-      <c r="M37" s="13">
+      <c r="M37" s="10">
         <v>74.674000000000007</v>
       </c>
-      <c r="N37" s="13">
+      <c r="N37" s="10">
         <v>15</v>
       </c>
-      <c r="O37" s="13">
+      <c r="O37" s="10">
         <v>365</v>
       </c>
-      <c r="P37" s="13">
-        <v>10</v>
-      </c>
-      <c r="Q37" s="13">
+      <c r="P37" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q37" s="10">
         <v>389</v>
       </c>
       <c r="S37" s="5">
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="T37" s="13">
-        <v>5</v>
-      </c>
-      <c r="U37" s="13">
+      <c r="T37" s="10">
+        <v>5</v>
+      </c>
+      <c r="U37" s="10">
         <v>18</v>
       </c>
-      <c r="V37" s="13">
+      <c r="V37" s="10">
         <v>37.503999999999998</v>
       </c>
-      <c r="W37" s="13">
+      <c r="W37" s="10">
         <v>20</v>
       </c>
-      <c r="X37" s="13">
+      <c r="X37" s="10">
         <v>488</v>
       </c>
-      <c r="Y37" s="13">
-        <v>16</v>
-      </c>
-      <c r="Z37" s="13">
+      <c r="Y37" s="10">
+        <v>16</v>
+      </c>
+      <c r="Z37" s="10">
         <v>504</v>
       </c>
       <c r="AC37" s="5">
@@ -4533,50 +4533,50 @@
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="K38" s="13">
-        <v>5</v>
-      </c>
-      <c r="L38" s="13">
+      <c r="K38" s="10">
+        <v>5</v>
+      </c>
+      <c r="L38" s="10">
         <v>34</v>
       </c>
-      <c r="M38" s="13">
+      <c r="M38" s="10">
         <v>79.61</v>
       </c>
-      <c r="N38" s="13">
+      <c r="N38" s="10">
         <v>20</v>
       </c>
-      <c r="O38" s="13">
+      <c r="O38" s="10">
         <v>413</v>
       </c>
-      <c r="P38" s="13">
-        <v>16</v>
-      </c>
-      <c r="Q38" s="13">
+      <c r="P38" s="10">
+        <v>16</v>
+      </c>
+      <c r="Q38" s="10">
         <v>430</v>
       </c>
       <c r="S38" s="5">
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
-      <c r="T38" s="13">
+      <c r="T38" s="10">
         <v>4</v>
       </c>
-      <c r="U38" s="13">
+      <c r="U38" s="10">
         <v>12</v>
       </c>
-      <c r="V38" s="13">
+      <c r="V38" s="10">
         <v>25.276</v>
       </c>
-      <c r="W38" s="13">
+      <c r="W38" s="10">
         <v>13</v>
       </c>
-      <c r="X38" s="13">
+      <c r="X38" s="10">
         <v>301</v>
       </c>
-      <c r="Y38" s="13">
-        <v>10</v>
-      </c>
-      <c r="Z38" s="13">
+      <c r="Y38" s="10">
+        <v>10</v>
+      </c>
+      <c r="Z38" s="10">
         <v>313</v>
       </c>
       <c r="AC38" s="5">
@@ -4635,50 +4635,50 @@
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="K39" s="13">
+      <c r="K39" s="10">
         <v>1</v>
       </c>
-      <c r="L39" s="13">
+      <c r="L39" s="10">
         <v>39</v>
       </c>
-      <c r="M39" s="13">
+      <c r="M39" s="10">
         <v>82.998999999999995</v>
       </c>
-      <c r="N39" s="13">
+      <c r="N39" s="10">
         <v>27</v>
       </c>
-      <c r="O39" s="13">
+      <c r="O39" s="10">
         <v>505</v>
       </c>
-      <c r="P39" s="13">
+      <c r="P39" s="10">
         <v>27</v>
       </c>
-      <c r="Q39" s="13">
+      <c r="Q39" s="10">
         <v>505</v>
       </c>
       <c r="S39" s="5">
         <f t="shared" si="2"/>
         <v>37</v>
       </c>
-      <c r="T39" s="13">
+      <c r="T39" s="10">
         <v>9</v>
       </c>
-      <c r="U39" s="13">
+      <c r="U39" s="10">
         <v>26</v>
       </c>
-      <c r="V39" s="13">
+      <c r="V39" s="10">
         <v>57.658999999999999</v>
       </c>
-      <c r="W39" s="13">
+      <c r="W39" s="10">
         <v>18</v>
       </c>
-      <c r="X39" s="13">
+      <c r="X39" s="10">
         <v>372</v>
       </c>
-      <c r="Y39" s="13">
-        <v>10</v>
-      </c>
-      <c r="Z39" s="13">
+      <c r="Y39" s="10">
+        <v>10</v>
+      </c>
+      <c r="Z39" s="10">
         <v>410</v>
       </c>
       <c r="AC39" s="5">
@@ -4737,50 +4737,50 @@
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="K40" s="13">
-        <v>10</v>
-      </c>
-      <c r="L40" s="13">
+      <c r="K40" s="10">
+        <v>10</v>
+      </c>
+      <c r="L40" s="10">
         <v>15</v>
       </c>
-      <c r="M40" s="13">
+      <c r="M40" s="10">
         <v>30.199000000000002</v>
       </c>
-      <c r="N40" s="13">
+      <c r="N40" s="10">
         <v>19</v>
       </c>
-      <c r="O40" s="13">
+      <c r="O40" s="10">
         <v>377</v>
       </c>
-      <c r="P40" s="13">
-        <v>10</v>
-      </c>
-      <c r="Q40" s="13">
+      <c r="P40" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q40" s="10">
         <v>420</v>
       </c>
       <c r="S40" s="5">
         <f t="shared" si="2"/>
         <v>38</v>
       </c>
-      <c r="T40" s="13">
+      <c r="T40" s="10">
         <v>7</v>
       </c>
-      <c r="U40" s="13">
+      <c r="U40" s="10">
         <v>15</v>
       </c>
-      <c r="V40" s="13">
+      <c r="V40" s="10">
         <v>31.870999999999999</v>
       </c>
-      <c r="W40" s="13">
+      <c r="W40" s="10">
         <v>22</v>
       </c>
-      <c r="X40" s="13">
+      <c r="X40" s="10">
         <v>419</v>
       </c>
-      <c r="Y40" s="13">
-        <v>16</v>
-      </c>
-      <c r="Z40" s="13">
+      <c r="Y40" s="10">
+        <v>16</v>
+      </c>
+      <c r="Z40" s="10">
         <v>435</v>
       </c>
       <c r="AC40" s="5">
@@ -4839,50 +4839,50 @@
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="K41" s="13">
+      <c r="K41" s="10">
         <v>6</v>
       </c>
-      <c r="L41" s="13">
+      <c r="L41" s="10">
         <v>17</v>
       </c>
-      <c r="M41" s="13">
+      <c r="M41" s="10">
         <v>36.25</v>
       </c>
-      <c r="N41" s="13">
+      <c r="N41" s="10">
         <v>21</v>
       </c>
-      <c r="O41" s="13">
+      <c r="O41" s="10">
         <v>390</v>
       </c>
-      <c r="P41" s="13">
-        <v>16</v>
-      </c>
-      <c r="Q41" s="13">
+      <c r="P41" s="10">
+        <v>16</v>
+      </c>
+      <c r="Q41" s="10">
         <v>405</v>
       </c>
       <c r="S41" s="5">
         <f t="shared" si="2"/>
         <v>39</v>
       </c>
-      <c r="T41" s="13">
-        <v>5</v>
-      </c>
-      <c r="U41" s="13">
+      <c r="T41" s="10">
+        <v>5</v>
+      </c>
+      <c r="U41" s="10">
         <v>15</v>
       </c>
-      <c r="V41" s="13">
+      <c r="V41" s="10">
         <v>31.643000000000001</v>
       </c>
-      <c r="W41" s="13">
+      <c r="W41" s="10">
         <v>20</v>
       </c>
-      <c r="X41" s="13">
+      <c r="X41" s="10">
         <v>496</v>
       </c>
-      <c r="Y41" s="13">
-        <v>16</v>
-      </c>
-      <c r="Z41" s="13">
+      <c r="Y41" s="10">
+        <v>16</v>
+      </c>
+      <c r="Z41" s="10">
         <v>515</v>
       </c>
       <c r="AC41" s="5">
@@ -4941,50 +4941,50 @@
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="K42" s="13">
+      <c r="K42" s="10">
         <v>6</v>
       </c>
-      <c r="L42" s="13">
+      <c r="L42" s="10">
         <v>19</v>
       </c>
-      <c r="M42" s="13">
+      <c r="M42" s="10">
         <v>36.383000000000003</v>
       </c>
-      <c r="N42" s="13">
+      <c r="N42" s="10">
         <v>15</v>
       </c>
-      <c r="O42" s="13">
+      <c r="O42" s="10">
         <v>338</v>
       </c>
-      <c r="P42" s="13">
-        <v>10</v>
-      </c>
-      <c r="Q42" s="13">
+      <c r="P42" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q42" s="10">
         <v>362</v>
       </c>
       <c r="S42" s="5">
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="T42" s="13">
-        <v>10</v>
-      </c>
-      <c r="U42" s="13">
-        <v>16</v>
-      </c>
-      <c r="V42" s="13">
+      <c r="T42" s="10">
+        <v>10</v>
+      </c>
+      <c r="U42" s="10">
+        <v>16</v>
+      </c>
+      <c r="V42" s="10">
         <v>34.343000000000004</v>
       </c>
-      <c r="W42" s="13">
+      <c r="W42" s="10">
         <v>19</v>
       </c>
-      <c r="X42" s="13">
+      <c r="X42" s="10">
         <v>355</v>
       </c>
-      <c r="Y42" s="13">
-        <v>10</v>
-      </c>
-      <c r="Z42" s="13">
+      <c r="Y42" s="10">
+        <v>10</v>
+      </c>
+      <c r="Z42" s="10">
         <v>396</v>
       </c>
       <c r="AC42" s="5">
@@ -5043,50 +5043,50 @@
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="K43" s="13">
-        <v>5</v>
-      </c>
-      <c r="L43" s="13">
+      <c r="K43" s="10">
+        <v>5</v>
+      </c>
+      <c r="L43" s="10">
         <v>18</v>
       </c>
-      <c r="M43" s="13">
+      <c r="M43" s="10">
         <v>33.677</v>
       </c>
-      <c r="N43" s="13">
+      <c r="N43" s="10">
         <v>20</v>
       </c>
-      <c r="O43" s="13">
+      <c r="O43" s="10">
         <v>426</v>
       </c>
-      <c r="P43" s="13">
-        <v>16</v>
-      </c>
-      <c r="Q43" s="13">
+      <c r="P43" s="10">
+        <v>16</v>
+      </c>
+      <c r="Q43" s="10">
         <v>440</v>
       </c>
       <c r="S43" s="5">
         <f t="shared" si="2"/>
         <v>41</v>
       </c>
-      <c r="T43" s="13">
-        <v>5</v>
-      </c>
-      <c r="U43" s="13">
+      <c r="T43" s="10">
+        <v>5</v>
+      </c>
+      <c r="U43" s="10">
         <v>23</v>
       </c>
-      <c r="V43" s="13">
+      <c r="V43" s="10">
         <v>49.308999999999997</v>
       </c>
-      <c r="W43" s="13">
+      <c r="W43" s="10">
         <v>14</v>
       </c>
-      <c r="X43" s="13">
+      <c r="X43" s="10">
         <v>341</v>
       </c>
-      <c r="Y43" s="13">
-        <v>10</v>
-      </c>
-      <c r="Z43" s="13">
+      <c r="Y43" s="10">
+        <v>10</v>
+      </c>
+      <c r="Z43" s="10">
         <v>367</v>
       </c>
       <c r="AC43" s="5">
@@ -5145,50 +5145,50 @@
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="K44" s="13">
-        <v>5</v>
-      </c>
-      <c r="L44" s="13">
+      <c r="K44" s="10">
+        <v>5</v>
+      </c>
+      <c r="L44" s="10">
         <v>19</v>
       </c>
-      <c r="M44" s="13">
+      <c r="M44" s="10">
         <v>36.359000000000002</v>
       </c>
-      <c r="N44" s="13">
+      <c r="N44" s="10">
         <v>20</v>
       </c>
-      <c r="O44" s="13">
+      <c r="O44" s="10">
         <v>466</v>
       </c>
-      <c r="P44" s="13">
-        <v>16</v>
-      </c>
-      <c r="Q44" s="13">
+      <c r="P44" s="10">
+        <v>16</v>
+      </c>
+      <c r="Q44" s="10">
         <v>482</v>
       </c>
       <c r="S44" s="5">
         <f t="shared" si="2"/>
         <v>42</v>
       </c>
-      <c r="T44" s="13">
+      <c r="T44" s="10">
         <v>8</v>
       </c>
-      <c r="U44" s="13">
+      <c r="U44" s="10">
         <v>28</v>
       </c>
-      <c r="V44" s="13">
+      <c r="V44" s="10">
         <v>60.606999999999999</v>
       </c>
-      <c r="W44" s="13">
+      <c r="W44" s="10">
         <v>17</v>
       </c>
-      <c r="X44" s="13">
+      <c r="X44" s="10">
         <v>359</v>
       </c>
-      <c r="Y44" s="13">
-        <v>10</v>
-      </c>
-      <c r="Z44" s="13">
+      <c r="Y44" s="10">
+        <v>10</v>
+      </c>
+      <c r="Z44" s="10">
         <v>391</v>
       </c>
       <c r="AC44" s="5">
@@ -5247,50 +5247,50 @@
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="K45" s="13">
-        <v>5</v>
-      </c>
-      <c r="L45" s="13">
+      <c r="K45" s="10">
+        <v>5</v>
+      </c>
+      <c r="L45" s="10">
         <v>25</v>
       </c>
-      <c r="M45" s="13">
+      <c r="M45" s="10">
         <v>46.456000000000003</v>
       </c>
-      <c r="N45" s="13">
+      <c r="N45" s="10">
         <v>14</v>
       </c>
-      <c r="O45" s="13">
+      <c r="O45" s="10">
         <v>314</v>
       </c>
-      <c r="P45" s="13">
-        <v>10</v>
-      </c>
-      <c r="Q45" s="13">
+      <c r="P45" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q45" s="10">
         <v>335</v>
       </c>
       <c r="S45" s="5">
         <f t="shared" si="2"/>
         <v>43</v>
       </c>
-      <c r="T45" s="13">
+      <c r="T45" s="10">
         <v>8</v>
       </c>
-      <c r="U45" s="13">
+      <c r="U45" s="10">
         <v>29</v>
       </c>
-      <c r="V45" s="13">
+      <c r="V45" s="10">
         <v>63.491999999999997</v>
       </c>
-      <c r="W45" s="13">
+      <c r="W45" s="10">
         <v>17</v>
       </c>
-      <c r="X45" s="13">
+      <c r="X45" s="10">
         <v>355</v>
       </c>
-      <c r="Y45" s="13">
-        <v>10</v>
-      </c>
-      <c r="Z45" s="13">
+      <c r="Y45" s="10">
+        <v>10</v>
+      </c>
+      <c r="Z45" s="10">
         <v>388</v>
       </c>
       <c r="AC45" s="5">
@@ -5349,50 +5349,50 @@
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="K46" s="13">
+      <c r="K46" s="10">
         <v>4</v>
       </c>
-      <c r="L46" s="13">
+      <c r="L46" s="10">
         <v>11</v>
       </c>
-      <c r="M46" s="13">
+      <c r="M46" s="10">
         <v>21.59</v>
       </c>
-      <c r="N46" s="13">
+      <c r="N46" s="10">
         <v>19</v>
       </c>
-      <c r="O46" s="13">
+      <c r="O46" s="10">
         <v>440</v>
       </c>
-      <c r="P46" s="13">
-        <v>16</v>
-      </c>
-      <c r="Q46" s="13">
+      <c r="P46" s="10">
+        <v>16</v>
+      </c>
+      <c r="Q46" s="10">
         <v>452</v>
       </c>
       <c r="S46" s="5">
         <f t="shared" si="2"/>
         <v>44</v>
       </c>
-      <c r="T46" s="13">
+      <c r="T46" s="10">
         <v>1</v>
       </c>
-      <c r="U46" s="13">
+      <c r="U46" s="10">
         <v>43</v>
       </c>
-      <c r="V46" s="13">
+      <c r="V46" s="10">
         <v>93.12</v>
       </c>
-      <c r="W46" s="13">
+      <c r="W46" s="10">
         <v>27</v>
       </c>
-      <c r="X46" s="13">
+      <c r="X46" s="10">
         <v>521</v>
       </c>
-      <c r="Y46" s="13">
+      <c r="Y46" s="10">
         <v>27</v>
       </c>
-      <c r="Z46" s="13">
+      <c r="Z46" s="10">
         <v>521</v>
       </c>
       <c r="AC46" s="5">
@@ -5451,50 +5451,50 @@
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="K47" s="13">
+      <c r="K47" s="10">
         <v>8</v>
       </c>
-      <c r="L47" s="13">
+      <c r="L47" s="10">
         <v>28</v>
       </c>
-      <c r="M47" s="13">
+      <c r="M47" s="10">
         <v>58.045999999999999</v>
       </c>
-      <c r="N47" s="13">
+      <c r="N47" s="10">
         <v>17</v>
       </c>
-      <c r="O47" s="13">
+      <c r="O47" s="10">
         <v>373</v>
       </c>
-      <c r="P47" s="13">
-        <v>10</v>
-      </c>
-      <c r="Q47" s="13">
+      <c r="P47" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q47" s="10">
         <v>403</v>
       </c>
       <c r="S47" s="5">
         <f t="shared" si="2"/>
         <v>45</v>
       </c>
-      <c r="T47" s="13">
-        <v>5</v>
-      </c>
-      <c r="U47" s="13">
+      <c r="T47" s="10">
+        <v>5</v>
+      </c>
+      <c r="U47" s="10">
         <v>21</v>
       </c>
-      <c r="V47" s="13">
+      <c r="V47" s="10">
         <v>43.095999999999997</v>
       </c>
-      <c r="W47" s="13">
+      <c r="W47" s="10">
         <v>20</v>
       </c>
-      <c r="X47" s="13">
+      <c r="X47" s="10">
         <v>427</v>
       </c>
-      <c r="Y47" s="13">
-        <v>16</v>
-      </c>
-      <c r="Z47" s="13">
+      <c r="Y47" s="10">
+        <v>16</v>
+      </c>
+      <c r="Z47" s="10">
         <v>440</v>
       </c>
       <c r="AC47" s="5">
@@ -5553,50 +5553,50 @@
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="K48" s="13">
+      <c r="K48" s="10">
         <v>4</v>
       </c>
-      <c r="L48" s="13">
+      <c r="L48" s="10">
         <v>15</v>
       </c>
-      <c r="M48" s="13">
+      <c r="M48" s="10">
         <v>28.026</v>
       </c>
-      <c r="N48" s="13">
+      <c r="N48" s="10">
         <v>13</v>
       </c>
-      <c r="O48" s="13">
+      <c r="O48" s="10">
         <v>303</v>
       </c>
-      <c r="P48" s="13">
-        <v>10</v>
-      </c>
-      <c r="Q48" s="13">
+      <c r="P48" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q48" s="10">
         <v>317</v>
       </c>
       <c r="S48" s="5">
         <f t="shared" si="2"/>
         <v>46</v>
       </c>
-      <c r="T48" s="13">
+      <c r="T48" s="10">
         <v>7</v>
       </c>
-      <c r="U48" s="13">
+      <c r="U48" s="10">
         <v>24</v>
       </c>
-      <c r="V48" s="13">
+      <c r="V48" s="10">
         <v>52.671999999999997</v>
       </c>
-      <c r="W48" s="13">
-        <v>16</v>
-      </c>
-      <c r="X48" s="13">
+      <c r="W48" s="10">
+        <v>16</v>
+      </c>
+      <c r="X48" s="10">
         <v>380</v>
       </c>
-      <c r="Y48" s="13">
-        <v>10</v>
-      </c>
-      <c r="Z48" s="13">
+      <c r="Y48" s="10">
+        <v>10</v>
+      </c>
+      <c r="Z48" s="10">
         <v>414</v>
       </c>
       <c r="AC48" s="5">
@@ -5655,50 +5655,50 @@
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="K49" s="13">
+      <c r="K49" s="10">
         <v>4</v>
       </c>
-      <c r="L49" s="13">
+      <c r="L49" s="10">
         <v>32</v>
       </c>
-      <c r="M49" s="13">
+      <c r="M49" s="10">
         <v>64.984999999999999</v>
       </c>
-      <c r="N49" s="13">
+      <c r="N49" s="10">
         <v>19</v>
       </c>
-      <c r="O49" s="13">
+      <c r="O49" s="10">
         <v>429</v>
       </c>
-      <c r="P49" s="13">
-        <v>16</v>
-      </c>
-      <c r="Q49" s="13">
+      <c r="P49" s="10">
+        <v>16</v>
+      </c>
+      <c r="Q49" s="10">
         <v>441</v>
       </c>
       <c r="S49" s="5">
         <f t="shared" si="2"/>
         <v>47</v>
       </c>
-      <c r="T49" s="13">
+      <c r="T49" s="10">
         <v>8</v>
       </c>
-      <c r="U49" s="13">
+      <c r="U49" s="10">
         <v>30</v>
       </c>
-      <c r="V49" s="13">
+      <c r="V49" s="10">
         <v>61.5</v>
       </c>
-      <c r="W49" s="13">
+      <c r="W49" s="10">
         <v>17</v>
       </c>
-      <c r="X49" s="13">
+      <c r="X49" s="10">
         <v>433</v>
       </c>
-      <c r="Y49" s="13">
-        <v>10</v>
-      </c>
-      <c r="Z49" s="13">
+      <c r="Y49" s="10">
+        <v>10</v>
+      </c>
+      <c r="Z49" s="10">
         <v>469</v>
       </c>
       <c r="AC49" s="5">
@@ -5757,50 +5757,50 @@
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="K50" s="13">
+      <c r="K50" s="10">
         <v>7</v>
       </c>
-      <c r="L50" s="13">
+      <c r="L50" s="10">
         <v>14</v>
       </c>
-      <c r="M50" s="13">
+      <c r="M50" s="10">
         <v>28.998000000000001</v>
       </c>
-      <c r="N50" s="13">
-        <v>16</v>
-      </c>
-      <c r="O50" s="13">
+      <c r="N50" s="10">
+        <v>16</v>
+      </c>
+      <c r="O50" s="10">
         <v>371</v>
       </c>
-      <c r="P50" s="13">
-        <v>10</v>
-      </c>
-      <c r="Q50" s="13">
+      <c r="P50" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q50" s="10">
         <v>397</v>
       </c>
       <c r="S50" s="5">
         <f t="shared" si="2"/>
         <v>48</v>
       </c>
-      <c r="T50" s="13">
-        <v>5</v>
-      </c>
-      <c r="U50" s="13">
+      <c r="T50" s="10">
+        <v>5</v>
+      </c>
+      <c r="U50" s="10">
         <v>19</v>
       </c>
-      <c r="V50" s="13">
+      <c r="V50" s="10">
         <v>38.972000000000001</v>
       </c>
-      <c r="W50" s="13">
+      <c r="W50" s="10">
         <v>20</v>
       </c>
-      <c r="X50" s="13">
+      <c r="X50" s="10">
         <v>473</v>
       </c>
-      <c r="Y50" s="13">
-        <v>16</v>
-      </c>
-      <c r="Z50" s="13">
+      <c r="Y50" s="10">
+        <v>16</v>
+      </c>
+      <c r="Z50" s="10">
         <v>490</v>
       </c>
       <c r="AC50" s="5">
@@ -5859,50 +5859,50 @@
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="K51" s="13">
+      <c r="K51" s="10">
         <v>3</v>
       </c>
-      <c r="L51" s="13">
+      <c r="L51" s="10">
         <v>12</v>
       </c>
-      <c r="M51" s="13">
+      <c r="M51" s="10">
         <v>26.983000000000001</v>
       </c>
-      <c r="N51" s="13">
+      <c r="N51" s="10">
         <v>12</v>
       </c>
-      <c r="O51" s="13">
+      <c r="O51" s="10">
         <v>303</v>
       </c>
-      <c r="P51" s="13">
-        <v>10</v>
-      </c>
-      <c r="Q51" s="13">
+      <c r="P51" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q51" s="10">
         <v>312</v>
       </c>
       <c r="S51" s="5">
         <f t="shared" si="2"/>
         <v>49</v>
       </c>
-      <c r="T51" s="13">
+      <c r="T51" s="10">
         <v>8</v>
       </c>
-      <c r="U51" s="13">
+      <c r="U51" s="10">
         <v>27</v>
       </c>
-      <c r="V51" s="13">
+      <c r="V51" s="10">
         <v>59.097000000000001</v>
       </c>
-      <c r="W51" s="13">
+      <c r="W51" s="10">
         <v>17</v>
       </c>
-      <c r="X51" s="13">
+      <c r="X51" s="10">
         <v>350</v>
       </c>
-      <c r="Y51" s="13">
-        <v>10</v>
-      </c>
-      <c r="Z51" s="13">
+      <c r="Y51" s="10">
+        <v>10</v>
+      </c>
+      <c r="Z51" s="10">
         <v>382</v>
       </c>
       <c r="AC51" s="5">
@@ -5961,50 +5961,50 @@
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="K52" s="13">
+      <c r="K52" s="10">
         <v>6</v>
       </c>
-      <c r="L52" s="13">
+      <c r="L52" s="10">
         <v>22</v>
       </c>
-      <c r="M52" s="13">
+      <c r="M52" s="10">
         <v>43.808999999999997</v>
       </c>
-      <c r="N52" s="13">
+      <c r="N52" s="10">
         <v>15</v>
       </c>
-      <c r="O52" s="13">
+      <c r="O52" s="10">
         <v>335</v>
       </c>
-      <c r="P52" s="13">
-        <v>10</v>
-      </c>
-      <c r="Q52" s="13">
+      <c r="P52" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q52" s="10">
         <v>366</v>
       </c>
       <c r="S52" s="5">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="T52" s="13">
+      <c r="T52" s="10">
         <v>4</v>
       </c>
-      <c r="U52" s="13">
+      <c r="U52" s="10">
         <v>14</v>
       </c>
-      <c r="V52" s="13">
+      <c r="V52" s="10">
         <v>30.417999999999999</v>
       </c>
-      <c r="W52" s="13">
+      <c r="W52" s="10">
         <v>19</v>
       </c>
-      <c r="X52" s="13">
+      <c r="X52" s="10">
         <v>432</v>
       </c>
-      <c r="Y52" s="13">
-        <v>16</v>
-      </c>
-      <c r="Z52" s="13">
+      <c r="Y52" s="10">
+        <v>16</v>
+      </c>
+      <c r="Z52" s="10">
         <v>442</v>
       </c>
       <c r="AC52" s="5">
@@ -6063,50 +6063,50 @@
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
-      <c r="K53" s="13">
+      <c r="K53" s="10">
         <v>9</v>
       </c>
-      <c r="L53" s="13">
+      <c r="L53" s="10">
         <v>21</v>
       </c>
-      <c r="M53" s="13">
+      <c r="M53" s="10">
         <v>41.411999999999999</v>
       </c>
-      <c r="N53" s="13">
+      <c r="N53" s="10">
         <v>18</v>
       </c>
-      <c r="O53" s="13">
+      <c r="O53" s="10">
         <v>352</v>
       </c>
-      <c r="P53" s="13">
-        <v>10</v>
-      </c>
-      <c r="Q53" s="13">
+      <c r="P53" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q53" s="10">
         <v>388</v>
       </c>
       <c r="S53" s="5">
         <f t="shared" si="2"/>
         <v>51</v>
       </c>
-      <c r="T53" s="13">
+      <c r="T53" s="10">
         <v>8</v>
       </c>
-      <c r="U53" s="13">
+      <c r="U53" s="10">
         <v>13</v>
       </c>
-      <c r="V53" s="13">
+      <c r="V53" s="10">
         <v>27.302</v>
       </c>
-      <c r="W53" s="13">
+      <c r="W53" s="10">
         <v>17</v>
       </c>
-      <c r="X53" s="13">
+      <c r="X53" s="10">
         <v>384</v>
       </c>
-      <c r="Y53" s="13">
-        <v>10</v>
-      </c>
-      <c r="Z53" s="13">
+      <c r="Y53" s="10">
+        <v>10</v>
+      </c>
+      <c r="Z53" s="10">
         <v>418</v>
       </c>
       <c r="AC53" s="5">
@@ -6165,50 +6165,50 @@
         <f t="shared" si="1"/>
         <v>52</v>
       </c>
-      <c r="K54" s="13">
+      <c r="K54" s="10">
         <v>6</v>
       </c>
-      <c r="L54" s="13">
+      <c r="L54" s="10">
         <v>15</v>
       </c>
-      <c r="M54" s="13">
+      <c r="M54" s="10">
         <v>32.713999999999999</v>
       </c>
-      <c r="N54" s="13">
+      <c r="N54" s="10">
         <v>21</v>
       </c>
-      <c r="O54" s="13">
+      <c r="O54" s="10">
         <v>436</v>
       </c>
-      <c r="P54" s="13">
-        <v>16</v>
-      </c>
-      <c r="Q54" s="13">
+      <c r="P54" s="10">
+        <v>16</v>
+      </c>
+      <c r="Q54" s="10">
         <v>449</v>
       </c>
       <c r="S54" s="5">
         <f t="shared" si="2"/>
         <v>52</v>
       </c>
-      <c r="T54" s="13">
-        <v>5</v>
-      </c>
-      <c r="U54" s="13">
+      <c r="T54" s="10">
+        <v>5</v>
+      </c>
+      <c r="U54" s="10">
         <v>14</v>
       </c>
-      <c r="V54" s="13">
+      <c r="V54" s="10">
         <v>29.082000000000001</v>
       </c>
-      <c r="W54" s="13">
+      <c r="W54" s="10">
         <v>20</v>
       </c>
-      <c r="X54" s="13">
+      <c r="X54" s="10">
         <v>411</v>
       </c>
-      <c r="Y54" s="13">
-        <v>16</v>
-      </c>
-      <c r="Z54" s="13">
+      <c r="Y54" s="10">
+        <v>16</v>
+      </c>
+      <c r="Z54" s="10">
         <v>425</v>
       </c>
       <c r="AC54" s="5">
@@ -6267,50 +6267,50 @@
         <f t="shared" si="1"/>
         <v>53</v>
       </c>
-      <c r="K55" s="13">
-        <v>10</v>
-      </c>
-      <c r="L55" s="13">
-        <v>16</v>
-      </c>
-      <c r="M55" s="13">
+      <c r="K55" s="10">
+        <v>10</v>
+      </c>
+      <c r="L55" s="10">
+        <v>16</v>
+      </c>
+      <c r="M55" s="10">
         <v>34.067</v>
       </c>
-      <c r="N55" s="13">
+      <c r="N55" s="10">
         <v>19</v>
       </c>
-      <c r="O55" s="13">
+      <c r="O55" s="10">
         <v>397</v>
       </c>
-      <c r="P55" s="13">
-        <v>10</v>
-      </c>
-      <c r="Q55" s="13">
+      <c r="P55" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q55" s="10">
         <v>441</v>
       </c>
       <c r="S55" s="5">
         <f t="shared" si="2"/>
         <v>53</v>
       </c>
-      <c r="T55" s="13">
+      <c r="T55" s="10">
         <v>8</v>
       </c>
-      <c r="U55" s="13">
+      <c r="U55" s="10">
         <v>15</v>
       </c>
-      <c r="V55" s="13">
+      <c r="V55" s="10">
         <v>31.355</v>
       </c>
-      <c r="W55" s="13">
+      <c r="W55" s="10">
         <v>17</v>
       </c>
-      <c r="X55" s="13">
+      <c r="X55" s="10">
         <v>369</v>
       </c>
-      <c r="Y55" s="13">
-        <v>10</v>
-      </c>
-      <c r="Z55" s="13">
+      <c r="Y55" s="10">
+        <v>10</v>
+      </c>
+      <c r="Z55" s="10">
         <v>399</v>
       </c>
       <c r="AC55" s="5">
@@ -6369,50 +6369,50 @@
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
-      <c r="K56" s="13">
+      <c r="K56" s="10">
         <v>8</v>
       </c>
-      <c r="L56" s="13">
+      <c r="L56" s="10">
         <v>13</v>
       </c>
-      <c r="M56" s="13">
+      <c r="M56" s="10">
         <v>27.431999999999999</v>
       </c>
-      <c r="N56" s="13">
+      <c r="N56" s="10">
         <v>17</v>
       </c>
-      <c r="O56" s="13">
+      <c r="O56" s="10">
         <v>336</v>
       </c>
-      <c r="P56" s="13">
-        <v>10</v>
-      </c>
-      <c r="Q56" s="13">
+      <c r="P56" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q56" s="10">
         <v>368</v>
       </c>
       <c r="S56" s="5">
         <f t="shared" si="2"/>
         <v>54</v>
       </c>
-      <c r="T56" s="13">
+      <c r="T56" s="10">
         <v>6</v>
       </c>
-      <c r="U56" s="13">
+      <c r="U56" s="10">
         <v>46</v>
       </c>
-      <c r="V56" s="13">
+      <c r="V56" s="10">
         <v>98.581999999999994</v>
       </c>
-      <c r="W56" s="13">
+      <c r="W56" s="10">
         <v>21</v>
       </c>
-      <c r="X56" s="13">
+      <c r="X56" s="10">
         <v>435</v>
       </c>
-      <c r="Y56" s="13">
-        <v>16</v>
-      </c>
-      <c r="Z56" s="13">
+      <c r="Y56" s="10">
+        <v>16</v>
+      </c>
+      <c r="Z56" s="10">
         <v>459</v>
       </c>
       <c r="AC56" s="5">
@@ -6471,50 +6471,50 @@
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
-      <c r="K57" s="13">
+      <c r="K57" s="10">
         <v>1</v>
       </c>
-      <c r="L57" s="13">
+      <c r="L57" s="10">
         <v>12</v>
       </c>
-      <c r="M57" s="13">
+      <c r="M57" s="10">
         <v>23.774000000000001</v>
       </c>
-      <c r="N57" s="13">
-        <v>10</v>
-      </c>
-      <c r="O57" s="13">
+      <c r="N57" s="10">
+        <v>10</v>
+      </c>
+      <c r="O57" s="10">
         <v>261</v>
       </c>
-      <c r="P57" s="13">
-        <v>10</v>
-      </c>
-      <c r="Q57" s="13">
+      <c r="P57" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q57" s="10">
         <v>261</v>
       </c>
       <c r="S57" s="5">
         <f t="shared" si="2"/>
         <v>55</v>
       </c>
-      <c r="T57" s="13">
-        <v>5</v>
-      </c>
-      <c r="U57" s="13">
+      <c r="T57" s="10">
+        <v>5</v>
+      </c>
+      <c r="U57" s="10">
         <v>27</v>
       </c>
-      <c r="V57" s="13">
+      <c r="V57" s="10">
         <v>56.658999999999999</v>
       </c>
-      <c r="W57" s="13">
+      <c r="W57" s="10">
         <v>20</v>
       </c>
-      <c r="X57" s="13">
+      <c r="X57" s="10">
         <v>411</v>
       </c>
-      <c r="Y57" s="13">
-        <v>16</v>
-      </c>
-      <c r="Z57" s="13">
+      <c r="Y57" s="10">
+        <v>16</v>
+      </c>
+      <c r="Z57" s="10">
         <v>424</v>
       </c>
       <c r="AC57" s="5">
@@ -6573,50 +6573,50 @@
         <f t="shared" si="1"/>
         <v>56</v>
       </c>
-      <c r="K58" s="13">
+      <c r="K58" s="10">
         <v>6</v>
       </c>
-      <c r="L58" s="13">
+      <c r="L58" s="10">
         <v>17</v>
       </c>
-      <c r="M58" s="13">
+      <c r="M58" s="10">
         <v>34.411999999999999</v>
       </c>
-      <c r="N58" s="13">
+      <c r="N58" s="10">
         <v>15</v>
       </c>
-      <c r="O58" s="13">
+      <c r="O58" s="10">
         <v>333</v>
       </c>
-      <c r="P58" s="13">
-        <v>10</v>
-      </c>
-      <c r="Q58" s="13">
+      <c r="P58" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q58" s="10">
         <v>361</v>
       </c>
       <c r="S58" s="5">
         <f t="shared" si="2"/>
         <v>56</v>
       </c>
-      <c r="T58" s="13">
+      <c r="T58" s="10">
         <v>8</v>
       </c>
-      <c r="U58" s="13">
+      <c r="U58" s="10">
         <v>18</v>
       </c>
-      <c r="V58" s="13">
+      <c r="V58" s="10">
         <v>37.186999999999998</v>
       </c>
-      <c r="W58" s="13">
+      <c r="W58" s="10">
         <v>17</v>
       </c>
-      <c r="X58" s="13">
+      <c r="X58" s="10">
         <v>313</v>
       </c>
-      <c r="Y58" s="13">
-        <v>10</v>
-      </c>
-      <c r="Z58" s="13">
+      <c r="Y58" s="10">
+        <v>10</v>
+      </c>
+      <c r="Z58" s="10">
         <v>339</v>
       </c>
       <c r="AC58" s="5">
@@ -6675,50 +6675,50 @@
         <f t="shared" si="1"/>
         <v>57</v>
       </c>
-      <c r="K59" s="13">
+      <c r="K59" s="10">
         <v>4</v>
       </c>
-      <c r="L59" s="13">
+      <c r="L59" s="10">
         <v>11</v>
       </c>
-      <c r="M59" s="13">
+      <c r="M59" s="10">
         <v>23.26</v>
       </c>
-      <c r="N59" s="13">
+      <c r="N59" s="10">
         <v>13</v>
       </c>
-      <c r="O59" s="13">
+      <c r="O59" s="10">
         <v>289</v>
       </c>
-      <c r="P59" s="13">
-        <v>10</v>
-      </c>
-      <c r="Q59" s="13">
+      <c r="P59" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q59" s="10">
         <v>304</v>
       </c>
       <c r="S59" s="5">
         <f t="shared" si="2"/>
         <v>57</v>
       </c>
-      <c r="T59" s="13">
+      <c r="T59" s="10">
         <v>2</v>
       </c>
-      <c r="U59" s="13">
+      <c r="U59" s="10">
         <v>11</v>
       </c>
-      <c r="V59" s="13">
+      <c r="V59" s="10">
         <v>21.303999999999998</v>
       </c>
-      <c r="W59" s="13">
+      <c r="W59" s="10">
         <v>11</v>
       </c>
-      <c r="X59" s="13">
+      <c r="X59" s="10">
         <v>275</v>
       </c>
-      <c r="Y59" s="13">
-        <v>10</v>
-      </c>
-      <c r="Z59" s="13">
+      <c r="Y59" s="10">
+        <v>10</v>
+      </c>
+      <c r="Z59" s="10">
         <v>280</v>
       </c>
       <c r="AC59" s="5">
@@ -6777,50 +6777,50 @@
         <f t="shared" si="1"/>
         <v>58</v>
       </c>
-      <c r="K60" s="13">
+      <c r="K60" s="10">
         <v>7</v>
       </c>
-      <c r="L60" s="13">
+      <c r="L60" s="10">
         <v>27</v>
       </c>
-      <c r="M60" s="13">
+      <c r="M60" s="10">
         <v>54.436999999999998</v>
       </c>
-      <c r="N60" s="13">
-        <v>16</v>
-      </c>
-      <c r="O60" s="13">
+      <c r="N60" s="10">
+        <v>16</v>
+      </c>
+      <c r="O60" s="10">
         <v>399</v>
       </c>
-      <c r="P60" s="13">
-        <v>10</v>
-      </c>
-      <c r="Q60" s="13">
+      <c r="P60" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q60" s="10">
         <v>438</v>
       </c>
       <c r="S60" s="5">
         <f t="shared" si="2"/>
         <v>58</v>
       </c>
-      <c r="T60" s="13">
+      <c r="T60" s="10">
         <v>7</v>
       </c>
-      <c r="U60" s="13">
+      <c r="U60" s="10">
         <v>49</v>
       </c>
-      <c r="V60" s="13">
+      <c r="V60" s="10">
         <v>105.86799999999999</v>
       </c>
-      <c r="W60" s="13">
-        <v>16</v>
-      </c>
-      <c r="X60" s="13">
+      <c r="W60" s="10">
+        <v>16</v>
+      </c>
+      <c r="X60" s="10">
         <v>428</v>
       </c>
-      <c r="Y60" s="13">
-        <v>10</v>
-      </c>
-      <c r="Z60" s="13">
+      <c r="Y60" s="10">
+        <v>10</v>
+      </c>
+      <c r="Z60" s="10">
         <v>463</v>
       </c>
       <c r="AC60" s="5">
@@ -6879,50 +6879,50 @@
         <f t="shared" si="1"/>
         <v>59</v>
       </c>
-      <c r="K61" s="13">
+      <c r="K61" s="10">
         <v>7</v>
       </c>
-      <c r="L61" s="13">
+      <c r="L61" s="10">
         <v>37</v>
       </c>
-      <c r="M61" s="13">
+      <c r="M61" s="10">
         <v>77.960999999999999</v>
       </c>
-      <c r="N61" s="13">
-        <v>16</v>
-      </c>
-      <c r="O61" s="13">
+      <c r="N61" s="10">
+        <v>16</v>
+      </c>
+      <c r="O61" s="10">
         <v>413</v>
       </c>
-      <c r="P61" s="13">
-        <v>10</v>
-      </c>
-      <c r="Q61" s="13">
+      <c r="P61" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q61" s="10">
         <v>447</v>
       </c>
       <c r="S61" s="5">
         <f t="shared" si="2"/>
         <v>59</v>
       </c>
-      <c r="T61" s="13">
-        <v>5</v>
-      </c>
-      <c r="U61" s="13">
+      <c r="T61" s="10">
+        <v>5</v>
+      </c>
+      <c r="U61" s="10">
         <v>25</v>
       </c>
-      <c r="V61" s="13">
+      <c r="V61" s="10">
         <v>53.259</v>
       </c>
-      <c r="W61" s="13">
+      <c r="W61" s="10">
         <v>20</v>
       </c>
-      <c r="X61" s="13">
+      <c r="X61" s="10">
         <v>399</v>
       </c>
-      <c r="Y61" s="13">
-        <v>16</v>
-      </c>
-      <c r="Z61" s="13">
+      <c r="Y61" s="10">
+        <v>16</v>
+      </c>
+      <c r="Z61" s="10">
         <v>409</v>
       </c>
       <c r="AC61" s="5">
@@ -6981,50 +6981,50 @@
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="K62" s="13">
+      <c r="K62" s="10">
         <v>3</v>
       </c>
-      <c r="L62" s="13">
+      <c r="L62" s="10">
         <v>14</v>
       </c>
-      <c r="M62" s="13">
+      <c r="M62" s="10">
         <v>25.471</v>
       </c>
-      <c r="N62" s="13">
+      <c r="N62" s="10">
         <v>12</v>
       </c>
-      <c r="O62" s="13">
+      <c r="O62" s="10">
         <v>268</v>
       </c>
-      <c r="P62" s="13">
-        <v>10</v>
-      </c>
-      <c r="Q62" s="13">
+      <c r="P62" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q62" s="10">
         <v>276</v>
       </c>
       <c r="S62" s="5">
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="T62" s="13">
+      <c r="T62" s="10">
         <v>6</v>
       </c>
-      <c r="U62" s="13">
+      <c r="U62" s="10">
         <v>25</v>
       </c>
-      <c r="V62" s="13">
+      <c r="V62" s="10">
         <v>54.603999999999999</v>
       </c>
-      <c r="W62" s="13">
+      <c r="W62" s="10">
         <v>15</v>
       </c>
-      <c r="X62" s="13">
+      <c r="X62" s="10">
         <v>328</v>
       </c>
-      <c r="Y62" s="13">
-        <v>10</v>
-      </c>
-      <c r="Z62" s="13">
+      <c r="Y62" s="10">
+        <v>10</v>
+      </c>
+      <c r="Z62" s="10">
         <v>356</v>
       </c>
       <c r="AC62" s="5">
@@ -7083,50 +7083,50 @@
         <f t="shared" si="1"/>
         <v>61</v>
       </c>
-      <c r="K63" s="13">
-        <v>5</v>
-      </c>
-      <c r="L63" s="13">
+      <c r="K63" s="10">
+        <v>5</v>
+      </c>
+      <c r="L63" s="10">
         <v>29</v>
       </c>
-      <c r="M63" s="13">
+      <c r="M63" s="10">
         <v>57.793999999999997</v>
       </c>
-      <c r="N63" s="13">
+      <c r="N63" s="10">
         <v>14</v>
       </c>
-      <c r="O63" s="13">
+      <c r="O63" s="10">
         <v>317</v>
       </c>
-      <c r="P63" s="13">
-        <v>10</v>
-      </c>
-      <c r="Q63" s="13">
+      <c r="P63" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q63" s="10">
         <v>338</v>
       </c>
       <c r="S63" s="5">
         <f t="shared" si="2"/>
         <v>61</v>
       </c>
-      <c r="T63" s="13">
+      <c r="T63" s="10">
         <v>6</v>
       </c>
-      <c r="U63" s="13">
+      <c r="U63" s="10">
         <v>20</v>
       </c>
-      <c r="V63" s="13">
+      <c r="V63" s="10">
         <v>42.267000000000003</v>
       </c>
-      <c r="W63" s="13">
+      <c r="W63" s="10">
         <v>15</v>
       </c>
-      <c r="X63" s="13">
+      <c r="X63" s="10">
         <v>368</v>
       </c>
-      <c r="Y63" s="13">
-        <v>10</v>
-      </c>
-      <c r="Z63" s="13">
+      <c r="Y63" s="10">
+        <v>10</v>
+      </c>
+      <c r="Z63" s="10">
         <v>401</v>
       </c>
       <c r="AC63" s="5">
@@ -7185,50 +7185,50 @@
         <f t="shared" si="1"/>
         <v>62</v>
       </c>
-      <c r="K64" s="13">
+      <c r="K64" s="10">
         <v>8</v>
       </c>
-      <c r="L64" s="13">
+      <c r="L64" s="10">
         <v>34</v>
       </c>
-      <c r="M64" s="13">
+      <c r="M64" s="10">
         <v>67.519000000000005</v>
       </c>
-      <c r="N64" s="13">
+      <c r="N64" s="10">
         <v>17</v>
       </c>
-      <c r="O64" s="13">
+      <c r="O64" s="10">
         <v>426</v>
       </c>
-      <c r="P64" s="13">
-        <v>10</v>
-      </c>
-      <c r="Q64" s="13">
+      <c r="P64" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q64" s="10">
         <v>464</v>
       </c>
       <c r="S64" s="5">
         <f t="shared" si="2"/>
         <v>62</v>
       </c>
-      <c r="T64" s="13">
+      <c r="T64" s="10">
         <v>1</v>
       </c>
-      <c r="U64" s="13">
+      <c r="U64" s="10">
         <v>9</v>
       </c>
-      <c r="V64" s="13">
+      <c r="V64" s="10">
         <v>18.457000000000001</v>
       </c>
-      <c r="W64" s="13">
-        <v>10</v>
-      </c>
-      <c r="X64" s="13">
+      <c r="W64" s="10">
+        <v>10</v>
+      </c>
+      <c r="X64" s="10">
         <v>273</v>
       </c>
-      <c r="Y64" s="13">
-        <v>10</v>
-      </c>
-      <c r="Z64" s="13">
+      <c r="Y64" s="10">
+        <v>10</v>
+      </c>
+      <c r="Z64" s="10">
         <v>273</v>
       </c>
       <c r="AC64" s="5">
@@ -7287,50 +7287,50 @@
         <f t="shared" si="1"/>
         <v>63</v>
       </c>
-      <c r="K65" s="13">
+      <c r="K65" s="10">
         <v>7</v>
       </c>
-      <c r="L65" s="13">
+      <c r="L65" s="10">
         <v>18</v>
       </c>
-      <c r="M65" s="13">
+      <c r="M65" s="10">
         <v>34.243000000000002</v>
       </c>
-      <c r="N65" s="13">
-        <v>16</v>
-      </c>
-      <c r="O65" s="13">
+      <c r="N65" s="10">
+        <v>16</v>
+      </c>
+      <c r="O65" s="10">
         <v>314</v>
       </c>
-      <c r="P65" s="13">
-        <v>10</v>
-      </c>
-      <c r="Q65" s="13">
+      <c r="P65" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q65" s="10">
         <v>339</v>
       </c>
       <c r="S65" s="5">
         <f t="shared" si="2"/>
         <v>63</v>
       </c>
-      <c r="T65" s="13">
+      <c r="T65" s="10">
         <v>11</v>
       </c>
-      <c r="U65" s="13">
+      <c r="U65" s="10">
         <v>19</v>
       </c>
-      <c r="V65" s="13">
+      <c r="V65" s="10">
         <v>40.381</v>
       </c>
-      <c r="W65" s="13">
+      <c r="W65" s="10">
         <v>20</v>
       </c>
-      <c r="X65" s="13">
+      <c r="X65" s="10">
         <v>403</v>
       </c>
-      <c r="Y65" s="13">
-        <v>10</v>
-      </c>
-      <c r="Z65" s="13">
+      <c r="Y65" s="10">
+        <v>10</v>
+      </c>
+      <c r="Z65" s="10">
         <v>449</v>
       </c>
       <c r="AC65" s="5">
@@ -7389,50 +7389,50 @@
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
-      <c r="K66" s="13">
-        <v>5</v>
-      </c>
-      <c r="L66" s="13">
+      <c r="K66" s="10">
+        <v>5</v>
+      </c>
+      <c r="L66" s="10">
         <v>27</v>
       </c>
-      <c r="M66" s="13">
+      <c r="M66" s="10">
         <v>50.328000000000003</v>
       </c>
-      <c r="N66" s="13">
+      <c r="N66" s="10">
         <v>20</v>
       </c>
-      <c r="O66" s="13">
+      <c r="O66" s="10">
         <v>380</v>
       </c>
-      <c r="P66" s="13">
-        <v>16</v>
-      </c>
-      <c r="Q66" s="13">
+      <c r="P66" s="10">
+        <v>16</v>
+      </c>
+      <c r="Q66" s="10">
         <v>390</v>
       </c>
       <c r="S66" s="5">
         <f t="shared" si="2"/>
         <v>64</v>
       </c>
-      <c r="T66" s="13">
+      <c r="T66" s="10">
         <v>4</v>
       </c>
-      <c r="U66" s="13">
+      <c r="U66" s="10">
         <v>15</v>
       </c>
-      <c r="V66" s="13">
+      <c r="V66" s="10">
         <v>32.063000000000002</v>
       </c>
-      <c r="W66" s="13">
+      <c r="W66" s="10">
         <v>13</v>
       </c>
-      <c r="X66" s="13">
+      <c r="X66" s="10">
         <v>284</v>
       </c>
-      <c r="Y66" s="13">
-        <v>10</v>
-      </c>
-      <c r="Z66" s="13">
+      <c r="Y66" s="10">
+        <v>10</v>
+      </c>
+      <c r="Z66" s="10">
         <v>298</v>
       </c>
       <c r="AC66" s="5">
@@ -7491,50 +7491,50 @@
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
-      <c r="K67" s="13">
+      <c r="K67" s="10">
         <v>7</v>
       </c>
-      <c r="L67" s="13">
+      <c r="L67" s="10">
         <v>17</v>
       </c>
-      <c r="M67" s="13">
+      <c r="M67" s="10">
         <v>32.209000000000003</v>
       </c>
-      <c r="N67" s="13">
-        <v>16</v>
-      </c>
-      <c r="O67" s="13">
+      <c r="N67" s="10">
+        <v>16</v>
+      </c>
+      <c r="O67" s="10">
         <v>377</v>
       </c>
-      <c r="P67" s="13">
-        <v>10</v>
-      </c>
-      <c r="Q67" s="13">
+      <c r="P67" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q67" s="10">
         <v>410</v>
       </c>
       <c r="S67" s="5">
         <f t="shared" si="2"/>
         <v>65</v>
       </c>
-      <c r="T67" s="13">
-        <v>10</v>
-      </c>
-      <c r="U67" s="13">
+      <c r="T67" s="10">
+        <v>10</v>
+      </c>
+      <c r="U67" s="10">
         <v>15</v>
       </c>
-      <c r="V67" s="13">
+      <c r="V67" s="10">
         <v>32.030999999999999</v>
       </c>
-      <c r="W67" s="13">
+      <c r="W67" s="10">
         <v>19</v>
       </c>
-      <c r="X67" s="13">
+      <c r="X67" s="10">
         <v>379</v>
       </c>
-      <c r="Y67" s="13">
-        <v>10</v>
-      </c>
-      <c r="Z67" s="13">
+      <c r="Y67" s="10">
+        <v>10</v>
+      </c>
+      <c r="Z67" s="10">
         <v>422</v>
       </c>
       <c r="AC67" s="5">
@@ -7593,50 +7593,50 @@
         <f t="shared" si="1"/>
         <v>66</v>
       </c>
-      <c r="K68" s="13">
+      <c r="K68" s="10">
         <v>6</v>
       </c>
-      <c r="L68" s="13">
+      <c r="L68" s="10">
         <v>46</v>
       </c>
-      <c r="M68" s="13">
+      <c r="M68" s="10">
         <v>88.673000000000002</v>
       </c>
-      <c r="N68" s="13">
+      <c r="N68" s="10">
         <v>15</v>
       </c>
-      <c r="O68" s="13">
+      <c r="O68" s="10">
         <v>408</v>
       </c>
-      <c r="P68" s="13">
-        <v>10</v>
-      </c>
-      <c r="Q68" s="13">
+      <c r="P68" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q68" s="10">
         <v>439</v>
       </c>
       <c r="S68" s="5">
         <f t="shared" si="2"/>
         <v>66</v>
       </c>
-      <c r="T68" s="13">
+      <c r="T68" s="10">
         <v>1</v>
       </c>
-      <c r="U68" s="13">
+      <c r="U68" s="10">
         <v>12</v>
       </c>
-      <c r="V68" s="13">
+      <c r="V68" s="10">
         <v>24.719000000000001</v>
       </c>
-      <c r="W68" s="13">
-        <v>10</v>
-      </c>
-      <c r="X68" s="13">
+      <c r="W68" s="10">
+        <v>10</v>
+      </c>
+      <c r="X68" s="10">
         <v>281</v>
       </c>
-      <c r="Y68" s="13">
-        <v>10</v>
-      </c>
-      <c r="Z68" s="13">
+      <c r="Y68" s="10">
+        <v>10</v>
+      </c>
+      <c r="Z68" s="10">
         <v>281</v>
       </c>
       <c r="AC68" s="5">
@@ -7695,50 +7695,50 @@
         <f t="shared" ref="J69:J102" si="5">J68+1</f>
         <v>67</v>
       </c>
-      <c r="K69" s="13">
-        <v>5</v>
-      </c>
-      <c r="L69" s="13">
+      <c r="K69" s="10">
+        <v>5</v>
+      </c>
+      <c r="L69" s="10">
         <v>19</v>
       </c>
-      <c r="M69" s="13">
+      <c r="M69" s="10">
         <v>35.784999999999997</v>
       </c>
-      <c r="N69" s="13">
+      <c r="N69" s="10">
         <v>20</v>
       </c>
-      <c r="O69" s="13">
+      <c r="O69" s="10">
         <v>454</v>
       </c>
-      <c r="P69" s="13">
-        <v>16</v>
-      </c>
-      <c r="Q69" s="13">
+      <c r="P69" s="10">
+        <v>16</v>
+      </c>
+      <c r="Q69" s="10">
         <v>470</v>
       </c>
       <c r="S69" s="5">
         <f t="shared" ref="S69:S102" si="6">S68+1</f>
         <v>67</v>
       </c>
-      <c r="T69" s="13">
+      <c r="T69" s="10">
         <v>7</v>
       </c>
-      <c r="U69" s="13">
+      <c r="U69" s="10">
         <v>19</v>
       </c>
-      <c r="V69" s="13">
+      <c r="V69" s="10">
         <v>40.770000000000003</v>
       </c>
-      <c r="W69" s="13">
-        <v>16</v>
-      </c>
-      <c r="X69" s="13">
+      <c r="W69" s="10">
+        <v>16</v>
+      </c>
+      <c r="X69" s="10">
         <v>334</v>
       </c>
-      <c r="Y69" s="13">
-        <v>10</v>
-      </c>
-      <c r="Z69" s="13">
+      <c r="Y69" s="10">
+        <v>10</v>
+      </c>
+      <c r="Z69" s="10">
         <v>360</v>
       </c>
       <c r="AC69" s="5">
@@ -7797,50 +7797,50 @@
         <f t="shared" si="5"/>
         <v>68</v>
       </c>
-      <c r="K70" s="13">
-        <v>5</v>
-      </c>
-      <c r="L70" s="13">
+      <c r="K70" s="10">
+        <v>5</v>
+      </c>
+      <c r="L70" s="10">
         <v>17</v>
       </c>
-      <c r="M70" s="13">
+      <c r="M70" s="10">
         <v>31.645</v>
       </c>
-      <c r="N70" s="13">
+      <c r="N70" s="10">
         <v>14</v>
       </c>
-      <c r="O70" s="13">
+      <c r="O70" s="10">
         <v>306</v>
       </c>
-      <c r="P70" s="13">
-        <v>10</v>
-      </c>
-      <c r="Q70" s="13">
+      <c r="P70" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q70" s="10">
         <v>329</v>
       </c>
       <c r="S70" s="5">
         <f t="shared" si="6"/>
         <v>68</v>
       </c>
-      <c r="T70" s="13">
+      <c r="T70" s="10">
         <v>6</v>
       </c>
-      <c r="U70" s="13">
+      <c r="U70" s="10">
         <v>17</v>
       </c>
-      <c r="V70" s="13">
+      <c r="V70" s="10">
         <v>36.487000000000002</v>
       </c>
-      <c r="W70" s="13">
+      <c r="W70" s="10">
         <v>15</v>
       </c>
-      <c r="X70" s="13">
+      <c r="X70" s="10">
         <v>334</v>
       </c>
-      <c r="Y70" s="13">
-        <v>10</v>
-      </c>
-      <c r="Z70" s="13">
+      <c r="Y70" s="10">
+        <v>10</v>
+      </c>
+      <c r="Z70" s="10">
         <v>363</v>
       </c>
       <c r="AC70" s="5">
@@ -7899,50 +7899,50 @@
         <f t="shared" si="5"/>
         <v>69</v>
       </c>
-      <c r="K71" s="13">
-        <v>5</v>
-      </c>
-      <c r="L71" s="13">
+      <c r="K71" s="10">
+        <v>5</v>
+      </c>
+      <c r="L71" s="10">
         <v>21</v>
       </c>
-      <c r="M71" s="13">
+      <c r="M71" s="10">
         <v>40.256999999999998</v>
       </c>
-      <c r="N71" s="13">
+      <c r="N71" s="10">
         <v>14</v>
       </c>
-      <c r="O71" s="13">
+      <c r="O71" s="10">
         <v>329</v>
       </c>
-      <c r="P71" s="13">
-        <v>10</v>
-      </c>
-      <c r="Q71" s="13">
+      <c r="P71" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q71" s="10">
         <v>354</v>
       </c>
       <c r="S71" s="5">
         <f t="shared" si="6"/>
         <v>69</v>
       </c>
-      <c r="T71" s="13">
+      <c r="T71" s="10">
         <v>7</v>
       </c>
-      <c r="U71" s="13">
+      <c r="U71" s="10">
         <v>46</v>
       </c>
-      <c r="V71" s="13">
+      <c r="V71" s="10">
         <v>102.086</v>
       </c>
-      <c r="W71" s="13">
-        <v>16</v>
-      </c>
-      <c r="X71" s="13">
+      <c r="W71" s="10">
+        <v>16</v>
+      </c>
+      <c r="X71" s="10">
         <v>440</v>
       </c>
-      <c r="Y71" s="13">
-        <v>10</v>
-      </c>
-      <c r="Z71" s="13">
+      <c r="Y71" s="10">
+        <v>10</v>
+      </c>
+      <c r="Z71" s="10">
         <v>478</v>
       </c>
       <c r="AC71" s="5">
@@ -8001,50 +8001,50 @@
         <f t="shared" si="5"/>
         <v>70</v>
       </c>
-      <c r="K72" s="13">
+      <c r="K72" s="10">
         <v>6</v>
       </c>
-      <c r="L72" s="13">
+      <c r="L72" s="10">
         <v>17</v>
       </c>
-      <c r="M72" s="13">
+      <c r="M72" s="10">
         <v>34.063000000000002</v>
       </c>
-      <c r="N72" s="13">
+      <c r="N72" s="10">
         <v>15</v>
       </c>
-      <c r="O72" s="13">
+      <c r="O72" s="10">
         <v>372</v>
       </c>
-      <c r="P72" s="13">
-        <v>10</v>
-      </c>
-      <c r="Q72" s="13">
+      <c r="P72" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q72" s="10">
         <v>399</v>
       </c>
       <c r="S72" s="5">
         <f t="shared" si="6"/>
         <v>70</v>
       </c>
-      <c r="T72" s="13">
+      <c r="T72" s="10">
         <v>8</v>
       </c>
-      <c r="U72" s="13">
+      <c r="U72" s="10">
         <v>20</v>
       </c>
-      <c r="V72" s="13">
+      <c r="V72" s="10">
         <v>42.84</v>
       </c>
-      <c r="W72" s="13">
+      <c r="W72" s="10">
         <v>17</v>
       </c>
-      <c r="X72" s="13">
+      <c r="X72" s="10">
         <v>391</v>
       </c>
-      <c r="Y72" s="13">
-        <v>10</v>
-      </c>
-      <c r="Z72" s="13">
+      <c r="Y72" s="10">
+        <v>10</v>
+      </c>
+      <c r="Z72" s="10">
         <v>430</v>
       </c>
       <c r="AC72" s="5">
@@ -8103,50 +8103,50 @@
         <f t="shared" si="5"/>
         <v>71</v>
       </c>
-      <c r="K73" s="13">
-        <v>5</v>
-      </c>
-      <c r="L73" s="13">
+      <c r="K73" s="10">
+        <v>5</v>
+      </c>
+      <c r="L73" s="10">
         <v>25</v>
       </c>
-      <c r="M73" s="13">
+      <c r="M73" s="10">
         <v>48.258000000000003</v>
       </c>
-      <c r="N73" s="13">
+      <c r="N73" s="10">
         <v>14</v>
       </c>
-      <c r="O73" s="13">
+      <c r="O73" s="10">
         <v>349</v>
       </c>
-      <c r="P73" s="13">
-        <v>10</v>
-      </c>
-      <c r="Q73" s="13">
+      <c r="P73" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q73" s="10">
         <v>366</v>
       </c>
       <c r="S73" s="5">
         <f t="shared" si="6"/>
         <v>71</v>
       </c>
-      <c r="T73" s="13">
+      <c r="T73" s="10">
         <v>6</v>
       </c>
-      <c r="U73" s="13">
+      <c r="U73" s="10">
         <v>22</v>
       </c>
-      <c r="V73" s="13">
+      <c r="V73" s="10">
         <v>46.235999999999997</v>
       </c>
-      <c r="W73" s="13">
+      <c r="W73" s="10">
         <v>15</v>
       </c>
-      <c r="X73" s="13">
+      <c r="X73" s="10">
         <v>310</v>
       </c>
-      <c r="Y73" s="13">
-        <v>10</v>
-      </c>
-      <c r="Z73" s="13">
+      <c r="Y73" s="10">
+        <v>10</v>
+      </c>
+      <c r="Z73" s="10">
         <v>338</v>
       </c>
       <c r="AC73" s="5">
@@ -8205,50 +8205,50 @@
         <f t="shared" si="5"/>
         <v>72</v>
       </c>
-      <c r="K74" s="13">
-        <v>5</v>
-      </c>
-      <c r="L74" s="13">
+      <c r="K74" s="10">
+        <v>5</v>
+      </c>
+      <c r="L74" s="10">
         <v>43</v>
       </c>
-      <c r="M74" s="13">
+      <c r="M74" s="10">
         <v>83.843000000000004</v>
       </c>
-      <c r="N74" s="13">
+      <c r="N74" s="10">
         <v>20</v>
       </c>
-      <c r="O74" s="13">
+      <c r="O74" s="10">
         <v>438</v>
       </c>
-      <c r="P74" s="13">
-        <v>16</v>
-      </c>
-      <c r="Q74" s="13">
+      <c r="P74" s="10">
+        <v>16</v>
+      </c>
+      <c r="Q74" s="10">
         <v>453</v>
       </c>
       <c r="S74" s="5">
         <f t="shared" si="6"/>
         <v>72</v>
       </c>
-      <c r="T74" s="13">
+      <c r="T74" s="10">
         <v>8</v>
       </c>
-      <c r="U74" s="13">
+      <c r="U74" s="10">
         <v>17</v>
       </c>
-      <c r="V74" s="13">
+      <c r="V74" s="10">
         <v>35.140999999999998</v>
       </c>
-      <c r="W74" s="13">
+      <c r="W74" s="10">
         <v>17</v>
       </c>
-      <c r="X74" s="13">
+      <c r="X74" s="10">
         <v>377</v>
       </c>
-      <c r="Y74" s="13">
-        <v>10</v>
-      </c>
-      <c r="Z74" s="13">
+      <c r="Y74" s="10">
+        <v>10</v>
+      </c>
+      <c r="Z74" s="10">
         <v>414</v>
       </c>
       <c r="AC74" s="5">
@@ -8307,50 +8307,50 @@
         <f t="shared" si="5"/>
         <v>73</v>
       </c>
-      <c r="K75" s="13">
-        <v>5</v>
-      </c>
-      <c r="L75" s="13">
+      <c r="K75" s="10">
+        <v>5</v>
+      </c>
+      <c r="L75" s="10">
         <v>18</v>
       </c>
-      <c r="M75" s="13">
+      <c r="M75" s="10">
         <v>34.814</v>
       </c>
-      <c r="N75" s="13">
+      <c r="N75" s="10">
         <v>20</v>
       </c>
-      <c r="O75" s="13">
+      <c r="O75" s="10">
         <v>390</v>
       </c>
-      <c r="P75" s="13">
-        <v>16</v>
-      </c>
-      <c r="Q75" s="13">
+      <c r="P75" s="10">
+        <v>16</v>
+      </c>
+      <c r="Q75" s="10">
         <v>403</v>
       </c>
       <c r="S75" s="5">
         <f t="shared" si="6"/>
         <v>73</v>
       </c>
-      <c r="T75" s="13">
+      <c r="T75" s="10">
         <v>4</v>
       </c>
-      <c r="U75" s="13">
+      <c r="U75" s="10">
         <v>19</v>
       </c>
-      <c r="V75" s="13">
+      <c r="V75" s="10">
         <v>40.539000000000001</v>
       </c>
-      <c r="W75" s="13">
+      <c r="W75" s="10">
         <v>19</v>
       </c>
-      <c r="X75" s="13">
+      <c r="X75" s="10">
         <v>366</v>
       </c>
-      <c r="Y75" s="13">
-        <v>16</v>
-      </c>
-      <c r="Z75" s="13">
+      <c r="Y75" s="10">
+        <v>16</v>
+      </c>
+      <c r="Z75" s="10">
         <v>376</v>
       </c>
       <c r="AC75" s="5">
@@ -8409,50 +8409,50 @@
         <f t="shared" si="5"/>
         <v>74</v>
       </c>
-      <c r="K76" s="13">
+      <c r="K76" s="10">
         <v>7</v>
       </c>
-      <c r="L76" s="13">
+      <c r="L76" s="10">
         <v>42</v>
       </c>
-      <c r="M76" s="13">
+      <c r="M76" s="10">
         <v>83.656000000000006</v>
       </c>
-      <c r="N76" s="13">
-        <v>16</v>
-      </c>
-      <c r="O76" s="13">
+      <c r="N76" s="10">
+        <v>16</v>
+      </c>
+      <c r="O76" s="10">
         <v>411</v>
       </c>
-      <c r="P76" s="13">
-        <v>10</v>
-      </c>
-      <c r="Q76" s="13">
+      <c r="P76" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q76" s="10">
         <v>446</v>
       </c>
       <c r="S76" s="5">
         <f t="shared" si="6"/>
         <v>74</v>
       </c>
-      <c r="T76" s="13">
+      <c r="T76" s="10">
         <v>6</v>
       </c>
-      <c r="U76" s="13">
+      <c r="U76" s="10">
         <v>29</v>
       </c>
-      <c r="V76" s="13">
+      <c r="V76" s="10">
         <v>63.082000000000001</v>
       </c>
-      <c r="W76" s="13">
+      <c r="W76" s="10">
         <v>21</v>
       </c>
-      <c r="X76" s="13">
+      <c r="X76" s="10">
         <v>432</v>
       </c>
-      <c r="Y76" s="13">
-        <v>16</v>
-      </c>
-      <c r="Z76" s="13">
+      <c r="Y76" s="10">
+        <v>16</v>
+      </c>
+      <c r="Z76" s="10">
         <v>447</v>
       </c>
       <c r="AC76" s="5">
@@ -8511,50 +8511,50 @@
         <f t="shared" si="5"/>
         <v>75</v>
       </c>
-      <c r="K77" s="13">
-        <v>5</v>
-      </c>
-      <c r="L77" s="13">
+      <c r="K77" s="10">
+        <v>5</v>
+      </c>
+      <c r="L77" s="10">
         <v>19</v>
       </c>
-      <c r="M77" s="13">
+      <c r="M77" s="10">
         <v>37.655000000000001</v>
       </c>
-      <c r="N77" s="13">
+      <c r="N77" s="10">
         <v>20</v>
       </c>
-      <c r="O77" s="13">
+      <c r="O77" s="10">
         <v>437</v>
       </c>
-      <c r="P77" s="13">
-        <v>16</v>
-      </c>
-      <c r="Q77" s="13">
+      <c r="P77" s="10">
+        <v>16</v>
+      </c>
+      <c r="Q77" s="10">
         <v>451</v>
       </c>
       <c r="S77" s="5">
         <f t="shared" si="6"/>
         <v>75</v>
       </c>
-      <c r="T77" s="13">
+      <c r="T77" s="10">
         <v>4</v>
       </c>
-      <c r="U77" s="13">
+      <c r="U77" s="10">
         <v>14</v>
       </c>
-      <c r="V77" s="13">
+      <c r="V77" s="10">
         <v>29.547000000000001</v>
       </c>
-      <c r="W77" s="13">
+      <c r="W77" s="10">
         <v>13</v>
       </c>
-      <c r="X77" s="13">
+      <c r="X77" s="10">
         <v>293</v>
       </c>
-      <c r="Y77" s="13">
-        <v>10</v>
-      </c>
-      <c r="Z77" s="13">
+      <c r="Y77" s="10">
+        <v>10</v>
+      </c>
+      <c r="Z77" s="10">
         <v>307</v>
       </c>
       <c r="AC77" s="5">
@@ -8613,50 +8613,50 @@
         <f t="shared" si="5"/>
         <v>76</v>
       </c>
-      <c r="K78" s="13">
+      <c r="K78" s="10">
         <v>6</v>
       </c>
-      <c r="L78" s="13">
+      <c r="L78" s="10">
         <v>19</v>
       </c>
-      <c r="M78" s="13">
+      <c r="M78" s="10">
         <v>36.636000000000003</v>
       </c>
-      <c r="N78" s="13">
+      <c r="N78" s="10">
         <v>15</v>
       </c>
-      <c r="O78" s="13">
+      <c r="O78" s="10">
         <v>364</v>
       </c>
-      <c r="P78" s="13">
-        <v>10</v>
-      </c>
-      <c r="Q78" s="13">
+      <c r="P78" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q78" s="10">
         <v>390</v>
       </c>
       <c r="S78" s="5">
         <f t="shared" si="6"/>
         <v>76</v>
       </c>
-      <c r="T78" s="13">
+      <c r="T78" s="10">
         <v>4</v>
       </c>
-      <c r="U78" s="13">
-        <v>16</v>
-      </c>
-      <c r="V78" s="13">
+      <c r="U78" s="10">
+        <v>16</v>
+      </c>
+      <c r="V78" s="10">
         <v>33.972000000000001</v>
       </c>
-      <c r="W78" s="13">
+      <c r="W78" s="10">
         <v>13</v>
       </c>
-      <c r="X78" s="13">
+      <c r="X78" s="10">
         <v>299</v>
       </c>
-      <c r="Y78" s="13">
-        <v>10</v>
-      </c>
-      <c r="Z78" s="13">
+      <c r="Y78" s="10">
+        <v>10</v>
+      </c>
+      <c r="Z78" s="10">
         <v>310</v>
       </c>
       <c r="AC78" s="5">
@@ -8715,50 +8715,50 @@
         <f t="shared" si="5"/>
         <v>77</v>
       </c>
-      <c r="K79" s="13">
+      <c r="K79" s="10">
         <v>4</v>
       </c>
-      <c r="L79" s="13">
+      <c r="L79" s="10">
         <v>9</v>
       </c>
-      <c r="M79" s="13">
+      <c r="M79" s="10">
         <v>18.169</v>
       </c>
-      <c r="N79" s="13">
+      <c r="N79" s="10">
         <v>13</v>
       </c>
-      <c r="O79" s="13">
+      <c r="O79" s="10">
         <v>291</v>
       </c>
-      <c r="P79" s="13">
-        <v>10</v>
-      </c>
-      <c r="Q79" s="13">
+      <c r="P79" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q79" s="10">
         <v>305</v>
       </c>
       <c r="S79" s="5">
         <f t="shared" si="6"/>
         <v>77</v>
       </c>
-      <c r="T79" s="13">
+      <c r="T79" s="10">
         <v>7</v>
       </c>
-      <c r="U79" s="13">
+      <c r="U79" s="10">
         <v>23</v>
       </c>
-      <c r="V79" s="13">
+      <c r="V79" s="10">
         <v>47.780999999999999</v>
       </c>
-      <c r="W79" s="13">
-        <v>16</v>
-      </c>
-      <c r="X79" s="13">
+      <c r="W79" s="10">
+        <v>16</v>
+      </c>
+      <c r="X79" s="10">
         <v>315</v>
       </c>
-      <c r="Y79" s="13">
-        <v>10</v>
-      </c>
-      <c r="Z79" s="13">
+      <c r="Y79" s="10">
+        <v>10</v>
+      </c>
+      <c r="Z79" s="10">
         <v>338</v>
       </c>
       <c r="AC79" s="5">
@@ -8817,50 +8817,50 @@
         <f t="shared" si="5"/>
         <v>78</v>
       </c>
-      <c r="K80" s="13">
-        <v>5</v>
-      </c>
-      <c r="L80" s="13">
+      <c r="K80" s="10">
+        <v>5</v>
+      </c>
+      <c r="L80" s="10">
         <v>21</v>
       </c>
-      <c r="M80" s="13">
+      <c r="M80" s="10">
         <v>41.444000000000003</v>
       </c>
-      <c r="N80" s="13">
+      <c r="N80" s="10">
         <v>20</v>
       </c>
-      <c r="O80" s="13">
+      <c r="O80" s="10">
         <v>414</v>
       </c>
-      <c r="P80" s="13">
-        <v>16</v>
-      </c>
-      <c r="Q80" s="13">
+      <c r="P80" s="10">
+        <v>16</v>
+      </c>
+      <c r="Q80" s="10">
         <v>430</v>
       </c>
       <c r="S80" s="5">
         <f t="shared" si="6"/>
         <v>78</v>
       </c>
-      <c r="T80" s="13">
-        <v>5</v>
-      </c>
-      <c r="U80" s="13">
+      <c r="T80" s="10">
+        <v>5</v>
+      </c>
+      <c r="U80" s="10">
         <v>15</v>
       </c>
-      <c r="V80" s="13">
+      <c r="V80" s="10">
         <v>32.229999999999997</v>
       </c>
-      <c r="W80" s="13">
+      <c r="W80" s="10">
         <v>14</v>
       </c>
-      <c r="X80" s="13">
+      <c r="X80" s="10">
         <v>320</v>
       </c>
-      <c r="Y80" s="13">
-        <v>10</v>
-      </c>
-      <c r="Z80" s="13">
+      <c r="Y80" s="10">
+        <v>10</v>
+      </c>
+      <c r="Z80" s="10">
         <v>345</v>
       </c>
       <c r="AC80" s="5">
@@ -8919,50 +8919,50 @@
         <f t="shared" si="5"/>
         <v>79</v>
       </c>
-      <c r="K81" s="13">
-        <v>5</v>
-      </c>
-      <c r="L81" s="13">
+      <c r="K81" s="10">
+        <v>5</v>
+      </c>
+      <c r="L81" s="10">
         <v>33</v>
       </c>
-      <c r="M81" s="13">
+      <c r="M81" s="10">
         <v>67.491</v>
       </c>
-      <c r="N81" s="13">
+      <c r="N81" s="10">
         <v>20</v>
       </c>
-      <c r="O81" s="13">
+      <c r="O81" s="10">
         <v>445</v>
       </c>
-      <c r="P81" s="13">
-        <v>16</v>
-      </c>
-      <c r="Q81" s="13">
+      <c r="P81" s="10">
+        <v>16</v>
+      </c>
+      <c r="Q81" s="10">
         <v>460</v>
       </c>
       <c r="S81" s="5">
         <f t="shared" si="6"/>
         <v>79</v>
       </c>
-      <c r="T81" s="13">
+      <c r="T81" s="10">
         <v>4</v>
       </c>
-      <c r="U81" s="13">
+      <c r="U81" s="10">
         <v>19</v>
       </c>
-      <c r="V81" s="13">
+      <c r="V81" s="10">
         <v>40.558</v>
       </c>
-      <c r="W81" s="13">
+      <c r="W81" s="10">
         <v>13</v>
       </c>
-      <c r="X81" s="13">
+      <c r="X81" s="10">
         <v>303</v>
       </c>
-      <c r="Y81" s="13">
-        <v>10</v>
-      </c>
-      <c r="Z81" s="13">
+      <c r="Y81" s="10">
+        <v>10</v>
+      </c>
+      <c r="Z81" s="10">
         <v>316</v>
       </c>
       <c r="AC81" s="5">
@@ -9021,50 +9021,50 @@
         <f t="shared" si="5"/>
         <v>80</v>
       </c>
-      <c r="K82" s="13">
+      <c r="K82" s="10">
         <v>7</v>
       </c>
-      <c r="L82" s="13">
+      <c r="L82" s="10">
         <v>21</v>
       </c>
-      <c r="M82" s="13">
+      <c r="M82" s="10">
         <v>42.965000000000003</v>
       </c>
-      <c r="N82" s="13">
-        <v>16</v>
-      </c>
-      <c r="O82" s="13">
+      <c r="N82" s="10">
+        <v>16</v>
+      </c>
+      <c r="O82" s="10">
         <v>348</v>
       </c>
-      <c r="P82" s="13">
-        <v>10</v>
-      </c>
-      <c r="Q82" s="13">
+      <c r="P82" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q82" s="10">
         <v>376</v>
       </c>
       <c r="S82" s="5">
         <f t="shared" si="6"/>
         <v>80</v>
       </c>
-      <c r="T82" s="13">
+      <c r="T82" s="10">
         <v>4</v>
       </c>
-      <c r="U82" s="13">
+      <c r="U82" s="10">
         <v>34</v>
       </c>
-      <c r="V82" s="13">
+      <c r="V82" s="10">
         <v>75.534000000000006</v>
       </c>
-      <c r="W82" s="13">
+      <c r="W82" s="10">
         <v>19</v>
       </c>
-      <c r="X82" s="13">
+      <c r="X82" s="10">
         <v>462</v>
       </c>
-      <c r="Y82" s="13">
-        <v>16</v>
-      </c>
-      <c r="Z82" s="13">
+      <c r="Y82" s="10">
+        <v>16</v>
+      </c>
+      <c r="Z82" s="10">
         <v>474</v>
       </c>
       <c r="AC82" s="5">
@@ -9123,50 +9123,50 @@
         <f t="shared" si="5"/>
         <v>81</v>
       </c>
-      <c r="K83" s="13">
-        <v>5</v>
-      </c>
-      <c r="L83" s="13">
+      <c r="K83" s="10">
+        <v>5</v>
+      </c>
+      <c r="L83" s="10">
         <v>14</v>
       </c>
-      <c r="M83" s="13">
+      <c r="M83" s="10">
         <v>27.945</v>
       </c>
-      <c r="N83" s="13">
+      <c r="N83" s="10">
         <v>20</v>
       </c>
-      <c r="O83" s="13">
+      <c r="O83" s="10">
         <v>494</v>
       </c>
-      <c r="P83" s="13">
-        <v>16</v>
-      </c>
-      <c r="Q83" s="13">
+      <c r="P83" s="10">
+        <v>16</v>
+      </c>
+      <c r="Q83" s="10">
         <v>516</v>
       </c>
       <c r="S83" s="5">
         <f t="shared" si="6"/>
         <v>81</v>
       </c>
-      <c r="T83" s="13">
+      <c r="T83" s="10">
         <v>9</v>
       </c>
-      <c r="U83" s="13">
+      <c r="U83" s="10">
         <v>25</v>
       </c>
-      <c r="V83" s="13">
+      <c r="V83" s="10">
         <v>51.570999999999998</v>
       </c>
-      <c r="W83" s="13">
+      <c r="W83" s="10">
         <v>18</v>
       </c>
-      <c r="X83" s="13">
+      <c r="X83" s="10">
         <v>340</v>
       </c>
-      <c r="Y83" s="13">
-        <v>10</v>
-      </c>
-      <c r="Z83" s="13">
+      <c r="Y83" s="10">
+        <v>10</v>
+      </c>
+      <c r="Z83" s="10">
         <v>373</v>
       </c>
       <c r="AC83" s="5">
@@ -9225,50 +9225,50 @@
         <f t="shared" si="5"/>
         <v>82</v>
       </c>
-      <c r="K84" s="13">
-        <v>5</v>
-      </c>
-      <c r="L84" s="13">
+      <c r="K84" s="10">
+        <v>5</v>
+      </c>
+      <c r="L84" s="10">
         <v>18</v>
       </c>
-      <c r="M84" s="13">
+      <c r="M84" s="10">
         <v>40.155999999999999</v>
       </c>
-      <c r="N84" s="13">
+      <c r="N84" s="10">
         <v>20</v>
       </c>
-      <c r="O84" s="13">
+      <c r="O84" s="10">
         <v>455</v>
       </c>
-      <c r="P84" s="13">
-        <v>16</v>
-      </c>
-      <c r="Q84" s="13">
+      <c r="P84" s="10">
+        <v>16</v>
+      </c>
+      <c r="Q84" s="10">
         <v>476</v>
       </c>
       <c r="S84" s="5">
         <f t="shared" si="6"/>
         <v>82</v>
       </c>
-      <c r="T84" s="13">
+      <c r="T84" s="10">
         <v>9</v>
       </c>
-      <c r="U84" s="13">
+      <c r="U84" s="10">
         <v>25</v>
       </c>
-      <c r="V84" s="13">
+      <c r="V84" s="10">
         <v>54.34</v>
       </c>
-      <c r="W84" s="13">
+      <c r="W84" s="10">
         <v>18</v>
       </c>
-      <c r="X84" s="13">
+      <c r="X84" s="10">
         <v>356</v>
       </c>
-      <c r="Y84" s="13">
-        <v>10</v>
-      </c>
-      <c r="Z84" s="13">
+      <c r="Y84" s="10">
+        <v>10</v>
+      </c>
+      <c r="Z84" s="10">
         <v>393</v>
       </c>
       <c r="AC84" s="5">
@@ -9327,50 +9327,50 @@
         <f t="shared" si="5"/>
         <v>83</v>
       </c>
-      <c r="K85" s="13">
+      <c r="K85" s="10">
         <v>8</v>
       </c>
-      <c r="L85" s="13">
+      <c r="L85" s="10">
         <v>32</v>
       </c>
-      <c r="M85" s="13">
+      <c r="M85" s="10">
         <v>62.877000000000002</v>
       </c>
-      <c r="N85" s="13">
+      <c r="N85" s="10">
         <v>17</v>
       </c>
-      <c r="O85" s="13">
+      <c r="O85" s="10">
         <v>420</v>
       </c>
-      <c r="P85" s="13">
-        <v>10</v>
-      </c>
-      <c r="Q85" s="13">
+      <c r="P85" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q85" s="10">
         <v>460</v>
       </c>
       <c r="S85" s="5">
         <f t="shared" si="6"/>
         <v>83</v>
       </c>
-      <c r="T85" s="13">
+      <c r="T85" s="10">
         <v>7</v>
       </c>
-      <c r="U85" s="13">
-        <v>16</v>
-      </c>
-      <c r="V85" s="13">
+      <c r="U85" s="10">
+        <v>16</v>
+      </c>
+      <c r="V85" s="10">
         <v>34.637999999999998</v>
       </c>
-      <c r="W85" s="13">
-        <v>16</v>
-      </c>
-      <c r="X85" s="13">
+      <c r="W85" s="10">
+        <v>16</v>
+      </c>
+      <c r="X85" s="10">
         <v>337</v>
       </c>
-      <c r="Y85" s="13">
-        <v>10</v>
-      </c>
-      <c r="Z85" s="13">
+      <c r="Y85" s="10">
+        <v>10</v>
+      </c>
+      <c r="Z85" s="10">
         <v>365</v>
       </c>
       <c r="AC85" s="5">
@@ -9429,50 +9429,50 @@
         <f t="shared" si="5"/>
         <v>84</v>
       </c>
-      <c r="K86" s="13">
+      <c r="K86" s="10">
         <v>8</v>
       </c>
-      <c r="L86" s="13">
+      <c r="L86" s="10">
         <v>31</v>
       </c>
-      <c r="M86" s="13">
+      <c r="M86" s="10">
         <v>62.481999999999999</v>
       </c>
-      <c r="N86" s="13">
+      <c r="N86" s="10">
         <v>17</v>
       </c>
-      <c r="O86" s="13">
+      <c r="O86" s="10">
         <v>374</v>
       </c>
-      <c r="P86" s="13">
-        <v>10</v>
-      </c>
-      <c r="Q86" s="13">
+      <c r="P86" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q86" s="10">
         <v>406</v>
       </c>
       <c r="S86" s="5">
         <f t="shared" si="6"/>
         <v>84</v>
       </c>
-      <c r="T86" s="13">
-        <v>5</v>
-      </c>
-      <c r="U86" s="13">
+      <c r="T86" s="10">
+        <v>5</v>
+      </c>
+      <c r="U86" s="10">
         <v>17</v>
       </c>
-      <c r="V86" s="13">
+      <c r="V86" s="10">
         <v>35.89</v>
       </c>
-      <c r="W86" s="13">
+      <c r="W86" s="10">
         <v>14</v>
       </c>
-      <c r="X86" s="13">
+      <c r="X86" s="10">
         <v>308</v>
       </c>
-      <c r="Y86" s="13">
-        <v>10</v>
-      </c>
-      <c r="Z86" s="13">
+      <c r="Y86" s="10">
+        <v>10</v>
+      </c>
+      <c r="Z86" s="10">
         <v>324</v>
       </c>
       <c r="AC86" s="5">
@@ -9531,50 +9531,50 @@
         <f t="shared" si="5"/>
         <v>85</v>
       </c>
-      <c r="K87" s="13">
+      <c r="K87" s="10">
         <v>6</v>
       </c>
-      <c r="L87" s="13">
+      <c r="L87" s="10">
         <v>17</v>
       </c>
-      <c r="M87" s="13">
+      <c r="M87" s="10">
         <v>34.713000000000001</v>
       </c>
-      <c r="N87" s="13">
+      <c r="N87" s="10">
         <v>15</v>
       </c>
-      <c r="O87" s="13">
+      <c r="O87" s="10">
         <v>351</v>
       </c>
-      <c r="P87" s="13">
-        <v>10</v>
-      </c>
-      <c r="Q87" s="13">
+      <c r="P87" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q87" s="10">
         <v>380</v>
       </c>
       <c r="S87" s="5">
         <f t="shared" si="6"/>
         <v>85</v>
       </c>
-      <c r="T87" s="13">
-        <v>5</v>
-      </c>
-      <c r="U87" s="13">
+      <c r="T87" s="10">
+        <v>5</v>
+      </c>
+      <c r="U87" s="10">
         <v>21</v>
       </c>
-      <c r="V87" s="13">
+      <c r="V87" s="10">
         <v>45.552999999999997</v>
       </c>
-      <c r="W87" s="13">
+      <c r="W87" s="10">
         <v>20</v>
       </c>
-      <c r="X87" s="13">
+      <c r="X87" s="10">
         <v>413</v>
       </c>
-      <c r="Y87" s="13">
-        <v>16</v>
-      </c>
-      <c r="Z87" s="13">
+      <c r="Y87" s="10">
+        <v>16</v>
+      </c>
+      <c r="Z87" s="10">
         <v>425</v>
       </c>
       <c r="AC87" s="5">
@@ -9633,50 +9633,50 @@
         <f t="shared" si="5"/>
         <v>86</v>
       </c>
-      <c r="K88" s="13">
+      <c r="K88" s="10">
         <v>4</v>
       </c>
-      <c r="L88" s="13">
+      <c r="L88" s="10">
         <v>14</v>
       </c>
-      <c r="M88" s="13">
+      <c r="M88" s="10">
         <v>30.881</v>
       </c>
-      <c r="N88" s="13">
+      <c r="N88" s="10">
         <v>13</v>
       </c>
-      <c r="O88" s="13">
+      <c r="O88" s="10">
         <v>318</v>
       </c>
-      <c r="P88" s="13">
-        <v>10</v>
-      </c>
-      <c r="Q88" s="13">
+      <c r="P88" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q88" s="10">
         <v>333</v>
       </c>
       <c r="S88" s="5">
         <f t="shared" si="6"/>
         <v>86</v>
       </c>
-      <c r="T88" s="13">
+      <c r="T88" s="10">
         <v>4</v>
       </c>
-      <c r="U88" s="13">
-        <v>16</v>
-      </c>
-      <c r="V88" s="13">
+      <c r="U88" s="10">
+        <v>16</v>
+      </c>
+      <c r="V88" s="10">
         <v>33.829000000000001</v>
       </c>
-      <c r="W88" s="13">
+      <c r="W88" s="10">
         <v>19</v>
       </c>
-      <c r="X88" s="13">
+      <c r="X88" s="10">
         <v>374</v>
       </c>
-      <c r="Y88" s="13">
-        <v>16</v>
-      </c>
-      <c r="Z88" s="13">
+      <c r="Y88" s="10">
+        <v>16</v>
+      </c>
+      <c r="Z88" s="10">
         <v>382</v>
       </c>
       <c r="AC88" s="5">
@@ -9735,50 +9735,50 @@
         <f t="shared" si="5"/>
         <v>87</v>
       </c>
-      <c r="K89" s="13">
+      <c r="K89" s="10">
         <v>11</v>
       </c>
-      <c r="L89" s="13">
+      <c r="L89" s="10">
         <v>27</v>
       </c>
-      <c r="M89" s="13">
+      <c r="M89" s="10">
         <v>54.734999999999999</v>
       </c>
-      <c r="N89" s="13">
+      <c r="N89" s="10">
         <v>20</v>
       </c>
-      <c r="O89" s="13">
+      <c r="O89" s="10">
         <v>378</v>
       </c>
-      <c r="P89" s="13">
-        <v>10</v>
-      </c>
-      <c r="Q89" s="13">
+      <c r="P89" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q89" s="10">
         <v>425</v>
       </c>
       <c r="S89" s="5">
         <f t="shared" si="6"/>
         <v>87</v>
       </c>
-      <c r="T89" s="13">
+      <c r="T89" s="10">
         <v>8</v>
       </c>
-      <c r="U89" s="13">
+      <c r="U89" s="10">
         <v>14</v>
       </c>
-      <c r="V89" s="13">
+      <c r="V89" s="10">
         <v>29.466999999999999</v>
       </c>
-      <c r="W89" s="13">
+      <c r="W89" s="10">
         <v>17</v>
       </c>
-      <c r="X89" s="13">
+      <c r="X89" s="10">
         <v>363</v>
       </c>
-      <c r="Y89" s="13">
-        <v>10</v>
-      </c>
-      <c r="Z89" s="13">
+      <c r="Y89" s="10">
+        <v>10</v>
+      </c>
+      <c r="Z89" s="10">
         <v>394</v>
       </c>
       <c r="AC89" s="5">
@@ -9837,50 +9837,50 @@
         <f t="shared" si="5"/>
         <v>88</v>
       </c>
-      <c r="K90" s="13">
+      <c r="K90" s="10">
         <v>8</v>
       </c>
-      <c r="L90" s="13">
+      <c r="L90" s="10">
         <v>15</v>
       </c>
-      <c r="M90" s="13">
+      <c r="M90" s="10">
         <v>29.895</v>
       </c>
-      <c r="N90" s="13">
+      <c r="N90" s="10">
         <v>17</v>
       </c>
-      <c r="O90" s="13">
+      <c r="O90" s="10">
         <v>344</v>
       </c>
-      <c r="P90" s="13">
-        <v>10</v>
-      </c>
-      <c r="Q90" s="13">
+      <c r="P90" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q90" s="10">
         <v>372</v>
       </c>
       <c r="S90" s="5">
         <f t="shared" si="6"/>
         <v>88</v>
       </c>
-      <c r="T90" s="13">
+      <c r="T90" s="10">
         <v>3</v>
       </c>
-      <c r="U90" s="13">
+      <c r="U90" s="10">
         <v>15</v>
       </c>
-      <c r="V90" s="13">
+      <c r="V90" s="10">
         <v>30.501000000000001</v>
       </c>
-      <c r="W90" s="13">
+      <c r="W90" s="10">
         <v>18</v>
       </c>
-      <c r="X90" s="13">
+      <c r="X90" s="10">
         <v>355</v>
       </c>
-      <c r="Y90" s="13">
-        <v>16</v>
-      </c>
-      <c r="Z90" s="13">
+      <c r="Y90" s="10">
+        <v>16</v>
+      </c>
+      <c r="Z90" s="10">
         <v>361</v>
       </c>
       <c r="AC90" s="5">
@@ -9939,50 +9939,50 @@
         <f t="shared" si="5"/>
         <v>89</v>
       </c>
-      <c r="K91" s="13">
+      <c r="K91" s="10">
         <v>6</v>
       </c>
-      <c r="L91" s="13">
-        <v>16</v>
-      </c>
-      <c r="M91" s="13">
+      <c r="L91" s="10">
+        <v>16</v>
+      </c>
+      <c r="M91" s="10">
         <v>30.832999999999998</v>
       </c>
-      <c r="N91" s="13">
+      <c r="N91" s="10">
         <v>15</v>
       </c>
-      <c r="O91" s="13">
+      <c r="O91" s="10">
         <v>368</v>
       </c>
-      <c r="P91" s="13">
-        <v>10</v>
-      </c>
-      <c r="Q91" s="13">
+      <c r="P91" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q91" s="10">
         <v>394</v>
       </c>
       <c r="S91" s="5">
         <f t="shared" si="6"/>
         <v>89</v>
       </c>
-      <c r="T91" s="13">
+      <c r="T91" s="10">
         <v>3</v>
       </c>
-      <c r="U91" s="13">
+      <c r="U91" s="10">
         <v>11</v>
       </c>
-      <c r="V91" s="13">
+      <c r="V91" s="10">
         <v>22.73</v>
       </c>
-      <c r="W91" s="13">
+      <c r="W91" s="10">
         <v>12</v>
       </c>
-      <c r="X91" s="13">
+      <c r="X91" s="10">
         <v>296</v>
       </c>
-      <c r="Y91" s="13">
-        <v>10</v>
-      </c>
-      <c r="Z91" s="13">
+      <c r="Y91" s="10">
+        <v>10</v>
+      </c>
+      <c r="Z91" s="10">
         <v>308</v>
       </c>
       <c r="AC91" s="5">
@@ -10041,50 +10041,50 @@
         <f t="shared" si="5"/>
         <v>90</v>
       </c>
-      <c r="K92" s="13">
+      <c r="K92" s="10">
         <v>8</v>
       </c>
-      <c r="L92" s="13">
+      <c r="L92" s="10">
         <v>18</v>
       </c>
-      <c r="M92" s="13">
+      <c r="M92" s="10">
         <v>34.323999999999998</v>
       </c>
-      <c r="N92" s="13">
+      <c r="N92" s="10">
         <v>17</v>
       </c>
-      <c r="O92" s="13">
+      <c r="O92" s="10">
         <v>410</v>
       </c>
-      <c r="P92" s="13">
-        <v>10</v>
-      </c>
-      <c r="Q92" s="13">
+      <c r="P92" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q92" s="10">
         <v>443</v>
       </c>
       <c r="S92" s="5">
         <f t="shared" si="6"/>
         <v>90</v>
       </c>
-      <c r="T92" s="13">
-        <v>5</v>
-      </c>
-      <c r="U92" s="13">
+      <c r="T92" s="10">
+        <v>5</v>
+      </c>
+      <c r="U92" s="10">
         <v>15</v>
       </c>
-      <c r="V92" s="13">
+      <c r="V92" s="10">
         <v>31.213999999999999</v>
       </c>
-      <c r="W92" s="13">
+      <c r="W92" s="10">
         <v>14</v>
       </c>
-      <c r="X92" s="13">
+      <c r="X92" s="10">
         <v>338</v>
       </c>
-      <c r="Y92" s="13">
-        <v>10</v>
-      </c>
-      <c r="Z92" s="13">
+      <c r="Y92" s="10">
+        <v>10</v>
+      </c>
+      <c r="Z92" s="10">
         <v>365</v>
       </c>
       <c r="AC92" s="5">
@@ -10143,50 +10143,50 @@
         <f t="shared" si="5"/>
         <v>91</v>
       </c>
-      <c r="K93" s="13">
+      <c r="K93" s="10">
         <v>7</v>
       </c>
-      <c r="L93" s="13">
+      <c r="L93" s="10">
         <v>37</v>
       </c>
-      <c r="M93" s="13">
+      <c r="M93" s="10">
         <v>84.231999999999999</v>
       </c>
-      <c r="N93" s="13">
-        <v>16</v>
-      </c>
-      <c r="O93" s="13">
+      <c r="N93" s="10">
+        <v>16</v>
+      </c>
+      <c r="O93" s="10">
         <v>360</v>
       </c>
-      <c r="P93" s="13">
-        <v>10</v>
-      </c>
-      <c r="Q93" s="13">
+      <c r="P93" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q93" s="10">
         <v>391</v>
       </c>
       <c r="S93" s="5">
         <f t="shared" si="6"/>
         <v>91</v>
       </c>
-      <c r="T93" s="13">
+      <c r="T93" s="10">
         <v>6</v>
       </c>
-      <c r="U93" s="13">
+      <c r="U93" s="10">
         <v>21</v>
       </c>
-      <c r="V93" s="13">
+      <c r="V93" s="10">
         <v>44.656999999999996</v>
       </c>
-      <c r="W93" s="13">
+      <c r="W93" s="10">
         <v>15</v>
       </c>
-      <c r="X93" s="13">
+      <c r="X93" s="10">
         <v>342</v>
       </c>
-      <c r="Y93" s="13">
-        <v>10</v>
-      </c>
-      <c r="Z93" s="13">
+      <c r="Y93" s="10">
+        <v>10</v>
+      </c>
+      <c r="Z93" s="10">
         <v>374</v>
       </c>
       <c r="AC93" s="5">
@@ -10245,50 +10245,50 @@
         <f t="shared" si="5"/>
         <v>92</v>
       </c>
-      <c r="K94" s="13">
+      <c r="K94" s="10">
         <v>4</v>
       </c>
-      <c r="L94" s="13">
+      <c r="L94" s="10">
         <v>15</v>
       </c>
-      <c r="M94" s="13">
+      <c r="M94" s="10">
         <v>28.753</v>
       </c>
-      <c r="N94" s="13">
+      <c r="N94" s="10">
         <v>19</v>
       </c>
-      <c r="O94" s="13">
+      <c r="O94" s="10">
         <v>425</v>
       </c>
-      <c r="P94" s="13">
-        <v>16</v>
-      </c>
-      <c r="Q94" s="13">
+      <c r="P94" s="10">
+        <v>16</v>
+      </c>
+      <c r="Q94" s="10">
         <v>435</v>
       </c>
       <c r="S94" s="5">
         <f t="shared" si="6"/>
         <v>92</v>
       </c>
-      <c r="T94" s="13">
-        <v>5</v>
-      </c>
-      <c r="U94" s="13">
+      <c r="T94" s="10">
+        <v>5</v>
+      </c>
+      <c r="U94" s="10">
         <v>33</v>
       </c>
-      <c r="V94" s="13">
+      <c r="V94" s="10">
         <v>76.212000000000003</v>
       </c>
-      <c r="W94" s="13">
+      <c r="W94" s="10">
         <v>20</v>
       </c>
-      <c r="X94" s="13">
+      <c r="X94" s="10">
         <v>439</v>
       </c>
-      <c r="Y94" s="13">
-        <v>16</v>
-      </c>
-      <c r="Z94" s="13">
+      <c r="Y94" s="10">
+        <v>16</v>
+      </c>
+      <c r="Z94" s="10">
         <v>453</v>
       </c>
       <c r="AC94" s="5">
@@ -10347,50 +10347,50 @@
         <f t="shared" si="5"/>
         <v>93</v>
       </c>
-      <c r="K95" s="13">
-        <v>5</v>
-      </c>
-      <c r="L95" s="13">
+      <c r="K95" s="10">
+        <v>5</v>
+      </c>
+      <c r="L95" s="10">
         <v>17</v>
       </c>
-      <c r="M95" s="13">
+      <c r="M95" s="10">
         <v>33.514000000000003</v>
       </c>
-      <c r="N95" s="13">
+      <c r="N95" s="10">
         <v>20</v>
       </c>
-      <c r="O95" s="13">
+      <c r="O95" s="10">
         <v>415</v>
       </c>
-      <c r="P95" s="13">
-        <v>16</v>
-      </c>
-      <c r="Q95" s="13">
+      <c r="P95" s="10">
+        <v>16</v>
+      </c>
+      <c r="Q95" s="10">
         <v>426</v>
       </c>
       <c r="S95" s="5">
         <f t="shared" si="6"/>
         <v>93</v>
       </c>
-      <c r="T95" s="13">
+      <c r="T95" s="10">
         <v>7</v>
       </c>
-      <c r="U95" s="13">
+      <c r="U95" s="10">
         <v>45</v>
       </c>
-      <c r="V95" s="13">
+      <c r="V95" s="10">
         <v>100.879</v>
       </c>
-      <c r="W95" s="13">
-        <v>16</v>
-      </c>
-      <c r="X95" s="13">
+      <c r="W95" s="10">
+        <v>16</v>
+      </c>
+      <c r="X95" s="10">
         <v>437</v>
       </c>
-      <c r="Y95" s="13">
-        <v>10</v>
-      </c>
-      <c r="Z95" s="13">
+      <c r="Y95" s="10">
+        <v>10</v>
+      </c>
+      <c r="Z95" s="10">
         <v>475</v>
       </c>
       <c r="AC95" s="5">
@@ -10449,50 +10449,50 @@
         <f t="shared" si="5"/>
         <v>94</v>
       </c>
-      <c r="K96" s="13">
+      <c r="K96" s="10">
         <v>6</v>
       </c>
-      <c r="L96" s="13">
+      <c r="L96" s="10">
         <v>19</v>
       </c>
-      <c r="M96" s="13">
+      <c r="M96" s="10">
         <v>36.725000000000001</v>
       </c>
-      <c r="N96" s="13">
+      <c r="N96" s="10">
         <v>21</v>
       </c>
-      <c r="O96" s="13">
+      <c r="O96" s="10">
         <v>425</v>
       </c>
-      <c r="P96" s="13">
-        <v>16</v>
-      </c>
-      <c r="Q96" s="13">
+      <c r="P96" s="10">
+        <v>16</v>
+      </c>
+      <c r="Q96" s="10">
         <v>438</v>
       </c>
       <c r="S96" s="5">
         <f t="shared" si="6"/>
         <v>94</v>
       </c>
-      <c r="T96" s="13">
-        <v>10</v>
-      </c>
-      <c r="U96" s="13">
+      <c r="T96" s="10">
+        <v>10</v>
+      </c>
+      <c r="U96" s="10">
         <v>21</v>
       </c>
-      <c r="V96" s="13">
+      <c r="V96" s="10">
         <v>45.838999999999999</v>
       </c>
-      <c r="W96" s="13">
+      <c r="W96" s="10">
         <v>19</v>
       </c>
-      <c r="X96" s="13">
+      <c r="X96" s="10">
         <v>375</v>
       </c>
-      <c r="Y96" s="13">
-        <v>10</v>
-      </c>
-      <c r="Z96" s="13">
+      <c r="Y96" s="10">
+        <v>10</v>
+      </c>
+      <c r="Z96" s="10">
         <v>412</v>
       </c>
       <c r="AC96" s="5">
@@ -10551,50 +10551,50 @@
         <f t="shared" si="5"/>
         <v>95</v>
       </c>
-      <c r="K97" s="13">
+      <c r="K97" s="10">
         <v>4</v>
       </c>
-      <c r="L97" s="13">
+      <c r="L97" s="10">
         <v>18</v>
       </c>
-      <c r="M97" s="13">
+      <c r="M97" s="10">
         <v>35.058999999999997</v>
       </c>
-      <c r="N97" s="13">
+      <c r="N97" s="10">
         <v>13</v>
       </c>
-      <c r="O97" s="13">
+      <c r="O97" s="10">
         <v>322</v>
       </c>
-      <c r="P97" s="13">
-        <v>10</v>
-      </c>
-      <c r="Q97" s="13">
+      <c r="P97" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q97" s="10">
         <v>340</v>
       </c>
       <c r="S97" s="5">
         <f t="shared" si="6"/>
         <v>95</v>
       </c>
-      <c r="T97" s="13">
-        <v>5</v>
-      </c>
-      <c r="U97" s="13">
+      <c r="T97" s="10">
+        <v>5</v>
+      </c>
+      <c r="U97" s="10">
         <v>25</v>
       </c>
-      <c r="V97" s="13">
+      <c r="V97" s="10">
         <v>52.856000000000002</v>
       </c>
-      <c r="W97" s="13">
+      <c r="W97" s="10">
         <v>20</v>
       </c>
-      <c r="X97" s="13">
+      <c r="X97" s="10">
         <v>464</v>
       </c>
-      <c r="Y97" s="13">
-        <v>16</v>
-      </c>
-      <c r="Z97" s="13">
+      <c r="Y97" s="10">
+        <v>16</v>
+      </c>
+      <c r="Z97" s="10">
         <v>481</v>
       </c>
       <c r="AC97" s="5">
@@ -10653,50 +10653,50 @@
         <f t="shared" si="5"/>
         <v>96</v>
       </c>
-      <c r="K98" s="13">
+      <c r="K98" s="10">
         <v>4</v>
       </c>
-      <c r="L98" s="13">
+      <c r="L98" s="10">
         <v>23</v>
       </c>
-      <c r="M98" s="13">
+      <c r="M98" s="10">
         <v>46.015999999999998</v>
       </c>
-      <c r="N98" s="13">
+      <c r="N98" s="10">
         <v>19</v>
       </c>
-      <c r="O98" s="13">
+      <c r="O98" s="10">
         <v>415</v>
       </c>
-      <c r="P98" s="13">
-        <v>16</v>
-      </c>
-      <c r="Q98" s="13">
+      <c r="P98" s="10">
+        <v>16</v>
+      </c>
+      <c r="Q98" s="10">
         <v>425</v>
       </c>
       <c r="S98" s="5">
         <f t="shared" si="6"/>
         <v>96</v>
       </c>
-      <c r="T98" s="13">
+      <c r="T98" s="10">
         <v>7</v>
       </c>
-      <c r="U98" s="13">
+      <c r="U98" s="10">
         <v>33</v>
       </c>
-      <c r="V98" s="13">
+      <c r="V98" s="10">
         <v>71.087999999999994</v>
       </c>
-      <c r="W98" s="13">
-        <v>16</v>
-      </c>
-      <c r="X98" s="13">
+      <c r="W98" s="10">
+        <v>16</v>
+      </c>
+      <c r="X98" s="10">
         <v>353</v>
       </c>
-      <c r="Y98" s="13">
-        <v>10</v>
-      </c>
-      <c r="Z98" s="13">
+      <c r="Y98" s="10">
+        <v>10</v>
+      </c>
+      <c r="Z98" s="10">
         <v>390</v>
       </c>
       <c r="AC98" s="5">
@@ -10755,50 +10755,50 @@
         <f t="shared" si="5"/>
         <v>97</v>
       </c>
-      <c r="K99" s="13">
+      <c r="K99" s="10">
         <v>1</v>
       </c>
-      <c r="L99" s="13">
+      <c r="L99" s="10">
         <v>29</v>
       </c>
-      <c r="M99" s="13">
+      <c r="M99" s="10">
         <v>57.533999999999999</v>
       </c>
-      <c r="N99" s="13">
+      <c r="N99" s="10">
         <v>27</v>
       </c>
-      <c r="O99" s="13">
+      <c r="O99" s="10">
         <v>489</v>
       </c>
-      <c r="P99" s="13">
+      <c r="P99" s="10">
         <v>27</v>
       </c>
-      <c r="Q99" s="13">
+      <c r="Q99" s="10">
         <v>489</v>
       </c>
       <c r="S99" s="5">
         <f t="shared" si="6"/>
         <v>97</v>
       </c>
-      <c r="T99" s="13">
+      <c r="T99" s="10">
         <v>4</v>
       </c>
-      <c r="U99" s="13">
+      <c r="U99" s="10">
         <v>15</v>
       </c>
-      <c r="V99" s="13">
+      <c r="V99" s="10">
         <v>31.602</v>
       </c>
-      <c r="W99" s="13">
+      <c r="W99" s="10">
         <v>19</v>
       </c>
-      <c r="X99" s="13">
+      <c r="X99" s="10">
         <v>426</v>
       </c>
-      <c r="Y99" s="13">
-        <v>16</v>
-      </c>
-      <c r="Z99" s="13">
+      <c r="Y99" s="10">
+        <v>16</v>
+      </c>
+      <c r="Z99" s="10">
         <v>437</v>
       </c>
       <c r="AC99" s="5">
@@ -10857,50 +10857,50 @@
         <f t="shared" si="5"/>
         <v>98</v>
       </c>
-      <c r="K100" s="13">
+      <c r="K100" s="10">
         <v>4</v>
       </c>
-      <c r="L100" s="13">
-        <v>16</v>
-      </c>
-      <c r="M100" s="13">
+      <c r="L100" s="10">
+        <v>16</v>
+      </c>
+      <c r="M100" s="10">
         <v>33.235999999999997</v>
       </c>
-      <c r="N100" s="13">
+      <c r="N100" s="10">
         <v>19</v>
       </c>
-      <c r="O100" s="13">
+      <c r="O100" s="10">
         <v>412</v>
       </c>
-      <c r="P100" s="13">
-        <v>16</v>
-      </c>
-      <c r="Q100" s="13">
+      <c r="P100" s="10">
+        <v>16</v>
+      </c>
+      <c r="Q100" s="10">
         <v>428</v>
       </c>
       <c r="S100" s="5">
         <f t="shared" si="6"/>
         <v>98</v>
       </c>
-      <c r="T100" s="13">
-        <v>5</v>
-      </c>
-      <c r="U100" s="13">
+      <c r="T100" s="10">
+        <v>5</v>
+      </c>
+      <c r="U100" s="10">
         <v>19</v>
       </c>
-      <c r="V100" s="13">
+      <c r="V100" s="10">
         <v>41.140999999999998</v>
       </c>
-      <c r="W100" s="13">
+      <c r="W100" s="10">
         <v>20</v>
       </c>
-      <c r="X100" s="13">
+      <c r="X100" s="10">
         <v>460</v>
       </c>
-      <c r="Y100" s="13">
-        <v>16</v>
-      </c>
-      <c r="Z100" s="13">
+      <c r="Y100" s="10">
+        <v>16</v>
+      </c>
+      <c r="Z100" s="10">
         <v>477</v>
       </c>
       <c r="AC100" s="5">
@@ -10959,50 +10959,50 @@
         <f t="shared" si="5"/>
         <v>99</v>
       </c>
-      <c r="K101" s="13">
+      <c r="K101" s="10">
         <v>6</v>
       </c>
-      <c r="L101" s="13">
+      <c r="L101" s="10">
         <v>38</v>
       </c>
-      <c r="M101" s="13">
+      <c r="M101" s="10">
         <v>74.941999999999993</v>
       </c>
-      <c r="N101" s="13">
+      <c r="N101" s="10">
         <v>15</v>
       </c>
-      <c r="O101" s="13">
+      <c r="O101" s="10">
         <v>385</v>
       </c>
-      <c r="P101" s="13">
-        <v>10</v>
-      </c>
-      <c r="Q101" s="13">
+      <c r="P101" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q101" s="10">
         <v>416</v>
       </c>
       <c r="S101" s="5">
         <f t="shared" si="6"/>
         <v>99</v>
       </c>
-      <c r="T101" s="13">
+      <c r="T101" s="10">
         <v>6</v>
       </c>
-      <c r="U101" s="13">
+      <c r="U101" s="10">
         <v>14</v>
       </c>
-      <c r="V101" s="13">
+      <c r="V101" s="10">
         <v>30.085000000000001</v>
       </c>
-      <c r="W101" s="13">
+      <c r="W101" s="10">
         <v>15</v>
       </c>
-      <c r="X101" s="13">
+      <c r="X101" s="10">
         <v>312</v>
       </c>
-      <c r="Y101" s="13">
-        <v>10</v>
-      </c>
-      <c r="Z101" s="13">
+      <c r="Y101" s="10">
+        <v>10</v>
+      </c>
+      <c r="Z101" s="10">
         <v>332</v>
       </c>
       <c r="AC101" s="5">
@@ -11061,50 +11061,50 @@
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="K102" s="13">
+      <c r="K102" s="10">
         <v>4</v>
       </c>
-      <c r="L102" s="13">
+      <c r="L102" s="10">
         <v>15</v>
       </c>
-      <c r="M102" s="13">
+      <c r="M102" s="10">
         <v>32.975999999999999</v>
       </c>
-      <c r="N102" s="13">
+      <c r="N102" s="10">
         <v>13</v>
       </c>
-      <c r="O102" s="13">
+      <c r="O102" s="10">
         <v>328</v>
       </c>
-      <c r="P102" s="13">
-        <v>10</v>
-      </c>
-      <c r="Q102" s="13">
+      <c r="P102" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q102" s="10">
         <v>341</v>
       </c>
       <c r="S102" s="5">
         <f t="shared" si="6"/>
         <v>100</v>
       </c>
-      <c r="T102" s="13">
+      <c r="T102" s="10">
         <v>4</v>
       </c>
-      <c r="U102" s="13">
+      <c r="U102" s="10">
         <v>18</v>
       </c>
-      <c r="V102" s="13">
+      <c r="V102" s="10">
         <v>38.176000000000002</v>
       </c>
-      <c r="W102" s="13">
+      <c r="W102" s="10">
         <v>19</v>
       </c>
-      <c r="X102" s="13">
+      <c r="X102" s="10">
         <v>396</v>
       </c>
-      <c r="Y102" s="13">
-        <v>16</v>
-      </c>
-      <c r="Z102" s="13">
+      <c r="Y102" s="10">
+        <v>16</v>
+      </c>
+      <c r="Z102" s="10">
         <v>405</v>
       </c>
       <c r="AC102" s="5">

--- a/equal-costs_grid-topology_equal-dest_49-100-225-400-nodes.xlsx
+++ b/equal-costs_grid-topology_equal-dest_49-100-225-400-nodes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kátia Fernandes\Documents\GitHub\article-2018-leizerkatiakleber-dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FFF5524-1E6D-4562-AE77-ED4DE6371A0E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C47E9B3-44E3-4F35-9E3A-E6E5C1A65EC1}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6670" xr2:uid="{99FA101D-2E33-491E-9974-BE384F2B7570}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
     <sheet name="graphics" sheetId="2" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -250,23 +253,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>134154</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>169930</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>8943</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>39007</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>315213</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>23510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Imagem 3">
+        <xdr:cNvPr id="3" name="Imagem 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DB0A798-2C67-45E7-AA4E-50878EB65070}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA3424ED-7CB6-4003-8841-377292B951B6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -282,8 +285,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5607675" y="4114085"/>
-          <a:ext cx="4740141" cy="3437598"/>
+          <a:off x="608169" y="4131972"/>
+          <a:ext cx="4572396" cy="3779848"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -307,10 +310,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Imagem 5">
+        <xdr:cNvPr id="7" name="Imagem 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{824A8589-3F3A-41FA-A31B-B2D65C0BEB0B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5A2563B-CE9C-43FD-BD2E-5D75CC068D11}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -338,23 +341,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>315213</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>23510</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>389855</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>129721</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Imagem 8">
+        <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D14EA85-7B91-4753-BC4B-2D2DF3882858}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15F88DE7-5EC2-47B0-B8A8-2ECD434B8338}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -370,8 +373,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="608169" y="4131972"/>
-          <a:ext cx="4572396" cy="3779848"/>
+          <a:off x="5473521" y="4131972"/>
+          <a:ext cx="5255207" cy="3322608"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -382,23 +385,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>608168</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>187816</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>398574</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>125211</xdr:rowOff>
+      <xdr:colOff>548970</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>178872</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Imagem 10">
+        <xdr:cNvPr id="15" name="Imagem 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7EC29DE-E8D3-4E5F-80D5-8D9D9D466894}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76EC5318-344F-4572-874B-29A773CE8E90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -414,8 +417,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5473521" y="187817"/>
-          <a:ext cx="5263926" cy="3318098"/>
+          <a:off x="5473520" y="187816"/>
+          <a:ext cx="5414323" cy="3559577"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -433,16 +436,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>17888</xdr:colOff>
+      <xdr:colOff>456127</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>50232</xdr:rowOff>
+      <xdr:rowOff>171470</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Imagem 13">
+        <xdr:cNvPr id="18" name="Imagem 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B09432D7-19AA-46C2-B597-F6E084EC8789}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF804CD4-C20F-437F-8519-E97661A741A9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -459,7 +462,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10947042" y="187817"/>
-          <a:ext cx="2450564" cy="4745654"/>
+          <a:ext cx="2888803" cy="4866892"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -469,6 +472,303 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="2n=49-100-225-400;mesmo-dest"/>
+      <sheetName val="Planilha1"/>
+      <sheetName val="2n49-100-225-400;r=80;ordest-qq"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="439">
+          <cell r="P439" t="str">
+            <v>n=49</v>
+          </cell>
+          <cell r="Q439" t="str">
+            <v>n=100</v>
+          </cell>
+          <cell r="R439" t="str">
+            <v>n=225</v>
+          </cell>
+          <cell r="S439" t="str">
+            <v>n=400</v>
+          </cell>
+        </row>
+        <row r="440">
+          <cell r="O440">
+            <v>1</v>
+          </cell>
+          <cell r="P440">
+            <v>0.14000000000000001</v>
+          </cell>
+          <cell r="Q440">
+            <v>0.05</v>
+          </cell>
+          <cell r="R440">
+            <v>0.06</v>
+          </cell>
+          <cell r="S440">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="441">
+          <cell r="O441">
+            <v>2</v>
+          </cell>
+          <cell r="P441">
+            <v>0.14000000000000001</v>
+          </cell>
+          <cell r="Q441">
+            <v>0.08</v>
+          </cell>
+          <cell r="R441">
+            <v>0.12</v>
+          </cell>
+          <cell r="S441">
+            <v>0.03</v>
+          </cell>
+        </row>
+        <row r="442">
+          <cell r="O442">
+            <v>3</v>
+          </cell>
+          <cell r="P442">
+            <v>0.15000000000000002</v>
+          </cell>
+          <cell r="Q442">
+            <v>0.12</v>
+          </cell>
+          <cell r="R442">
+            <v>0.16999999999999998</v>
+          </cell>
+          <cell r="S442">
+            <v>0.13</v>
+          </cell>
+        </row>
+        <row r="443">
+          <cell r="O443">
+            <v>4</v>
+          </cell>
+          <cell r="P443">
+            <v>0.23000000000000004</v>
+          </cell>
+          <cell r="Q443">
+            <v>0.24</v>
+          </cell>
+          <cell r="R443">
+            <v>0.26</v>
+          </cell>
+          <cell r="S443">
+            <v>0.19</v>
+          </cell>
+        </row>
+        <row r="444">
+          <cell r="O444">
+            <v>5</v>
+          </cell>
+          <cell r="P444">
+            <v>0.54</v>
+          </cell>
+          <cell r="Q444">
+            <v>0.51</v>
+          </cell>
+          <cell r="R444">
+            <v>0.49</v>
+          </cell>
+          <cell r="S444">
+            <v>0.4</v>
+          </cell>
+        </row>
+        <row r="445">
+          <cell r="O445">
+            <v>6</v>
+          </cell>
+          <cell r="P445">
+            <v>0.65</v>
+          </cell>
+          <cell r="Q445">
+            <v>0.7</v>
+          </cell>
+          <cell r="R445">
+            <v>0.61</v>
+          </cell>
+          <cell r="S445">
+            <v>0.57000000000000006</v>
+          </cell>
+        </row>
+        <row r="446">
+          <cell r="O446">
+            <v>7</v>
+          </cell>
+          <cell r="P446">
+            <v>0.85000000000000009</v>
+          </cell>
+          <cell r="Q446">
+            <v>0.80999999999999994</v>
+          </cell>
+          <cell r="R446">
+            <v>0.84</v>
+          </cell>
+          <cell r="S446">
+            <v>0.81</v>
+          </cell>
+        </row>
+        <row r="447">
+          <cell r="O447">
+            <v>8</v>
+          </cell>
+          <cell r="P447">
+            <v>0.94000000000000006</v>
+          </cell>
+          <cell r="Q447">
+            <v>0.92999999999999994</v>
+          </cell>
+          <cell r="R447">
+            <v>0.94</v>
+          </cell>
+          <cell r="S447">
+            <v>0.88000000000000012</v>
+          </cell>
+        </row>
+        <row r="448">
+          <cell r="O448">
+            <v>9</v>
+          </cell>
+          <cell r="P448">
+            <v>0.98000000000000009</v>
+          </cell>
+          <cell r="Q448">
+            <v>0.96</v>
+          </cell>
+          <cell r="R448">
+            <v>0.96</v>
+          </cell>
+          <cell r="S448">
+            <v>0.95000000000000018</v>
+          </cell>
+        </row>
+        <row r="449">
+          <cell r="O449">
+            <v>10</v>
+          </cell>
+          <cell r="P449">
+            <v>0.9900000000000001</v>
+          </cell>
+          <cell r="Q449">
+            <v>0.99</v>
+          </cell>
+          <cell r="R449">
+            <v>0.99</v>
+          </cell>
+          <cell r="S449">
+            <v>0.9700000000000002</v>
+          </cell>
+        </row>
+        <row r="450">
+          <cell r="O450">
+            <v>11</v>
+          </cell>
+          <cell r="P450">
+            <v>1</v>
+          </cell>
+          <cell r="Q450">
+            <v>1</v>
+          </cell>
+          <cell r="R450">
+            <v>1</v>
+          </cell>
+          <cell r="S450">
+            <v>0.99000000000000021</v>
+          </cell>
+        </row>
+        <row r="451">
+          <cell r="O451">
+            <v>12</v>
+          </cell>
+          <cell r="S451">
+            <v>1.0000000000000002</v>
+          </cell>
+        </row>
+        <row r="520">
+          <cell r="P520" t="str">
+            <v>n=49</v>
+          </cell>
+          <cell r="Q520" t="str">
+            <v>n=100</v>
+          </cell>
+          <cell r="R520" t="str">
+            <v>n=225</v>
+          </cell>
+          <cell r="S520" t="str">
+            <v>n=400</v>
+          </cell>
+        </row>
+        <row r="521">
+          <cell r="O521">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="522">
+          <cell r="O522">
+            <v>10</v>
+          </cell>
+          <cell r="P522">
+            <v>0.59</v>
+          </cell>
+          <cell r="Q522">
+            <v>0.65</v>
+          </cell>
+          <cell r="R522">
+            <v>0.84</v>
+          </cell>
+          <cell r="S522">
+            <v>0.83</v>
+          </cell>
+        </row>
+        <row r="523">
+          <cell r="O523">
+            <v>16</v>
+          </cell>
+          <cell r="P523">
+            <v>0.87999999999999989</v>
+          </cell>
+          <cell r="Q523">
+            <v>0.96</v>
+          </cell>
+          <cell r="R523">
+            <v>0.97</v>
+          </cell>
+          <cell r="S523">
+            <v>0.99</v>
+          </cell>
+        </row>
+        <row r="524">
+          <cell r="O524">
+            <v>27</v>
+          </cell>
+          <cell r="P524">
+            <v>0.99999999999999989</v>
+          </cell>
+          <cell r="Q524">
+            <v>1</v>
+          </cell>
+          <cell r="R524">
+            <v>1</v>
+          </cell>
+          <cell r="S524">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -770,8 +1070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E63BA3A5-E0A8-46A4-B24D-EF36ED812C4F}">
   <dimension ref="A1:AJ111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -990,25 +1290,26 @@
         <v>1</v>
       </c>
       <c r="T3" s="10">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="U3" s="10">
-        <v>16</v>
+        <f>T3+1</f>
+        <v>5</v>
       </c>
       <c r="V3" s="10">
-        <v>39.979999999999997</v>
+        <v>95.138999999999996</v>
       </c>
       <c r="W3" s="10">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X3" s="10">
-        <v>343</v>
+        <v>432</v>
       </c>
       <c r="Y3" s="10">
         <v>10</v>
       </c>
       <c r="Z3" s="10">
-        <v>368</v>
+        <v>440</v>
       </c>
       <c r="AC3" s="5">
         <v>1</v>
@@ -1091,25 +1392,26 @@
         <v>2</v>
       </c>
       <c r="T4" s="10">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="U4" s="10">
-        <v>12</v>
+        <f t="shared" ref="U4:U67" si="0">T4+1</f>
+        <v>8</v>
       </c>
       <c r="V4" s="10">
-        <v>28.369</v>
+        <v>244.27600000000001</v>
       </c>
       <c r="W4" s="10">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="X4" s="10">
-        <v>308</v>
+        <v>763</v>
       </c>
       <c r="Y4" s="10">
         <v>10</v>
       </c>
       <c r="Z4" s="10">
-        <v>314</v>
+        <v>803</v>
       </c>
       <c r="AC4" s="5">
         <f>AC3+1</f>
@@ -1139,7 +1441,7 @@
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
-        <f t="shared" ref="A5:A68" si="0">A4+1</f>
+        <f t="shared" ref="A5:A68" si="1">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="8">
@@ -1164,7 +1466,7 @@
         <v>358</v>
       </c>
       <c r="J5" s="5">
-        <f t="shared" ref="J5:J68" si="1">J4+1</f>
+        <f t="shared" ref="J5:J68" si="2">J4+1</f>
         <v>3</v>
       </c>
       <c r="K5" s="10">
@@ -1189,32 +1491,33 @@
         <v>340</v>
       </c>
       <c r="S5" s="5">
-        <f t="shared" ref="S5:S68" si="2">S4+1</f>
+        <f t="shared" ref="S5:S68" si="3">S4+1</f>
         <v>3</v>
       </c>
       <c r="T5" s="10">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="U5" s="10">
-        <v>11</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="V5" s="10">
-        <v>24.216999999999999</v>
+        <v>73.045000000000002</v>
       </c>
       <c r="W5" s="10">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="X5" s="10">
-        <v>275</v>
+        <v>520</v>
       </c>
       <c r="Y5" s="10">
         <v>10</v>
       </c>
       <c r="Z5" s="10">
-        <v>275</v>
+        <v>547</v>
       </c>
       <c r="AC5" s="5">
-        <f t="shared" ref="AC5:AC68" si="3">AC4+1</f>
+        <f t="shared" ref="AC5:AC68" si="4">AC4+1</f>
         <v>3</v>
       </c>
       <c r="AD5" s="2">
@@ -1241,7 +1544,7 @@
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="B6" s="8">
@@ -1266,7 +1569,7 @@
         <v>258</v>
       </c>
       <c r="J6" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="K6" s="10">
@@ -1291,32 +1594,33 @@
         <v>431</v>
       </c>
       <c r="S6" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="T6" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U6" s="10">
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="V6" s="10">
-        <v>38.142000000000003</v>
+        <v>71.010999999999996</v>
       </c>
       <c r="W6" s="10">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="X6" s="10">
-        <v>289</v>
+        <v>428</v>
       </c>
       <c r="Y6" s="10">
         <v>10</v>
       </c>
       <c r="Z6" s="10">
-        <v>309</v>
+        <v>439</v>
       </c>
       <c r="AC6" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="AD6" s="2">
@@ -1343,7 +1647,7 @@
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="B7" s="8">
@@ -1368,7 +1672,7 @@
         <v>343</v>
       </c>
       <c r="J7" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="K7" s="10">
@@ -1393,32 +1697,33 @@
         <v>419</v>
       </c>
       <c r="S7" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="T7" s="10">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="U7" s="10">
-        <v>28</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="V7" s="10">
-        <v>64.587999999999994</v>
+        <v>83.201999999999998</v>
       </c>
       <c r="W7" s="10">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="X7" s="10">
-        <v>405</v>
+        <v>474</v>
       </c>
       <c r="Y7" s="10">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="Z7" s="10">
-        <v>418</v>
+        <v>499</v>
       </c>
       <c r="AC7" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="AD7" s="2">
@@ -1445,7 +1750,7 @@
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="B8" s="8">
@@ -1470,7 +1775,7 @@
         <v>290</v>
       </c>
       <c r="J8" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="K8" s="10">
@@ -1495,32 +1800,33 @@
         <v>349</v>
       </c>
       <c r="S8" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="T8" s="10">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="U8" s="10">
-        <v>25</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="V8" s="10">
-        <v>58.683999999999997</v>
+        <v>100.82599999999999</v>
       </c>
       <c r="W8" s="10">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X8" s="10">
-        <v>315</v>
+        <v>576</v>
       </c>
       <c r="Y8" s="10">
         <v>10</v>
       </c>
       <c r="Z8" s="10">
-        <v>334</v>
+        <v>601</v>
       </c>
       <c r="AC8" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="AD8" s="2">
@@ -1547,7 +1853,7 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="B9" s="8">
@@ -1572,7 +1878,7 @@
         <v>270</v>
       </c>
       <c r="J9" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="K9" s="10">
@@ -1597,32 +1903,33 @@
         <v>429</v>
       </c>
       <c r="S9" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="T9" s="10">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="U9" s="10">
-        <v>16</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="V9" s="10">
-        <v>35.741</v>
+        <v>213.565</v>
       </c>
       <c r="W9" s="10">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="X9" s="10">
-        <v>317</v>
+        <v>620</v>
       </c>
       <c r="Y9" s="10">
         <v>10</v>
       </c>
       <c r="Z9" s="10">
-        <v>334</v>
+        <v>654</v>
       </c>
       <c r="AC9" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="AD9" s="2">
@@ -1649,7 +1956,7 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="B10" s="8">
@@ -1674,7 +1981,7 @@
         <v>197</v>
       </c>
       <c r="J10" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="K10" s="10">
@@ -1699,32 +2006,33 @@
         <v>463</v>
       </c>
       <c r="S10" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="T10" s="10">
         <v>5</v>
       </c>
       <c r="U10" s="10">
-        <v>33</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="V10" s="10">
-        <v>81.263999999999996</v>
+        <v>67.930999999999997</v>
       </c>
       <c r="W10" s="10">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="X10" s="10">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="Y10" s="10">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="Z10" s="10">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="AC10" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="AD10" s="2">
@@ -1751,7 +2059,7 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="B11" s="8">
@@ -1776,7 +2084,7 @@
         <v>265</v>
       </c>
       <c r="J11" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="K11" s="10">
@@ -1801,32 +2109,33 @@
         <v>295</v>
       </c>
       <c r="S11" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="T11" s="10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="U11" s="10">
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="V11" s="10">
-        <v>25.76</v>
+        <v>85.087999999999994</v>
       </c>
       <c r="W11" s="10">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="X11" s="10">
-        <v>280</v>
+        <v>547</v>
       </c>
       <c r="Y11" s="10">
         <v>10</v>
       </c>
       <c r="Z11" s="10">
-        <v>287</v>
+        <v>574</v>
       </c>
       <c r="AC11" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="AD11" s="2">
@@ -1853,7 +2162,7 @@
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="B12" s="8">
@@ -1878,7 +2187,7 @@
         <v>289</v>
       </c>
       <c r="J12" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="K12" s="10">
@@ -1903,32 +2212,33 @@
         <v>351</v>
       </c>
       <c r="S12" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="T12" s="10">
         <v>5</v>
       </c>
       <c r="U12" s="10">
-        <v>48</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="V12" s="10">
-        <v>120.29900000000001</v>
+        <v>57.808999999999997</v>
       </c>
       <c r="W12" s="10">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="X12" s="10">
-        <v>465</v>
+        <v>448</v>
       </c>
       <c r="Y12" s="10">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="Z12" s="10">
-        <v>484</v>
+        <v>459</v>
       </c>
       <c r="AC12" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="AD12" s="2">
@@ -1955,7 +2265,7 @@
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="B13" s="8">
@@ -1980,7 +2290,7 @@
         <v>260</v>
       </c>
       <c r="J13" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="K13" s="10">
@@ -2005,32 +2315,33 @@
         <v>304</v>
       </c>
       <c r="S13" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="T13" s="10">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="U13" s="10">
-        <v>15</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="V13" s="10">
-        <v>34.337000000000003</v>
+        <v>86.69</v>
       </c>
       <c r="W13" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="X13" s="10">
-        <v>342</v>
+        <v>455</v>
       </c>
       <c r="Y13" s="10">
         <v>10</v>
       </c>
       <c r="Z13" s="10">
-        <v>378</v>
+        <v>469</v>
       </c>
       <c r="AC13" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="AD13" s="2">
@@ -2057,7 +2368,7 @@
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="B14" s="8">
@@ -2082,7 +2393,7 @@
         <v>307</v>
       </c>
       <c r="J14" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="K14" s="10">
@@ -2107,32 +2418,33 @@
         <v>433</v>
       </c>
       <c r="S14" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="T14" s="10">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="U14" s="10">
-        <v>13</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="V14" s="10">
-        <v>27.292999999999999</v>
+        <v>109.754</v>
       </c>
       <c r="W14" s="10">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="X14" s="10">
-        <v>296</v>
+        <v>496</v>
       </c>
       <c r="Y14" s="10">
         <v>10</v>
       </c>
       <c r="Z14" s="10">
-        <v>315</v>
+        <v>504</v>
       </c>
       <c r="AC14" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="AD14" s="2">
@@ -2159,7 +2471,7 @@
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="B15" s="8">
@@ -2184,7 +2496,7 @@
         <v>336</v>
       </c>
       <c r="J15" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="K15" s="10">
@@ -2209,32 +2521,33 @@
         <v>388</v>
       </c>
       <c r="S15" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="T15" s="10">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U15" s="10">
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="V15" s="10">
-        <v>40.018000000000001</v>
+        <v>70.635999999999996</v>
       </c>
       <c r="W15" s="10">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X15" s="10">
-        <v>372</v>
+        <v>530</v>
       </c>
       <c r="Y15" s="10">
         <v>10</v>
       </c>
       <c r="Z15" s="10">
-        <v>411</v>
+        <v>559</v>
       </c>
       <c r="AC15" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="AD15" s="2">
@@ -2261,7 +2574,7 @@
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="B16" s="8">
@@ -2286,7 +2599,7 @@
         <v>339</v>
       </c>
       <c r="J16" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="K16" s="10">
@@ -2311,32 +2624,33 @@
         <v>304</v>
       </c>
       <c r="S16" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="T16" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="U16" s="10">
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="V16" s="10">
-        <v>20.539000000000001</v>
+        <v>165.083</v>
       </c>
       <c r="W16" s="10">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="X16" s="10">
-        <v>249</v>
+        <v>512</v>
       </c>
       <c r="Y16" s="10">
         <v>10</v>
       </c>
       <c r="Z16" s="10">
-        <v>249</v>
+        <v>528</v>
       </c>
       <c r="AC16" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="AD16" s="2">
@@ -2363,7 +2677,7 @@
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="B17" s="8">
@@ -2388,7 +2702,7 @@
         <v>241</v>
       </c>
       <c r="J17" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="K17" s="10">
@@ -2413,32 +2727,33 @@
         <v>432</v>
       </c>
       <c r="S17" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="T17" s="10">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="U17" s="10">
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="V17" s="10">
-        <v>40.798999999999999</v>
+        <v>69.543999999999997</v>
       </c>
       <c r="W17" s="10">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="X17" s="10">
-        <v>381</v>
+        <v>457</v>
       </c>
       <c r="Y17" s="10">
         <v>10</v>
       </c>
       <c r="Z17" s="10">
-        <v>424</v>
+        <v>467</v>
       </c>
       <c r="AC17" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="AD17" s="2">
@@ -2465,7 +2780,7 @@
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="B18" s="8">
@@ -2490,7 +2805,7 @@
         <v>267</v>
       </c>
       <c r="J18" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="K18" s="10">
@@ -2515,32 +2830,33 @@
         <v>303</v>
       </c>
       <c r="S18" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="T18" s="10">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="U18" s="10">
-        <v>11</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="V18" s="10">
-        <v>23.971</v>
+        <v>105.818</v>
       </c>
       <c r="W18" s="10">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="X18" s="10">
-        <v>273</v>
+        <v>505</v>
       </c>
       <c r="Y18" s="10">
         <v>10</v>
       </c>
       <c r="Z18" s="10">
-        <v>274</v>
+        <v>531</v>
       </c>
       <c r="AC18" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="AD18" s="2">
@@ -2567,7 +2883,7 @@
     </row>
     <row r="19" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A19" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="B19" s="8">
@@ -2592,7 +2908,7 @@
         <v>278</v>
       </c>
       <c r="J19" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="K19" s="10">
@@ -2617,32 +2933,33 @@
         <v>427</v>
       </c>
       <c r="S19" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="T19" s="10">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="U19" s="10">
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="V19" s="10">
-        <v>45.116</v>
+        <v>239.001</v>
       </c>
       <c r="W19" s="10">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="X19" s="10">
-        <v>324</v>
+        <v>572</v>
       </c>
       <c r="Y19" s="10">
         <v>10</v>
       </c>
       <c r="Z19" s="10">
-        <v>344</v>
+        <v>610</v>
       </c>
       <c r="AC19" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="AD19" s="2">
@@ -2669,7 +2986,7 @@
     </row>
     <row r="20" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="B20" s="8">
@@ -2694,7 +3011,7 @@
         <v>245</v>
       </c>
       <c r="J20" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="K20" s="10">
@@ -2719,32 +3036,33 @@
         <v>398</v>
       </c>
       <c r="S20" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="T20" s="10">
+        <v>5</v>
+      </c>
+      <c r="U20" s="10">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="U20" s="10">
-        <v>33</v>
-      </c>
       <c r="V20" s="10">
-        <v>75.853999999999999</v>
+        <v>76.448999999999998</v>
       </c>
       <c r="W20" s="10">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="X20" s="10">
-        <v>365</v>
+        <v>673</v>
       </c>
       <c r="Y20" s="10">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="Z20" s="10">
-        <v>393</v>
+        <v>685</v>
       </c>
       <c r="AC20" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="AD20" s="2">
@@ -2771,7 +3089,7 @@
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="B21" s="8">
@@ -2796,7 +3114,7 @@
         <v>199</v>
       </c>
       <c r="J21" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="K21" s="10">
@@ -2821,32 +3139,33 @@
         <v>357</v>
       </c>
       <c r="S21" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="T21" s="10">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="U21" s="10">
-        <v>14</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="V21" s="10">
-        <v>30.100999999999999</v>
+        <v>94.260999999999996</v>
       </c>
       <c r="W21" s="10">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="X21" s="10">
-        <v>444</v>
+        <v>474</v>
       </c>
       <c r="Y21" s="10">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="Z21" s="10">
-        <v>459</v>
+        <v>501</v>
       </c>
       <c r="AC21" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="AD21" s="2">
@@ -2873,7 +3192,7 @@
     </row>
     <row r="22" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="B22" s="8">
@@ -2898,7 +3217,7 @@
         <v>321</v>
       </c>
       <c r="J22" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="K22" s="10">
@@ -2923,32 +3242,33 @@
         <v>473</v>
       </c>
       <c r="S22" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="T22" s="10">
         <v>7</v>
       </c>
       <c r="U22" s="10">
-        <v>41</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="V22" s="10">
-        <v>94.14</v>
+        <v>94.06</v>
       </c>
       <c r="W22" s="10">
         <v>16</v>
       </c>
       <c r="X22" s="10">
-        <v>409</v>
+        <v>607</v>
       </c>
       <c r="Y22" s="10">
         <v>10</v>
       </c>
       <c r="Z22" s="10">
-        <v>446</v>
+        <v>640</v>
       </c>
       <c r="AC22" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="AD22" s="2">
@@ -2975,7 +3295,7 @@
     </row>
     <row r="23" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="B23" s="8">
@@ -3000,7 +3320,7 @@
         <v>338</v>
       </c>
       <c r="J23" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="K23" s="10">
@@ -3025,32 +3345,33 @@
         <v>277</v>
       </c>
       <c r="S23" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="T23" s="10">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="U23" s="10">
-        <v>23</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="V23" s="10">
-        <v>52.295000000000002</v>
+        <v>48.83</v>
       </c>
       <c r="W23" s="10">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="X23" s="10">
-        <v>323</v>
+        <v>415</v>
       </c>
       <c r="Y23" s="10">
         <v>10</v>
       </c>
       <c r="Z23" s="10">
-        <v>353</v>
+        <v>415</v>
       </c>
       <c r="AC23" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="AD23" s="2">
@@ -3077,7 +3398,7 @@
     </row>
     <row r="24" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="B24" s="8">
@@ -3102,7 +3423,7 @@
         <v>346</v>
       </c>
       <c r="J24" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="K24" s="10">
@@ -3127,32 +3448,33 @@
         <v>442</v>
       </c>
       <c r="S24" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="T24" s="10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U24" s="10">
-        <v>25</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="V24" s="10">
-        <v>55.11</v>
+        <v>101.235</v>
       </c>
       <c r="W24" s="10">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="X24" s="10">
-        <v>477</v>
+        <v>490</v>
       </c>
       <c r="Y24" s="10">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="Z24" s="10">
-        <v>496</v>
+        <v>515</v>
       </c>
       <c r="AC24" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="AD24" s="2">
@@ -3179,7 +3501,7 @@
     </row>
     <row r="25" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A25" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="B25" s="8">
@@ -3204,7 +3526,7 @@
         <v>273</v>
       </c>
       <c r="J25" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="K25" s="10">
@@ -3229,32 +3551,33 @@
         <v>296</v>
       </c>
       <c r="S25" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="T25" s="10">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="U25" s="10">
-        <v>17</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="V25" s="10">
-        <v>38.432000000000002</v>
+        <v>94.149000000000001</v>
       </c>
       <c r="W25" s="10">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="X25" s="10">
-        <v>421</v>
+        <v>447</v>
       </c>
       <c r="Y25" s="10">
         <v>10</v>
       </c>
       <c r="Z25" s="10">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="AC25" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
       <c r="AD25" s="2">
@@ -3281,7 +3604,7 @@
     </row>
     <row r="26" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A26" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="B26" s="8">
@@ -3306,7 +3629,7 @@
         <v>330</v>
       </c>
       <c r="J26" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="K26" s="10">
@@ -3331,32 +3654,33 @@
         <v>482</v>
       </c>
       <c r="S26" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="T26" s="10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U26" s="10">
-        <v>19</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="V26" s="10">
-        <v>40.344000000000001</v>
+        <v>187.10499999999999</v>
       </c>
       <c r="W26" s="10">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="X26" s="10">
-        <v>449</v>
+        <v>782</v>
       </c>
       <c r="Y26" s="10">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="Z26" s="10">
-        <v>462</v>
+        <v>782</v>
       </c>
       <c r="AC26" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="AD26" s="2">
@@ -3383,7 +3707,7 @@
     </row>
     <row r="27" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="B27" s="8">
@@ -3408,7 +3732,7 @@
         <v>334</v>
       </c>
       <c r="J27" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="K27" s="10">
@@ -3433,32 +3757,33 @@
         <v>408</v>
       </c>
       <c r="S27" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="T27" s="10">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="U27" s="10">
-        <v>16</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="V27" s="10">
-        <v>35.987000000000002</v>
+        <v>89.397999999999996</v>
       </c>
       <c r="W27" s="10">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="X27" s="10">
-        <v>306</v>
+        <v>568</v>
       </c>
       <c r="Y27" s="10">
         <v>10</v>
       </c>
       <c r="Z27" s="10">
-        <v>324</v>
+        <v>600</v>
       </c>
       <c r="AC27" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="AD27" s="2">
@@ -3485,7 +3810,7 @@
     </row>
     <row r="28" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="B28" s="8">
@@ -3510,7 +3835,7 @@
         <v>238</v>
       </c>
       <c r="J28" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="K28" s="10">
@@ -3535,32 +3860,33 @@
         <v>467</v>
       </c>
       <c r="S28" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
       <c r="T28" s="10">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="U28" s="10">
-        <v>15</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="V28" s="10">
-        <v>32.585999999999999</v>
+        <v>138.13399999999999</v>
       </c>
       <c r="W28" s="10">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="X28" s="10">
-        <v>285</v>
+        <v>708</v>
       </c>
       <c r="Y28" s="10">
         <v>10</v>
       </c>
       <c r="Z28" s="10">
-        <v>295</v>
+        <v>744</v>
       </c>
       <c r="AC28" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="AD28" s="2">
@@ -3587,7 +3913,7 @@
     </row>
     <row r="29" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="B29" s="8">
@@ -3612,7 +3938,7 @@
         <v>274</v>
       </c>
       <c r="J29" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="K29" s="10">
@@ -3637,32 +3963,33 @@
         <v>417</v>
       </c>
       <c r="S29" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="T29" s="10">
         <v>10</v>
       </c>
       <c r="U29" s="10">
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>11</v>
       </c>
       <c r="V29" s="10">
-        <v>77</v>
+        <v>120.444</v>
       </c>
       <c r="W29" s="10">
         <v>19</v>
       </c>
       <c r="X29" s="10">
-        <v>375</v>
+        <v>590</v>
       </c>
       <c r="Y29" s="10">
         <v>10</v>
       </c>
       <c r="Z29" s="10">
-        <v>413</v>
+        <v>630</v>
       </c>
       <c r="AC29" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
       <c r="AD29" s="2">
@@ -3689,7 +4016,7 @@
     </row>
     <row r="30" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A30" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="B30" s="8">
@@ -3714,7 +4041,7 @@
         <v>259</v>
       </c>
       <c r="J30" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="K30" s="10">
@@ -3739,32 +4066,33 @@
         <v>492</v>
       </c>
       <c r="S30" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="T30" s="10">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="U30" s="10">
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="V30" s="10">
-        <v>26.23</v>
+        <v>127.532</v>
       </c>
       <c r="W30" s="10">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X30" s="10">
-        <v>361</v>
+        <v>527</v>
       </c>
       <c r="Y30" s="10">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="Z30" s="10">
-        <v>370</v>
+        <v>556</v>
       </c>
       <c r="AC30" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="AD30" s="2">
@@ -3791,7 +4119,7 @@
     </row>
     <row r="31" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A31" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="B31" s="8">
@@ -3816,7 +4144,7 @@
         <v>223</v>
       </c>
       <c r="J31" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="K31" s="10">
@@ -3841,32 +4169,33 @@
         <v>416</v>
       </c>
       <c r="S31" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>29</v>
       </c>
       <c r="T31" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U31" s="10">
-        <v>16</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="V31" s="10">
-        <v>35.280999999999999</v>
+        <v>105.97799999999999</v>
       </c>
       <c r="W31" s="10">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="X31" s="10">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="Y31" s="10">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="Z31" s="10">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AC31" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
       <c r="AD31" s="2">
@@ -3893,7 +4222,7 @@
     </row>
     <row r="32" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A32" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="B32" s="8">
@@ -3918,7 +4247,7 @@
         <v>276</v>
       </c>
       <c r="J32" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="K32" s="10">
@@ -3943,32 +4272,33 @@
         <v>440</v>
       </c>
       <c r="S32" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="T32" s="10">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="U32" s="10">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="V32" s="10">
+        <v>94.635000000000005</v>
+      </c>
+      <c r="W32" s="10">
         <v>13</v>
       </c>
-      <c r="V32" s="10">
-        <v>28.283999999999999</v>
-      </c>
-      <c r="W32" s="10">
-        <v>21</v>
-      </c>
       <c r="X32" s="10">
-        <v>403</v>
+        <v>489</v>
       </c>
       <c r="Y32" s="10">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="Z32" s="10">
-        <v>417</v>
+        <v>505</v>
       </c>
       <c r="AC32" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="AD32" s="2">
@@ -3995,7 +4325,7 @@
     </row>
     <row r="33" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A33" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="B33" s="8">
@@ -4020,7 +4350,7 @@
         <v>276</v>
       </c>
       <c r="J33" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
       <c r="K33" s="10">
@@ -4045,32 +4375,33 @@
         <v>387</v>
       </c>
       <c r="S33" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="T33" s="10">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="U33" s="10">
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="V33" s="10">
-        <v>37.601999999999997</v>
+        <v>87.183999999999997</v>
       </c>
       <c r="W33" s="10">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="X33" s="10">
-        <v>443</v>
+        <v>574</v>
       </c>
       <c r="Y33" s="10">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="Z33" s="10">
-        <v>460</v>
+        <v>609</v>
       </c>
       <c r="AC33" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
       <c r="AD33" s="2">
@@ -4097,7 +4428,7 @@
     </row>
     <row r="34" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A34" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="B34" s="8">
@@ -4122,7 +4453,7 @@
         <v>304</v>
       </c>
       <c r="J34" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="K34" s="10">
@@ -4147,32 +4478,33 @@
         <v>398</v>
       </c>
       <c r="S34" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
       <c r="T34" s="10">
         <v>5</v>
       </c>
       <c r="U34" s="10">
-        <v>48</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="V34" s="10">
-        <v>109.93600000000001</v>
+        <v>98.123999999999995</v>
       </c>
       <c r="W34" s="10">
         <v>20</v>
       </c>
       <c r="X34" s="10">
-        <v>492</v>
+        <v>702</v>
       </c>
       <c r="Y34" s="10">
         <v>16</v>
       </c>
       <c r="Z34" s="10">
-        <v>512</v>
+        <v>720</v>
       </c>
       <c r="AC34" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="AD34" s="2">
@@ -4199,7 +4531,7 @@
     </row>
     <row r="35" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A35" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="B35" s="8">
@@ -4224,7 +4556,7 @@
         <v>330</v>
       </c>
       <c r="J35" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
       <c r="K35" s="10">
@@ -4249,32 +4581,33 @@
         <v>299</v>
       </c>
       <c r="S35" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
       <c r="T35" s="10">
+        <v>5</v>
+      </c>
+      <c r="U35" s="10">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="U35" s="10">
-        <v>17</v>
-      </c>
       <c r="V35" s="10">
-        <v>35.915999999999997</v>
+        <v>72.262</v>
       </c>
       <c r="W35" s="10">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="X35" s="10">
-        <v>372</v>
+        <v>466</v>
       </c>
       <c r="Y35" s="10">
         <v>10</v>
       </c>
       <c r="Z35" s="10">
-        <v>400</v>
+        <v>483</v>
       </c>
       <c r="AC35" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>33</v>
       </c>
       <c r="AD35" s="2">
@@ -4301,7 +4634,7 @@
     </row>
     <row r="36" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A36" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="B36" s="8">
@@ -4326,7 +4659,7 @@
         <v>278</v>
       </c>
       <c r="J36" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
       <c r="K36" s="10">
@@ -4351,32 +4684,33 @@
         <v>461</v>
       </c>
       <c r="S36" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
       <c r="T36" s="10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U36" s="10">
-        <v>16</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="V36" s="10">
-        <v>34.869999999999997</v>
+        <v>111.747</v>
       </c>
       <c r="W36" s="10">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="X36" s="10">
-        <v>401</v>
+        <v>454</v>
       </c>
       <c r="Y36" s="10">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="Z36" s="10">
-        <v>412</v>
+        <v>474</v>
       </c>
       <c r="AC36" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>34</v>
       </c>
       <c r="AD36" s="2">
@@ -4403,7 +4737,7 @@
     </row>
     <row r="37" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A37" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="B37" s="8">
@@ -4428,7 +4762,7 @@
         <v>292</v>
       </c>
       <c r="J37" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="K37" s="10">
@@ -4453,32 +4787,33 @@
         <v>389</v>
       </c>
       <c r="S37" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
       <c r="T37" s="10">
         <v>5</v>
       </c>
       <c r="U37" s="10">
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="V37" s="10">
-        <v>37.503999999999998</v>
+        <v>90.671999999999997</v>
       </c>
       <c r="W37" s="10">
         <v>20</v>
       </c>
       <c r="X37" s="10">
-        <v>488</v>
+        <v>611</v>
       </c>
       <c r="Y37" s="10">
         <v>16</v>
       </c>
       <c r="Z37" s="10">
-        <v>504</v>
+        <v>622</v>
       </c>
       <c r="AC37" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="AD37" s="2">
@@ -4505,7 +4840,7 @@
     </row>
     <row r="38" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A38" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="B38" s="8">
@@ -4530,7 +4865,7 @@
         <v>239</v>
       </c>
       <c r="J38" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="K38" s="10">
@@ -4555,32 +4890,33 @@
         <v>430</v>
       </c>
       <c r="S38" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>36</v>
       </c>
       <c r="T38" s="10">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="U38" s="10">
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="V38" s="10">
-        <v>25.276</v>
+        <v>101.70399999999999</v>
       </c>
       <c r="W38" s="10">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="X38" s="10">
-        <v>301</v>
+        <v>491</v>
       </c>
       <c r="Y38" s="10">
         <v>10</v>
       </c>
       <c r="Z38" s="10">
-        <v>313</v>
+        <v>515</v>
       </c>
       <c r="AC38" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="AD38" s="2">
@@ -4607,7 +4943,7 @@
     </row>
     <row r="39" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A39" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="B39" s="8">
@@ -4632,7 +4968,7 @@
         <v>270</v>
       </c>
       <c r="J39" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>37</v>
       </c>
       <c r="K39" s="10">
@@ -4657,32 +4993,33 @@
         <v>505</v>
       </c>
       <c r="S39" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>37</v>
       </c>
       <c r="T39" s="10">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="U39" s="10">
-        <v>26</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="V39" s="10">
-        <v>57.658999999999999</v>
+        <v>111.694</v>
       </c>
       <c r="W39" s="10">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="X39" s="10">
-        <v>372</v>
+        <v>486</v>
       </c>
       <c r="Y39" s="10">
         <v>10</v>
       </c>
       <c r="Z39" s="10">
-        <v>410</v>
+        <v>508</v>
       </c>
       <c r="AC39" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>37</v>
       </c>
       <c r="AD39" s="2">
@@ -4709,7 +5046,7 @@
     </row>
     <row r="40" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A40" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="B40" s="8">
@@ -4734,7 +5071,7 @@
         <v>341</v>
       </c>
       <c r="J40" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>38</v>
       </c>
       <c r="K40" s="10">
@@ -4759,32 +5096,33 @@
         <v>420</v>
       </c>
       <c r="S40" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>38</v>
       </c>
       <c r="T40" s="10">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="U40" s="10">
-        <v>15</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="V40" s="10">
-        <v>31.870999999999999</v>
+        <v>102.572</v>
       </c>
       <c r="W40" s="10">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="X40" s="10">
-        <v>419</v>
+        <v>608</v>
       </c>
       <c r="Y40" s="10">
         <v>16</v>
       </c>
       <c r="Z40" s="10">
-        <v>435</v>
+        <v>617</v>
       </c>
       <c r="AC40" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>38</v>
       </c>
       <c r="AD40" s="2">
@@ -4811,7 +5149,7 @@
     </row>
     <row r="41" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A41" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="B41" s="8">
@@ -4836,7 +5174,7 @@
         <v>267</v>
       </c>
       <c r="J41" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>39</v>
       </c>
       <c r="K41" s="10">
@@ -4861,32 +5199,33 @@
         <v>405</v>
       </c>
       <c r="S41" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>39</v>
       </c>
       <c r="T41" s="10">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="U41" s="10">
-        <v>15</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="V41" s="10">
-        <v>31.643000000000001</v>
+        <v>136.077</v>
       </c>
       <c r="W41" s="10">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="X41" s="10">
-        <v>496</v>
+        <v>614</v>
       </c>
       <c r="Y41" s="10">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="Z41" s="10">
-        <v>515</v>
+        <v>648</v>
       </c>
       <c r="AC41" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>39</v>
       </c>
       <c r="AD41" s="2">
@@ -4913,7 +5252,7 @@
     </row>
     <row r="42" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A42" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="B42" s="8">
@@ -4938,7 +5277,7 @@
         <v>296</v>
       </c>
       <c r="J42" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="K42" s="10">
@@ -4963,32 +5302,33 @@
         <v>362</v>
       </c>
       <c r="S42" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="T42" s="10">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="U42" s="10">
-        <v>16</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="V42" s="10">
-        <v>34.343000000000004</v>
+        <v>259.23</v>
       </c>
       <c r="W42" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="X42" s="10">
-        <v>355</v>
+        <v>708</v>
       </c>
       <c r="Y42" s="10">
         <v>10</v>
       </c>
       <c r="Z42" s="10">
-        <v>396</v>
+        <v>750</v>
       </c>
       <c r="AC42" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
       <c r="AD42" s="2">
@@ -5015,7 +5355,7 @@
     </row>
     <row r="43" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A43" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>41</v>
       </c>
       <c r="B43" s="8">
@@ -5040,7 +5380,7 @@
         <v>230</v>
       </c>
       <c r="J43" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>41</v>
       </c>
       <c r="K43" s="10">
@@ -5065,32 +5405,33 @@
         <v>440</v>
       </c>
       <c r="S43" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>41</v>
       </c>
       <c r="T43" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="U43" s="10">
-        <v>23</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="V43" s="10">
-        <v>49.308999999999997</v>
+        <v>87.183999999999997</v>
       </c>
       <c r="W43" s="10">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="X43" s="10">
-        <v>341</v>
+        <v>415</v>
       </c>
       <c r="Y43" s="10">
         <v>10</v>
       </c>
       <c r="Z43" s="10">
-        <v>367</v>
+        <v>424</v>
       </c>
       <c r="AC43" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>41</v>
       </c>
       <c r="AD43" s="2">
@@ -5117,7 +5458,7 @@
     </row>
     <row r="44" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A44" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="B44" s="8">
@@ -5142,7 +5483,7 @@
         <v>283</v>
       </c>
       <c r="J44" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42</v>
       </c>
       <c r="K44" s="10">
@@ -5167,32 +5508,33 @@
         <v>482</v>
       </c>
       <c r="S44" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>42</v>
       </c>
       <c r="T44" s="10">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="U44" s="10">
-        <v>28</v>
+        <f t="shared" si="0"/>
+        <v>11</v>
       </c>
       <c r="V44" s="10">
-        <v>60.606999999999999</v>
+        <v>139.02799999999999</v>
       </c>
       <c r="W44" s="10">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X44" s="10">
-        <v>359</v>
+        <v>567</v>
       </c>
       <c r="Y44" s="10">
         <v>10</v>
       </c>
       <c r="Z44" s="10">
-        <v>391</v>
+        <v>608</v>
       </c>
       <c r="AC44" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>42</v>
       </c>
       <c r="AD44" s="2">
@@ -5219,7 +5561,7 @@
     </row>
     <row r="45" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A45" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
       <c r="B45" s="8">
@@ -5244,7 +5586,7 @@
         <v>364</v>
       </c>
       <c r="J45" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>43</v>
       </c>
       <c r="K45" s="10">
@@ -5269,32 +5611,33 @@
         <v>335</v>
       </c>
       <c r="S45" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43</v>
       </c>
       <c r="T45" s="10">
+        <v>7</v>
+      </c>
+      <c r="U45" s="10">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="U45" s="10">
-        <v>29</v>
-      </c>
       <c r="V45" s="10">
-        <v>63.491999999999997</v>
+        <v>281.87299999999999</v>
       </c>
       <c r="W45" s="10">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="X45" s="10">
-        <v>355</v>
+        <v>655</v>
       </c>
       <c r="Y45" s="10">
         <v>10</v>
       </c>
       <c r="Z45" s="10">
-        <v>388</v>
+        <v>691</v>
       </c>
       <c r="AC45" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43</v>
       </c>
       <c r="AD45" s="2">
@@ -5321,7 +5664,7 @@
     </row>
     <row r="46" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A46" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
       <c r="B46" s="8">
@@ -5346,7 +5689,7 @@
         <v>339</v>
       </c>
       <c r="J46" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>44</v>
       </c>
       <c r="K46" s="10">
@@ -5371,32 +5714,33 @@
         <v>452</v>
       </c>
       <c r="S46" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>44</v>
       </c>
       <c r="T46" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="U46" s="10">
-        <v>43</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="V46" s="10">
-        <v>93.12</v>
+        <v>65.995999999999995</v>
       </c>
       <c r="W46" s="10">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="X46" s="10">
-        <v>521</v>
+        <v>610</v>
       </c>
       <c r="Y46" s="10">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="Z46" s="10">
-        <v>521</v>
+        <v>624</v>
       </c>
       <c r="AC46" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>44</v>
       </c>
       <c r="AD46" s="2">
@@ -5423,7 +5767,7 @@
     </row>
     <row r="47" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A47" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="B47" s="8">
@@ -5448,7 +5792,7 @@
         <v>223</v>
       </c>
       <c r="J47" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45</v>
       </c>
       <c r="K47" s="10">
@@ -5473,32 +5817,33 @@
         <v>403</v>
       </c>
       <c r="S47" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45</v>
       </c>
       <c r="T47" s="10">
         <v>5</v>
       </c>
       <c r="U47" s="10">
-        <v>21</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="V47" s="10">
-        <v>43.095999999999997</v>
+        <v>116.49</v>
       </c>
       <c r="W47" s="10">
         <v>20</v>
       </c>
       <c r="X47" s="10">
-        <v>427</v>
+        <v>619</v>
       </c>
       <c r="Y47" s="10">
         <v>16</v>
       </c>
       <c r="Z47" s="10">
-        <v>440</v>
+        <v>629</v>
       </c>
       <c r="AC47" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>45</v>
       </c>
       <c r="AD47" s="2">
@@ -5525,7 +5870,7 @@
     </row>
     <row r="48" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A48" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
       <c r="B48" s="8">
@@ -5550,7 +5895,7 @@
         <v>227</v>
       </c>
       <c r="J48" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>46</v>
       </c>
       <c r="K48" s="10">
@@ -5575,32 +5920,33 @@
         <v>317</v>
       </c>
       <c r="S48" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>46</v>
       </c>
       <c r="T48" s="10">
         <v>7</v>
       </c>
       <c r="U48" s="10">
-        <v>24</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="V48" s="10">
-        <v>52.671999999999997</v>
+        <v>179.59100000000001</v>
       </c>
       <c r="W48" s="10">
         <v>16</v>
       </c>
       <c r="X48" s="10">
-        <v>380</v>
+        <v>557</v>
       </c>
       <c r="Y48" s="10">
         <v>10</v>
       </c>
       <c r="Z48" s="10">
-        <v>414</v>
+        <v>587</v>
       </c>
       <c r="AC48" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>46</v>
       </c>
       <c r="AD48" s="2">
@@ -5627,7 +5973,7 @@
     </row>
     <row r="49" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A49" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="B49" s="8">
@@ -5652,7 +5998,7 @@
         <v>326</v>
       </c>
       <c r="J49" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>47</v>
       </c>
       <c r="K49" s="10">
@@ -5677,32 +6023,33 @@
         <v>441</v>
       </c>
       <c r="S49" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>47</v>
       </c>
       <c r="T49" s="10">
+        <v>7</v>
+      </c>
+      <c r="U49" s="10">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="U49" s="10">
-        <v>30</v>
-      </c>
       <c r="V49" s="10">
-        <v>61.5</v>
+        <v>169.34800000000001</v>
       </c>
       <c r="W49" s="10">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="X49" s="10">
-        <v>433</v>
+        <v>573</v>
       </c>
       <c r="Y49" s="10">
         <v>10</v>
       </c>
       <c r="Z49" s="10">
-        <v>469</v>
+        <v>608</v>
       </c>
       <c r="AC49" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>47</v>
       </c>
       <c r="AD49" s="2">
@@ -5729,7 +6076,7 @@
     </row>
     <row r="50" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A50" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="B50" s="8">
@@ -5754,7 +6101,7 @@
         <v>263</v>
       </c>
       <c r="J50" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>48</v>
       </c>
       <c r="K50" s="10">
@@ -5779,32 +6126,33 @@
         <v>397</v>
       </c>
       <c r="S50" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>48</v>
       </c>
       <c r="T50" s="10">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="U50" s="10">
-        <v>19</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="V50" s="10">
-        <v>38.972000000000001</v>
+        <v>343.73099999999999</v>
       </c>
       <c r="W50" s="10">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="X50" s="10">
-        <v>473</v>
+        <v>591</v>
       </c>
       <c r="Y50" s="10">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="Z50" s="10">
-        <v>490</v>
+        <v>628</v>
       </c>
       <c r="AC50" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>48</v>
       </c>
       <c r="AD50" s="2">
@@ -5831,7 +6179,7 @@
     </row>
     <row r="51" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A51" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>49</v>
       </c>
       <c r="B51" s="8">
@@ -5856,7 +6204,7 @@
         <v>328</v>
       </c>
       <c r="J51" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>49</v>
       </c>
       <c r="K51" s="10">
@@ -5881,32 +6229,33 @@
         <v>312</v>
       </c>
       <c r="S51" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>49</v>
       </c>
       <c r="T51" s="10">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U51" s="10">
-        <v>27</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="V51" s="10">
-        <v>59.097000000000001</v>
+        <v>198.57599999999999</v>
       </c>
       <c r="W51" s="10">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X51" s="10">
-        <v>350</v>
+        <v>515</v>
       </c>
       <c r="Y51" s="10">
         <v>10</v>
       </c>
       <c r="Z51" s="10">
-        <v>382</v>
+        <v>544</v>
       </c>
       <c r="AC51" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>49</v>
       </c>
       <c r="AD51" s="2">
@@ -5933,7 +6282,7 @@
     </row>
     <row r="52" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A52" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="B52" s="8">
@@ -5958,7 +6307,7 @@
         <v>338</v>
       </c>
       <c r="J52" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="K52" s="10">
@@ -5983,32 +6332,33 @@
         <v>366</v>
       </c>
       <c r="S52" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="T52" s="10">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="U52" s="10">
-        <v>14</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="V52" s="10">
-        <v>30.417999999999999</v>
+        <v>382.142</v>
       </c>
       <c r="W52" s="10">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="X52" s="10">
-        <v>432</v>
+        <v>638</v>
       </c>
       <c r="Y52" s="10">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="Z52" s="10">
-        <v>442</v>
+        <v>678</v>
       </c>
       <c r="AC52" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="AD52" s="2">
@@ -6035,7 +6385,7 @@
     </row>
     <row r="53" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A53" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>51</v>
       </c>
       <c r="B53" s="8">
@@ -6060,7 +6410,7 @@
         <v>288</v>
       </c>
       <c r="J53" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>51</v>
       </c>
       <c r="K53" s="10">
@@ -6085,32 +6435,33 @@
         <v>388</v>
       </c>
       <c r="S53" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>51</v>
       </c>
       <c r="T53" s="10">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="U53" s="10">
-        <v>13</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="V53" s="10">
-        <v>27.302</v>
+        <v>141.93</v>
       </c>
       <c r="W53" s="10">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="X53" s="10">
-        <v>384</v>
+        <v>537</v>
       </c>
       <c r="Y53" s="10">
         <v>10</v>
       </c>
       <c r="Z53" s="10">
-        <v>418</v>
+        <v>557</v>
       </c>
       <c r="AC53" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>51</v>
       </c>
       <c r="AD53" s="2">
@@ -6137,7 +6488,7 @@
     </row>
     <row r="54" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A54" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>52</v>
       </c>
       <c r="B54" s="8">
@@ -6162,7 +6513,7 @@
         <v>269</v>
       </c>
       <c r="J54" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>52</v>
       </c>
       <c r="K54" s="10">
@@ -6187,32 +6538,33 @@
         <v>449</v>
       </c>
       <c r="S54" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>52</v>
       </c>
       <c r="T54" s="10">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="U54" s="10">
-        <v>14</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="V54" s="10">
-        <v>29.082000000000001</v>
+        <v>181.96899999999999</v>
       </c>
       <c r="W54" s="10">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="X54" s="10">
-        <v>411</v>
+        <v>625</v>
       </c>
       <c r="Y54" s="10">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="Z54" s="10">
-        <v>425</v>
+        <v>662</v>
       </c>
       <c r="AC54" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>52</v>
       </c>
       <c r="AD54" s="2">
@@ -6239,7 +6591,7 @@
     </row>
     <row r="55" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A55" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="B55" s="8">
@@ -6264,7 +6616,7 @@
         <v>313</v>
       </c>
       <c r="J55" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>53</v>
       </c>
       <c r="K55" s="10">
@@ -6289,32 +6641,33 @@
         <v>441</v>
       </c>
       <c r="S55" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>53</v>
       </c>
       <c r="T55" s="10">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="U55" s="10">
-        <v>15</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="V55" s="10">
-        <v>31.355</v>
+        <v>152.56899999999999</v>
       </c>
       <c r="W55" s="10">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="X55" s="10">
-        <v>369</v>
+        <v>456</v>
       </c>
       <c r="Y55" s="10">
         <v>10</v>
       </c>
       <c r="Z55" s="10">
-        <v>399</v>
+        <v>473</v>
       </c>
       <c r="AC55" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>53</v>
       </c>
       <c r="AD55" s="2">
@@ -6341,7 +6694,7 @@
     </row>
     <row r="56" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A56" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>54</v>
       </c>
       <c r="B56" s="8">
@@ -6366,7 +6719,7 @@
         <v>347</v>
       </c>
       <c r="J56" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>54</v>
       </c>
       <c r="K56" s="10">
@@ -6391,32 +6744,33 @@
         <v>368</v>
       </c>
       <c r="S56" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>54</v>
       </c>
       <c r="T56" s="10">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="U56" s="10">
-        <v>46</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="V56" s="10">
-        <v>98.581999999999994</v>
+        <v>96.656999999999996</v>
       </c>
       <c r="W56" s="10">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X56" s="10">
-        <v>435</v>
+        <v>625</v>
       </c>
       <c r="Y56" s="10">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="Z56" s="10">
-        <v>459</v>
+        <v>671</v>
       </c>
       <c r="AC56" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>54</v>
       </c>
       <c r="AD56" s="2">
@@ -6443,7 +6797,7 @@
     </row>
     <row r="57" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A57" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>55</v>
       </c>
       <c r="B57" s="8">
@@ -6468,7 +6822,7 @@
         <v>218</v>
       </c>
       <c r="J57" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>55</v>
       </c>
       <c r="K57" s="10">
@@ -6493,32 +6847,33 @@
         <v>261</v>
       </c>
       <c r="S57" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>55</v>
       </c>
       <c r="T57" s="10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U57" s="10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="V57" s="10">
+        <v>78.650999999999996</v>
+      </c>
+      <c r="W57" s="10">
         <v>27</v>
       </c>
-      <c r="V57" s="10">
-        <v>56.658999999999999</v>
-      </c>
-      <c r="W57" s="10">
-        <v>20</v>
-      </c>
       <c r="X57" s="10">
-        <v>411</v>
+        <v>717</v>
       </c>
       <c r="Y57" s="10">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="Z57" s="10">
-        <v>424</v>
+        <v>717</v>
       </c>
       <c r="AC57" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>55</v>
       </c>
       <c r="AD57" s="2">
@@ -6545,7 +6900,7 @@
     </row>
     <row r="58" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A58" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>56</v>
       </c>
       <c r="B58" s="8">
@@ -6570,7 +6925,7 @@
         <v>306</v>
       </c>
       <c r="J58" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>56</v>
       </c>
       <c r="K58" s="10">
@@ -6595,32 +6950,33 @@
         <v>361</v>
       </c>
       <c r="S58" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>56</v>
       </c>
       <c r="T58" s="10">
+        <v>7</v>
+      </c>
+      <c r="U58" s="10">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="U58" s="10">
-        <v>18</v>
-      </c>
       <c r="V58" s="10">
-        <v>37.186999999999998</v>
+        <v>115.18300000000001</v>
       </c>
       <c r="W58" s="10">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="X58" s="10">
-        <v>313</v>
+        <v>607</v>
       </c>
       <c r="Y58" s="10">
         <v>10</v>
       </c>
       <c r="Z58" s="10">
-        <v>339</v>
+        <v>642</v>
       </c>
       <c r="AC58" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>56</v>
       </c>
       <c r="AD58" s="2">
@@ -6647,7 +7003,7 @@
     </row>
     <row r="59" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A59" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>57</v>
       </c>
       <c r="B59" s="8">
@@ -6672,7 +7028,7 @@
         <v>283</v>
       </c>
       <c r="J59" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>57</v>
       </c>
       <c r="K59" s="10">
@@ -6697,32 +7053,33 @@
         <v>304</v>
       </c>
       <c r="S59" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>57</v>
       </c>
       <c r="T59" s="10">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="U59" s="10">
-        <v>11</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="V59" s="10">
-        <v>21.303999999999998</v>
+        <v>116.52</v>
       </c>
       <c r="W59" s="10">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="X59" s="10">
-        <v>275</v>
+        <v>496</v>
       </c>
       <c r="Y59" s="10">
         <v>10</v>
       </c>
       <c r="Z59" s="10">
-        <v>280</v>
+        <v>517</v>
       </c>
       <c r="AC59" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>57</v>
       </c>
       <c r="AD59" s="2">
@@ -6749,7 +7106,7 @@
     </row>
     <row r="60" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A60" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>58</v>
       </c>
       <c r="B60" s="8">
@@ -6774,7 +7131,7 @@
         <v>292</v>
       </c>
       <c r="J60" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>58</v>
       </c>
       <c r="K60" s="10">
@@ -6799,32 +7156,33 @@
         <v>438</v>
       </c>
       <c r="S60" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>58</v>
       </c>
       <c r="T60" s="10">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="U60" s="10">
-        <v>49</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="V60" s="10">
-        <v>105.86799999999999</v>
+        <v>64.343000000000004</v>
       </c>
       <c r="W60" s="10">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="X60" s="10">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="Y60" s="10">
         <v>10</v>
       </c>
       <c r="Z60" s="10">
-        <v>463</v>
+        <v>425</v>
       </c>
       <c r="AC60" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>58</v>
       </c>
       <c r="AD60" s="2">
@@ -6851,7 +7209,7 @@
     </row>
     <row r="61" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A61" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>59</v>
       </c>
       <c r="B61" s="8">
@@ -6876,7 +7234,7 @@
         <v>249</v>
       </c>
       <c r="J61" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>59</v>
       </c>
       <c r="K61" s="10">
@@ -6901,32 +7259,33 @@
         <v>447</v>
       </c>
       <c r="S61" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>59</v>
       </c>
       <c r="T61" s="10">
         <v>5</v>
       </c>
       <c r="U61" s="10">
-        <v>25</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="V61" s="10">
-        <v>53.259</v>
+        <v>113.057</v>
       </c>
       <c r="W61" s="10">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="X61" s="10">
-        <v>399</v>
+        <v>517</v>
       </c>
       <c r="Y61" s="10">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="Z61" s="10">
-        <v>409</v>
+        <v>537</v>
       </c>
       <c r="AC61" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>59</v>
       </c>
       <c r="AD61" s="2">
@@ -6953,7 +7312,7 @@
     </row>
     <row r="62" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A62" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="B62" s="8">
@@ -6978,7 +7337,7 @@
         <v>273</v>
       </c>
       <c r="J62" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="K62" s="10">
@@ -7003,32 +7362,33 @@
         <v>276</v>
       </c>
       <c r="S62" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="T62" s="10">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="U62" s="10">
-        <v>25</v>
+        <f t="shared" si="0"/>
+        <v>11</v>
       </c>
       <c r="V62" s="10">
-        <v>54.603999999999999</v>
+        <v>97.841999999999999</v>
       </c>
       <c r="W62" s="10">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="X62" s="10">
-        <v>328</v>
+        <v>541</v>
       </c>
       <c r="Y62" s="10">
         <v>10</v>
       </c>
       <c r="Z62" s="10">
-        <v>356</v>
+        <v>577</v>
       </c>
       <c r="AC62" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="AD62" s="2">
@@ -7055,7 +7415,7 @@
     </row>
     <row r="63" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A63" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>61</v>
       </c>
       <c r="B63" s="8">
@@ -7080,7 +7440,7 @@
         <v>253</v>
       </c>
       <c r="J63" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>61</v>
       </c>
       <c r="K63" s="10">
@@ -7105,32 +7465,33 @@
         <v>338</v>
       </c>
       <c r="S63" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>61</v>
       </c>
       <c r="T63" s="10">
+        <v>5</v>
+      </c>
+      <c r="U63" s="10">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="U63" s="10">
-        <v>20</v>
-      </c>
       <c r="V63" s="10">
-        <v>42.267000000000003</v>
+        <v>101.22499999999999</v>
       </c>
       <c r="W63" s="10">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="X63" s="10">
-        <v>368</v>
+        <v>500</v>
       </c>
       <c r="Y63" s="10">
         <v>10</v>
       </c>
       <c r="Z63" s="10">
-        <v>401</v>
+        <v>521</v>
       </c>
       <c r="AC63" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>61</v>
       </c>
       <c r="AD63" s="2">
@@ -7157,7 +7518,7 @@
     </row>
     <row r="64" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A64" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>62</v>
       </c>
       <c r="B64" s="8">
@@ -7182,7 +7543,7 @@
         <v>313</v>
       </c>
       <c r="J64" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>62</v>
       </c>
       <c r="K64" s="10">
@@ -7207,32 +7568,33 @@
         <v>464</v>
       </c>
       <c r="S64" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>62</v>
       </c>
       <c r="T64" s="10">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="U64" s="10">
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="V64" s="10">
-        <v>18.457000000000001</v>
+        <v>91.805999999999997</v>
       </c>
       <c r="W64" s="10">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="X64" s="10">
-        <v>273</v>
+        <v>725</v>
       </c>
       <c r="Y64" s="10">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="Z64" s="10">
-        <v>273</v>
+        <v>741</v>
       </c>
       <c r="AC64" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>62</v>
       </c>
       <c r="AD64" s="2">
@@ -7259,7 +7621,7 @@
     </row>
     <row r="65" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A65" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>63</v>
       </c>
       <c r="B65" s="8">
@@ -7284,7 +7646,7 @@
         <v>214</v>
       </c>
       <c r="J65" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>63</v>
       </c>
       <c r="K65" s="10">
@@ -7309,32 +7671,33 @@
         <v>339</v>
       </c>
       <c r="S65" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>63</v>
       </c>
       <c r="T65" s="10">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="U65" s="10">
-        <v>19</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="V65" s="10">
-        <v>40.381</v>
+        <v>147.226</v>
       </c>
       <c r="W65" s="10">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="X65" s="10">
-        <v>403</v>
+        <v>475</v>
       </c>
       <c r="Y65" s="10">
         <v>10</v>
       </c>
       <c r="Z65" s="10">
-        <v>449</v>
+        <v>498</v>
       </c>
       <c r="AC65" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>63</v>
       </c>
       <c r="AD65" s="2">
@@ -7361,7 +7724,7 @@
     </row>
     <row r="66" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A66" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>64</v>
       </c>
       <c r="B66" s="8">
@@ -7386,7 +7749,7 @@
         <v>303</v>
       </c>
       <c r="J66" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>64</v>
       </c>
       <c r="K66" s="10">
@@ -7411,32 +7774,33 @@
         <v>390</v>
       </c>
       <c r="S66" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>64</v>
       </c>
       <c r="T66" s="10">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="U66" s="10">
-        <v>15</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="V66" s="10">
-        <v>32.063000000000002</v>
+        <v>92.528999999999996</v>
       </c>
       <c r="W66" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="X66" s="10">
-        <v>284</v>
+        <v>710</v>
       </c>
       <c r="Y66" s="10">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="Z66" s="10">
-        <v>298</v>
+        <v>729</v>
       </c>
       <c r="AC66" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>64</v>
       </c>
       <c r="AD66" s="2">
@@ -7463,7 +7827,7 @@
     </row>
     <row r="67" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A67" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>65</v>
       </c>
       <c r="B67" s="8">
@@ -7488,7 +7852,7 @@
         <v>304</v>
       </c>
       <c r="J67" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>65</v>
       </c>
       <c r="K67" s="10">
@@ -7513,32 +7877,33 @@
         <v>410</v>
       </c>
       <c r="S67" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>65</v>
       </c>
       <c r="T67" s="10">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="U67" s="10">
-        <v>15</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="V67" s="10">
-        <v>32.030999999999999</v>
+        <v>254.58500000000001</v>
       </c>
       <c r="W67" s="10">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="X67" s="10">
-        <v>379</v>
+        <v>666</v>
       </c>
       <c r="Y67" s="10">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="Z67" s="10">
-        <v>422</v>
+        <v>684</v>
       </c>
       <c r="AC67" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>65</v>
       </c>
       <c r="AD67" s="2">
@@ -7565,7 +7930,7 @@
     </row>
     <row r="68" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A68" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>66</v>
       </c>
       <c r="B68" s="8">
@@ -7590,7 +7955,7 @@
         <v>313</v>
       </c>
       <c r="J68" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>66</v>
       </c>
       <c r="K68" s="10">
@@ -7615,32 +7980,33 @@
         <v>439</v>
       </c>
       <c r="S68" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>66</v>
       </c>
       <c r="T68" s="10">
         <v>1</v>
       </c>
       <c r="U68" s="10">
-        <v>12</v>
+        <f t="shared" ref="U68:U102" si="5">T68+1</f>
+        <v>2</v>
       </c>
       <c r="V68" s="10">
-        <v>24.719000000000001</v>
+        <v>43.509</v>
       </c>
       <c r="W68" s="10">
         <v>10</v>
       </c>
       <c r="X68" s="10">
-        <v>281</v>
+        <v>418</v>
       </c>
       <c r="Y68" s="10">
         <v>10</v>
       </c>
       <c r="Z68" s="10">
-        <v>281</v>
+        <v>418</v>
       </c>
       <c r="AC68" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>66</v>
       </c>
       <c r="AD68" s="2">
@@ -7667,7 +8033,7 @@
     </row>
     <row r="69" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A69" s="5">
-        <f t="shared" ref="A69:A102" si="4">A68+1</f>
+        <f t="shared" ref="A69:A102" si="6">A68+1</f>
         <v>67</v>
       </c>
       <c r="B69" s="8">
@@ -7692,7 +8058,7 @@
         <v>296</v>
       </c>
       <c r="J69" s="5">
-        <f t="shared" ref="J69:J102" si="5">J68+1</f>
+        <f t="shared" ref="J69:J102" si="7">J68+1</f>
         <v>67</v>
       </c>
       <c r="K69" s="10">
@@ -7717,32 +8083,33 @@
         <v>470</v>
       </c>
       <c r="S69" s="5">
-        <f t="shared" ref="S69:S102" si="6">S68+1</f>
+        <f t="shared" ref="S69:S102" si="8">S68+1</f>
         <v>67</v>
       </c>
       <c r="T69" s="10">
         <v>7</v>
       </c>
       <c r="U69" s="10">
-        <v>19</v>
+        <f t="shared" si="5"/>
+        <v>8</v>
       </c>
       <c r="V69" s="10">
-        <v>40.770000000000003</v>
+        <v>116.19799999999999</v>
       </c>
       <c r="W69" s="10">
         <v>16</v>
       </c>
       <c r="X69" s="10">
-        <v>334</v>
+        <v>610</v>
       </c>
       <c r="Y69" s="10">
         <v>10</v>
       </c>
       <c r="Z69" s="10">
-        <v>360</v>
+        <v>646</v>
       </c>
       <c r="AC69" s="5">
-        <f t="shared" ref="AC69:AC102" si="7">AC68+1</f>
+        <f t="shared" ref="AC69:AC102" si="9">AC68+1</f>
         <v>67</v>
       </c>
       <c r="AD69" s="2">
@@ -7769,7 +8136,7 @@
     </row>
     <row r="70" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A70" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>68</v>
       </c>
       <c r="B70" s="8">
@@ -7794,7 +8161,7 @@
         <v>295</v>
       </c>
       <c r="J70" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>68</v>
       </c>
       <c r="K70" s="10">
@@ -7819,32 +8186,33 @@
         <v>329</v>
       </c>
       <c r="S70" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>68</v>
       </c>
       <c r="T70" s="10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U70" s="10">
-        <v>17</v>
+        <f t="shared" si="5"/>
+        <v>8</v>
       </c>
       <c r="V70" s="10">
-        <v>36.487000000000002</v>
+        <v>141.048</v>
       </c>
       <c r="W70" s="10">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="X70" s="10">
-        <v>334</v>
+        <v>526</v>
       </c>
       <c r="Y70" s="10">
         <v>10</v>
       </c>
       <c r="Z70" s="10">
-        <v>363</v>
+        <v>556</v>
       </c>
       <c r="AC70" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>68</v>
       </c>
       <c r="AD70" s="2">
@@ -7871,7 +8239,7 @@
     </row>
     <row r="71" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A71" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>69</v>
       </c>
       <c r="B71" s="8">
@@ -7896,7 +8264,7 @@
         <v>313</v>
       </c>
       <c r="J71" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>69</v>
       </c>
       <c r="K71" s="10">
@@ -7921,32 +8289,33 @@
         <v>354</v>
       </c>
       <c r="S71" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>69</v>
       </c>
       <c r="T71" s="10">
         <v>7</v>
       </c>
       <c r="U71" s="10">
-        <v>46</v>
+        <f t="shared" si="5"/>
+        <v>8</v>
       </c>
       <c r="V71" s="10">
-        <v>102.086</v>
+        <v>251.864</v>
       </c>
       <c r="W71" s="10">
         <v>16</v>
       </c>
       <c r="X71" s="10">
-        <v>440</v>
+        <v>662</v>
       </c>
       <c r="Y71" s="10">
         <v>10</v>
       </c>
       <c r="Z71" s="10">
-        <v>478</v>
+        <v>700</v>
       </c>
       <c r="AC71" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>69</v>
       </c>
       <c r="AD71" s="2">
@@ -7973,7 +8342,7 @@
     </row>
     <row r="72" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A72" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>70</v>
       </c>
       <c r="B72" s="8">
@@ -7998,7 +8367,7 @@
         <v>312</v>
       </c>
       <c r="J72" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>70</v>
       </c>
       <c r="K72" s="10">
@@ -8023,32 +8392,33 @@
         <v>399</v>
       </c>
       <c r="S72" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>70</v>
       </c>
       <c r="T72" s="10">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U72" s="10">
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>7</v>
       </c>
       <c r="V72" s="10">
-        <v>42.84</v>
+        <v>135.505</v>
       </c>
       <c r="W72" s="10">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="X72" s="10">
-        <v>391</v>
+        <v>643</v>
       </c>
       <c r="Y72" s="10">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="Z72" s="10">
-        <v>430</v>
+        <v>656</v>
       </c>
       <c r="AC72" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>70</v>
       </c>
       <c r="AD72" s="2">
@@ -8075,7 +8445,7 @@
     </row>
     <row r="73" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A73" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>71</v>
       </c>
       <c r="B73" s="8">
@@ -8100,7 +8470,7 @@
         <v>274</v>
       </c>
       <c r="J73" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>71</v>
       </c>
       <c r="K73" s="10">
@@ -8125,32 +8495,33 @@
         <v>366</v>
       </c>
       <c r="S73" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>71</v>
       </c>
       <c r="T73" s="10">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="U73" s="10">
-        <v>22</v>
+        <f t="shared" si="5"/>
+        <v>3</v>
       </c>
       <c r="V73" s="10">
-        <v>46.235999999999997</v>
+        <v>80.555999999999997</v>
       </c>
       <c r="W73" s="10">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="X73" s="10">
-        <v>310</v>
+        <v>400</v>
       </c>
       <c r="Y73" s="10">
         <v>10</v>
       </c>
       <c r="Z73" s="10">
-        <v>338</v>
+        <v>404</v>
       </c>
       <c r="AC73" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>71</v>
       </c>
       <c r="AD73" s="2">
@@ -8177,7 +8548,7 @@
     </row>
     <row r="74" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A74" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>72</v>
       </c>
       <c r="B74" s="8">
@@ -8202,7 +8573,7 @@
         <v>307</v>
       </c>
       <c r="J74" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>72</v>
       </c>
       <c r="K74" s="10">
@@ -8227,32 +8598,33 @@
         <v>453</v>
       </c>
       <c r="S74" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>72</v>
       </c>
       <c r="T74" s="10">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="U74" s="10">
-        <v>17</v>
+        <f t="shared" si="5"/>
+        <v>6</v>
       </c>
       <c r="V74" s="10">
-        <v>35.140999999999998</v>
+        <v>151.40799999999999</v>
       </c>
       <c r="W74" s="10">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="X74" s="10">
-        <v>377</v>
+        <v>519</v>
       </c>
       <c r="Y74" s="10">
         <v>10</v>
       </c>
       <c r="Z74" s="10">
-        <v>414</v>
+        <v>539</v>
       </c>
       <c r="AC74" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>72</v>
       </c>
       <c r="AD74" s="2">
@@ -8279,7 +8651,7 @@
     </row>
     <row r="75" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A75" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>73</v>
       </c>
       <c r="B75" s="8">
@@ -8304,7 +8676,7 @@
         <v>336</v>
       </c>
       <c r="J75" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>73</v>
       </c>
       <c r="K75" s="10">
@@ -8329,32 +8701,33 @@
         <v>403</v>
       </c>
       <c r="S75" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>73</v>
       </c>
       <c r="T75" s="10">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="U75" s="10">
-        <v>19</v>
+        <f t="shared" si="5"/>
+        <v>9</v>
       </c>
       <c r="V75" s="10">
-        <v>40.539000000000001</v>
+        <v>116.26900000000001</v>
       </c>
       <c r="W75" s="10">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X75" s="10">
-        <v>366</v>
+        <v>488</v>
       </c>
       <c r="Y75" s="10">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="Z75" s="10">
-        <v>376</v>
+        <v>516</v>
       </c>
       <c r="AC75" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>73</v>
       </c>
       <c r="AD75" s="2">
@@ -8381,7 +8754,7 @@
     </row>
     <row r="76" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A76" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>74</v>
       </c>
       <c r="B76" s="8">
@@ -8406,7 +8779,7 @@
         <v>224</v>
       </c>
       <c r="J76" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>74</v>
       </c>
       <c r="K76" s="10">
@@ -8431,32 +8804,33 @@
         <v>446</v>
       </c>
       <c r="S76" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>74</v>
       </c>
       <c r="T76" s="10">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="U76" s="10">
-        <v>29</v>
+        <f t="shared" si="5"/>
+        <v>2</v>
       </c>
       <c r="V76" s="10">
-        <v>63.082000000000001</v>
+        <v>221.43199999999999</v>
       </c>
       <c r="W76" s="10">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="X76" s="10">
-        <v>432</v>
+        <v>765</v>
       </c>
       <c r="Y76" s="10">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="Z76" s="10">
-        <v>447</v>
+        <v>765</v>
       </c>
       <c r="AC76" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>74</v>
       </c>
       <c r="AD76" s="2">
@@ -8483,7 +8857,7 @@
     </row>
     <row r="77" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A77" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>75</v>
       </c>
       <c r="B77" s="8">
@@ -8508,7 +8882,7 @@
         <v>255</v>
       </c>
       <c r="J77" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>75</v>
       </c>
       <c r="K77" s="10">
@@ -8533,32 +8907,33 @@
         <v>451</v>
       </c>
       <c r="S77" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>75</v>
       </c>
       <c r="T77" s="10">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="U77" s="10">
-        <v>14</v>
+        <f t="shared" si="5"/>
+        <v>8</v>
       </c>
       <c r="V77" s="10">
-        <v>29.547000000000001</v>
+        <v>136.65199999999999</v>
       </c>
       <c r="W77" s="10">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="X77" s="10">
-        <v>293</v>
+        <v>642</v>
       </c>
       <c r="Y77" s="10">
         <v>10</v>
       </c>
       <c r="Z77" s="10">
-        <v>307</v>
+        <v>682</v>
       </c>
       <c r="AC77" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>75</v>
       </c>
       <c r="AD77" s="2">
@@ -8585,7 +8960,7 @@
     </row>
     <row r="78" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A78" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>76</v>
       </c>
       <c r="B78" s="8">
@@ -8610,7 +8985,7 @@
         <v>304</v>
       </c>
       <c r="J78" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>76</v>
       </c>
       <c r="K78" s="10">
@@ -8635,32 +9010,33 @@
         <v>390</v>
       </c>
       <c r="S78" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>76</v>
       </c>
       <c r="T78" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U78" s="10">
-        <v>16</v>
+        <f t="shared" si="5"/>
+        <v>6</v>
       </c>
       <c r="V78" s="10">
-        <v>33.972000000000001</v>
+        <v>352.33300000000003</v>
       </c>
       <c r="W78" s="10">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="X78" s="10">
-        <v>299</v>
+        <v>808</v>
       </c>
       <c r="Y78" s="10">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="Z78" s="10">
-        <v>310</v>
+        <v>824</v>
       </c>
       <c r="AC78" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>76</v>
       </c>
       <c r="AD78" s="2">
@@ -8687,7 +9063,7 @@
     </row>
     <row r="79" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A79" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>77</v>
       </c>
       <c r="B79" s="8">
@@ -8712,7 +9088,7 @@
         <v>313</v>
       </c>
       <c r="J79" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>77</v>
       </c>
       <c r="K79" s="10">
@@ -8737,32 +9113,33 @@
         <v>305</v>
       </c>
       <c r="S79" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>77</v>
       </c>
       <c r="T79" s="10">
+        <v>6</v>
+      </c>
+      <c r="U79" s="10">
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="U79" s="10">
-        <v>23</v>
-      </c>
       <c r="V79" s="10">
-        <v>47.780999999999999</v>
+        <v>178.11099999999999</v>
       </c>
       <c r="W79" s="10">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="X79" s="10">
-        <v>315</v>
+        <v>547</v>
       </c>
       <c r="Y79" s="10">
         <v>10</v>
       </c>
       <c r="Z79" s="10">
-        <v>338</v>
+        <v>576</v>
       </c>
       <c r="AC79" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>77</v>
       </c>
       <c r="AD79" s="2">
@@ -8789,7 +9166,7 @@
     </row>
     <row r="80" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A80" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>78</v>
       </c>
       <c r="B80" s="8">
@@ -8814,7 +9191,7 @@
         <v>282</v>
       </c>
       <c r="J80" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>78</v>
       </c>
       <c r="K80" s="10">
@@ -8839,32 +9216,33 @@
         <v>430</v>
       </c>
       <c r="S80" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>78</v>
       </c>
       <c r="T80" s="10">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="U80" s="10">
-        <v>15</v>
+        <f t="shared" si="5"/>
+        <v>8</v>
       </c>
       <c r="V80" s="10">
-        <v>32.229999999999997</v>
+        <v>114.57599999999999</v>
       </c>
       <c r="W80" s="10">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="X80" s="10">
-        <v>320</v>
+        <v>533</v>
       </c>
       <c r="Y80" s="10">
         <v>10</v>
       </c>
       <c r="Z80" s="10">
-        <v>345</v>
+        <v>557</v>
       </c>
       <c r="AC80" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>78</v>
       </c>
       <c r="AD80" s="2">
@@ -8891,7 +9269,7 @@
     </row>
     <row r="81" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A81" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>79</v>
       </c>
       <c r="B81" s="8">
@@ -8916,7 +9294,7 @@
         <v>290</v>
       </c>
       <c r="J81" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>79</v>
       </c>
       <c r="K81" s="10">
@@ -8941,32 +9319,33 @@
         <v>460</v>
       </c>
       <c r="S81" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>79</v>
       </c>
       <c r="T81" s="10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U81" s="10">
-        <v>19</v>
+        <f t="shared" si="5"/>
+        <v>3</v>
       </c>
       <c r="V81" s="10">
-        <v>40.558</v>
+        <v>69.144000000000005</v>
       </c>
       <c r="W81" s="10">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="X81" s="10">
-        <v>303</v>
+        <v>409</v>
       </c>
       <c r="Y81" s="10">
         <v>10</v>
       </c>
       <c r="Z81" s="10">
-        <v>316</v>
+        <v>410</v>
       </c>
       <c r="AC81" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>79</v>
       </c>
       <c r="AD81" s="2">
@@ -8993,7 +9372,7 @@
     </row>
     <row r="82" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A82" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>80</v>
       </c>
       <c r="B82" s="8">
@@ -9018,7 +9397,7 @@
         <v>291</v>
       </c>
       <c r="J82" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>80</v>
       </c>
       <c r="K82" s="10">
@@ -9043,32 +9422,33 @@
         <v>376</v>
       </c>
       <c r="S82" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>80</v>
       </c>
       <c r="T82" s="10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U82" s="10">
-        <v>34</v>
+        <f t="shared" si="5"/>
+        <v>3</v>
       </c>
       <c r="V82" s="10">
-        <v>75.534000000000006</v>
+        <v>65.073999999999998</v>
       </c>
       <c r="W82" s="10">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="X82" s="10">
-        <v>462</v>
+        <v>423</v>
       </c>
       <c r="Y82" s="10">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="Z82" s="10">
-        <v>474</v>
+        <v>426</v>
       </c>
       <c r="AC82" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>80</v>
       </c>
       <c r="AD82" s="2">
@@ -9095,7 +9475,7 @@
     </row>
     <row r="83" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A83" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>81</v>
       </c>
       <c r="B83" s="8">
@@ -9120,7 +9500,7 @@
         <v>296</v>
       </c>
       <c r="J83" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>81</v>
       </c>
       <c r="K83" s="10">
@@ -9145,32 +9525,33 @@
         <v>516</v>
       </c>
       <c r="S83" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>81</v>
       </c>
       <c r="T83" s="10">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="U83" s="10">
-        <v>25</v>
+        <f t="shared" si="5"/>
+        <v>6</v>
       </c>
       <c r="V83" s="10">
-        <v>51.570999999999998</v>
+        <v>120.392</v>
       </c>
       <c r="W83" s="10">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="X83" s="10">
-        <v>340</v>
+        <v>461</v>
       </c>
       <c r="Y83" s="10">
         <v>10</v>
       </c>
       <c r="Z83" s="10">
-        <v>373</v>
+        <v>479</v>
       </c>
       <c r="AC83" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>81</v>
       </c>
       <c r="AD83" s="2">
@@ -9197,7 +9578,7 @@
     </row>
     <row r="84" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A84" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>82</v>
       </c>
       <c r="B84" s="8">
@@ -9222,7 +9603,7 @@
         <v>200</v>
       </c>
       <c r="J84" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>82</v>
       </c>
       <c r="K84" s="10">
@@ -9247,32 +9628,33 @@
         <v>476</v>
       </c>
       <c r="S84" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>82</v>
       </c>
       <c r="T84" s="10">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="U84" s="10">
-        <v>25</v>
+        <f t="shared" si="5"/>
+        <v>7</v>
       </c>
       <c r="V84" s="10">
-        <v>54.34</v>
+        <v>112.902</v>
       </c>
       <c r="W84" s="10">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="X84" s="10">
-        <v>356</v>
+        <v>550</v>
       </c>
       <c r="Y84" s="10">
         <v>10</v>
       </c>
       <c r="Z84" s="10">
-        <v>393</v>
+        <v>576</v>
       </c>
       <c r="AC84" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>82</v>
       </c>
       <c r="AD84" s="2">
@@ -9299,7 +9681,7 @@
     </row>
     <row r="85" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A85" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>83</v>
       </c>
       <c r="B85" s="8">
@@ -9324,7 +9706,7 @@
         <v>187</v>
       </c>
       <c r="J85" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>83</v>
       </c>
       <c r="K85" s="10">
@@ -9349,32 +9731,33 @@
         <v>460</v>
       </c>
       <c r="S85" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>83</v>
       </c>
       <c r="T85" s="10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U85" s="10">
-        <v>16</v>
+        <f t="shared" si="5"/>
+        <v>9</v>
       </c>
       <c r="V85" s="10">
-        <v>34.637999999999998</v>
+        <v>135.39699999999999</v>
       </c>
       <c r="W85" s="10">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="X85" s="10">
-        <v>337</v>
+        <v>554</v>
       </c>
       <c r="Y85" s="10">
         <v>10</v>
       </c>
       <c r="Z85" s="10">
-        <v>365</v>
+        <v>589</v>
       </c>
       <c r="AC85" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>83</v>
       </c>
       <c r="AD85" s="2">
@@ -9401,7 +9784,7 @@
     </row>
     <row r="86" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A86" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>84</v>
       </c>
       <c r="B86" s="8">
@@ -9426,7 +9809,7 @@
         <v>288</v>
       </c>
       <c r="J86" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>84</v>
       </c>
       <c r="K86" s="10">
@@ -9451,32 +9834,33 @@
         <v>406</v>
       </c>
       <c r="S86" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>84</v>
       </c>
       <c r="T86" s="10">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="U86" s="10">
-        <v>17</v>
+        <f t="shared" si="5"/>
+        <v>8</v>
       </c>
       <c r="V86" s="10">
-        <v>35.89</v>
+        <v>189.28200000000001</v>
       </c>
       <c r="W86" s="10">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="X86" s="10">
-        <v>308</v>
+        <v>590</v>
       </c>
       <c r="Y86" s="10">
         <v>10</v>
       </c>
       <c r="Z86" s="10">
-        <v>324</v>
+        <v>626</v>
       </c>
       <c r="AC86" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>84</v>
       </c>
       <c r="AD86" s="2">
@@ -9503,7 +9887,7 @@
     </row>
     <row r="87" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A87" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>85</v>
       </c>
       <c r="B87" s="8">
@@ -9528,7 +9912,7 @@
         <v>183</v>
       </c>
       <c r="J87" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>85</v>
       </c>
       <c r="K87" s="10">
@@ -9553,32 +9937,33 @@
         <v>380</v>
       </c>
       <c r="S87" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>85</v>
       </c>
       <c r="T87" s="10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="U87" s="10">
-        <v>21</v>
+        <f t="shared" si="5"/>
+        <v>3</v>
       </c>
       <c r="V87" s="10">
-        <v>45.552999999999997</v>
+        <v>65.573999999999998</v>
       </c>
       <c r="W87" s="10">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="X87" s="10">
-        <v>413</v>
+        <v>361</v>
       </c>
       <c r="Y87" s="10">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="Z87" s="10">
-        <v>425</v>
+        <v>362</v>
       </c>
       <c r="AC87" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>85</v>
       </c>
       <c r="AD87" s="2">
@@ -9605,7 +9990,7 @@
     </row>
     <row r="88" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A88" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>86</v>
       </c>
       <c r="B88" s="8">
@@ -9630,7 +10015,7 @@
         <v>301</v>
       </c>
       <c r="J88" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>86</v>
       </c>
       <c r="K88" s="10">
@@ -9655,32 +10040,33 @@
         <v>333</v>
       </c>
       <c r="S88" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>86</v>
       </c>
       <c r="T88" s="10">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="U88" s="10">
-        <v>16</v>
+        <f t="shared" si="5"/>
+        <v>9</v>
       </c>
       <c r="V88" s="10">
-        <v>33.829000000000001</v>
+        <v>117.376</v>
       </c>
       <c r="W88" s="10">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X88" s="10">
-        <v>374</v>
+        <v>483</v>
       </c>
       <c r="Y88" s="10">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="Z88" s="10">
-        <v>382</v>
+        <v>509</v>
       </c>
       <c r="AC88" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>86</v>
       </c>
       <c r="AD88" s="2">
@@ -9707,7 +10093,7 @@
     </row>
     <row r="89" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A89" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>87</v>
       </c>
       <c r="B89" s="8">
@@ -9732,7 +10118,7 @@
         <v>277</v>
       </c>
       <c r="J89" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>87</v>
       </c>
       <c r="K89" s="10">
@@ -9757,32 +10143,33 @@
         <v>425</v>
       </c>
       <c r="S89" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>87</v>
       </c>
       <c r="T89" s="10">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="U89" s="10">
-        <v>14</v>
+        <f t="shared" si="5"/>
+        <v>5</v>
       </c>
       <c r="V89" s="10">
-        <v>29.466999999999999</v>
+        <v>87.397999999999996</v>
       </c>
       <c r="W89" s="10">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="X89" s="10">
-        <v>363</v>
+        <v>487</v>
       </c>
       <c r="Y89" s="10">
         <v>10</v>
       </c>
       <c r="Z89" s="10">
-        <v>394</v>
+        <v>501</v>
       </c>
       <c r="AC89" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>87</v>
       </c>
       <c r="AD89" s="2">
@@ -9809,7 +10196,7 @@
     </row>
     <row r="90" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A90" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>88</v>
       </c>
       <c r="B90" s="8">
@@ -9834,7 +10221,7 @@
         <v>217</v>
       </c>
       <c r="J90" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>88</v>
       </c>
       <c r="K90" s="10">
@@ -9859,32 +10246,33 @@
         <v>372</v>
       </c>
       <c r="S90" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>88</v>
       </c>
       <c r="T90" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U90" s="10">
-        <v>15</v>
+        <f t="shared" si="5"/>
+        <v>5</v>
       </c>
       <c r="V90" s="10">
-        <v>30.501000000000001</v>
+        <v>59.731000000000002</v>
       </c>
       <c r="W90" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="X90" s="10">
-        <v>355</v>
+        <v>384</v>
       </c>
       <c r="Y90" s="10">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="Z90" s="10">
-        <v>361</v>
+        <v>391</v>
       </c>
       <c r="AC90" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>88</v>
       </c>
       <c r="AD90" s="2">
@@ -9911,7 +10299,7 @@
     </row>
     <row r="91" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A91" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>89</v>
       </c>
       <c r="B91" s="8">
@@ -9936,7 +10324,7 @@
         <v>186</v>
       </c>
       <c r="J91" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>89</v>
       </c>
       <c r="K91" s="10">
@@ -9961,32 +10349,33 @@
         <v>394</v>
       </c>
       <c r="S91" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>89</v>
       </c>
       <c r="T91" s="10">
+        <v>2</v>
+      </c>
+      <c r="U91" s="10">
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="U91" s="10">
+      <c r="V91" s="10">
+        <v>54.881</v>
+      </c>
+      <c r="W91" s="10">
         <v>11</v>
       </c>
-      <c r="V91" s="10">
-        <v>22.73</v>
-      </c>
-      <c r="W91" s="10">
-        <v>12</v>
-      </c>
       <c r="X91" s="10">
-        <v>296</v>
+        <v>413</v>
       </c>
       <c r="Y91" s="10">
         <v>10</v>
       </c>
       <c r="Z91" s="10">
-        <v>308</v>
+        <v>417</v>
       </c>
       <c r="AC91" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>89</v>
       </c>
       <c r="AD91" s="2">
@@ -10013,7 +10402,7 @@
     </row>
     <row r="92" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A92" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>90</v>
       </c>
       <c r="B92" s="8">
@@ -10038,7 +10427,7 @@
         <v>313</v>
       </c>
       <c r="J92" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>90</v>
       </c>
       <c r="K92" s="10">
@@ -10063,32 +10452,33 @@
         <v>443</v>
       </c>
       <c r="S92" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>90</v>
       </c>
       <c r="T92" s="10">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="U92" s="10">
-        <v>15</v>
+        <f t="shared" si="5"/>
+        <v>10</v>
       </c>
       <c r="V92" s="10">
-        <v>31.213999999999999</v>
+        <v>145.51</v>
       </c>
       <c r="W92" s="10">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="X92" s="10">
-        <v>338</v>
+        <v>532</v>
       </c>
       <c r="Y92" s="10">
         <v>10</v>
       </c>
       <c r="Z92" s="10">
-        <v>365</v>
+        <v>562</v>
       </c>
       <c r="AC92" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>90</v>
       </c>
       <c r="AD92" s="2">
@@ -10115,7 +10505,7 @@
     </row>
     <row r="93" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A93" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>91</v>
       </c>
       <c r="B93" s="8">
@@ -10140,7 +10530,7 @@
         <v>336</v>
       </c>
       <c r="J93" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>91</v>
       </c>
       <c r="K93" s="10">
@@ -10165,32 +10555,33 @@
         <v>391</v>
       </c>
       <c r="S93" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>91</v>
       </c>
       <c r="T93" s="10">
+        <v>5</v>
+      </c>
+      <c r="U93" s="10">
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="U93" s="10">
-        <v>21</v>
-      </c>
       <c r="V93" s="10">
-        <v>44.656999999999996</v>
+        <v>74.823999999999998</v>
       </c>
       <c r="W93" s="10">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="X93" s="10">
-        <v>342</v>
+        <v>487</v>
       </c>
       <c r="Y93" s="10">
         <v>10</v>
       </c>
       <c r="Z93" s="10">
-        <v>374</v>
+        <v>505</v>
       </c>
       <c r="AC93" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>91</v>
       </c>
       <c r="AD93" s="2">
@@ -10217,7 +10608,7 @@
     </row>
     <row r="94" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A94" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>92</v>
       </c>
       <c r="B94" s="8">
@@ -10242,7 +10633,7 @@
         <v>322</v>
       </c>
       <c r="J94" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>92</v>
       </c>
       <c r="K94" s="10">
@@ -10267,32 +10658,33 @@
         <v>435</v>
       </c>
       <c r="S94" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>92</v>
       </c>
       <c r="T94" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="U94" s="10">
-        <v>33</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="V94" s="10">
-        <v>76.212000000000003</v>
+        <v>93.522000000000006</v>
       </c>
       <c r="W94" s="10">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="X94" s="10">
+        <v>433</v>
+      </c>
+      <c r="Y94" s="10">
+        <v>10</v>
+      </c>
+      <c r="Z94" s="10">
         <v>439</v>
       </c>
-      <c r="Y94" s="10">
-        <v>16</v>
-      </c>
-      <c r="Z94" s="10">
-        <v>453</v>
-      </c>
       <c r="AC94" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>92</v>
       </c>
       <c r="AD94" s="2">
@@ -10319,7 +10711,7 @@
     </row>
     <row r="95" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A95" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>93</v>
       </c>
       <c r="B95" s="8">
@@ -10344,7 +10736,7 @@
         <v>312</v>
       </c>
       <c r="J95" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>93</v>
       </c>
       <c r="K95" s="10">
@@ -10369,32 +10761,33 @@
         <v>426</v>
       </c>
       <c r="S95" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>93</v>
       </c>
       <c r="T95" s="10">
         <v>7</v>
       </c>
       <c r="U95" s="10">
-        <v>45</v>
+        <f t="shared" si="5"/>
+        <v>8</v>
       </c>
       <c r="V95" s="10">
-        <v>100.879</v>
+        <v>153.11000000000001</v>
       </c>
       <c r="W95" s="10">
         <v>16</v>
       </c>
       <c r="X95" s="10">
-        <v>437</v>
+        <v>588</v>
       </c>
       <c r="Y95" s="10">
         <v>10</v>
       </c>
       <c r="Z95" s="10">
-        <v>475</v>
+        <v>619</v>
       </c>
       <c r="AC95" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>93</v>
       </c>
       <c r="AD95" s="2">
@@ -10421,7 +10814,7 @@
     </row>
     <row r="96" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A96" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>94</v>
       </c>
       <c r="B96" s="8">
@@ -10446,7 +10839,7 @@
         <v>318</v>
       </c>
       <c r="J96" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>94</v>
       </c>
       <c r="K96" s="10">
@@ -10471,32 +10864,33 @@
         <v>438</v>
       </c>
       <c r="S96" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>94</v>
       </c>
       <c r="T96" s="10">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="U96" s="10">
-        <v>21</v>
+        <f t="shared" si="5"/>
+        <v>6</v>
       </c>
       <c r="V96" s="10">
-        <v>45.838999999999999</v>
+        <v>107.40300000000001</v>
       </c>
       <c r="W96" s="10">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="X96" s="10">
-        <v>375</v>
+        <v>666</v>
       </c>
       <c r="Y96" s="10">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="Z96" s="10">
-        <v>412</v>
+        <v>678</v>
       </c>
       <c r="AC96" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>94</v>
       </c>
       <c r="AD96" s="2">
@@ -10523,7 +10917,7 @@
     </row>
     <row r="97" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A97" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>95</v>
       </c>
       <c r="B97" s="8">
@@ -10548,7 +10942,7 @@
         <v>305</v>
       </c>
       <c r="J97" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>95</v>
       </c>
       <c r="K97" s="10">
@@ -10573,32 +10967,33 @@
         <v>340</v>
       </c>
       <c r="S97" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>95</v>
       </c>
       <c r="T97" s="10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="U97" s="10">
-        <v>25</v>
+        <f t="shared" si="5"/>
+        <v>3</v>
       </c>
       <c r="V97" s="10">
-        <v>52.856000000000002</v>
+        <v>54.957999999999998</v>
       </c>
       <c r="W97" s="10">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="X97" s="10">
-        <v>464</v>
+        <v>430</v>
       </c>
       <c r="Y97" s="10">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="Z97" s="10">
-        <v>481</v>
+        <v>434</v>
       </c>
       <c r="AC97" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>95</v>
       </c>
       <c r="AD97" s="2">
@@ -10625,7 +11020,7 @@
     </row>
     <row r="98" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A98" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>96</v>
       </c>
       <c r="B98" s="8">
@@ -10650,7 +11045,7 @@
         <v>302</v>
       </c>
       <c r="J98" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>96</v>
       </c>
       <c r="K98" s="10">
@@ -10675,32 +11070,33 @@
         <v>425</v>
       </c>
       <c r="S98" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>96</v>
       </c>
       <c r="T98" s="10">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="U98" s="10">
-        <v>33</v>
+        <f t="shared" si="5"/>
+        <v>2</v>
       </c>
       <c r="V98" s="10">
-        <v>71.087999999999994</v>
+        <v>46.33</v>
       </c>
       <c r="W98" s="10">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="X98" s="10">
-        <v>353</v>
+        <v>407</v>
       </c>
       <c r="Y98" s="10">
         <v>10</v>
       </c>
       <c r="Z98" s="10">
-        <v>390</v>
+        <v>407</v>
       </c>
       <c r="AC98" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>96</v>
       </c>
       <c r="AD98" s="2">
@@ -10727,7 +11123,7 @@
     </row>
     <row r="99" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A99" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>97</v>
       </c>
       <c r="B99" s="8">
@@ -10752,7 +11148,7 @@
         <v>313</v>
       </c>
       <c r="J99" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>97</v>
       </c>
       <c r="K99" s="10">
@@ -10777,32 +11173,33 @@
         <v>489</v>
       </c>
       <c r="S99" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>97</v>
       </c>
       <c r="T99" s="10">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="U99" s="10">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="V99" s="10">
+        <v>189.71</v>
+      </c>
+      <c r="W99" s="10">
         <v>15</v>
       </c>
-      <c r="V99" s="10">
-        <v>31.602</v>
-      </c>
-      <c r="W99" s="10">
-        <v>19</v>
-      </c>
       <c r="X99" s="10">
-        <v>426</v>
+        <v>558</v>
       </c>
       <c r="Y99" s="10">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="Z99" s="10">
-        <v>437</v>
+        <v>587</v>
       </c>
       <c r="AC99" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>97</v>
       </c>
       <c r="AD99" s="2">
@@ -10829,7 +11226,7 @@
     </row>
     <row r="100" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A100" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>98</v>
       </c>
       <c r="B100" s="8">
@@ -10854,7 +11251,7 @@
         <v>233</v>
       </c>
       <c r="J100" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>98</v>
       </c>
       <c r="K100" s="10">
@@ -10879,32 +11276,33 @@
         <v>428</v>
       </c>
       <c r="S100" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>98</v>
       </c>
       <c r="T100" s="10">
         <v>5</v>
       </c>
       <c r="U100" s="10">
-        <v>19</v>
+        <f t="shared" si="5"/>
+        <v>6</v>
       </c>
       <c r="V100" s="10">
-        <v>41.140999999999998</v>
+        <v>129.84100000000001</v>
       </c>
       <c r="W100" s="10">
         <v>20</v>
       </c>
       <c r="X100" s="10">
-        <v>460</v>
+        <v>755</v>
       </c>
       <c r="Y100" s="10">
         <v>16</v>
       </c>
       <c r="Z100" s="10">
-        <v>477</v>
+        <v>774</v>
       </c>
       <c r="AC100" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>98</v>
       </c>
       <c r="AD100" s="2">
@@ -10931,7 +11329,7 @@
     </row>
     <row r="101" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A101" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>99</v>
       </c>
       <c r="B101" s="8">
@@ -10956,7 +11354,7 @@
         <v>257</v>
       </c>
       <c r="J101" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>99</v>
       </c>
       <c r="K101" s="10">
@@ -10981,32 +11379,33 @@
         <v>416</v>
       </c>
       <c r="S101" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>99</v>
       </c>
       <c r="T101" s="10">
         <v>6</v>
       </c>
       <c r="U101" s="10">
-        <v>14</v>
+        <f t="shared" si="5"/>
+        <v>7</v>
       </c>
       <c r="V101" s="10">
-        <v>30.085000000000001</v>
+        <v>133.76400000000001</v>
       </c>
       <c r="W101" s="10">
         <v>15</v>
       </c>
       <c r="X101" s="10">
-        <v>312</v>
+        <v>491</v>
       </c>
       <c r="Y101" s="10">
         <v>10</v>
       </c>
       <c r="Z101" s="10">
-        <v>332</v>
+        <v>514</v>
       </c>
       <c r="AC101" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>99</v>
       </c>
       <c r="AD101" s="2">
@@ -11033,7 +11432,7 @@
     </row>
     <row r="102" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A102" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="B102" s="8">
@@ -11058,7 +11457,7 @@
         <v>300</v>
       </c>
       <c r="J102" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
       <c r="K102" s="10">
@@ -11083,32 +11482,33 @@
         <v>341</v>
       </c>
       <c r="S102" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>100</v>
       </c>
       <c r="T102" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U102" s="10">
-        <v>18</v>
+        <f t="shared" si="5"/>
+        <v>6</v>
       </c>
       <c r="V102" s="10">
-        <v>38.176000000000002</v>
+        <v>76.676000000000002</v>
       </c>
       <c r="W102" s="10">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="X102" s="10">
-        <v>396</v>
+        <v>451</v>
       </c>
       <c r="Y102" s="10">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="Z102" s="10">
-        <v>405</v>
+        <v>468</v>
       </c>
       <c r="AC102" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
       <c r="AD102" s="2">
@@ -11185,7 +11585,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="71" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="X18" sqref="X18"/>
+      <selection activeCell="X14" sqref="X14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
